--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="1078">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">7.22734117507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780729293823</t>
+    <t xml:space="preserve">7.12616729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179599761963</t>
@@ -68,40 +68,40 @@
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68628072738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425813674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636568069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4223484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833036422729</t>
+    <t xml:space="preserve">6.68627977371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425765991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42234754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">6.47073554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50592613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398897171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2287974357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912307739258</t>
+    <t xml:space="preserve">6.50592565536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912355422974</t>
   </si>
   <si>
     <t xml:space="preserve">6.60710048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43994379043579</t>
+    <t xml:space="preserve">6.43994426727295</t>
   </si>
   <si>
     <t xml:space="preserve">6.57190942764282</t>
@@ -113,85 +113,85 @@
     <t xml:space="preserve">6.71267366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86223459243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8534369468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338094711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622329711914</t>
+    <t xml:space="preserve">6.86223554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07338047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90622425079346</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376306533813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94581317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939081192017</t>
+    <t xml:space="preserve">6.94581365585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939176559448</t>
   </si>
   <si>
     <t xml:space="preserve">7.15256023406982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79625129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302682876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906660079956</t>
+    <t xml:space="preserve">6.79625177383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7390661239624</t>
   </si>
   <si>
     <t xml:space="preserve">6.63349390029907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69067907333374</t>
+    <t xml:space="preserve">6.6906795501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84463977813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783672332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666236877441</t>
+    <t xml:space="preserve">6.84464025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103223800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783720016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.87983083724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701553344727</t>
+    <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
     <t xml:space="preserve">6.97660541534424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73466873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352142333984</t>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352285385132</t>
   </si>
   <si>
     <t xml:space="preserve">6.49712896347046</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">6.79185342788696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94141435623169</t>
+    <t xml:space="preserve">6.94141483306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.91502141952515</t>
@@ -212,40 +212,40 @@
     <t xml:space="preserve">6.91941976547241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80944919586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630825042725</t>
+    <t xml:space="preserve">6.80944776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
     <t xml:space="preserve">6.43114614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62469720840454</t>
+    <t xml:space="preserve">6.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.73026895523071</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83144330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381858825684</t>
+    <t xml:space="preserve">6.83144235610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
     <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00450134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343488693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642877578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429634094238</t>
+    <t xml:space="preserve">7.0045018196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9464282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654516220093</t>
@@ -254,70 +254,70 @@
     <t xml:space="preserve">7.2903995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695421218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334817886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908473968506</t>
+    <t xml:space="preserve">7.48695373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482273101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609323501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908569335938</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425346374512</t>
+    <t xml:space="preserve">7.45121717453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724496841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425298690796</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27253007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178548812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817993164062</t>
+    <t xml:space="preserve">7.27253103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781423568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285194396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178644180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818040847778</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68350982666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187314987183</t>
+    <t xml:space="preserve">7.68350839614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187362670898</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810737609863</t>
@@ -326,31 +326,31 @@
     <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62096977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974309921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629728317261</t>
+    <t xml:space="preserve">7.62096786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
     <t xml:space="preserve">7.49142169952393</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44228267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203527450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248720169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146409988403</t>
+    <t xml:space="preserve">7.44228315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4824857711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
     <t xml:space="preserve">7.05363988876343</t>
@@ -359,37 +359,37 @@
     <t xml:space="preserve">6.86155223846436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81688022613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162574768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523082733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015119552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761066436768</t>
+    <t xml:space="preserve">6.81688117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150888442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162527084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5852313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269124984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207815170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761018753052</t>
   </si>
   <si>
     <t xml:space="preserve">7.46461772918701</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">7.3440055847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31720113754272</t>
+    <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785949707031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09384393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
+    <t xml:space="preserve">7.09384441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790237426758</t>
@@ -422,37 +422,37 @@
     <t xml:space="preserve">6.95089530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9196252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474826812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794620513916</t>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962480545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474969863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80794668197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540662765503</t>
+    <t xml:space="preserve">6.74540615081787</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044242858887</t>
+    <t xml:space="preserve">6.96876382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728879928589</t>
+    <t xml:space="preserve">6.89728927612305</t>
   </si>
   <si>
     <t xml:space="preserve">6.92409229278564</t>
@@ -461,28 +461,28 @@
     <t xml:space="preserve">6.98663282394409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04023838043213</t>
+    <t xml:space="preserve">7.04023885726929</t>
   </si>
   <si>
     <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769832611084</t>
+    <t xml:space="preserve">6.97769737243652</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003385543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1340479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241321563721</t>
+    <t xml:space="preserve">7.00003433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917287826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241273880005</t>
   </si>
   <si>
     <t xml:space="preserve">6.8392162322998</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">6.70966863632202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44163942337036</t>
+    <t xml:space="preserve">6.4416389465332</t>
   </si>
   <si>
     <t xml:space="preserve">6.42823839187622</t>
@@ -500,37 +500,37 @@
     <t xml:space="preserve">6.41930389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717241287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
+    <t xml:space="preserve">6.43717288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991603851318</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204895019531</t>
+    <t xml:space="preserve">6.60245752334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52204847335815</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655931472778</t>
+    <t xml:space="preserve">6.3165602684021</t>
   </si>
   <si>
     <t xml:space="preserve">6.28082180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70520210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073461532593</t>
+    <t xml:space="preserve">6.70520162582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073509216309</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277795791626</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">6.8526177406311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76327466964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774072647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064647674561</t>
+    <t xml:space="preserve">6.76327419281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
   </si>
   <si>
     <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41547966003418</t>
+    <t xml:space="preserve">7.41547918319702</t>
   </si>
   <si>
     <t xml:space="preserve">7.25019454956055</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">7.1921215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25912857055664</t>
+    <t xml:space="preserve">7.25912952423096</t>
   </si>
   <si>
     <t xml:space="preserve">7.30826759338379</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20999002456665</t>
+    <t xml:space="preserve">7.20998954772949</t>
   </si>
   <si>
     <t xml:space="preserve">7.33953762054443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24126005172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171293258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29933404922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740613937378</t>
+    <t xml:space="preserve">7.24125957489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171340942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2993335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740518569946</t>
   </si>
   <si>
     <t xml:space="preserve">7.49588823318481</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">7.9068660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89793252944946</t>
+    <t xml:space="preserve">7.89793300628662</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063327789307</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">8.35358428955078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694053649902</t>
+    <t xml:space="preserve">8.39825344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60821151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694149017334</t>
   </si>
   <si>
     <t xml:space="preserve">8.33571338653564</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66628360748291</t>
+    <t xml:space="preserve">8.66628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939388275146</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64905834197998</t>
+    <t xml:space="preserve">9.64905643463135</t>
   </si>
   <si>
     <t xml:space="preserve">9.3363561630249</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90751075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79136371612549</t>
+    <t xml:space="preserve">8.90750980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79136276245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.06832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97898483276367</t>
+    <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">8.8628396987915</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75562572479248</t>
+    <t xml:space="preserve">8.7556266784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.83603477478027</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">9.18447303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304374694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365779876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168510437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51831150054932</t>
+    <t xml:space="preserve">8.90304279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.518310546875</t>
   </si>
   <si>
     <t xml:space="preserve">9.54550647735596</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">9.608962059021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672752380371</t>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298526763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672466278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924777984619</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">9.3823356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64522266387939</t>
+    <t xml:space="preserve">9.64522171020508</t>
   </si>
   <si>
     <t xml:space="preserve">9.76306915283203</t>
@@ -725,34 +725,34 @@
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9715633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6270923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5908317565918</t>
+    <t xml:space="preserve">10.6151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558750152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62709140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42766094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
   </si>
   <si>
     <t xml:space="preserve">9.57270240783691</t>
@@ -761,67 +761,67 @@
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615608215332</t>
+    <t xml:space="preserve">9.86278247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615798950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026317596436</t>
+    <t xml:space="preserve">9.79026412963867</t>
   </si>
   <si>
     <t xml:space="preserve">9.39140033721924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36420440673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30074977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24635982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644180297852</t>
+    <t xml:space="preserve">9.36420631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075073242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24636077880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
     <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41859722137451</t>
+    <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79932975769043</t>
+    <t xml:space="preserve">9.75400257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7993278503418</t>
   </si>
   <si>
     <t xml:space="preserve">9.49111652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34607601165771</t>
+    <t xml:space="preserve">9.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485591888428</t>
+    <t xml:space="preserve">9.37327098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493789672852</t>
@@ -830,52 +830,52 @@
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371875762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904308319092</t>
+    <t xml:space="preserve">9.85371971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904403686523</t>
   </si>
   <si>
     <t xml:space="preserve">9.4639196395874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99875926971436</t>
+    <t xml:space="preserve">9.99876022338867</t>
   </si>
   <si>
     <t xml:space="preserve">9.90811061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82652282714844</t>
+    <t xml:space="preserve">9.82652378082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78119850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477298736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40046405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355480194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5001802444458</t>
+    <t xml:space="preserve">9.7811975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477394104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.400465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355575561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205089569092</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77213382720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1738395690918</t>
+    <t xml:space="preserve">9.66335201263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17383861541748</t>
   </si>
   <si>
     <t xml:space="preserve">9.1375789642334</t>
@@ -899,34 +899,34 @@
     <t xml:space="preserve">9.22822952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440814971924</t>
+    <t xml:space="preserve">8.97440910339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.19197082519531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418111801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423788070679</t>
+    <t xml:space="preserve">9.31888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440835952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423797607422</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874183654785</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0049810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780717849731</t>
+    <t xml:space="preserve">11.0049829483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780708312988</t>
   </si>
   <si>
     <t xml:space="preserve">10.8055505752563</t>
@@ -944,70 +944,70 @@
     <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2616453170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253866195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
+    <t xml:space="preserve">10.2616472244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797784805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530368804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.297905921936</t>
+    <t xml:space="preserve">10.0984754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2979068756104</t>
   </si>
   <si>
     <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3160381317139</t>
+    <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3341665267944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8599395751953</t>
+    <t xml:space="preserve">10.8599405288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0078248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969554901123</t>
+    <t xml:space="preserve">10.0078239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8349552154541</t>
+    <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.96363735198975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577667236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9452543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465896606445</t>
+    <t xml:space="preserve">10.2577676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
@@ -1016,49 +1016,49 @@
     <t xml:space="preserve">9.85334014892578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.055552482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658525466919</t>
+    <t xml:space="preserve">10.0555534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658515930176</t>
   </si>
   <si>
     <t xml:space="preserve">10.3312997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.478364944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9011764526367</t>
+    <t xml:space="preserve">10.4783639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151300430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
     <t xml:space="preserve">10.7908763885498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7173442840576</t>
+    <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.8827924728394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438121795654</t>
+    <t xml:space="preserve">10.6438131332397</t>
   </si>
   <si>
     <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393856048584</t>
+    <t xml:space="preserve">10.312915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393836975098</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805772781372</t>
+    <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4415979385376</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112495422363</t>
+    <t xml:space="preserve">9.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406169891357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48567676544189</t>
+    <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.63274097442627</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187864303589</t>
+    <t xml:space="preserve">10.0187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107025146484</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">10.2945346832275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1842336654663</t>
+    <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980613708496</t>
+    <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687225341797</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">10.0371704101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98202133178711</t>
+    <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
     <t xml:space="preserve">9.74304008483887</t>
@@ -1118,40 +1118,40 @@
     <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0004034042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54082775115967</t>
+    <t xml:space="preserve">10.0004043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54082584381104</t>
   </si>
   <si>
     <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848922729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627403259277</t>
+    <t xml:space="preserve">9.59597492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52244281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848827362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759380340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627498626709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68789100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154834747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18235683441162</t>
+    <t xml:space="preserve">9.68789196014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154739379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.46729373931885</t>
@@ -1160,61 +1160,61 @@
     <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35699653625488</t>
+    <t xml:space="preserve">9.35699558258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.669508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831439971924</t>
+    <t xml:space="preserve">9.66950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831535339355</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41214561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0923185348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702791213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9379415512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6621961593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048318862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3864498138428</t>
+    <t xml:space="preserve">9.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9379405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6621952056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3864488601685</t>
   </si>
   <si>
     <t xml:space="preserve">10.1290864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474676132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680648803711</t>
+    <t xml:space="preserve">10.1474685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680658340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761507034302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724943161011</t>
+    <t xml:space="preserve">10.7724952697754</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092613220215</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7541103363037</t>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276433944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541093826294</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664875030518</t>
@@ -1250,37 +1250,37 @@
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185466766357</t>
+    <t xml:space="preserve">11.4224796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238527297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185457229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372119903564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8252267837524</t>
+    <t xml:space="preserve">10.8252258300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065614700317</t>
+    <t xml:space="preserve">10.8065624237061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7505702972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.881217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625545501709</t>
+    <t xml:space="preserve">10.7505693435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8812189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625555038452</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7132415771484</t>
+    <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
     <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093067169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586225509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959503173828</t>
+    <t xml:space="preserve">10.2093076705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959493637085</t>
   </si>
   <si>
     <t xml:space="preserve">10.6012554168701</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">10.2279720306396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786590576172</t>
@@ -1325,25 +1325,25 @@
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0226650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533725738525</t>
+    <t xml:space="preserve">10.022665977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533821105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2652997970581</t>
+    <t xml:space="preserve">10.2653007507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">10.246636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.1159868240356</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">10.004002571106</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85468769073486</t>
+    <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.81735992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270343780518</t>
+    <t xml:space="preserve">9.74270248413086</t>
   </si>
   <si>
     <t xml:space="preserve">9.76136779785156</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071727752686</t>
+    <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
     <t xml:space="preserve">9.64938354492188</t>
@@ -1376,28 +1376,28 @@
     <t xml:space="preserve">9.53739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407558441162</t>
+    <t xml:space="preserve">9.44407749176025</t>
   </si>
   <si>
     <t xml:space="preserve">9.61205387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68671226501465</t>
+    <t xml:space="preserve">9.68671035766602</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003120422363</t>
+    <t xml:space="preserve">9.78003025054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3212938308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335395812988</t>
+    <t xml:space="preserve">10.3212928771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
@@ -1409,22 +1409,22 @@
     <t xml:space="preserve">9.96667385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83602428436279</t>
+    <t xml:space="preserve">9.83602523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
+    <t xml:space="preserve">10.4146146774292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.470606803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3399562835693</t>
+    <t xml:space="preserve">10.4706058502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3026285171509</t>
@@ -1436,34 +1436,34 @@
     <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873302459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5000696182251</t>
+    <t xml:space="preserve">9.51873397827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50006866455078</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33209228515625</t>
+    <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
+    <t xml:space="preserve">9.19210910797119</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36942005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35075664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27609920501709</t>
+    <t xml:space="preserve">9.36942100524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35075569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.31342697143555</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">9.57472515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0521297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22010517120361</t>
+    <t xml:space="preserve">9.10812187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05212783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621063232422</t>
+    <t xml:space="preserve">8.63218402862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4362096786499</t>
   </si>
   <si>
     <t xml:space="preserve">8.4082145690918</t>
@@ -1502,40 +1502,40 @@
     <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561725616455</t>
+    <t xml:space="preserve">7.88561582565308</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55899477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93227672576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765865325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565423965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231561660767</t>
+    <t xml:space="preserve">7.55899429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765913009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810314178467</t>
+    <t xml:space="preserve">9.07079219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810218811035</t>
   </si>
   <si>
     <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17344665527344</t>
+    <t xml:space="preserve">9.17344570159912</t>
   </si>
   <si>
     <t xml:space="preserve">9.16411399841309</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">9.42541217803955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12678623199463</t>
+    <t xml:space="preserve">9.12678527832031</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86548614501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97747230529785</t>
+    <t xml:space="preserve">8.86548519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97747135162354</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415145874023</t>
+    <t xml:space="preserve">8.88415241241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79082870483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">8.7908296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">9.73681735992432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83181190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217962265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87930583953857</t>
+    <t xml:space="preserve">9.7843132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83181095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217971801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87930679321289</t>
   </si>
   <si>
     <t xml:space="preserve">10.1642875671387</t>
@@ -1619,25 +1619,25 @@
     <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442609786987</t>
+    <t xml:space="preserve">10.5442600250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2117834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167898178101</t>
+    <t xml:space="preserve">10.2117824554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167888641357</t>
   </si>
   <si>
     <t xml:space="preserve">10.3067770004272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4492664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3542728424072</t>
+    <t xml:space="preserve">10.4492673873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3542737960815</t>
   </si>
   <si>
     <t xml:space="preserve">9.97430038452148</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.639253616333</t>
+    <t xml:space="preserve">10.5917558670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392545700073</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2567110061646</t>
+    <t xml:space="preserve">11.2567100524902</t>
   </si>
   <si>
     <t xml:space="preserve">11.066722869873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1617164611816</t>
+    <t xml:space="preserve">11.161717414856</t>
   </si>
   <si>
     <t xml:space="preserve">10.8767366409302</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142196655273</t>
+    <t xml:space="preserve">11.114218711853</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342472076416</t>
@@ -1691,40 +1691,40 @@
     <t xml:space="preserve">11.6366844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7316780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8741664886475</t>
+    <t xml:space="preserve">11.7316770553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8741674423218</t>
   </si>
   <si>
     <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6841802597046</t>
+    <t xml:space="preserve">11.6841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8266696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1116504669189</t>
+    <t xml:space="preserve">11.8266706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1116495132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816101074219</t>
+    <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715972900391</t>
+    <t xml:space="preserve">13.0140867233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715982437134</t>
   </si>
   <si>
     <t xml:space="preserve">12.7766027450562</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">12.7291069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9190940856934</t>
+    <t xml:space="preserve">12.919093132019</t>
   </si>
   <si>
     <t xml:space="preserve">12.9665899276733</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840473175049</t>
+    <t xml:space="preserve">13.5840463638306</t>
   </si>
   <si>
     <t xml:space="preserve">13.9640197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690280914307</t>
+    <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.6315450668335</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,52 +1766,52 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015027999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2964973449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2490005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3914890289307</t>
+    <t xml:space="preserve">14.1065092086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2964963912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814771652222</t>
+    <t xml:space="preserve">14.5814762115479</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4389877319336</t>
+    <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
     <t xml:space="preserve">14.5339803695679</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4864826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6764698028564</t>
+    <t xml:space="preserve">14.4864835739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6764707565308</t>
   </si>
   <si>
     <t xml:space="preserve">14.7239675521851</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7714643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139518737793</t>
+    <t xml:space="preserve">14.771463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139537811279</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1820,19 +1820,19 @@
     <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664560317993</t>
+    <t xml:space="preserve">14.8664569854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.4839124679565</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9113807678223</t>
+    <t xml:space="preserve">15.9113845825195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868648529053</t>
+    <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
     <t xml:space="preserve">16.2248611450195</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">16.3388557434082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628593444824</t>
+    <t xml:space="preserve">16.2628612518311</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768501281738</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">16.5288410186768</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5478382110596</t>
+    <t xml:space="preserve">16.5478401184082</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808280944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148502349854</t>
+    <t xml:space="preserve">16.6808300018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148483276367</t>
   </si>
   <si>
     <t xml:space="preserve">16.0728702545166</t>
@@ -1874,40 +1874,40 @@
     <t xml:space="preserve">16.1108703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.673900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549015045166</t>
+    <t xml:space="preserve">15.8638887405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549005508423</t>
   </si>
   <si>
     <t xml:space="preserve">15.8448877334595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4079170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
+    <t xml:space="preserve">15.4079189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258867263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2939262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208812713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.1281356811523</t>
@@ -3243,6 +3243,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.6500015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9000015258789</t>
   </si>
 </sst>
 </file>
@@ -59354,7 +59357,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493171296</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>20436</v>
@@ -59375,6 +59378,32 @@
         <v>1074</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6494444444</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>41144</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>33.1500015258789</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>32.4500007629395</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>33.1500015258789</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>32.9000015258789</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414422988892</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534610748291</t>
+    <t xml:space="preserve">7.20534706115723</t>
   </si>
   <si>
     <t xml:space="preserve">7.25373506546021</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">7.22734117507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780872344971</t>
+    <t xml:space="preserve">7.12616729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220659255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780729293823</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77865743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68628072738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425765991211</t>
+    <t xml:space="preserve">6.77865600585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68627977371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425670623779</t>
   </si>
   <si>
     <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4223484992981</t>
+    <t xml:space="preserve">6.42234897613525</t>
   </si>
   <si>
     <t xml:space="preserve">6.48833131790161</t>
@@ -95,40 +95,40 @@
     <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994474411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311178207397</t>
+    <t xml:space="preserve">6.51912307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311225891113</t>
   </si>
   <si>
     <t xml:space="preserve">6.71267366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86223554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7830548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343790054321</t>
+    <t xml:space="preserve">6.86223602294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343742370605</t>
   </si>
   <si>
     <t xml:space="preserve">7.07338094711304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9062237739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376211166382</t>
+    <t xml:space="preserve">6.90622425079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376258850098</t>
   </si>
   <si>
     <t xml:space="preserve">6.94581317901611</t>
@@ -140,25 +140,25 @@
     <t xml:space="preserve">7.15256071090698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79625225067139</t>
+    <t xml:space="preserve">6.79625177383423</t>
   </si>
   <si>
     <t xml:space="preserve">6.89302682876587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7390661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349342346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6906795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463930130005</t>
+    <t xml:space="preserve">6.73906707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349294662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69067907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024095535278</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">6.85783672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7566614151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87983083724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701553344727</t>
+    <t xml:space="preserve">6.75666189193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8798303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
     <t xml:space="preserve">6.97660541534424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73466777801514</t>
+    <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.61149978637695</t>
@@ -194,28 +194,28 @@
     <t xml:space="preserve">6.523521900177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712944030762</t>
+    <t xml:space="preserve">6.49712896347046</t>
   </si>
   <si>
     <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94141387939453</t>
+    <t xml:space="preserve">6.94141435623169</t>
   </si>
   <si>
     <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91062307357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91941976547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8094482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630777359009</t>
+    <t xml:space="preserve">6.91062355041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91942024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80944919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57630825042725</t>
   </si>
   <si>
     <t xml:space="preserve">6.43114566802979</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92381954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03819036483765</t>
+    <t xml:space="preserve">6.92381906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818941116333</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9464282989502</t>
+    <t xml:space="preserve">7.01343536376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642782211304</t>
   </si>
   <si>
     <t xml:space="preserve">6.9642972946167</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">7.2903995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695421218872</t>
+    <t xml:space="preserve">7.48695468902588</t>
   </si>
   <si>
     <t xml:space="preserve">7.50482320785522</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">7.32613611221313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53609275817871</t>
+    <t xml:space="preserve">7.53609228134155</t>
   </si>
   <si>
     <t xml:space="preserve">7.4690842628479</t>
@@ -293,43 +293,43 @@
     <t xml:space="preserve">7.27253103256226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781518936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178548812866</t>
+    <t xml:space="preserve">7.43781471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6388373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391744613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285194396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178596496582</t>
   </si>
   <si>
     <t xml:space="preserve">7.72817993164062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11682224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68350887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187314987183</t>
+    <t xml:space="preserve">8.11682415008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350982666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187267303467</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810689926147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974309921265</t>
+    <t xml:space="preserve">7.16531848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096929550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974262237549</t>
   </si>
   <si>
     <t xml:space="preserve">7.57629728317261</t>
@@ -341,22 +341,22 @@
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416532516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155223846436</t>
+    <t xml:space="preserve">7.59416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203527450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248815536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155128479004</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688070297241</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101217269897</t>
+    <t xml:space="preserve">7.41101169586182</t>
   </si>
   <si>
     <t xml:space="preserve">7.53162622451782</t>
@@ -380,40 +380,40 @@
     <t xml:space="preserve">7.46015119552612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679399490356</t>
+    <t xml:space="preserve">7.52269172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679351806641</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761066436768</t>
+    <t xml:space="preserve">7.39761114120483</t>
   </si>
   <si>
     <t xml:space="preserve">7.46461772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37080860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22785902023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
+    <t xml:space="preserve">7.37080812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400510787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22785949707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384489059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790285110474</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876430511475</t>
+    <t xml:space="preserve">6.96876382827759</t>
   </si>
   <si>
     <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95982980728149</t>
+    <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728927612305</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">6.92409229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663234710693</t>
+    <t xml:space="preserve">6.98663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06704139709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98216485977173</t>
+    <t xml:space="preserve">7.06704044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003385543823</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04917192459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241369247437</t>
+    <t xml:space="preserve">7.04917240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241321563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.8392162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70966911315918</t>
+    <t xml:space="preserve">6.70966958999634</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">6.42823791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41930294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717241287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397495269775</t>
+    <t xml:space="preserve">6.41930437088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397542953491</t>
   </si>
   <si>
     <t xml:space="preserve">6.53991746902466</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245752334595</t>
+    <t xml:space="preserve">6.60245656967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204895019531</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29869079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31655931472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520162582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073413848877</t>
+    <t xml:space="preserve">6.29869031906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31655883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073509216309</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85261869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327466964722</t>
+    <t xml:space="preserve">6.85261821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327514648438</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266157150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871999740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1921215057373</t>
+    <t xml:space="preserve">6.71860313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41548013687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212245941162</t>
   </si>
   <si>
     <t xml:space="preserve">7.25912952423096</t>
@@ -575,37 +575,37 @@
     <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949474334717</t>
+    <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
     <t xml:space="preserve">7.20999050140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953762054443</t>
+    <t xml:space="preserve">7.33953857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126005172729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11171245574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29933309555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740613937378</t>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2993335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740566253662</t>
   </si>
   <si>
     <t xml:space="preserve">7.49588871002197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90686702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8979320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063232421875</t>
+    <t xml:space="preserve">7.90686750411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793252944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063327789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.35358238220215</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">8.33571243286133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00578689575195</t>
+    <t xml:space="preserve">9.00578784942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.66628265380859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05939483642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84496879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218181610107</t>
+    <t xml:space="preserve">9.05939292907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84496784210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218276977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905738830566</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90750980377197</t>
+    <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">9.06832695007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97898292541504</t>
+    <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
@@ -674,52 +674,52 @@
     <t xml:space="preserve">8.86283683776855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75562763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304374694824</t>
+    <t xml:space="preserve">8.7556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447399139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304279327393</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2916841506958</t>
+    <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
     <t xml:space="preserve">9.51831150054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550552368164</t>
+    <t xml:space="preserve">9.54550647735596</t>
   </si>
   <si>
     <t xml:space="preserve">9.60896301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953063964844</t>
+    <t xml:space="preserve">9.40953159332275</t>
   </si>
   <si>
     <t xml:space="preserve">9.47298622131348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43672657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38233661651611</t>
+    <t xml:space="preserve">9.43672561645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924587249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3823356628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306819915771</t>
+    <t xml:space="preserve">9.76306915283203</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343399047852</t>
@@ -728,31 +728,31 @@
     <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83558940887451</t>
+    <t xml:space="preserve">10.1528644561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83559036254883</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52737712860107</t>
+    <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42765998840332</t>
+    <t xml:space="preserve">9.42766094207764</t>
   </si>
   <si>
     <t xml:space="preserve">9.44579124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59083271026611</t>
+    <t xml:space="preserve">9.5908317565918</t>
   </si>
   <si>
     <t xml:space="preserve">9.5727014541626</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">9.69961357116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615703582764</t>
+    <t xml:space="preserve">9.86278247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615798950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363677978516</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">9.79026317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3642053604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30075073242188</t>
+    <t xml:space="preserve">9.39139938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36420631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30074977874756</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
@@ -797,19 +797,19 @@
     <t xml:space="preserve">9.53644180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241668701172</t>
+    <t xml:space="preserve">9.67241859436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68148136138916</t>
+    <t xml:space="preserve">9.68148326873779</t>
   </si>
   <si>
     <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79932975769043</t>
+    <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
     <t xml:space="preserve">9.49111652374268</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">9.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35513877868652</t>
+    <t xml:space="preserve">9.35513973236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327098846436</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74493789672852</t>
+    <t xml:space="preserve">9.74493885040283</t>
   </si>
   <si>
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371780395508</t>
+    <t xml:space="preserve">9.85371875762939</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839347839355</t>
@@ -842,46 +842,46 @@
     <t xml:space="preserve">9.89904403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46392154693604</t>
+    <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90810775756836</t>
+    <t xml:space="preserve">9.90810871124268</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87185001373291</t>
+    <t xml:space="preserve">9.87184810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103454589844</t>
+    <t xml:space="preserve">9.20103549957275</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355480194092</t>
+    <t xml:space="preserve">9.400465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355575561523</t>
   </si>
   <si>
     <t xml:space="preserve">9.18290519714355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30981636047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5001802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205184936523</t>
+    <t xml:space="preserve">9.30981540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205089569092</t>
   </si>
   <si>
     <t xml:space="preserve">9.15571022033691</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1375789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
+    <t xml:space="preserve">9.13757991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22822952270508</t>
   </si>
   <si>
     <t xml:space="preserve">8.97440719604492</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440855026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061201095581</t>
+    <t xml:space="preserve">10.0440845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418111801147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6423768997192</t>
+    <t xml:space="preserve">10.6423778533936</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874193191528</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">10.7511596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.624249458313</t>
+    <t xml:space="preserve">10.6242485046387</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335969924927</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.261646270752</t>
+    <t xml:space="preserve">10.4248161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616472244263</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797765731812</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774291992188</t>
+    <t xml:space="preserve">9.84465503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.0984764099121</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891250610352</t>
+    <t xml:space="preserve">10.1891260147095</t>
   </si>
   <si>
     <t xml:space="preserve">10.2979068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704261779785</t>
+    <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.3160371780396</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">10.3341674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8599395751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3522977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">10.8599405288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3522968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969554901123</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142406463623</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577667236328</t>
+    <t xml:space="preserve">10.2577657699585</t>
   </si>
   <si>
     <t xml:space="preserve">9.9452543258667</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.85334014892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555543899536</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">10.3312997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.478364944458</t>
+    <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151290893555</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908763885498</t>
+    <t xml:space="preserve">10.7908754348755</t>
   </si>
   <si>
     <t xml:space="preserve">10.7173442840576</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">10.8827934265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438112258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393856048584</t>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393846511841</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232149124146</t>
@@ -1064,34 +1064,34 @@
     <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415979385376</t>
+    <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406074523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567581176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274002075195</t>
+    <t xml:space="preserve">9.65112495422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50406169891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274097442627</t>
   </si>
   <si>
     <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3496837615967</t>
+    <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1107034683228</t>
+    <t xml:space="preserve">10.1107025146484</t>
   </si>
   <si>
     <t xml:space="preserve">10.2945337295532</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010620117188</t>
+    <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
     <t xml:space="preserve">9.77980709075928</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0371694564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98202228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74304103851318</t>
+    <t xml:space="preserve">10.0371704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98202037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7430419921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0004034042358</t>
+    <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
@@ -1139,31 +1139,31 @@
     <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57759284973145</t>
+    <t xml:space="preserve">9.57759380340576</t>
   </si>
   <si>
     <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0739364624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789196014404</t>
+    <t xml:space="preserve">10.0739374160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789100646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1823558807373</t>
+    <t xml:space="preserve">9.18235683441162</t>
   </si>
   <si>
     <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4489107131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35699558258057</t>
+    <t xml:space="preserve">9.44890975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35699462890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.79818916320801</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.459981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214466094971</t>
+    <t xml:space="preserve">10.4599809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702800750732</t>
+    <t xml:space="preserve">10.5702810287476</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379405975342</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048318862915</t>
+    <t xml:space="preserve">10.4048328399658</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864498138428</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">10.221001625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680648803711</t>
+    <t xml:space="preserve">10.3680658340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761507034302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724943161011</t>
+    <t xml:space="preserve">10.7724933624268</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092603683472</t>
@@ -1226,16 +1226,16 @@
     <t xml:space="preserve">11.0298566818237</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1217746734619</t>
+    <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
     <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9930925369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276424407959</t>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276433944702</t>
   </si>
   <si>
     <t xml:space="preserve">10.754111289978</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">11.2358388900757</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1985092163086</t>
+    <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
@@ -1256,31 +1256,31 @@
     <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.123851776123</t>
+    <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
     <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252267837524</t>
+    <t xml:space="preserve">10.9372110366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252277374268</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065624237061</t>
+    <t xml:space="preserve">10.8065614700317</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7505693435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.881217956543</t>
+    <t xml:space="preserve">10.7505702972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8812189102173</t>
   </si>
   <si>
     <t xml:space="preserve">10.8625545501709</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6572484970093</t>
+    <t xml:space="preserve">10.6572494506836</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892702102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2093086242676</t>
+    <t xml:space="preserve">10.4892692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772859573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3586225509644</t>
+    <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959493637085</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279720306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.4332790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.227972984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0226650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533821105957</t>
+    <t xml:space="preserve">10.1906442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022665977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533725738525</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599946975708</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">9.79869556427002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1159887313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0040016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85468864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81735992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270343780518</t>
+    <t xml:space="preserve">10.1159868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0040006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8546895980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81736087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270248413086</t>
   </si>
   <si>
     <t xml:space="preserve">9.76136779785156</t>
@@ -1379,10 +1379,10 @@
     <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4440746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61205387115479</t>
+    <t xml:space="preserve">9.44407558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6120548248291</t>
   </si>
   <si>
     <t xml:space="preserve">9.68671131134033</t>
@@ -1391,28 +1391,28 @@
     <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201641082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3212928771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335205078125</t>
+    <t xml:space="preserve">9.78003215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201736450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3212938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602428436279</t>
+    <t xml:space="preserve">10.0973234176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9666748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602333068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804695129395</t>
@@ -1424,64 +1424,64 @@
     <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4706058502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3399572372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026294708252</t>
+    <t xml:space="preserve">10.470606803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.339958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026285171509</t>
   </si>
   <si>
     <t xml:space="preserve">9.92934513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72403907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51873302459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50007057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209228515625</t>
+    <t xml:space="preserve">9.72404003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51873397827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5000696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140621185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
+    <t xml:space="preserve">9.19211101531982</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36941814422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35075569152832</t>
+    <t xml:space="preserve">9.36942005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.350754737854</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31342697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57472610473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10812187194824</t>
+    <t xml:space="preserve">9.31342792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57472705841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10812091827393</t>
   </si>
   <si>
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010612487793</t>
+    <t xml:space="preserve">9.22010707855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69750881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621158599854</t>
+    <t xml:space="preserve">8.69750785827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63218402862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621063232422</t>
   </si>
   <si>
     <t xml:space="preserve">8.40821552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09092426300049</t>
+    <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
     <t xml:space="preserve">7.88561725616455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02559852600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55899477005005</t>
+    <t xml:space="preserve">8.02559947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">7.93227815628052</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">8.84682178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079315185547</t>
+    <t xml:space="preserve">9.07079410552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810218811035</t>
@@ -1538,25 +1538,25 @@
     <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17344570159912</t>
+    <t xml:space="preserve">9.17344665527344</t>
   </si>
   <si>
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476261138916</t>
+    <t xml:space="preserve">9.42541217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
     <t xml:space="preserve">9.47207164764404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2574348449707</t>
+    <t xml:space="preserve">9.25743389129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82815742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415241241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95880889892578</t>
+    <t xml:space="preserve">8.82815933227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415050506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880794525146</t>
   </si>
   <si>
     <t xml:space="preserve">9.01480102539062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71617412567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79083061218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018009185791</t>
+    <t xml:space="preserve">8.71617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7908296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018104553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.77216529846191</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83180999755859</t>
+    <t xml:space="preserve">9.73681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83181095123291</t>
   </si>
   <si>
     <t xml:space="preserve">10.0692939758301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1619,40 +1619,40 @@
     <t xml:space="preserve">10.1642866134644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017696380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5442600250244</t>
+    <t xml:space="preserve">10.4017705917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5442609786987</t>
   </si>
   <si>
     <t xml:space="preserve">10.2592811584473</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2117824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3067779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4492673873901</t>
+    <t xml:space="preserve">10.2117834091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167898178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3067770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
     <t xml:space="preserve">10.3542737960815</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97429943084717</t>
+    <t xml:space="preserve">9.97430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.639253616333</t>
+    <t xml:space="preserve">10.5917558670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392526626587</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0667238235474</t>
+    <t xml:space="preserve">11.066722869873</t>
   </si>
   <si>
     <t xml:space="preserve">11.1617164611816</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1142196655273</t>
+    <t xml:space="preserve">10.9242334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1142206192017</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292398452759</t>
+    <t xml:space="preserve">10.9717311859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342462539673</t>
@@ -1706,46 +1706,46 @@
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791719436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8266706466675</t>
+    <t xml:space="preserve">11.7791728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8266696929932</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816101074219</t>
+    <t xml:space="preserve">12.3966302871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140867233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715972900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766027450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.919093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.966588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990674972534</t>
+    <t xml:space="preserve">13.0140857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715963363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7291059494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090803146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
     <t xml:space="preserve">13.5840463638306</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.7740335464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315431594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1769,19 +1769,19 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.1065111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015027999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
+    <t xml:space="preserve">14.2490005493164</t>
   </si>
   <si>
     <t xml:space="preserve">14.3914909362793</t>
@@ -1799,13 +1799,13 @@
     <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5339803695679</t>
+    <t xml:space="preserve">14.5339813232422</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764698028564</t>
+    <t xml:space="preserve">14.6764707565308</t>
   </si>
   <si>
     <t xml:space="preserve">14.7239665985107</t>
@@ -1814,10 +1814,10 @@
     <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9139528274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9614515304565</t>
+    <t xml:space="preserve">14.9139537811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
     <t xml:space="preserve">15.0089473724365</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113836288452</t>
+    <t xml:space="preserve">15.4839124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113826751709</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
@@ -1838,28 +1838,28 @@
     <t xml:space="preserve">16.1868648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2248630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768520355225</t>
+    <t xml:space="preserve">16.2248611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">16.5288391113281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5478382110596</t>
+    <t xml:space="preserve">16.5478401184082</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808280944824</t>
+    <t xml:space="preserve">16.6808300018311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4148483276367</t>
@@ -1871,31 +1871,31 @@
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638887405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549005508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258895874023</t>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258905410767</t>
   </si>
   <si>
     <t xml:space="preserve">15.8068904876709</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">15.3699216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9208850860596</t>
+    <t xml:space="preserve">15.9208831787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.128137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1088924407959</t>
+    <t xml:space="preserve">16.1088905334473</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624616622925</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">15.9549217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7432174682617</t>
+    <t xml:space="preserve">15.7432165145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1940,16 +1940,19 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741678237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783340454102</t>
+    <t xml:space="preserve">15.8394460678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741687774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3975811004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783359527588</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
@@ -1967,7 +1970,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1979,7 +1982,7 @@
     <t xml:space="preserve">17.1096820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3791255950928</t>
+    <t xml:space="preserve">17.3791275024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.4753570556641</t>
@@ -2000,13 +2003,13 @@
     <t xml:space="preserve">17.2828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6678161621094</t>
+    <t xml:space="preserve">17.667818069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2018,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2033,7 +2036,7 @@
     <t xml:space="preserve">17.3983726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021430969238</t>
+    <t xml:space="preserve">17.3021411895752</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674194335938</t>
@@ -2045,19 +2048,19 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602733612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142421722412</t>
+    <t xml:space="preserve">17.8602752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334892272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142440795898</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916233062744</t>
+    <t xml:space="preserve">18.591625213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
@@ -2072,10 +2075,10 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.880313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.976541519165</t>
+    <t xml:space="preserve">18.8803157806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9765434265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.6878547668457</t>
@@ -2090,7 +2093,7 @@
     <t xml:space="preserve">20.0639400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2129,7 +2132,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
+    <t xml:space="preserve">18.264440536499</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2141,7 +2144,7 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.169002532959</t>
+    <t xml:space="preserve">19.1690044403076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2159,13 +2162,13 @@
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082843780518</t>
+    <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4488620758057</t>
+    <t xml:space="preserve">20.448860168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
@@ -2174,7 +2177,7 @@
     <t xml:space="preserve">21.1224689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4111614227295</t>
+    <t xml:space="preserve">21.4111595153809</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2201,13 +2204,13 @@
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865627288818</t>
+    <t xml:space="preserve">19.4865608215332</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384460449219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7752513885498</t>
+    <t xml:space="preserve">19.7752494812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.8233680725098</t>
@@ -2219,7 +2222,7 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2228,16 +2231,16 @@
     <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2067012786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682109832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259502410889</t>
+    <t xml:space="preserve">18.2067031860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682090759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259483337402</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2252,7 +2255,7 @@
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4360733032227</t>
+    <t xml:space="preserve">16.436071395874</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2261,7 +2264,7 @@
     <t xml:space="preserve">16.8787307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6285343170166</t>
+    <t xml:space="preserve">16.628532409668</t>
   </si>
   <si>
     <t xml:space="preserve">16.9749584197998</t>
@@ -2273,13 +2276,13 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553203582764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7440090179443</t>
+    <t xml:space="preserve">16.7440071105957</t>
   </si>
   <si>
     <t xml:space="preserve">16.7825012207031</t>
@@ -2309,16 +2312,16 @@
     <t xml:space="preserve">15.2813138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896434783936</t>
+    <t xml:space="preserve">16.0896453857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7247619628906</t>
+    <t xml:space="preserve">16.1858768463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724760055542</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
@@ -2333,7 +2336,7 @@
     <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319061279297</t>
+    <t xml:space="preserve">16.0319080352783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2342,7 +2345,7 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
@@ -2357,7 +2360,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.7817087173462</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -39494,7 +39497,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1381" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39520,7 +39523,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1382" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39546,7 +39549,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1383" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39572,7 +39575,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1384" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39624,7 +39627,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1386" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39650,7 +39653,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1387" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39676,7 +39679,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1388" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39728,7 +39731,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1390" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39754,7 +39757,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39780,7 +39783,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1392" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39806,7 +39809,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1393" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39832,7 +39835,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1394" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39858,7 +39861,7 @@
         <v>17</v>
       </c>
       <c r="G1395" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39884,7 +39887,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1396" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39910,7 +39913,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1397" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39936,7 +39939,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1398" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39962,7 +39965,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1399" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39988,7 +39991,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1400" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40014,7 +40017,7 @@
         <v>18</v>
       </c>
       <c r="G1401" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40040,7 +40043,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1402" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40066,7 +40069,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1403" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40092,7 +40095,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1404" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40118,7 +40121,7 @@
         <v>18</v>
       </c>
       <c r="G1405" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40144,7 +40147,7 @@
         <v>18</v>
       </c>
       <c r="G1406" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -40170,7 +40173,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G1407" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -40196,7 +40199,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1408" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -40222,7 +40225,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1409" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40248,7 +40251,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1410" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40274,7 +40277,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1411" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40300,7 +40303,7 @@
         <v>18</v>
       </c>
       <c r="G1412" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40326,7 +40329,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1413" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40352,7 +40355,7 @@
         <v>18</v>
       </c>
       <c r="G1414" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40378,7 +40381,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1415" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40404,7 +40407,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40430,7 +40433,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1417" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40456,7 +40459,7 @@
         <v>18.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40482,7 +40485,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40508,7 +40511,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1420" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40534,7 +40537,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1421" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40560,7 +40563,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1422" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40586,7 +40589,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1423" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40612,7 +40615,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1424" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40638,7 +40641,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1425" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40664,7 +40667,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1426" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40690,7 +40693,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1427" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40716,7 +40719,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1428" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40742,7 +40745,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1429" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40768,7 +40771,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1430" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40794,7 +40797,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1431" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40820,7 +40823,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1432" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40846,7 +40849,7 @@
         <v>18.5</v>
       </c>
       <c r="G1433" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40872,7 +40875,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1434" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40898,7 +40901,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1435" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40924,7 +40927,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1436" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40950,7 +40953,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1437" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40976,7 +40979,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1438" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -41002,7 +41005,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1439" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41028,7 +41031,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1440" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41054,7 +41057,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1441" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -41080,7 +41083,7 @@
         <v>19.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -41106,7 +41109,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1443" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -41132,7 +41135,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="G1444" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -41158,7 +41161,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1445" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -41184,7 +41187,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G1446" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -41210,7 +41213,7 @@
         <v>20.5</v>
       </c>
       <c r="G1447" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -41236,7 +41239,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41262,7 +41265,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41288,7 +41291,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1450" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41314,7 +41317,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1451" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41340,7 +41343,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1452" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41366,7 +41369,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41392,7 +41395,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41418,7 +41421,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41444,7 +41447,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1456" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41470,7 +41473,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1457" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41496,7 +41499,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1458" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41522,7 +41525,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1459" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41548,7 +41551,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1460" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41574,7 +41577,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1461" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41600,7 +41603,7 @@
         <v>19</v>
       </c>
       <c r="G1462" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41626,7 +41629,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1463" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41652,7 +41655,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1464" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41678,7 +41681,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1465" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41704,7 +41707,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1466" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41730,7 +41733,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1467" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41756,7 +41759,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G1468" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41782,7 +41785,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1469" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41808,7 +41811,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1470" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41834,7 +41837,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41860,7 +41863,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1472" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41886,7 +41889,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G1473" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41912,7 +41915,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1474" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41938,7 +41941,7 @@
         <v>20</v>
       </c>
       <c r="G1475" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41964,7 +41967,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1476" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41990,7 +41993,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1477" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42016,7 +42019,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42042,7 +42045,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G1479" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42068,7 +42071,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1480" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -42094,7 +42097,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1481" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -42120,7 +42123,7 @@
         <v>20</v>
       </c>
       <c r="G1482" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -42146,7 +42149,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1483" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -42172,7 +42175,7 @@
         <v>20</v>
       </c>
       <c r="G1484" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -42198,7 +42201,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1485" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -42224,7 +42227,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1486" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42250,7 +42253,7 @@
         <v>20</v>
       </c>
       <c r="G1487" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42276,7 +42279,7 @@
         <v>20</v>
       </c>
       <c r="G1488" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42302,7 +42305,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1489" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42328,7 +42331,7 @@
         <v>20</v>
       </c>
       <c r="G1490" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42354,7 +42357,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1491" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42380,7 +42383,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1492" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42406,7 +42409,7 @@
         <v>21</v>
       </c>
       <c r="G1493" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42432,7 +42435,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1494" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42458,7 +42461,7 @@
         <v>21.25</v>
       </c>
       <c r="G1495" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42484,7 +42487,7 @@
         <v>21.75</v>
       </c>
       <c r="G1496" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42510,7 +42513,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1497" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42536,7 +42539,7 @@
         <v>22.25</v>
       </c>
       <c r="G1498" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42562,7 +42565,7 @@
         <v>22.5</v>
       </c>
       <c r="G1499" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42588,7 +42591,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1500" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42614,7 +42617,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1501" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42640,7 +42643,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1502" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42666,7 +42669,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42692,7 +42695,7 @@
         <v>22</v>
       </c>
       <c r="G1504" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42718,7 +42721,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1505" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42744,7 +42747,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1506" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42770,7 +42773,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42796,7 +42799,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1508" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42822,7 +42825,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1509" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42848,7 +42851,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1510" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42874,7 +42877,7 @@
         <v>20.25</v>
       </c>
       <c r="G1511" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42900,7 +42903,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1512" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42926,7 +42929,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1513" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42952,7 +42955,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1514" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42978,7 +42981,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1515" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43004,7 +43007,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43030,7 +43033,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1517" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -43056,7 +43059,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1518" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -43082,7 +43085,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1519" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -43108,7 +43111,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1520" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -43134,7 +43137,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1521" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -43160,7 +43163,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1522" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43186,7 +43189,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1523" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -43212,7 +43215,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1524" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -43238,7 +43241,7 @@
         <v>21</v>
       </c>
       <c r="G1525" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43264,7 +43267,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1526" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43290,7 +43293,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1527" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43316,7 +43319,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43342,7 +43345,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1529" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43368,7 +43371,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1530" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43394,7 +43397,7 @@
         <v>20.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43420,7 +43423,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1532" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43446,7 +43449,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43472,7 +43475,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1534" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43498,7 +43501,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43524,7 +43527,7 @@
         <v>20</v>
       </c>
       <c r="G1536" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43550,7 +43553,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1537" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43576,7 +43579,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1538" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43602,7 +43605,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1539" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43628,7 +43631,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43654,7 +43657,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1541" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43680,7 +43683,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1542" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43706,7 +43709,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1543" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43732,7 +43735,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1544" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43758,7 +43761,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1545" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43784,7 +43787,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1546" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43810,7 +43813,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1547" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43836,7 +43839,7 @@
         <v>19</v>
       </c>
       <c r="G1548" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43862,7 +43865,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1549" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43888,7 +43891,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1550" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43914,7 +43917,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1551" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43940,7 +43943,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1552" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43966,7 +43969,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1553" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43992,7 +43995,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1554" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44018,7 +44021,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1555" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44044,7 +44047,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1556" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44070,7 +44073,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1557" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -44096,7 +44099,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1558" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -44122,7 +44125,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -44148,7 +44151,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1560" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -44174,7 +44177,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1561" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -44200,7 +44203,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1562" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -44226,7 +44229,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1563" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44252,7 +44255,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1564" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44278,7 +44281,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1565" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44304,7 +44307,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1566" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44330,7 +44333,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1567" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44356,7 +44359,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1568" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44382,7 +44385,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1569" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44408,7 +44411,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1570" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44434,7 +44437,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1571" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44460,7 +44463,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1572" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44486,7 +44489,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1573" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44512,7 +44515,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1574" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44538,7 +44541,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1575" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44564,7 +44567,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1576" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44590,7 +44593,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1577" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44616,7 +44619,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1578" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44642,7 +44645,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1579" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44668,7 +44671,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1580" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44694,7 +44697,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1581" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44720,7 +44723,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1582" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44746,7 +44749,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1583" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44772,7 +44775,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1584" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44798,7 +44801,7 @@
         <v>17</v>
       </c>
       <c r="G1585" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44824,7 +44827,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1586" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44850,7 +44853,7 @@
         <v>17.5</v>
       </c>
       <c r="G1587" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44876,7 +44879,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1588" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44902,7 +44905,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44928,7 +44931,7 @@
         <v>16.5</v>
       </c>
       <c r="G1590" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44954,7 +44957,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1591" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45032,7 +45035,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1594" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45058,7 +45061,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1595" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -45110,7 +45113,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1597" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -45162,7 +45165,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1599" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -45188,7 +45191,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1600" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -45214,7 +45217,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1601" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45240,7 +45243,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1602" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45266,7 +45269,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1603" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45292,7 +45295,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1604" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45318,7 +45321,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1605" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45344,7 +45347,7 @@
         <v>15.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45370,7 +45373,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1607" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45396,7 +45399,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45448,7 +45451,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1610" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45500,7 +45503,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1612" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45578,7 +45581,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1615" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45630,7 +45633,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45656,7 +45659,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1618" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45682,7 +45685,7 @@
         <v>16.5</v>
       </c>
       <c r="G1619" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45708,7 +45711,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1620" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45734,7 +45737,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1621" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45760,7 +45763,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45786,7 +45789,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1623" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45812,7 +45815,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1624" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45838,7 +45841,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45864,7 +45867,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1626" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45890,7 +45893,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1627" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45916,7 +45919,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1628" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45942,7 +45945,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1629" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45968,7 +45971,7 @@
         <v>18</v>
       </c>
       <c r="G1630" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45994,7 +45997,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1631" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46020,7 +46023,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1632" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46046,7 +46049,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1633" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46072,7 +46075,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1634" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46098,7 +46101,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1635" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46124,7 +46127,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1636" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46150,7 +46153,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1637" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46176,7 +46179,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1638" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46202,7 +46205,7 @@
         <v>17</v>
       </c>
       <c r="G1639" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46228,7 +46231,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1640" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46254,7 +46257,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G1641" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46280,7 +46283,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1642" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46306,7 +46309,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1643" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46332,7 +46335,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1644" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46358,7 +46361,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G1645" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46384,7 +46387,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G1646" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46410,7 +46413,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1647" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46436,7 +46439,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1648" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46462,7 +46465,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1649" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46488,7 +46491,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1650" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46514,7 +46517,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1651" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46540,7 +46543,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46566,7 +46569,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1653" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46592,7 +46595,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1654" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46618,7 +46621,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46644,7 +46647,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1656" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46670,7 +46673,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1657" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46696,7 +46699,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1658" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46722,7 +46725,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1659" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46748,7 +46751,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1660" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46774,7 +46777,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1661" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46800,7 +46803,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1662" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46826,7 +46829,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1663" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46852,7 +46855,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46878,7 +46881,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1665" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46904,7 +46907,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46930,7 +46933,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1667" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46956,7 +46959,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1668" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46982,7 +46985,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47008,7 +47011,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1670" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47034,7 +47037,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1671" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47060,7 +47063,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47086,7 +47089,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1673" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47112,7 +47115,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1674" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47138,7 +47141,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1675" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47164,7 +47167,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1676" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47190,7 +47193,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1677" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47216,7 +47219,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47242,7 +47245,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1679" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47268,7 +47271,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1680" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47294,7 +47297,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47320,7 +47323,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47346,7 +47349,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47372,7 +47375,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47398,7 +47401,7 @@
         <v>18</v>
       </c>
       <c r="G1685" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47424,7 +47427,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1686" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47450,7 +47453,7 @@
         <v>18</v>
       </c>
       <c r="G1687" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47476,7 +47479,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1688" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47502,7 +47505,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1689" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47528,7 +47531,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1690" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47554,7 +47557,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1691" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47580,7 +47583,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1692" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47606,7 +47609,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1693" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47632,7 +47635,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1694" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47658,7 +47661,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1695" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47684,7 +47687,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1696" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47710,7 +47713,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1697" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47736,7 +47739,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47762,7 +47765,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1699" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47788,7 +47791,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1700" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47814,7 +47817,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1701" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47840,7 +47843,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1702" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47866,7 +47869,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1703" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47892,7 +47895,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1704" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47918,7 +47921,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1705" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47944,7 +47947,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1706" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47970,7 +47973,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1707" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47996,7 +47999,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1708" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48022,7 +48025,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1709" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48048,7 +48051,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1710" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48074,7 +48077,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1711" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48100,7 +48103,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1712" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48126,7 +48129,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1713" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48152,7 +48155,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48178,7 +48181,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48204,7 +48207,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48230,7 +48233,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1717" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48256,7 +48259,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48282,7 +48285,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48308,7 +48311,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1720" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48334,7 +48337,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48360,7 +48363,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48386,7 +48389,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1723" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48412,7 +48415,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1724" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48438,7 +48441,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1725" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48464,7 +48467,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1726" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48490,7 +48493,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48516,7 +48519,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1728" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48542,7 +48545,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48568,7 +48571,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1730" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48594,7 +48597,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1731" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48620,7 +48623,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1732" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48646,7 +48649,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48672,7 +48675,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48698,7 +48701,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1735" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48724,7 +48727,7 @@
         <v>18.5</v>
       </c>
       <c r="G1736" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48750,7 +48753,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1737" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48776,7 +48779,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1738" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48802,7 +48805,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48828,7 +48831,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1740" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48854,7 +48857,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1741" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48880,7 +48883,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1742" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48906,7 +48909,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1743" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48932,7 +48935,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48958,7 +48961,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1745" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48984,7 +48987,7 @@
         <v>18.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49010,7 +49013,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1747" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49036,7 +49039,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1748" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49062,7 +49065,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49088,7 +49091,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1750" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49114,7 +49117,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1751" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49140,7 +49143,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1752" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49166,7 +49169,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1753" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49192,7 +49195,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1754" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49218,7 +49221,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49244,7 +49247,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1756" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49270,7 +49273,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49296,7 +49299,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1758" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49322,7 +49325,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49348,7 +49351,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49374,7 +49377,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1761" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49400,7 +49403,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1762" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49426,7 +49429,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1763" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49452,7 +49455,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1764" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49478,7 +49481,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49504,7 +49507,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49530,7 +49533,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49556,7 +49559,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1768" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49582,7 +49585,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1769" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49608,7 +49611,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1770" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49634,7 +49637,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1771" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49660,7 +49663,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1772" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49686,7 +49689,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1773" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49712,7 +49715,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1774" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49738,7 +49741,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1775" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49764,7 +49767,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1776" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49790,7 +49793,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1777" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49816,7 +49819,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49842,7 +49845,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1779" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49868,7 +49871,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49894,7 +49897,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1781" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49920,7 +49923,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49946,7 +49949,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1783" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49972,7 +49975,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1784" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49998,7 +50001,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50024,7 +50027,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1786" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50050,7 +50053,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1787" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50076,7 +50079,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1788" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50102,7 +50105,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50128,7 +50131,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1790" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50154,7 +50157,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50180,7 +50183,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50206,7 +50209,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50232,7 +50235,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1794" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50258,7 +50261,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50284,7 +50287,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50310,7 +50313,7 @@
         <v>20.25</v>
       </c>
       <c r="G1797" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50336,7 +50339,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50362,7 +50365,7 @@
         <v>20.5</v>
       </c>
       <c r="G1799" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50388,7 +50391,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1800" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50414,7 +50417,7 @@
         <v>20.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50440,7 +50443,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50466,7 +50469,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50492,7 +50495,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50518,7 +50521,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50544,7 +50547,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1806" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50570,7 +50573,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50596,7 +50599,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50622,7 +50625,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50648,7 +50651,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50674,7 +50677,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50700,7 +50703,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50726,7 +50729,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50752,7 +50755,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1814" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50778,7 +50781,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1815" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50804,7 +50807,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50830,7 +50833,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50856,7 +50859,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50882,7 +50885,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50908,7 +50911,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1820" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50934,7 +50937,7 @@
         <v>23</v>
       </c>
       <c r="G1821" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50960,7 +50963,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50986,7 +50989,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51012,7 +51015,7 @@
         <v>24.25</v>
       </c>
       <c r="G1824" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51038,7 +51041,7 @@
         <v>24.25</v>
       </c>
       <c r="G1825" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51064,7 +51067,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51090,7 +51093,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51116,7 +51119,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1828" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51142,7 +51145,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1829" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51168,7 +51171,7 @@
         <v>23.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51194,7 +51197,7 @@
         <v>23.5</v>
       </c>
       <c r="G1831" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51220,7 +51223,7 @@
         <v>23.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51246,7 +51249,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51272,7 +51275,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1834" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51298,7 +51301,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51324,7 +51327,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51350,7 +51353,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1837" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51376,7 +51379,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51402,7 +51405,7 @@
         <v>23</v>
       </c>
       <c r="G1839" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51428,7 +51431,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51454,7 +51457,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51480,7 +51483,7 @@
         <v>23</v>
       </c>
       <c r="G1842" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51506,7 +51509,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51532,7 +51535,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51558,7 +51561,7 @@
         <v>23.5</v>
       </c>
       <c r="G1845" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51584,7 +51587,7 @@
         <v>23.75</v>
       </c>
       <c r="G1846" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51610,7 +51613,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51636,7 +51639,7 @@
         <v>25</v>
       </c>
       <c r="G1848" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51662,7 +51665,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1849" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51688,7 +51691,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51714,7 +51717,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51740,7 +51743,7 @@
         <v>26.25</v>
       </c>
       <c r="G1852" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51766,7 +51769,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1853" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51792,7 +51795,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1854" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51818,7 +51821,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51844,7 +51847,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51870,7 +51873,7 @@
         <v>26</v>
       </c>
       <c r="G1857" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51896,7 +51899,7 @@
         <v>26</v>
       </c>
       <c r="G1858" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51922,7 +51925,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51948,7 +51951,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51974,7 +51977,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52000,7 +52003,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1862" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52026,7 +52029,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52052,7 +52055,7 @@
         <v>26.25</v>
       </c>
       <c r="G1864" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52078,7 +52081,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1865" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52104,7 +52107,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52130,7 +52133,7 @@
         <v>26.5</v>
       </c>
       <c r="G1867" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52156,7 +52159,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52182,7 +52185,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1869" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52208,7 +52211,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1870" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52234,7 +52237,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1871" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52260,7 +52263,7 @@
         <v>26</v>
       </c>
       <c r="G1872" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52286,7 +52289,7 @@
         <v>26</v>
       </c>
       <c r="G1873" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52312,7 +52315,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52338,7 +52341,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52364,7 +52367,7 @@
         <v>26.25</v>
       </c>
       <c r="G1876" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52390,7 +52393,7 @@
         <v>26</v>
       </c>
       <c r="G1877" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52416,7 +52419,7 @@
         <v>26.75</v>
       </c>
       <c r="G1878" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52442,7 +52445,7 @@
         <v>27.25</v>
       </c>
       <c r="G1879" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52468,7 +52471,7 @@
         <v>26.75</v>
       </c>
       <c r="G1880" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52494,7 +52497,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52520,7 +52523,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52546,7 +52549,7 @@
         <v>26.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52572,7 +52575,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52598,7 +52601,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1885" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52624,7 +52627,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52650,7 +52653,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52676,7 +52679,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52702,7 +52705,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52728,7 +52731,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52754,7 +52757,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1891" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52780,7 +52783,7 @@
         <v>25.75</v>
       </c>
       <c r="G1892" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52806,7 +52809,7 @@
         <v>25.25</v>
       </c>
       <c r="G1893" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52832,7 +52835,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52858,7 +52861,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52884,7 +52887,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1896" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52910,7 +52913,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52936,7 +52939,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52962,7 +52965,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52988,7 +52991,7 @@
         <v>25</v>
       </c>
       <c r="G1900" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53014,7 +53017,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1901" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53040,7 +53043,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53066,7 +53069,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53092,7 +53095,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1904" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53118,7 +53121,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1905" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53144,7 +53147,7 @@
         <v>25.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53170,7 +53173,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1907" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53196,7 +53199,7 @@
         <v>26</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53222,7 +53225,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53248,7 +53251,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53274,7 +53277,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53300,7 +53303,7 @@
         <v>26.25</v>
       </c>
       <c r="G1912" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53326,7 +53329,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53352,7 +53355,7 @@
         <v>26.25</v>
       </c>
       <c r="G1914" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53378,7 +53381,7 @@
         <v>26.25</v>
       </c>
       <c r="G1915" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53404,7 +53407,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53430,7 +53433,7 @@
         <v>27.25</v>
       </c>
       <c r="G1917" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53456,7 +53459,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53482,7 +53485,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53508,7 +53511,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53534,7 +53537,7 @@
         <v>27</v>
       </c>
       <c r="G1921" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53560,7 +53563,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1922" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53586,7 +53589,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53612,7 +53615,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53638,7 +53641,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53664,7 +53667,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53690,7 +53693,7 @@
         <v>25.75</v>
       </c>
       <c r="G1927" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53716,7 +53719,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53742,7 +53745,7 @@
         <v>26</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53768,7 +53771,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1930" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53794,7 +53797,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1931" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53820,7 +53823,7 @@
         <v>25.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53846,7 +53849,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53872,7 +53875,7 @@
         <v>25.25</v>
       </c>
       <c r="G1934" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53898,7 +53901,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53924,7 +53927,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1936" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53950,7 +53953,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53976,7 +53979,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1938" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54002,7 +54005,7 @@
         <v>26.25</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54028,7 +54031,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1940" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54054,7 +54057,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54080,7 +54083,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1942" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54106,7 +54109,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54132,7 +54135,7 @@
         <v>26</v>
       </c>
       <c r="G1944" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54158,7 +54161,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54184,7 +54187,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54210,7 +54213,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54236,7 +54239,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54262,7 +54265,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54288,7 +54291,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54314,7 +54317,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54340,7 +54343,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54366,7 +54369,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1953" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54392,7 +54395,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1954" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54418,7 +54421,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1955" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54444,7 +54447,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54470,7 +54473,7 @@
         <v>26</v>
       </c>
       <c r="G1957" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54496,7 +54499,7 @@
         <v>26.25</v>
       </c>
       <c r="G1958" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54522,7 +54525,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1959" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54548,7 +54551,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54574,7 +54577,7 @@
         <v>27.75</v>
       </c>
       <c r="G1961" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54600,7 +54603,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1962" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54626,7 +54629,7 @@
         <v>27.75</v>
       </c>
       <c r="G1963" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54652,7 +54655,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1964" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54678,7 +54681,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54704,7 +54707,7 @@
         <v>27.5</v>
       </c>
       <c r="G1966" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54730,7 +54733,7 @@
         <v>27</v>
       </c>
       <c r="G1967" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54756,7 +54759,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1968" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54782,7 +54785,7 @@
         <v>25.75</v>
       </c>
       <c r="G1969" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54808,7 +54811,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54834,7 +54837,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1971" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54860,7 +54863,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54886,7 +54889,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54912,7 +54915,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54938,7 +54941,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54964,7 +54967,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54990,7 +54993,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55016,7 +55019,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1978" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55042,7 +55045,7 @@
         <v>26.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55068,7 +55071,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1980" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55094,7 +55097,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1981" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55120,7 +55123,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1982" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55146,7 +55149,7 @@
         <v>26.75</v>
       </c>
       <c r="G1983" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55172,7 +55175,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55198,7 +55201,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1985" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55224,7 +55227,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55250,7 +55253,7 @@
         <v>27.5</v>
       </c>
       <c r="G1987" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55276,7 +55279,7 @@
         <v>27</v>
       </c>
       <c r="G1988" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55302,7 +55305,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55328,7 +55331,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55354,7 +55357,7 @@
         <v>27.75</v>
       </c>
       <c r="G1991" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55380,7 +55383,7 @@
         <v>26.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55406,7 +55409,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55432,7 +55435,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55458,7 +55461,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1995" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55484,7 +55487,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55510,7 +55513,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55536,7 +55539,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55562,7 +55565,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55588,7 +55591,7 @@
         <v>27</v>
       </c>
       <c r="G2000" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55614,7 +55617,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55640,7 +55643,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55666,7 +55669,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55692,7 +55695,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55718,7 +55721,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2005" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55744,7 +55747,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2006" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55770,7 +55773,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55796,7 +55799,7 @@
         <v>27.5</v>
       </c>
       <c r="G2008" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55822,7 +55825,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55848,7 +55851,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G2010" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55874,7 +55877,7 @@
         <v>28.25</v>
       </c>
       <c r="G2011" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55900,7 +55903,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G2012" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55926,7 +55929,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G2013" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55952,7 +55955,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G2014" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55978,7 +55981,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56004,7 +56007,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56030,7 +56033,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56056,7 +56059,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2018" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56082,7 +56085,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G2019" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56108,7 +56111,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56134,7 +56137,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56160,7 +56163,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G2022" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56186,7 +56189,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G2023" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56212,7 +56215,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56238,7 +56241,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56264,7 +56267,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56290,7 +56293,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G2027" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56316,7 +56319,7 @@
         <v>28</v>
       </c>
       <c r="G2028" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56342,7 +56345,7 @@
         <v>27.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56368,7 +56371,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56394,7 +56397,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G2031" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56420,7 +56423,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2032" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56446,7 +56449,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2033" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56472,7 +56475,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2034" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56498,7 +56501,7 @@
         <v>28</v>
       </c>
       <c r="G2035" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56524,7 +56527,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2036" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56550,7 +56553,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2037" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56576,7 +56579,7 @@
         <v>26.5</v>
       </c>
       <c r="G2038" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56602,7 +56605,7 @@
         <v>27</v>
       </c>
       <c r="G2039" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56628,7 +56631,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56654,7 +56657,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56680,7 +56683,7 @@
         <v>27.25</v>
       </c>
       <c r="G2042" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56706,7 +56709,7 @@
         <v>27</v>
       </c>
       <c r="G2043" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56732,7 +56735,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56758,7 +56761,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G2045" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56784,7 +56787,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56810,7 +56813,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56836,7 +56839,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56862,7 +56865,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56888,7 +56891,7 @@
         <v>26.25</v>
       </c>
       <c r="G2050" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56914,7 +56917,7 @@
         <v>26.25</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56940,7 +56943,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56966,7 +56969,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56992,7 +56995,7 @@
         <v>26.75</v>
       </c>
       <c r="G2054" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57018,7 +57021,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2055" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57044,7 +57047,7 @@
         <v>26.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57070,7 +57073,7 @@
         <v>26.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57096,7 +57099,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57122,7 +57125,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G2059" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57148,7 +57151,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57174,7 +57177,7 @@
         <v>26.25</v>
       </c>
       <c r="G2061" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57200,7 +57203,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57226,7 +57229,7 @@
         <v>26.75</v>
       </c>
       <c r="G2063" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57252,7 +57255,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57278,7 +57281,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G2065" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57304,7 +57307,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57330,7 +57333,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57356,7 +57359,7 @@
         <v>26.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57382,7 +57385,7 @@
         <v>26</v>
       </c>
       <c r="G2069" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57408,7 +57411,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57434,7 +57437,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57460,7 +57463,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57486,7 +57489,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57512,7 +57515,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57538,7 +57541,7 @@
         <v>28.25</v>
       </c>
       <c r="G2075" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57564,7 +57567,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57590,7 +57593,7 @@
         <v>28.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57616,7 +57619,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2078" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57642,7 +57645,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G2079" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57668,7 +57671,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57694,7 +57697,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57720,7 +57723,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57746,7 +57749,7 @@
         <v>29.75</v>
       </c>
       <c r="G2083" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57772,7 +57775,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57798,7 +57801,7 @@
         <v>30.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57824,7 +57827,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57850,7 +57853,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57876,7 +57879,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57902,7 +57905,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2089" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57928,7 +57931,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57954,7 +57957,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57980,7 +57983,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58006,7 +58009,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2093" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58032,7 +58035,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58058,7 +58061,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58084,7 +58087,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58110,7 +58113,7 @@
         <v>31.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58136,7 +58139,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2098" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58162,7 +58165,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2099" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58188,7 +58191,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58214,7 +58217,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58240,7 +58243,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58266,7 +58269,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58292,7 +58295,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58318,7 +58321,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58344,7 +58347,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58370,7 +58373,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58396,7 +58399,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58422,7 +58425,7 @@
         <v>35</v>
       </c>
       <c r="G2109" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58448,7 +58451,7 @@
         <v>35</v>
       </c>
       <c r="G2110" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58474,7 +58477,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2111" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58500,7 +58503,7 @@
         <v>35.5</v>
       </c>
       <c r="G2112" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58526,7 +58529,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58552,7 +58555,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58578,7 +58581,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58604,7 +58607,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2116" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58630,7 +58633,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2117" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58656,7 +58659,7 @@
         <v>35</v>
       </c>
       <c r="G2118" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58682,7 +58685,7 @@
         <v>35.75</v>
       </c>
       <c r="G2119" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58708,7 +58711,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58734,7 +58737,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58760,7 +58763,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58786,7 +58789,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58812,7 +58815,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58838,7 +58841,7 @@
         <v>33.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58864,7 +58867,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58890,7 +58893,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2127" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58916,7 +58919,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58942,7 +58945,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2129" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58968,7 +58971,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58994,7 +58997,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59020,7 +59023,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2132" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59046,7 +59049,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59072,7 +59075,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59098,7 +59101,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59124,7 +59127,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2136" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59150,7 +59153,7 @@
         <v>31</v>
       </c>
       <c r="G2137" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59176,7 +59179,7 @@
         <v>31</v>
       </c>
       <c r="G2138" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59202,7 +59205,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59228,7 +59231,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59254,7 +59257,7 @@
         <v>32</v>
       </c>
       <c r="G2141" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59280,7 +59283,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59306,7 +59309,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2143" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59332,7 +59335,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2144" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59358,7 +59361,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2145" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59384,7 +59387,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59410,7 +59413,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2147" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59436,7 +59439,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2148" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59462,7 +59465,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59488,7 +59491,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59514,7 +59517,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G2151" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59522,7 +59525,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493171296</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>24067</v>
@@ -59540,9 +59543,35 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495833333</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>15470</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>32.1500015258789</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>31.7999992370605</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="1083">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,109 +38,109 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414422988892</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373506546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22734117507935</t>
+    <t xml:space="preserve">7.20534563064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22734069824219</t>
   </si>
   <si>
     <t xml:space="preserve">7.12616729736328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97220659255981</t>
+    <t xml:space="preserve">6.97220611572266</t>
   </si>
   <si>
     <t xml:space="preserve">6.96780729293823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865600585938</t>
+    <t xml:space="preserve">7.01179599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
     <t xml:space="preserve">6.68627977371216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77425670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636520385742</t>
+    <t xml:space="preserve">6.77425813674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
     <t xml:space="preserve">6.42234897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4707350730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879791259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190942764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338094711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622425079346</t>
+    <t xml:space="preserve">6.48833179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073602676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592708587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398944854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2287974357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994426727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311178207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305530548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8534369468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0733814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9062237739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376258850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94581317901611</t>
+    <t xml:space="preserve">6.94581365585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939176559448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625177383423</t>
+    <t xml:space="preserve">7.15256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625129699707</t>
   </si>
   <si>
     <t xml:space="preserve">6.89302682876587</t>
@@ -149,34 +149,34 @@
     <t xml:space="preserve">6.73906707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349294662476</t>
+    <t xml:space="preserve">6.63349437713623</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786472320557</t>
+    <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783672332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666189193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8798303604126</t>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103319168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666236877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983083724976</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149978637695</t>
+    <t xml:space="preserve">6.61149930953979</t>
   </si>
   <si>
     <t xml:space="preserve">6.523521900177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712896347046</t>
+    <t xml:space="preserve">6.4971284866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.7918529510498</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91062355041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91942024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944919586182</t>
+    <t xml:space="preserve">6.91062259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91942071914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8094482421875</t>
   </si>
   <si>
     <t xml:space="preserve">6.57630825042725</t>
@@ -224,67 +224,67 @@
     <t xml:space="preserve">6.62469625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73026847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144283294678</t>
+    <t xml:space="preserve">6.73026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144235610962</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03818941116333</t>
+    <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343536376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9642972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654516220093</t>
+    <t xml:space="preserve">7.01343488693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642877578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96429681777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654468536377</t>
   </si>
   <si>
     <t xml:space="preserve">7.2903995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695468902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334770202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4690842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1742525100708</t>
+    <t xml:space="preserve">7.4869532585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334817886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
@@ -293,112 +293,112 @@
     <t xml:space="preserve">7.27253103256226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781471252441</t>
+    <t xml:space="preserve">7.43781566619873</t>
   </si>
   <si>
     <t xml:space="preserve">7.6388373374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76391744613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285194396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817993164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682415008545</t>
+    <t xml:space="preserve">7.76391696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285146713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178453445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818040847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682224273682</t>
   </si>
   <si>
     <t xml:space="preserve">7.68350982666016</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36187267303467</t>
+    <t xml:space="preserve">7.36187362670898</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810689926147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531848907471</t>
+    <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
     <t xml:space="preserve">7.62096929550171</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37974262237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629728317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142217636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228219985962</t>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228267669678</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416580200195</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61203527450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248815536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146505355835</t>
+    <t xml:space="preserve">7.6120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146409988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.05363941192627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86155128479004</t>
+    <t xml:space="preserve">6.86155223846436</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
+    <t xml:space="preserve">7.07150793075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523082733154</t>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162479400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523178100586</t>
   </si>
   <si>
     <t xml:space="preserve">7.46015119552612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679351806641</t>
+    <t xml:space="preserve">7.52269220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679399490356</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761114120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461772918701</t>
+    <t xml:space="preserve">7.39761161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4646167755127</t>
   </si>
   <si>
     <t xml:space="preserve">7.37080812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34400510787964</t>
+    <t xml:space="preserve">7.3440055847168</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720209121704</t>
@@ -407,46 +407,46 @@
     <t xml:space="preserve">7.22785949707031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09384489059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323131561279</t>
+    <t xml:space="preserve">7.09384393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962575912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8347487449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794620513916</t>
+    <t xml:space="preserve">6.9508957862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9196252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474922180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80794668197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835477828979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540615081787</t>
+    <t xml:space="preserve">6.74540662765503</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044338226318</t>
+    <t xml:space="preserve">6.96876430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044290542603</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">6.89728927612305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92409229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769832611084</t>
+    <t xml:space="preserve">6.92409181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663282394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003385543823</t>
+    <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
@@ -482,34 +482,34 @@
     <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966958999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163942337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823791503906</t>
+    <t xml:space="preserve">6.81241273880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966863632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4282374382019</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397542953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53991746902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544998168945</t>
+    <t xml:space="preserve">6.43717288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397495269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544950485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.60245656967163</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">6.31655883789062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28082227706909</t>
+    <t xml:space="preserve">6.28082132339478</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520210266113</t>
@@ -533,40 +533,40 @@
     <t xml:space="preserve">6.70073509216309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327514648438</t>
+    <t xml:space="preserve">7.10277795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8526177406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327466964722</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266204833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17872047424316</t>
+    <t xml:space="preserve">6.71860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266157150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
     <t xml:space="preserve">7.41548013687134</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25019454956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912952423096</t>
+    <t xml:space="preserve">7.25019502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212198257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912857055664</t>
   </si>
   <si>
     <t xml:space="preserve">7.30826807022095</t>
@@ -578,34 +578,34 @@
     <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953857421875</t>
+    <t xml:space="preserve">7.20999002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953714370728</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126005172729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11171293258667</t>
+    <t xml:space="preserve">7.11171340942383</t>
   </si>
   <si>
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588871002197</t>
+    <t xml:space="preserve">7.35740613937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588823318481</t>
   </si>
   <si>
     <t xml:space="preserve">7.90686750411987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89793252944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063327789307</t>
+    <t xml:space="preserve">7.89793300628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063423156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.35358238220215</t>
@@ -617,31 +617,31 @@
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60821056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628265380859</t>
+    <t xml:space="preserve">8.60821151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628360748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84496784210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64905738830566</t>
+    <t xml:space="preserve">8.84496974945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64905834197998</t>
   </si>
   <si>
     <t xml:space="preserve">9.33635711669922</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">9.10406398773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93431282043457</t>
+    <t xml:space="preserve">8.93431186676025</t>
   </si>
   <si>
     <t xml:space="preserve">8.90751075744629</t>
@@ -659,34 +659,34 @@
     <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898387908936</t>
+    <t xml:space="preserve">9.06832790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898292541504</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8002986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283683776855</t>
+    <t xml:space="preserve">8.80029678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.7556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83603382110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447399139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365684509277</t>
+    <t xml:space="preserve">8.83603477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365589141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.29168510437012</t>
@@ -701,40 +701,40 @@
     <t xml:space="preserve">9.60896301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924587249756</t>
+    <t xml:space="preserve">9.40952968597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672752380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924682617188</t>
   </si>
   <si>
     <t xml:space="preserve">9.3823356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64522266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528644561768</t>
+    <t xml:space="preserve">9.64522361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343494415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.97156429290771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83559036254883</t>
+    <t xml:space="preserve">9.83558940887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428733825684</t>
@@ -743,46 +743,46 @@
     <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6270923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278247833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5545711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363677978516</t>
+    <t xml:space="preserve">9.62709140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457210540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363773345947</t>
   </si>
   <si>
     <t xml:space="preserve">9.79026317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39139938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36420631408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30074977874756</t>
+    <t xml:space="preserve">9.39140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3642053604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075168609619</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
@@ -791,22 +791,22 @@
     <t xml:space="preserve">9.29168605804443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33701133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644180297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67241859436035</t>
+    <t xml:space="preserve">9.33701229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644275665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67241668701172</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68148326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400352478027</t>
+    <t xml:space="preserve">9.68148231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400257110596</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">9.49111652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3460750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35513973236084</t>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45485687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74493885040283</t>
+    <t xml:space="preserve">9.45485591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74493789672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.88091373443604</t>
@@ -842,43 +842,43 @@
     <t xml:space="preserve">9.89904403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46392059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99875831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90810871124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87184810638428</t>
+    <t xml:space="preserve">9.46392154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99875926971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103549957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.400465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355575561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290519714355</t>
+    <t xml:space="preserve">9.20103454589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477394104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40046501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290328979492</t>
   </si>
   <si>
     <t xml:space="preserve">9.30981540679932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50018119812012</t>
+    <t xml:space="preserve">9.5001802444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205089569092</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">9.15571022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77213287353516</t>
+    <t xml:space="preserve">9.66335296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77213382720947</t>
   </si>
   <si>
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440719604492</t>
+    <t xml:space="preserve">9.13757801055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440910339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.19197082519531</t>
@@ -911,25 +911,25 @@
     <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418111801147</t>
+    <t xml:space="preserve">10.0440835952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418102264404</t>
   </si>
   <si>
     <t xml:space="preserve">10.6423778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874193191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049800872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780698776245</t>
+    <t xml:space="preserve">10.7874183654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780717849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.8055505752563</t>
@@ -938,73 +938,73 @@
     <t xml:space="preserve">10.7511596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6242485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335969924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248161315918</t>
+    <t xml:space="preserve">10.624249458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.533597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">10.2616472244263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797765731812</t>
+    <t xml:space="preserve">10.2797775268555</t>
   </si>
   <si>
     <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84465503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2979068756104</t>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530368804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.297905921936</t>
   </si>
   <si>
     <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3160371780396</t>
+    <t xml:space="preserve">10.3160362243652</t>
   </si>
   <si>
     <t xml:space="preserve">10.3341674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8599405288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3522968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96363830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2577657699585</t>
+    <t xml:space="preserve">10.8599395751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3522977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8349552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96363735198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2577667236328</t>
   </si>
   <si>
     <t xml:space="preserve">9.9452543258667</t>
@@ -1013,43 +1013,43 @@
     <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5592098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555543899536</t>
+    <t xml:space="preserve">9.55920886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3312997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4783639907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151290893555</t>
+    <t xml:space="preserve">10.331298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.478364944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151309967041</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908754348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173442840576</t>
+    <t xml:space="preserve">10.7908763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.8827934265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967489242554</t>
+    <t xml:space="preserve">10.6438112258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.3129177093506</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">10.2393846511841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4232149124146</t>
+    <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415969848633</t>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50406169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567676544189</t>
+    <t xml:space="preserve">9.50406074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.63274097442627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.202618598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496828079224</t>
+    <t xml:space="preserve">10.2026176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">10.2945337295532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1842346191406</t>
+    <t xml:space="preserve">10.1842336654663</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980709075928</t>
+    <t xml:space="preserve">9.77980804443359</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687129974365</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7430419921875</t>
+    <t xml:space="preserve">9.74304103851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54082679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28346347808838</t>
+    <t xml:space="preserve">9.54082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2834644317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.59597587585449</t>
@@ -1136,37 +1136,37 @@
     <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759380340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739374160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154739379883</t>
+    <t xml:space="preserve">9.90848922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789196014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154644012451</t>
   </si>
   <si>
     <t xml:space="preserve">9.18235683441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44890975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35699462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818916320801</t>
+    <t xml:space="preserve">9.46729564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4489107131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35699653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
     <t xml:space="preserve">9.669508934021</t>
@@ -1175,25 +1175,25 @@
     <t xml:space="preserve">9.37537860870361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22831439971924</t>
+    <t xml:space="preserve">9.22831344604492</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41214561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0923194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702810287476</t>
+    <t xml:space="preserve">9.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0923204421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621961593628</t>
+    <t xml:space="preserve">10.6621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048328399658</t>
@@ -1205,28 +1205,28 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221001625061</t>
+    <t xml:space="preserve">10.1474666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2210006713867</t>
   </si>
   <si>
     <t xml:space="preserve">10.3680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2761507034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724933624268</t>
+    <t xml:space="preserve">10.2761516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0298566818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1217737197876</t>
+    <t xml:space="preserve">11.0298585891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1217727661133</t>
   </si>
   <si>
     <t xml:space="preserve">10.9747076034546</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8276433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358388900757</t>
+    <t xml:space="preserve">10.8276424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541093826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664865493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358379364014</t>
   </si>
   <si>
     <t xml:space="preserve">11.1985101699829</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238527297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185466766357</t>
+    <t xml:space="preserve">11.1238536834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185457229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372110366821</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">10.8252277374268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558744430542</t>
+    <t xml:space="preserve">10.9558753967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065614700317</t>
@@ -1283,31 +1283,31 @@
     <t xml:space="preserve">10.8812189102173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8625545501709</t>
+    <t xml:space="preserve">10.8625555038452</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6572494506836</t>
+    <t xml:space="preserve">10.657247543335</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892692565918</t>
+    <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.35862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959493637085</t>
+    <t xml:space="preserve">10.3772850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3586206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959503173828</t>
   </si>
   <si>
     <t xml:space="preserve">10.6012554168701</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">10.4332790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">10.227972984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719799041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0786590576172</t>
+    <t xml:space="preserve">10.2279710769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719789505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0786581039429</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466354370117</t>
+    <t xml:space="preserve">10.2466373443604</t>
   </si>
   <si>
     <t xml:space="preserve">9.79869556427002</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">10.1159868240356</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0040006637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8546895980835</t>
+    <t xml:space="preserve">10.0040016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.81736087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270248413086</t>
+    <t xml:space="preserve">9.74270343780518</t>
   </si>
   <si>
     <t xml:space="preserve">9.76136779785156</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938259124756</t>
+    <t xml:space="preserve">9.64938163757324</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407558441162</t>
+    <t xml:space="preserve">9.44407653808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.6120548248291</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003215789795</t>
+    <t xml:space="preserve">9.78003025054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201736450195</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">10.3212938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335300445557</t>
+    <t xml:space="preserve">9.87335395812988</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
@@ -1409,64 +1409,64 @@
     <t xml:space="preserve">10.0973234176636</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9666748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804695129395</t>
+    <t xml:space="preserve">9.96667385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5265989303589</t>
+    <t xml:space="preserve">10.5265998840332</t>
   </si>
   <si>
     <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.339958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026285171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72404003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51873397827148</t>
+    <t xml:space="preserve">10.3399562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026275634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72403907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
     <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48140621185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209133148193</t>
+    <t xml:space="preserve">9.48140430450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209037780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211101531982</t>
+    <t xml:space="preserve">9.19211006164551</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36942005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.350754737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27609825134277</t>
+    <t xml:space="preserve">9.36941909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35075569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27609920501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.31342792510986</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010707855225</t>
+    <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69750785827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63218402862549</t>
+    <t xml:space="preserve">8.69750881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.43621063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40821552276611</t>
+    <t xml:space="preserve">8.4082145690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561725616455</t>
+    <t xml:space="preserve">7.88561773300171</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559947967529</t>
@@ -1514,52 +1514,52 @@
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765817642212</t>
   </si>
   <si>
     <t xml:space="preserve">7.60565376281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65231466293335</t>
+    <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079410552979</t>
+    <t xml:space="preserve">9.07079315185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810218811035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344665527344</t>
+    <t xml:space="preserve">9.21077537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17344570159912</t>
   </si>
   <si>
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678527832031</t>
+    <t xml:space="preserve">9.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678623199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207164764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37875175476074</t>
+    <t xml:space="preserve">9.47207355499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25743579864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37875080108643</t>
   </si>
   <si>
     <t xml:space="preserve">9.20144176483154</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82815933227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415050506592</t>
+    <t xml:space="preserve">8.82815837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415145874023</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01480102539062</t>
+    <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7908296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018104553223</t>
+    <t xml:space="preserve">8.79082870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.77216529846191</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431415557861</t>
+    <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83181095123291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0692939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217962265015</t>
+    <t xml:space="preserve">10.0692930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217971801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">10.4017705917358</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442609786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.5442600250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3067770004272</t>
+    <t xml:space="preserve">10.3067779541016</t>
   </si>
   <si>
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542737960815</t>
+    <t xml:space="preserve">10.3542728424072</t>
   </si>
   <si>
     <t xml:space="preserve">9.97430038452148</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917558670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6392526626587</t>
+    <t xml:space="preserve">10.5917568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.639253616333</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1670,25 +1670,25 @@
     <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9242334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1142206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092132568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0192270278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9717311859131</t>
+    <t xml:space="preserve">10.9242324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1142196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092142105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0192279815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9717292785645</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7342462539673</t>
+    <t xml:space="preserve">10.7342472076416</t>
   </si>
   <si>
     <t xml:space="preserve">11.6366834640503</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216632843018</t>
+    <t xml:space="preserve">11.9216642379761</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816110610962</t>
+    <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715963363647</t>
+    <t xml:space="preserve">13.0140867233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715972900391</t>
   </si>
   <si>
     <t xml:space="preserve">12.7766036987305</t>
@@ -1739,28 +1739,28 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665899276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090803146362</t>
+    <t xml:space="preserve">12.9665908813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840463638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640207290649</t>
+    <t xml:space="preserve">13.5840473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640197753906</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315431594849</t>
+    <t xml:space="preserve">13.7740345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1769,28 +1769,28 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015027999878</t>
+    <t xml:space="preserve">14.1065101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015037536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2490005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3914909362793</t>
+    <t xml:space="preserve">14.2489995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3914890289307</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814771652222</t>
+    <t xml:space="preserve">14.5814781188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189601898193</t>
@@ -1799,22 +1799,22 @@
     <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5339813232422</t>
+    <t xml:space="preserve">14.5339803695679</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764707565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.771463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.6764698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7239656448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1841,64 +1841,64 @@
     <t xml:space="preserve">16.2248611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3388557434082</t>
+    <t xml:space="preserve">16.3388538360596</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628612518311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478401184082</t>
+    <t xml:space="preserve">16.3768520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478382110596</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728740692139</t>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588813781738</t>
+    <t xml:space="preserve">15.9588794708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.1108703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6739015579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169052124023</t>
   </si>
   <si>
     <t xml:space="preserve">15.8258905410767</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068904876709</t>
+    <t xml:space="preserve">15.8068914413452</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
+    <t xml:space="preserve">15.3699226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208841323853</t>
   </si>
   <si>
     <t xml:space="preserve">16.128137588501</t>
@@ -3258,6 +3258,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.25</t>
   </si>
 </sst>
 </file>
@@ -59551,7 +59554,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495833333</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>15470</v>
@@ -59572,6 +59575,32 @@
         <v>1072</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494212963</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>9518</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>32.7999992370605</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>32.7999992370605</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -44,46 +44,46 @@
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534563064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22734069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220611572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179599761963</t>
+    <t xml:space="preserve">7.20534658432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373411178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22734117507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220659255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780824661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179695129395</t>
   </si>
   <si>
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68627977371216</t>
+    <t xml:space="preserve">6.68628025054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425813674927</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35636472702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42234897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073602676392</t>
+    <t xml:space="preserve">6.35636520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42234802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833131790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073650360107</t>
   </si>
   <si>
     <t xml:space="preserve">6.50592708587646</t>
@@ -92,64 +92,64 @@
     <t xml:space="preserve">6.26398944854736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2287974357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912355422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994426727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311178207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267414093018</t>
+    <t xml:space="preserve">6.22879791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710096359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57191038131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
   </si>
   <si>
     <t xml:space="preserve">6.8622350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78305530548096</t>
+    <t xml:space="preserve">6.7830548286438</t>
   </si>
   <si>
     <t xml:space="preserve">6.8534369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0733814239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9062237739563</t>
+    <t xml:space="preserve">7.07337999343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90622329711914</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376258850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94581365585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256118774414</t>
+    <t xml:space="preserve">6.94581413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256023406982</t>
   </si>
   <si>
     <t xml:space="preserve">6.79625129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89302682876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349437713623</t>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349342346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024047851562</t>
+    <t xml:space="preserve">6.84024000167847</t>
   </si>
   <si>
     <t xml:space="preserve">6.87543201446533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103319168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783624649048</t>
+    <t xml:space="preserve">6.87103223800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783576965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.75666236877441</t>
@@ -179,40 +179,40 @@
     <t xml:space="preserve">6.87983083724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.523521900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4971284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7918529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94141435623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9150218963623</t>
+    <t xml:space="preserve">6.93701648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9766058921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79185342788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94141387939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91502141952515</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942071914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8094482421875</t>
+    <t xml:space="preserve">6.91942024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80944871902466</t>
   </si>
   <si>
     <t xml:space="preserve">6.57630825042725</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">6.43114566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62469625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144235610962</t>
+    <t xml:space="preserve">6.62469577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
@@ -236,79 +236,79 @@
     <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00450134277344</t>
+    <t xml:space="preserve">7.00450086593628</t>
   </si>
   <si>
     <t xml:space="preserve">7.01343488693237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94642877578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2903995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4869532585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334817886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
+    <t xml:space="preserve">6.94642782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96429634094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654420852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29039859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695421218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482320785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609418869019</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51375675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121622085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577089309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9330267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27253103256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781566619873</t>
+    <t xml:space="preserve">7.51375722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2725305557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781423568726</t>
   </si>
   <si>
     <t xml:space="preserve">7.6388373374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76391696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178453445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818040847778</t>
+    <t xml:space="preserve">7.76391744613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817993164062</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682224273682</t>
@@ -320,67 +320,67 @@
     <t xml:space="preserve">7.36187362670898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05810689926147</t>
+    <t xml:space="preserve">7.05810737609863</t>
   </si>
   <si>
     <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62096929550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974214553833</t>
+    <t xml:space="preserve">7.62096881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974262237549</t>
   </si>
   <si>
     <t xml:space="preserve">7.57629776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142122268677</t>
+    <t xml:space="preserve">7.49142265319824</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228267669678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6120343208313</t>
+    <t xml:space="preserve">7.59416675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203527450562</t>
   </si>
   <si>
     <t xml:space="preserve">7.48248624801636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28146409988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363941192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155223846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688070297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150793075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101264953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162479400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015119552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269220352173</t>
+    <t xml:space="preserve">7.28146505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8615517616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688022613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150840759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162574768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5852313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269077301025</t>
   </si>
   <si>
     <t xml:space="preserve">7.23679399490356</t>
@@ -389,16 +389,16 @@
     <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4646167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3440055847168</t>
+    <t xml:space="preserve">7.39761066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461725234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400606155396</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720209121704</t>
@@ -410,40 +410,40 @@
     <t xml:space="preserve">7.09384393692017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01790285110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9508957862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02237033843994</t>
+    <t xml:space="preserve">6.94196081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323036193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01790332794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95089483261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02236986160278</t>
   </si>
   <si>
     <t xml:space="preserve">6.9196252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83474922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794668197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88835477828979</t>
+    <t xml:space="preserve">6.8347487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.807945728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
     <t xml:space="preserve">6.74540662765503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87942028045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876430511475</t>
+    <t xml:space="preserve">6.8794207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96876382827759</t>
   </si>
   <si>
     <t xml:space="preserve">7.08044290542603</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">6.92409181594849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023838043213</t>
+    <t xml:space="preserve">6.98663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
   </si>
   <si>
     <t xml:space="preserve">7.06704092025757</t>
@@ -473,70 +473,70 @@
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003433227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13404893875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241273880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966863632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4416389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4282374382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930437088013</t>
+    <t xml:space="preserve">7.00003385543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917192459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44163942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42823791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930341720581</t>
   </si>
   <si>
     <t xml:space="preserve">6.43717288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46397495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53991794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245656967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204895019531</t>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5399169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245704650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.522047996521</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655883789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082132339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073509216309</t>
+    <t xml:space="preserve">6.31655931472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520162582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277795791626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8526177406311</t>
+    <t xml:space="preserve">6.85261821746826</t>
   </si>
   <si>
     <t xml:space="preserve">6.76327466964722</t>
@@ -545,34 +545,34 @@
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266157150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
+    <t xml:space="preserve">6.71860265731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064743041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41548013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912857055664</t>
+    <t xml:space="preserve">7.41547918319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2591290473938</t>
   </si>
   <si>
     <t xml:space="preserve">7.30826807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47801971435547</t>
+    <t xml:space="preserve">7.47801923751831</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949426651001</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953714370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24126005172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171340942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2993335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740613937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588823318481</t>
+    <t xml:space="preserve">7.33953809738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24125957489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29933404922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588775634766</t>
   </si>
   <si>
     <t xml:space="preserve">7.90686750411987</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">7.89793300628662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21063423156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39825344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821151733398</t>
+    <t xml:space="preserve">8.21063327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39825439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299800872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60821056365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.57694053649902</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">8.33571338653564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00578594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628360748291</t>
+    <t xml:space="preserve">9.00578784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84496974945068</t>
+    <t xml:space="preserve">8.84496879577637</t>
   </si>
   <si>
     <t xml:space="preserve">8.95218181610107</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">9.33635711669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406398773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431186676025</t>
+    <t xml:space="preserve">9.10406494140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79136371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898292541504</t>
+    <t xml:space="preserve">8.7913646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898483276367</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80029678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603477478027</t>
+    <t xml:space="preserve">8.80029773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75562572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603382110596</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447208404541</t>
@@ -686,121 +686,121 @@
     <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02365589141846</t>
+    <t xml:space="preserve">9.02365684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60896396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672561645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3823356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343494415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62709140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42766094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5908317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615703582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3642053604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30074882507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24635887145996</t>
   </si>
   <si>
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51831150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40952968597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672752380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3823356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83558940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59083271026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3642053604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30075168609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24635982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644275665283</t>
+    <t xml:space="preserve">9.33701133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644371032715</t>
   </si>
   <si>
     <t xml:space="preserve">9.67241668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4185962677002</t>
+    <t xml:space="preserve">9.41859722137451</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111652374268</t>
+    <t xml:space="preserve">9.49111843109131</t>
   </si>
   <si>
     <t xml:space="preserve">9.34607601165771</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">9.45485591888428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74493789672852</t>
+    <t xml:space="preserve">9.74493885040283</t>
   </si>
   <si>
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371875762939</t>
+    <t xml:space="preserve">9.85371780395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839347839355</t>
@@ -845,31 +845,31 @@
     <t xml:space="preserve">9.46392154693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99875926971436</t>
+    <t xml:space="preserve">9.99876022338867</t>
   </si>
   <si>
     <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82652282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87185001373291</t>
+    <t xml:space="preserve">9.82652378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87184810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477394104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40046501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355480194092</t>
+    <t xml:space="preserve">9.20103359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477584838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.400465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2735538482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.18290328979492</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">9.30981540679932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5001802444458</t>
+    <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205089569092</t>
@@ -896,46 +896,46 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19197082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061172485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418102264404</t>
+    <t xml:space="preserve">9.1375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22822952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.191969871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440855026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418092727661</t>
   </si>
   <si>
     <t xml:space="preserve">10.6423778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874183654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055505752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511596679688</t>
+    <t xml:space="preserve">10.7874193191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049819946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.805549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511606216431</t>
   </si>
   <si>
     <t xml:space="preserve">10.624249458313</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2616472244263</t>
+    <t xml:space="preserve">10.4248189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.261646270752</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465312957764</t>
+    <t xml:space="preserve">10.2253847122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465408325195</t>
   </si>
   <si>
     <t xml:space="preserve">9.71774291992188</t>
@@ -965,43 +965,43 @@
     <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93530368804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.297905921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8599395751953</t>
+    <t xml:space="preserve">9.93530464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2979049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160371780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341665267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8599405288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522977828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0078229904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">10.0078258514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969554901123</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142311096191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8349552154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96363735198975</t>
+    <t xml:space="preserve">9.83495616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577667236328</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">9.9452543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72465801239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55920886993408</t>
+    <t xml:space="preserve">9.72465705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.85333919525146</t>
@@ -1022,37 +1022,37 @@
     <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.331298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.478364944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9011754989624</t>
+    <t xml:space="preserve">10.1658535003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3312997817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151300430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9011764526367</t>
   </si>
   <si>
     <t xml:space="preserve">10.7908763885498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7173452377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438112258911</t>
+    <t xml:space="preserve">10.7173442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
   </si>
   <si>
     <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3129177093506</t>
+    <t xml:space="preserve">10.3129167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.2393846511841</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415979385376</t>
+    <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63274097442627</t>
+    <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
     <t xml:space="preserve">10.2026176452637</t>
@@ -1097,25 +1097,25 @@
     <t xml:space="preserve">10.2945337295532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1842336654663</t>
+    <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687129974365</t>
+    <t xml:space="preserve">9.77980709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371704101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98202037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74304103851318</t>
+    <t xml:space="preserve">9.98202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7430419921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54082584381104</t>
+    <t xml:space="preserve">9.54082679748535</t>
   </si>
   <si>
     <t xml:space="preserve">9.2834644317627</t>
@@ -1139,46 +1139,46 @@
     <t xml:space="preserve">9.90848922729492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57759189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073935508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789196014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154644012451</t>
+    <t xml:space="preserve">9.57759284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627403259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0739364624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.18235683441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4489107131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35699653625488</t>
+    <t xml:space="preserve">9.46729469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44890975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35699558258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.669508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599809646606</t>
+    <t xml:space="preserve">9.66950988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3753776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831535339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.459981918335</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214466094971</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">10.0923204421997</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702791213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3864498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1290855407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1474666595459</t>
+    <t xml:space="preserve">10.5702810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9379415512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6621952056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048318862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3864488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1290864944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1474695205688</t>
   </si>
   <si>
     <t xml:space="preserve">10.2210006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680658340454</t>
+    <t xml:space="preserve">10.3680648803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761516571045</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">10.8092603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0298585891724</t>
+    <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217727661133</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.993091583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7541093826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664865493774</t>
+    <t xml:space="preserve">10.9930906295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664875030518</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
@@ -1250,46 +1250,46 @@
     <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3478231430054</t>
+    <t xml:space="preserve">11.3478221893311</t>
   </si>
   <si>
     <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185457229614</t>
+    <t xml:space="preserve">11.1238527297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8252277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7692337036133</t>
+    <t xml:space="preserve">10.8252267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7692346572876</t>
   </si>
   <si>
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625555038452</t>
+    <t xml:space="preserve">10.881217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625535964966</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.657247543335</t>
+    <t xml:space="preserve">10.6572494506836</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093076705933</t>
+    <t xml:space="preserve">10.2093086242676</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772850036621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3586206436157</t>
+    <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959503173828</t>
@@ -1313,16 +1313,16 @@
     <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279710769653</t>
+    <t xml:space="preserve">10.4332780838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279720306396</t>
   </si>
   <si>
     <t xml:space="preserve">10.1719789505005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786581039429</t>
+    <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">10.022665977478</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98533725738525</t>
+    <t xml:space="preserve">9.98533821105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599946975708</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">10.246636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.1159868240356</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85468864440918</t>
+    <t xml:space="preserve">9.8546895980835</t>
   </si>
   <si>
     <t xml:space="preserve">9.81736087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136779785156</t>
+    <t xml:space="preserve">9.74270248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136684417725</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
@@ -1373,34 +1373,34 @@
     <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938163757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53739833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44407653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6120548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7053747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201736450195</t>
+    <t xml:space="preserve">9.64938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44407558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70537567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201831817627</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335395812988</t>
+    <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
@@ -1412,43 +1412,43 @@
     <t xml:space="preserve">9.96667385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804504394531</t>
+    <t xml:space="preserve">9.83602333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5265998840332</t>
+    <t xml:space="preserve">10.5265979766846</t>
   </si>
   <si>
     <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3399562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934608459473</t>
+    <t xml:space="preserve">10.339958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934417724609</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873302459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5000696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209037780762</t>
+    <t xml:space="preserve">9.51873207092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50006866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36941909790039</t>
+    <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57472705841064</t>
+    <t xml:space="preserve">9.27609825134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57472515106201</t>
   </si>
   <si>
     <t xml:space="preserve">9.10812091827393</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010612487793</t>
+    <t xml:space="preserve">9.22010707855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43621063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4082145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092330932617</t>
+    <t xml:space="preserve">8.43621158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40821552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092235565186</t>
   </si>
   <si>
     <t xml:space="preserve">7.88561773300171</t>
@@ -1514,55 +1514,55 @@
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682178497314</t>
+    <t xml:space="preserve">7.93227815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231466293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
     <t xml:space="preserve">9.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24810218811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344570159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16411399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42541313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476356506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37875080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20144176483154</t>
+    <t xml:space="preserve">9.24810314178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17344665527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16411304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42541217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.126784324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476451873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207164764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2574348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37875175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20144081115723</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">8.88415145874023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95880794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01480007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71617317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79082870483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018009185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77216529846191</t>
+    <t xml:space="preserve">8.95880889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01479911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79083061218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018104553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77216625213623</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83181095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">9.78431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83180999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">10.4017705917358</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592802047729</t>
+    <t xml:space="preserve">10.5442609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592811584473</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3067779541016</t>
+    <t xml:space="preserve">10.3067770004272</t>
   </si>
   <si>
     <t xml:space="preserve">10.4492664337158</t>
@@ -1643,16 +1643,16 @@
     <t xml:space="preserve">10.3542728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97430038452148</t>
+    <t xml:space="preserve">9.97429943084717</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.639253616333</t>
+    <t xml:space="preserve">10.5917558670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392526626587</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1142196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092142105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0192279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9717292785645</t>
+    <t xml:space="preserve">10.8767356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1142206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092132568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0192270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9717311859131</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7342472076416</t>
+    <t xml:space="preserve">10.7342462539673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6366834640503</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216642379761</t>
+    <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816101074219</t>
+    <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140867233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715972900391</t>
+    <t xml:space="preserve">13.0140857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715963363647</t>
   </si>
   <si>
     <t xml:space="preserve">12.7766036987305</t>
@@ -1739,28 +1739,28 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090793609619</t>
+    <t xml:space="preserve">12.9665899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090803146362</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640197753906</t>
+    <t xml:space="preserve">13.5840463638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640207290649</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.7740335464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315431594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1769,28 +1769,28 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.1065111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015027999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3914890289307</t>
+    <t xml:space="preserve">14.2490005493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814781188965</t>
+    <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189601898193</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">14.6764698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7239656448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7714643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139528274536</t>
+    <t xml:space="preserve">14.7239665985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.771463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139537811279</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1835,19 +1835,19 @@
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2248611450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768520355225</t>
+    <t xml:space="preserve">16.1868667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2248630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">16.5288410186768</t>
@@ -1859,46 +1859,46 @@
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808280944824</t>
+    <t xml:space="preserve">16.6808300018311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4148502349854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728721618652</t>
+    <t xml:space="preserve">16.0728740692139</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6739015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258905410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068914413452</t>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208841323853</t>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.128137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1088905334473</t>
+    <t xml:space="preserve">16.1088924407959</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624616622925</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">15.9549217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7432165145874</t>
+    <t xml:space="preserve">15.7432174682617</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1940,19 +1940,19 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394460678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741687774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783359527588</t>
+    <t xml:space="preserve">15.8394451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628574371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3975830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862697601318</t>
+    <t xml:space="preserve">16.6862716674805</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">17.1096820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3791275024414</t>
+    <t xml:space="preserve">17.3791255950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.4753570556641</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">17.2828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.667818069458</t>
+    <t xml:space="preserve">17.6678161621094</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180145263672</t>
+    <t xml:space="preserve">17.9180126190186</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485691070557</t>
+    <t xml:space="preserve">17.6485710144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">17.3983726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021411895752</t>
+    <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674194335938</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142440795898</t>
+    <t xml:space="preserve">17.8602733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.591625213623</t>
+    <t xml:space="preserve">18.5916233062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8803157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9765434265137</t>
+    <t xml:space="preserve">18.880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6878547668457</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">20.0639400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1601715087891</t>
+    <t xml:space="preserve">20.1601734161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.264440536499</t>
+    <t xml:space="preserve">18.2644386291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1690044403076</t>
+    <t xml:space="preserve">19.169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082862854004</t>
+    <t xml:space="preserve">20.2082843780518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.448860168457</t>
+    <t xml:space="preserve">20.4488620758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">21.1224689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4111595153809</t>
+    <t xml:space="preserve">21.4111614227295</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865608215332</t>
+    <t xml:space="preserve">19.4865627288818</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384460449219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7752494812012</t>
+    <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
     <t xml:space="preserve">19.8233680725098</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195976257324</t>
+    <t xml:space="preserve">19.9195957183838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2067031860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682090759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259483337402</t>
+    <t xml:space="preserve">18.2067012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682109832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259502410889</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.436071395874</t>
+    <t xml:space="preserve">16.4360733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.8787307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628532409668</t>
+    <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
     <t xml:space="preserve">16.9749584197998</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134506225586</t>
+    <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553203582764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7440071105957</t>
+    <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
     <t xml:space="preserve">16.7825012207031</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">15.2813138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.724760055542</t>
+    <t xml:space="preserve">16.1858749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319080352783</t>
+    <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737739562988</t>
+    <t xml:space="preserve">15.4737730026245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817087173462</t>
+    <t xml:space="preserve">15.7817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -59580,7 +59580,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494212963</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>9518</v>
@@ -59601,6 +59601,32 @@
         <v>1082</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6496180556</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>9939</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>32.1500015258789</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>32.7999992370605</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>31.8500003814697</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414518356323</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534658432007</t>
+    <t xml:space="preserve">7.20534610748291</t>
   </si>
   <si>
     <t xml:space="preserve">7.25373411178589</t>
@@ -56,19 +56,19 @@
     <t xml:space="preserve">7.12616777420044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97220659255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865600585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68627882003784</t>
+    <t xml:space="preserve">6.97220706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780729293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179647445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68627977371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425765991211</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4223484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833131790161</t>
+    <t xml:space="preserve">6.42234802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833084106445</t>
   </si>
   <si>
     <t xml:space="preserve">6.47073602676392</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190942764282</t>
+    <t xml:space="preserve">6.60710096359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994474411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190895080566</t>
   </si>
   <si>
     <t xml:space="preserve">6.56311225891113</t>
@@ -119,73 +119,73 @@
     <t xml:space="preserve">6.78305530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8534369468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338047027588</t>
+    <t xml:space="preserve">6.85343742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07338094711304</t>
   </si>
   <si>
     <t xml:space="preserve">6.90622425079346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14376306533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581270217896</t>
+    <t xml:space="preserve">7.14376258850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581317901611</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256118774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302778244019</t>
+    <t xml:space="preserve">7.15256071090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625272750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302730560303</t>
   </si>
   <si>
     <t xml:space="preserve">6.7390661239624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349390029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69067907333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786424636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463977813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103223800659</t>
+    <t xml:space="preserve">6.63349437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6906795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84463930130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103271484375</t>
   </si>
   <si>
     <t xml:space="preserve">6.85783672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75666236877441</t>
+    <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.8798303604126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
+    <t xml:space="preserve">6.93701553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660493850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
   </si>
   <si>
     <t xml:space="preserve">6.61149930953979</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">6.52352237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7918529510498</t>
+    <t xml:space="preserve">6.49712944030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79185247421265</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141483306885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91502285003662</t>
+    <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114519119263</t>
+    <t xml:space="preserve">6.43114566802979</t>
   </si>
   <si>
     <t xml:space="preserve">6.62469625473022</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92381906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818941116333</t>
+    <t xml:space="preserve">6.92381954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96429681777954</t>
+    <t xml:space="preserve">6.96429634094238</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654563903809</t>
@@ -254,19 +254,19 @@
     <t xml:space="preserve">7.29039907455444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695468902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482225418091</t>
+    <t xml:space="preserve">7.48695421218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.43334770202637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32613611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609228134155</t>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609180450439</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">7.51375675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
+    <t xml:space="preserve">7.45121717453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577184677124</t>
   </si>
   <si>
     <t xml:space="preserve">7.1742525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93302631378174</t>
+    <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
     <t xml:space="preserve">7.2725305557251</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">7.43781471252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63883638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391649246216</t>
+    <t xml:space="preserve">7.6388373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391696929932</t>
   </si>
   <si>
     <t xml:space="preserve">7.7728533744812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818088531494</t>
+    <t xml:space="preserve">7.78178787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817945480347</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
@@ -317,22 +317,22 @@
     <t xml:space="preserve">7.683509349823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36187314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096786499023</t>
+    <t xml:space="preserve">7.36187410354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810642242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531991958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096834182739</t>
   </si>
   <si>
     <t xml:space="preserve">7.3797435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57629680633545</t>
+    <t xml:space="preserve">7.57629776000977</t>
   </si>
   <si>
     <t xml:space="preserve">7.49142217636108</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203384399414</t>
+    <t xml:space="preserve">7.59416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203479766846</t>
   </si>
   <si>
     <t xml:space="preserve">7.48248672485352</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
+    <t xml:space="preserve">7.07150888442993</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
@@ -371,25 +371,25 @@
     <t xml:space="preserve">7.41101264953613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53162670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5852313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015167236328</t>
+    <t xml:space="preserve">7.53162622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015214920044</t>
   </si>
   <si>
     <t xml:space="preserve">7.52269124984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23679351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761066436768</t>
+    <t xml:space="preserve">7.23679304122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761018753052</t>
   </si>
   <si>
     <t xml:space="preserve">7.46461772918701</t>
@@ -404,43 +404,43 @@
     <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785902023315</t>
+    <t xml:space="preserve">7.227858543396</t>
   </si>
   <si>
     <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323036193848</t>
+    <t xml:space="preserve">6.94196081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9508957862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02237033843994</t>
+    <t xml:space="preserve">6.95089530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02236986160278</t>
   </si>
   <si>
     <t xml:space="preserve">6.9196252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83474922180176</t>
+    <t xml:space="preserve">6.83474969863892</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794668197632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540567398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8794207572937</t>
+    <t xml:space="preserve">6.88835430145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540615081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
     <t xml:space="preserve">6.96876430511475</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">6.92409229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9821662902832</t>
+    <t xml:space="preserve">6.98663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704139709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003433227539</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">7.04917192459106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241369247437</t>
+    <t xml:space="preserve">6.81241416931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.83921670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70966958999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163942337036</t>
+    <t xml:space="preserve">6.70966911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
   </si>
   <si>
     <t xml:space="preserve">6.42823839187622</t>
@@ -503,64 +503,64 @@
     <t xml:space="preserve">6.43717193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46397542953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245704650879</t>
+    <t xml:space="preserve">6.46397638320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544950485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245656967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29869031906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31655931472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082275390625</t>
+    <t xml:space="preserve">6.29869079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31655883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520210266113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70073413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8526177406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327419281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774168014526</t>
+    <t xml:space="preserve">6.70073366165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85261821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327466964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774120330811</t>
   </si>
   <si>
     <t xml:space="preserve">6.71860313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64266157150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17872095108032</t>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
     <t xml:space="preserve">7.41547966003418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25019454956055</t>
+    <t xml:space="preserve">7.25019502639771</t>
   </si>
   <si>
     <t xml:space="preserve">7.19212198257446</t>
@@ -569,19 +569,19 @@
     <t xml:space="preserve">7.25912857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30826807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47802066802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54949283599854</t>
+    <t xml:space="preserve">7.30826711654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47801971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54949331283569</t>
   </si>
   <si>
     <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953714370728</t>
+    <t xml:space="preserve">7.33953762054443</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126005172729</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">7.49588775634766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90686845779419</t>
+    <t xml:space="preserve">7.90686750411987</t>
   </si>
   <si>
     <t xml:space="preserve">7.89793157577515</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">8.35358238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299896240234</t>
+    <t xml:space="preserve">8.39825248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299800872803</t>
   </si>
   <si>
     <t xml:space="preserve">8.60821056365967</t>
@@ -632,52 +632,52 @@
     <t xml:space="preserve">8.66628265380859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05939197540283</t>
+    <t xml:space="preserve">9.05939292907715</t>
   </si>
   <si>
     <t xml:space="preserve">8.84496879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218276977539</t>
+    <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3363561630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10406589508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431282043457</t>
+    <t xml:space="preserve">9.33635711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431186676025</t>
   </si>
   <si>
     <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7913646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88964176177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80029773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283683776855</t>
+    <t xml:space="preserve">8.79136276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80029678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283779144287</t>
   </si>
   <si>
     <t xml:space="preserve">8.75562763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83603477478027</t>
+    <t xml:space="preserve">8.83603668212891</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447208404541</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">9.2916841506958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.518310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
+    <t xml:space="preserve">9.51831245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298526763916</t>
   </si>
   <si>
     <t xml:space="preserve">9.43672657012939</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">9.50924777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38233757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
+    <t xml:space="preserve">9.38233661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343494415283</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151847839355</t>
+    <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
     <t xml:space="preserve">10.1528663635254</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">9.97156429290771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8355884552002</t>
+    <t xml:space="preserve">9.83558940887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428733825684</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">9.62709140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42766094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579219818115</t>
+    <t xml:space="preserve">9.42765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579029083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.5908317565918</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">9.57270240783691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69961261749268</t>
+    <t xml:space="preserve">9.69961357116699</t>
   </si>
   <si>
     <t xml:space="preserve">9.86278343200684</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">9.55457305908203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63615798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026412963867</t>
+    <t xml:space="preserve">9.63615703582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026317596436</t>
   </si>
   <si>
     <t xml:space="preserve">9.39140033721924</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">9.24635887145996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29168605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33700942993164</t>
+    <t xml:space="preserve">9.29168510437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701133728027</t>
   </si>
   <si>
     <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241859436035</t>
+    <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
@@ -806,22 +806,22 @@
     <t xml:space="preserve">9.68148422241211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400352478027</t>
+    <t xml:space="preserve">9.75400447845459</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111652374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34607410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
+    <t xml:space="preserve">9.49111843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3460750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514163970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
     <t xml:space="preserve">9.45485591888428</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">9.74493789672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88091564178467</t>
+    <t xml:space="preserve">9.88091468811035</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371971130371</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">9.80839157104492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89904308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392059326172</t>
+    <t xml:space="preserve">9.89904499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4639196395874</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90810966491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652378082275</t>
+    <t xml:space="preserve">9.90811061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652282714844</t>
   </si>
   <si>
     <t xml:space="preserve">9.87184810638428</t>
@@ -866,34 +866,34 @@
     <t xml:space="preserve">9.16477394104004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2735538482666</t>
+    <t xml:space="preserve">9.40046405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.18290424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30981540679932</t>
+    <t xml:space="preserve">9.30981731414795</t>
   </si>
   <si>
     <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48205184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15571117401123</t>
+    <t xml:space="preserve">9.48205280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15571022033691</t>
   </si>
   <si>
     <t xml:space="preserve">9.66335201263428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77213191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17383861541748</t>
+    <t xml:space="preserve">9.77213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
     <t xml:space="preserve">9.1375789642334</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">9.22822952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440814971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19197082519531</t>
+    <t xml:space="preserve">8.97440719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
+    <t xml:space="preserve">10.0440845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">10.7874202728271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0049810409546</t>
+    <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8780698776245</t>
@@ -935,70 +935,70 @@
     <t xml:space="preserve">10.805549621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511596679688</t>
+    <t xml:space="preserve">10.7511606216431</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335969924927</t>
+    <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248180389404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2616472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797775268555</t>
+    <t xml:space="preserve">10.261646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797765731812</t>
   </si>
   <si>
     <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530368804932</t>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891250610352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2979068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341665267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8599395751953</t>
+    <t xml:space="preserve">10.297905921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160371780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859938621521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522977828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0078248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969554901123</t>
+    <t xml:space="preserve">10.0078239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83495616912842</t>
+    <t xml:space="preserve">9.8349552154541</t>
   </si>
   <si>
     <t xml:space="preserve">9.96363830566406</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">10.2577676773071</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9452543258667</t>
+    <t xml:space="preserve">9.94525337219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.72465705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55921077728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.55920886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85334014892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.055552482605</t>
@@ -1025,31 +1025,31 @@
     <t xml:space="preserve">10.1658515930176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3312997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4783630371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151290893555</t>
+    <t xml:space="preserve">10.331298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151309967041</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908763885498</t>
+    <t xml:space="preserve">10.7908773422241</t>
   </si>
   <si>
     <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827924728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967470169067</t>
+    <t xml:space="preserve">10.8827934265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.3129177093506</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4415969848633</t>
+    <t xml:space="preserve">10.6805782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50405979156494</t>
+    <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.48567771911621</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2026176452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496828079224</t>
+    <t xml:space="preserve">10.2026166915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187873840332</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">10.1107025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2945346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842346191406</t>
+    <t xml:space="preserve">10.2945337295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010620117188</t>
@@ -1109,43 +1109,43 @@
     <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0371713638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98201942443848</t>
+    <t xml:space="preserve">10.0371694564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98202133178711</t>
   </si>
   <si>
     <t xml:space="preserve">9.74304103851318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87172222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004043579102</t>
+    <t xml:space="preserve">9.8717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004034042358</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28346347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848922729492</t>
+    <t xml:space="preserve">9.2834644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59597587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5224437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
     <t xml:space="preserve">9.57759380340576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739364624023</t>
+    <t xml:space="preserve">9.70627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073935508728</t>
   </si>
   <si>
     <t xml:space="preserve">9.68789196014404</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44890975952148</t>
+    <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">9.66950798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37537860870361</t>
+    <t xml:space="preserve">9.37537956237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214561462402</t>
+    <t xml:space="preserve">10.459981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214656829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702819824219</t>
+    <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048309326172</t>
+    <t xml:space="preserve">10.4048318862915</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864488601685</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.221001625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680658340454</t>
+    <t xml:space="preserve">10.2210006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680667877197</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761507034302</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092603683472</t>
+    <t xml:space="preserve">10.8092594146729</t>
   </si>
   <si>
     <t xml:space="preserve">11.029857635498</t>
@@ -1229,25 +1229,25 @@
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747076034546</t>
+    <t xml:space="preserve">10.9747066497803</t>
   </si>
   <si>
     <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8276433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7541093826294</t>
+    <t xml:space="preserve">10.8276443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664875030518</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2358388900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985101699829</t>
+    <t xml:space="preserve">11.2358379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985111236572</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252267837524</t>
+    <t xml:space="preserve">10.9372110366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252258300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558744430542</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6572494506836</t>
+    <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132396697998</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093067169189</t>
+    <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772859573364</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">10.3959503173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6012554168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332790374756</t>
+    <t xml:space="preserve">10.6012544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332780838013</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279720306396</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">10.1719789505005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786581039429</t>
+    <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
@@ -1331,13 +1331,13 @@
     <t xml:space="preserve">10.022665977478</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98533821105957</t>
+    <t xml:space="preserve">9.98533725738525</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2653007507324</t>
+    <t xml:space="preserve">10.2652997970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0040016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8546895980835</t>
+    <t xml:space="preserve">10.1159868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.004002571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.81735992431641</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">9.76136779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55606269836426</t>
+    <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">9.53739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407558441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6120548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6867094039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70537567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003120422363</t>
+    <t xml:space="preserve">9.44407653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7053747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003025054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201641082764</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">10.3212928771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335205078125</t>
+    <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973234176636</t>
+    <t xml:space="preserve">10.0973224639893</t>
   </si>
   <si>
     <t xml:space="preserve">9.96667385101318</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">9.66804695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
+    <t xml:space="preserve">10.4146146774292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5265989303589</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.339958190918</t>
+    <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3026285171509</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873302459717</t>
+    <t xml:space="preserve">9.51873397827148</t>
   </si>
   <si>
     <t xml:space="preserve">9.50006866455078</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14545059204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19211006164551</t>
+    <t xml:space="preserve">9.1454496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19210910797119</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31342697143555</t>
+    <t xml:space="preserve">9.31342792510986</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">9.10812091827393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0521297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22010707855225</t>
+    <t xml:space="preserve">9.05212879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">8.90281581878662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69750881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6321849822998</t>
+    <t xml:space="preserve">8.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63218402862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.4362096786499</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">8.40821361541748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09092235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561630249023</t>
+    <t xml:space="preserve">8.09092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561677932739</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559947967529</t>
@@ -1514,10 +1514,10 @@
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9322772026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765817642212</t>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765865325928</t>
   </si>
   <si>
     <t xml:space="preserve">7.60565376281738</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476356506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207164764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743389129639</t>
+    <t xml:space="preserve">9.42541217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2574348449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548614501953</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415145874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95880699157715</t>
+    <t xml:space="preserve">8.88415241241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880794525146</t>
   </si>
   <si>
     <t xml:space="preserve">9.01480007171631</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66018104553223</t>
+    <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.77216529846191</t>
@@ -3264,6 +3264,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -59661,7 +59664,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495601852</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>39632</v>
@@ -59682,6 +59685,32 @@
         <v>1068</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493518519</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>32551</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>33.4000015258789</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>31.6499996185303</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>32.7000007629395</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414518356323</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">7.25373411178589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22734069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1261682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780824661255</t>
+    <t xml:space="preserve">7.22734117507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616682052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179647445679</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77865648269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68628025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425813674927</t>
+    <t xml:space="preserve">6.77865552902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425718307495</t>
   </si>
   <si>
     <t xml:space="preserve">6.35636568069458</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592660903931</t>
+    <t xml:space="preserve">6.48833084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592708587646</t>
   </si>
   <si>
     <t xml:space="preserve">6.26398849487305</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710096359253</t>
+    <t xml:space="preserve">6.51912307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710048675537</t>
   </si>
   <si>
     <t xml:space="preserve">6.43994331359863</t>
@@ -110,100 +110,100 @@
     <t xml:space="preserve">6.56311225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71267318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305530548096</t>
+    <t xml:space="preserve">6.71267414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7830548286438</t>
   </si>
   <si>
     <t xml:space="preserve">6.85343742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07338094711304</t>
+    <t xml:space="preserve">7.07337999343872</t>
   </si>
   <si>
     <t xml:space="preserve">6.90622329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14376258850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581365585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302778244019</t>
+    <t xml:space="preserve">7.14376306533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15255975723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625225067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302682876587</t>
   </si>
   <si>
     <t xml:space="preserve">6.7390661239624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349342346191</t>
+    <t xml:space="preserve">6.63349390029907</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463930130005</t>
+    <t xml:space="preserve">6.74786424636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84463882446289</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024095535278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87543106079102</t>
+    <t xml:space="preserve">6.87543201446533</t>
   </si>
   <si>
     <t xml:space="preserve">6.87103223800659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783624649048</t>
+    <t xml:space="preserve">6.85783672332764</t>
   </si>
   <si>
     <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87983083724976</t>
+    <t xml:space="preserve">6.8798303604126</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97660541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
+    <t xml:space="preserve">6.9766058921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
   </si>
   <si>
     <t xml:space="preserve">6.61149930953979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.523521900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7918529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94141435623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91502141952515</t>
+    <t xml:space="preserve">6.52352285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4971284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79185247421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94141483306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">6.91942024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80944871902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630777359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469673156738</t>
+    <t xml:space="preserve">6.8094482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57630825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43114519119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469625473022</t>
   </si>
   <si>
     <t xml:space="preserve">6.73026895523071</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92381811141968</t>
+    <t xml:space="preserve">6.92381858825684</t>
   </si>
   <si>
     <t xml:space="preserve">7.03818988800049</t>
@@ -242,49 +242,49 @@
     <t xml:space="preserve">7.01343536376953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94642877578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654611587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2903995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695468902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334770202637</t>
+    <t xml:space="preserve">6.94642782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9642972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29040002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4869532585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334722518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.32613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53609418869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908569335938</t>
+    <t xml:space="preserve">7.53609323501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724687576294</t>
+    <t xml:space="preserve">7.45121622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
   </si>
   <si>
     <t xml:space="preserve">7.03577136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17425203323364</t>
+    <t xml:space="preserve">7.1742525100708</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
@@ -293,79 +293,79 @@
     <t xml:space="preserve">7.2725305557251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781471252441</t>
+    <t xml:space="preserve">7.43781518936157</t>
   </si>
   <si>
     <t xml:space="preserve">7.6388373374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76391696929932</t>
+    <t xml:space="preserve">7.76391792297363</t>
   </si>
   <si>
     <t xml:space="preserve">7.77285242080688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178548812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817945480347</t>
+    <t xml:space="preserve">7.78178739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817993164062</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68350887298584</t>
+    <t xml:space="preserve">7.683509349823</t>
   </si>
   <si>
     <t xml:space="preserve">7.36187362670898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096834182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974214553833</t>
+    <t xml:space="preserve">7.05810689926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096929550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974262237549</t>
   </si>
   <si>
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142217636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228267669678</t>
+    <t xml:space="preserve">7.49142169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61203575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146409988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363941192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155223846436</t>
+    <t xml:space="preserve">7.6120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155128479004</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
+    <t xml:space="preserve">7.07150793075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507108688354</t>
   </si>
   <si>
     <t xml:space="preserve">7.41101217269897</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">7.53162622451782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58523082733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015119552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679351806641</t>
+    <t xml:space="preserve">7.58523178100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679304122925</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207719802856</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">7.39761114120483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46461772918701</t>
+    <t xml:space="preserve">7.46461725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.37080812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34400510787964</t>
+    <t xml:space="preserve">7.34400463104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384346008301</t>
+    <t xml:space="preserve">7.22785902023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
     <t xml:space="preserve">6.94196033477783</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
+    <t xml:space="preserve">6.95089483261108</t>
   </si>
   <si>
     <t xml:space="preserve">7.02236938476562</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80794668197632</t>
+    <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835525512695</t>
@@ -440,139 +440,139 @@
     <t xml:space="preserve">6.74540567398071</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87942123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044290542603</t>
+    <t xml:space="preserve">6.87942028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96876382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044385910034</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92409181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704092025757</t>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663282394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704044342041</t>
   </si>
   <si>
     <t xml:space="preserve">6.97769832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98216485977173</t>
+    <t xml:space="preserve">6.98216533660889</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13404846191406</t>
+    <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
     <t xml:space="preserve">7.04917287826538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241321563721</t>
+    <t xml:space="preserve">6.81241369247437</t>
   </si>
   <si>
     <t xml:space="preserve">6.83921670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70966911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163942337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823839187622</t>
+    <t xml:space="preserve">6.70966863632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42823791503906</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717241287231</t>
+    <t xml:space="preserve">6.43717288970947</t>
   </si>
   <si>
     <t xml:space="preserve">6.46397495269775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5399169921875</t>
+    <t xml:space="preserve">6.53991651535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544950485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29869079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31655931472778</t>
+    <t xml:space="preserve">6.60245656967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29869031906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31655979156494</t>
   </si>
   <si>
     <t xml:space="preserve">6.28082227706909</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70520210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073461532593</t>
+    <t xml:space="preserve">6.70520114898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073509216309</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277795791626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85261726379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327466964722</t>
+    <t xml:space="preserve">6.8526177406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327419281006</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064743041992</t>
+    <t xml:space="preserve">6.71860313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266157150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
   </si>
   <si>
     <t xml:space="preserve">7.17872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41548013687134</t>
+    <t xml:space="preserve">7.41547966003418</t>
   </si>
   <si>
     <t xml:space="preserve">7.25019502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19212198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47801923751831</t>
+    <t xml:space="preserve">7.1921215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47802066802979</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949378967285</t>
@@ -581,37 +581,37 @@
     <t xml:space="preserve">7.20999050140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953809738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24126005172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171245574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29933452606201</t>
+    <t xml:space="preserve">7.33953857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24125957489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29933309555054</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740566253662</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49588823318481</t>
+    <t xml:space="preserve">7.49588871002197</t>
   </si>
   <si>
     <t xml:space="preserve">7.90686655044556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89793252944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39825439453125</t>
+    <t xml:space="preserve">7.89793348312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39825344085693</t>
   </si>
   <si>
     <t xml:space="preserve">9.11299896240234</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">8.60820960998535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57694149017334</t>
+    <t xml:space="preserve">8.57694053649902</t>
   </si>
   <si>
     <t xml:space="preserve">8.33571338653564</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66628360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84496784210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64905738830566</t>
+    <t xml:space="preserve">8.66628170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939292907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84496879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64905643463135</t>
   </si>
   <si>
     <t xml:space="preserve">9.33635711669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406303405762</t>
+    <t xml:space="preserve">9.10406589508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.93431282043457</t>
@@ -662,34 +662,34 @@
     <t xml:space="preserve">9.06832695007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97898387908936</t>
+    <t xml:space="preserve">8.97898483276367</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80029773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283683776855</t>
+    <t xml:space="preserve">8.80029964447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.7556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83603668212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304279327393</t>
+    <t xml:space="preserve">8.83603572845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447303771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365589141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2916841506958</t>
+    <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
     <t xml:space="preserve">9.51831245422363</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">9.54550647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.608962059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
+    <t xml:space="preserve">9.60896301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
   </si>
   <si>
     <t xml:space="preserve">9.43672657012939</t>
@@ -713,55 +713,55 @@
     <t xml:space="preserve">9.50924587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3823356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
+    <t xml:space="preserve">9.38233470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83558940887451</t>
+    <t xml:space="preserve">10.6151838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528644561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8355884552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52737712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579219818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59083271026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
+    <t xml:space="preserve">9.52737617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6270923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42766189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5908317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278343200684</t>
+    <t xml:space="preserve">9.86278438568115</t>
   </si>
   <si>
     <t xml:space="preserve">9.55457210540771</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36420440673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30075073242188</t>
+    <t xml:space="preserve">9.79026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140129089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36420726776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075168609619</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
@@ -791,76 +791,76 @@
     <t xml:space="preserve">9.33701038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5364408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67241764068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4185962677002</t>
+    <t xml:space="preserve">9.53644180297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67241859436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41859531402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400257110596</t>
+    <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34607696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35513973236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327098846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485591888428</t>
+    <t xml:space="preserve">9.49111557006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493885040283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88091468811035</t>
+    <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371875762939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80839347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392154693604</t>
+    <t xml:space="preserve">9.80839443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652473449707</t>
+    <t xml:space="preserve">9.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652378082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.87184906005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78119850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477394104004</t>
+    <t xml:space="preserve">9.78119945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.400465965271</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">9.27355575561523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981636047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1557092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66335296630859</t>
+    <t xml:space="preserve">9.18290328979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205089569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15570831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66335201263428</t>
   </si>
   <si>
     <t xml:space="preserve">9.77213287353516</t>
@@ -893,52 +893,52 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757991790771</t>
+    <t xml:space="preserve">9.13757801055908</t>
   </si>
   <si>
     <t xml:space="preserve">9.22823143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440624237061</t>
+    <t xml:space="preserve">8.97440814971924</t>
   </si>
   <si>
     <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418111801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7874193191528</t>
+    <t xml:space="preserve">9.31888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7874202728271</t>
   </si>
   <si>
     <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8780717849731</t>
+    <t xml:space="preserve">10.8780698776245</t>
   </si>
   <si>
     <t xml:space="preserve">10.805549621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511587142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.624249458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.533597946167</t>
+    <t xml:space="preserve">10.7511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335969924927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">10.2797765731812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2253866195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
+    <t xml:space="preserve">10.2253847122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
     <t xml:space="preserve">9.93530368804932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891260147095</t>
+    <t xml:space="preserve">10.1891250610352</t>
   </si>
   <si>
     <t xml:space="preserve">10.2979068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160381317139</t>
+    <t xml:space="preserve">10.3704280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160362243652</t>
   </si>
   <si>
     <t xml:space="preserve">10.3341674804688</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078258514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8349552154541</t>
+    <t xml:space="preserve">10.3522968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.96363735198975</t>
@@ -1004,28 +1004,28 @@
     <t xml:space="preserve">10.2577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9452543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465801239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55920886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85333919525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.331298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.478364944458</t>
+    <t xml:space="preserve">9.94525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5592098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85334014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658515930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3312997817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151300430298</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">10.7173442840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393846511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232158660889</t>
+    <t xml:space="preserve">10.8827924728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393836975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232149124146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415979385376</t>
+    <t xml:space="preserve">10.4415988922119</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48567771911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274097442627</t>
+    <t xml:space="preserve">9.48567867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
     <t xml:space="preserve">10.2026176452637</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187864303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842336654663</t>
+    <t xml:space="preserve">10.0187873840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945327758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687129974365</t>
+    <t xml:space="preserve">9.77980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371704101562</t>
@@ -1112,67 +1112,67 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87172222137451</t>
+    <t xml:space="preserve">9.7430419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8717212677002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2834644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59597587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848922729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739364624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789196014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154644012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18235683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729564666748</t>
+    <t xml:space="preserve">9.54082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28346252441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59597492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52244472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848827362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627403259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789100646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154739379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1823558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35699653625488</t>
+    <t xml:space="preserve">9.3569974899292</t>
   </si>
   <si>
     <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.669508934021</t>
+    <t xml:space="preserve">9.66950798034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.37537860870361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22831344604492</t>
+    <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599809646606</t>
@@ -1181,70 +1181,70 @@
     <t xml:space="preserve">9.41214466094971</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0923204421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702791213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3864498138428</t>
+    <t xml:space="preserve">10.0923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9379415512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6621961593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048318862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3864488601685</t>
   </si>
   <si>
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680658340454</t>
+    <t xml:space="preserve">10.1474695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680648803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724943161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8092603683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0298585891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.121771812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747076034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930925369263</t>
+    <t xml:space="preserve">10.7724933624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8092613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0298566818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1217737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9930896759033</t>
   </si>
   <si>
     <t xml:space="preserve">10.8276424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7541093826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664865493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985101699829</t>
+    <t xml:space="preserve">10.754111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664875030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358388900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985092163086</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185457229614</t>
+    <t xml:space="preserve">11.1238527297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8252277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065614700317</t>
+    <t xml:space="preserve">10.8252267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065624237061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.657247543335</t>
+    <t xml:space="preserve">10.881217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.899884223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093076705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959503173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6012554168701</t>
+    <t xml:space="preserve">10.2093086242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6012563705444</t>
   </si>
   <si>
     <t xml:space="preserve">10.4332790374756</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">10.1719789505005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786581039429</t>
+    <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022665977478</t>
+    <t xml:space="preserve">10.0226650238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533725738525</t>
@@ -1334,103 +1334,103 @@
     <t xml:space="preserve">10.0599946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2653007507324</t>
+    <t xml:space="preserve">10.2653017044067</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">10.2466354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.1159868240356</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0040016174316</t>
+    <t xml:space="preserve">10.004002571106</t>
   </si>
   <si>
     <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81736087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136779785156</t>
+    <t xml:space="preserve">9.81735992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136684417725</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64938163757324</t>
+    <t xml:space="preserve">9.63071918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407653808594</t>
+    <t xml:space="preserve">9.44407558441162</t>
   </si>
   <si>
     <t xml:space="preserve">9.6120548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68671131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7053747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003025054932</t>
+    <t xml:space="preserve">9.68671035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70537567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003215789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201736450195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3212938308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335395812988</t>
+    <t xml:space="preserve">10.3212928771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973234176636</t>
+    <t xml:space="preserve">10.0973243713379</t>
   </si>
   <si>
     <t xml:space="preserve">9.96667385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804504394531</t>
+    <t xml:space="preserve">9.83602428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804695129395</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5265998840332</t>
+    <t xml:space="preserve">10.5265979766846</t>
   </si>
   <si>
     <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3399562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934608459473</t>
+    <t xml:space="preserve">10.3399572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934417724609</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5000696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209037780762</t>
+    <t xml:space="preserve">9.50007057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36941909790039</t>
+    <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342792510986</t>
+    <t xml:space="preserve">9.27609825134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472705841064</t>
@@ -1481,58 +1481,58 @@
     <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04279613494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9028148651123</t>
+    <t xml:space="preserve">9.04279708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90281581878662</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4082145690918</t>
+    <t xml:space="preserve">8.63218593597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40821552276611</t>
   </si>
   <si>
     <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559947967529</t>
+    <t xml:space="preserve">7.88561677932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559852600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765817642212</t>
+    <t xml:space="preserve">7.93227815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765769958496</t>
   </si>
   <si>
     <t xml:space="preserve">7.60565376281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65231513977051</t>
+    <t xml:space="preserve">7.65231418609619</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079315185547</t>
+    <t xml:space="preserve">9.07079410552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810218811035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077537536621</t>
+    <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
     <t xml:space="preserve">9.17344570159912</t>
@@ -1541,37 +1541,37 @@
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678623199463</t>
+    <t xml:space="preserve">9.42541122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.126784324646</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37875080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20144176483154</t>
+    <t xml:space="preserve">9.47207164764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25743389129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37875175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20144081115723</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82815837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415145874023</t>
+    <t xml:space="preserve">8.97747325897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82815742492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415050506592</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71617317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79082870483398</t>
+    <t xml:space="preserve">8.71617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83181095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">9.78431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83180999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">10.4017705917358</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592802047729</t>
+    <t xml:space="preserve">10.5442609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592811584473</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3067779541016</t>
+    <t xml:space="preserve">10.3067770004272</t>
   </si>
   <si>
     <t xml:space="preserve">10.4492664337158</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">10.3542728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97430038452148</t>
+    <t xml:space="preserve">9.97429943084717</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.639253616333</t>
+    <t xml:space="preserve">10.5917558670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392526626587</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1142196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092142105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0192279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9717292785645</t>
+    <t xml:space="preserve">10.8767356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1142206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092132568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0192270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9717311859131</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7342472076416</t>
+    <t xml:space="preserve">10.7342462539673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6366834640503</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216642379761</t>
+    <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816101074219</t>
+    <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140867233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715972900391</t>
+    <t xml:space="preserve">13.0140857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715963363647</t>
   </si>
   <si>
     <t xml:space="preserve">12.7766036987305</t>
@@ -1736,28 +1736,28 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090793609619</t>
+    <t xml:space="preserve">12.9665899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090803146362</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640197753906</t>
+    <t xml:space="preserve">13.5840463638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640207290649</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.7740335464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315431594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,28 +1766,28 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.1065111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015027999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3914890289307</t>
+    <t xml:space="preserve">14.2490005493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814781188965</t>
+    <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189601898193</t>
@@ -1805,13 +1805,13 @@
     <t xml:space="preserve">14.6764698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7239656448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7714643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139528274536</t>
+    <t xml:space="preserve">14.7239665985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.771463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139537811279</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2248611450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768520355225</t>
+    <t xml:space="preserve">16.1868667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2248630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">16.5288410186768</t>
@@ -1856,46 +1856,46 @@
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808280944824</t>
+    <t xml:space="preserve">16.6808300018311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4148502349854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728721618652</t>
+    <t xml:space="preserve">16.0728740692139</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6739015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258905410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068914413452</t>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208841323853</t>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.128137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1088905334473</t>
+    <t xml:space="preserve">16.1088924407959</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624616622925</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">15.9549217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7432165145874</t>
+    <t xml:space="preserve">15.7432174682617</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1937,19 +1937,19 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394460678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741687774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783359527588</t>
+    <t xml:space="preserve">15.8394451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628574371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3975830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862697601318</t>
+    <t xml:space="preserve">16.6862716674805</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">17.1096820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3791275024414</t>
+    <t xml:space="preserve">17.3791255950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.4753570556641</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">17.2828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.667818069458</t>
+    <t xml:space="preserve">17.6678161621094</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180145263672</t>
+    <t xml:space="preserve">17.9180126190186</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485691070557</t>
+    <t xml:space="preserve">17.6485710144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">17.3983726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021411895752</t>
+    <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674194335938</t>
@@ -2045,19 +2045,19 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142440795898</t>
+    <t xml:space="preserve">17.8602733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.591625213623</t>
+    <t xml:space="preserve">18.5916233062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8803157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9765434265137</t>
+    <t xml:space="preserve">18.880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6878547668457</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">20.0639400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1601715087891</t>
+    <t xml:space="preserve">20.1601734161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.264440536499</t>
+    <t xml:space="preserve">18.2644386291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1690044403076</t>
+    <t xml:space="preserve">19.169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082862854004</t>
+    <t xml:space="preserve">20.2082843780518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.448860168457</t>
+    <t xml:space="preserve">20.4488620758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">21.1224689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4111595153809</t>
+    <t xml:space="preserve">21.4111614227295</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865608215332</t>
+    <t xml:space="preserve">19.4865627288818</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384460449219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7752494812012</t>
+    <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
     <t xml:space="preserve">19.8233680725098</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195976257324</t>
+    <t xml:space="preserve">19.9195957183838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2228,16 +2228,16 @@
     <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2067031860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682090759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259483337402</t>
+    <t xml:space="preserve">18.2067012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682109832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259502410889</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.436071395874</t>
+    <t xml:space="preserve">16.4360733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">16.8787307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628532409668</t>
+    <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
     <t xml:space="preserve">16.9749584197998</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134506225586</t>
+    <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553203582764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7440071105957</t>
+    <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
     <t xml:space="preserve">16.7825012207031</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">15.2813138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.724760055542</t>
+    <t xml:space="preserve">16.1858749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319080352783</t>
+    <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737739562988</t>
+    <t xml:space="preserve">15.4737730026245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817087173462</t>
+    <t xml:space="preserve">15.7817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -3267,6 +3267,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0999984741211</t>
   </si>
 </sst>
 </file>
@@ -59768,7 +59771,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6495601852</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>19436</v>
@@ -59789,6 +59792,32 @@
         <v>1078</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493981481</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>59518</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>33.4500007629395</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>33.0999984741211</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1087">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414375305176</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534658432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373411178589</t>
+    <t xml:space="preserve">7.20534610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373458862305</t>
   </si>
   <si>
     <t xml:space="preserve">7.22734117507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616682052612</t>
+    <t xml:space="preserve">7.12616777420044</t>
   </si>
   <si>
     <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96780776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179647445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865552902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68628072738647</t>
+    <t xml:space="preserve">6.96780824661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628025054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425718307495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35636568069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4223484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073650360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592708587646</t>
+    <t xml:space="preserve">6.35636520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42234802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833131790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592613220215</t>
   </si>
   <si>
     <t xml:space="preserve">6.26398849487305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22879791259766</t>
+    <t xml:space="preserve">6.22879838943481</t>
   </si>
   <si>
     <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994331359863</t>
+    <t xml:space="preserve">6.60710000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994379043579</t>
   </si>
   <si>
     <t xml:space="preserve">6.57190990447998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8622350692749</t>
+    <t xml:space="preserve">6.56311178207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86223602294922</t>
   </si>
   <si>
     <t xml:space="preserve">6.7830548286438</t>
@@ -122,43 +122,43 @@
     <t xml:space="preserve">6.85343742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07337999343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376306533813</t>
+    <t xml:space="preserve">7.07338047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90622425079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376211166382</t>
   </si>
   <si>
     <t xml:space="preserve">6.94581317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02939128875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15255975723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625225067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302682876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7390661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349390029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69067907333374</t>
+    <t xml:space="preserve">7.02939176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256071090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349294662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6906795501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84463882446289</t>
+    <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024095535278</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">6.87543201446533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103223800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783672332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666189193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8798303604126</t>
+    <t xml:space="preserve">6.87103319168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666236877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983131408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
@@ -185,52 +185,52 @@
     <t xml:space="preserve">6.9766058921814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73466777801514</t>
+    <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.61149930953979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52352285385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4971284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185247421265</t>
+    <t xml:space="preserve">6.523521900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141483306885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9150218963623</t>
+    <t xml:space="preserve">6.91502141952515</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942024230957</t>
+    <t xml:space="preserve">6.91942071914673</t>
   </si>
   <si>
     <t xml:space="preserve">6.8094482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57630825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43114519119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026895523071</t>
+    <t xml:space="preserve">6.5763087272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43114614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026943206787</t>
   </si>
   <si>
     <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92381858825684</t>
+    <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
     <t xml:space="preserve">7.03818988800049</t>
@@ -239,91 +239,91 @@
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343536376953</t>
+    <t xml:space="preserve">7.01343584060669</t>
   </si>
   <si>
     <t xml:space="preserve">6.94642782211304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9642972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29040002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4869532585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334722518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609323501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908521652222</t>
+    <t xml:space="preserve">6.96429681777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2903995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695516586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334770202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4690842628479</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121622085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1742525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9330267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2725305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781518936157</t>
+    <t xml:space="preserve">7.45121717453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27253150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781566619873</t>
   </si>
   <si>
     <t xml:space="preserve">7.6388373374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76391792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285242080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178739547729</t>
+    <t xml:space="preserve">7.76391696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285146713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178596496582</t>
   </si>
   <si>
     <t xml:space="preserve">7.72817993164062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11682319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.683509349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187362670898</t>
+    <t xml:space="preserve">8.11682224273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350839614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187314987183</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810689926147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531896591187</t>
+    <t xml:space="preserve">7.16531944274902</t>
   </si>
   <si>
     <t xml:space="preserve">7.62096929550171</t>
@@ -341,37 +341,37 @@
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6120343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248624801636</t>
+    <t xml:space="preserve">7.59416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203622817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248767852783</t>
   </si>
   <si>
     <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05363988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688117980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150793075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507108688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101217269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162622451782</t>
+    <t xml:space="preserve">7.05363941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155271530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688070297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150888442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507061004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162527084351</t>
   </si>
   <si>
     <t xml:space="preserve">7.58523178100586</t>
@@ -380,28 +380,28 @@
     <t xml:space="preserve">7.46015167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761114120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461725234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720161437988</t>
+    <t xml:space="preserve">7.52269220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207862854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400510787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785902023315</t>
@@ -410,43 +410,43 @@
     <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196033477783</t>
+    <t xml:space="preserve">6.94196081161499</t>
   </si>
   <si>
     <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01790285110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95089483261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9196252822876</t>
+    <t xml:space="preserve">7.01790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95089530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02236986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962623596191</t>
   </si>
   <si>
     <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80794620513916</t>
+    <t xml:space="preserve">6.807945728302</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540567398071</t>
+    <t xml:space="preserve">6.74540662765503</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044385910034</t>
+    <t xml:space="preserve">6.96876430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">6.89728927612305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92409229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769832611084</t>
+    <t xml:space="preserve">6.9240927696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704139709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216533660889</t>
@@ -476,22 +476,22 @@
     <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13404893875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917287826538</t>
+    <t xml:space="preserve">7.13404846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
     <t xml:space="preserve">6.81241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966863632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4416389465332</t>
+    <t xml:space="preserve">6.8392162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
     <t xml:space="preserve">6.42823791503906</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">6.41930389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53991651535034</t>
+    <t xml:space="preserve">6.43717241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5399169921875</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544950485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245656967163</t>
+    <t xml:space="preserve">6.60245704650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
@@ -521,25 +521,25 @@
     <t xml:space="preserve">6.29869031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520114898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277795791626</t>
+    <t xml:space="preserve">6.31655836105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277843475342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8526177406311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76327419281006</t>
+    <t xml:space="preserve">6.76327514648438</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
@@ -548,88 +548,88 @@
     <t xml:space="preserve">6.71860313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64266157150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064743041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.17872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41547966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1921215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912952423096</t>
+    <t xml:space="preserve">7.41547870635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212198257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25913047790527</t>
   </si>
   <si>
     <t xml:space="preserve">7.30826759338379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47802066802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54949378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24125957489014</t>
+    <t xml:space="preserve">7.47801923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54949426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20999002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24126052856445</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29933309555054</t>
+    <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740566253662</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49588871002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793348312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063232421875</t>
+    <t xml:space="preserve">7.49588918685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793157577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063327789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.35358333587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825344085693</t>
+    <t xml:space="preserve">8.39825439453125</t>
   </si>
   <si>
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571338653564</t>
+    <t xml:space="preserve">8.60821056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571243286133</t>
   </si>
   <si>
     <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66628170013428</t>
+    <t xml:space="preserve">8.66628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939292907715</t>
@@ -641,19 +641,19 @@
     <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64905643463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33635711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10406589508057</t>
+    <t xml:space="preserve">9.64905738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33635520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10406494140625</t>
   </si>
   <si>
     <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90750980377197</t>
+    <t xml:space="preserve">8.90751171112061</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">8.80029964447021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86283874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304374694824</t>
+    <t xml:space="preserve">8.86283779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75562763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304279327393</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365589141846</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51831245422363</t>
+    <t xml:space="preserve">9.51831150054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.54550647735596</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">9.40953063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47298717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672657012939</t>
+    <t xml:space="preserve">9.47298622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672561645508</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38233470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522171020508</t>
+    <t xml:space="preserve">9.3823356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522361755371</t>
   </si>
   <si>
     <t xml:space="preserve">9.76306819915771</t>
@@ -728,79 +728,79 @@
     <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1528644561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737617492676</t>
+    <t xml:space="preserve">10.1528654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6542854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737808227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42766189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579124450684</t>
+    <t xml:space="preserve">9.42765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579029083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.5908317565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5727014541626</t>
+    <t xml:space="preserve">9.57270050048828</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278438568115</t>
+    <t xml:space="preserve">9.86278343200684</t>
   </si>
   <si>
     <t xml:space="preserve">9.55457210540771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63615798950195</t>
+    <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140129089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36420726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30075168609619</t>
+    <t xml:space="preserve">9.79026317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36420631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33701038360596</t>
+    <t xml:space="preserve">9.33701133728027</t>
   </si>
   <si>
     <t xml:space="preserve">9.53644180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241859436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41859531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68148231506348</t>
+    <t xml:space="preserve">9.67241764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4185962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68148326873779</t>
   </si>
   <si>
     <t xml:space="preserve">9.75400352478027</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34607601165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
+    <t xml:space="preserve">9.49111747741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3460750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35513973236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
     <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74493885040283</t>
+    <t xml:space="preserve">9.74493789672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371875762939</t>
+    <t xml:space="preserve">9.85371971130371</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839443206787</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99875926971436</t>
+    <t xml:space="preserve">9.99876022338867</t>
   </si>
   <si>
     <t xml:space="preserve">9.90810966491699</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">9.87184906005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78119945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103359222412</t>
+    <t xml:space="preserve">9.7811975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.400465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355575561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018215179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205089569092</t>
+    <t xml:space="preserve">9.40046691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205184936523</t>
   </si>
   <si>
     <t xml:space="preserve">9.15570831298828</t>
@@ -887,49 +887,49 @@
     <t xml:space="preserve">9.66335201263428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77213287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1738395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13757801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823143005371</t>
+    <t xml:space="preserve">9.77213382720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17384052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.97440814971924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.191969871521</t>
+    <t xml:space="preserve">9.19196891784668</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423778533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7874202728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049819946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780698776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.805549621582</t>
+    <t xml:space="preserve">10.0440864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7874193191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8055505752563</t>
   </si>
   <si>
     <t xml:space="preserve">10.7511596679688</t>
@@ -938,76 +938,76 @@
     <t xml:space="preserve">10.6242485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335969924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248170852661</t>
+    <t xml:space="preserve">10.533597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248180389404</t>
   </si>
   <si>
     <t xml:space="preserve">10.261646270752</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
+    <t xml:space="preserve">10.2797756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465217590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0984754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530368804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2979068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704280853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341674804688</t>
+    <t xml:space="preserve">10.0984764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.297905921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160371780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341655731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078248977661</t>
+    <t xml:space="preserve">10.3522977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078239440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76142406463623</t>
+    <t xml:space="preserve">9.76142311096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363735198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2577667236328</t>
+    <t xml:space="preserve">9.96363830566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2577657699585</t>
   </si>
   <si>
     <t xml:space="preserve">9.94525527954102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72465705871582</t>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">10.1658515930176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3312997817993</t>
+    <t xml:space="preserve">10.331298828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.4783639907837</t>
@@ -1034,76 +1034,76 @@
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908763885498</t>
+    <t xml:space="preserve">10.7908782958984</t>
   </si>
   <si>
     <t xml:space="preserve">10.7173442840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827924728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393836975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4415988922119</t>
+    <t xml:space="preserve">10.8827934265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232158660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805772781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112495422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406074523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567867279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2026176452637</t>
+    <t xml:space="preserve">9.65112590789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50405979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274097442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187873840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107034683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945327758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842346191406</t>
+    <t xml:space="preserve">10.0187864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945337295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687225341797</t>
+    <t xml:space="preserve">9.77980804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371704101562</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7430419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8717212677002</t>
+    <t xml:space="preserve">9.74304103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
     <t xml:space="preserve">10.0004043579102</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">9.28346252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244472503662</t>
+    <t xml:space="preserve">9.59597587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5224437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57759284973145</t>
+    <t xml:space="preserve">9.57759189605713</t>
   </si>
   <si>
     <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.073935508728</t>
+    <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
     <t xml:space="preserve">9.68789100646973</t>
@@ -1151,46 +1151,46 @@
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1823558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4489107131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3569974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79819011688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66950798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831439971924</t>
+    <t xml:space="preserve">9.18235683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44890975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35699653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818916320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.669508934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831344604492</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41214466094971</t>
+    <t xml:space="preserve">9.41214370727539</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702810287476</t>
+    <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621961593628</t>
+    <t xml:space="preserve">10.6621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048318862915</t>
@@ -1202,55 +1202,55 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221001625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680648803711</t>
+    <t xml:space="preserve">10.1474685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2210006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680658340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724933624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8092613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0298566818237</t>
+    <t xml:space="preserve">10.7724943161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8092594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930896759033</t>
+    <t xml:space="preserve">10.9747076034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
     <t xml:space="preserve">10.8276424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.754111289978</t>
+    <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664875030518</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2358388900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985092163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3478231430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4224796295166</t>
+    <t xml:space="preserve">11.2358379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985101699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3478240966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4224805831909</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238527297974</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372110366821</t>
+    <t xml:space="preserve">10.9372129440308</t>
   </si>
   <si>
     <t xml:space="preserve">10.8252267837524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065624237061</t>
+    <t xml:space="preserve">10.9558763504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065614700317</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">10.8625545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.899884223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6572484970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7132406234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4892702102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2093086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3772859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.35862159729</t>
+    <t xml:space="preserve">10.8998832702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.657247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7132415771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4892711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2093076705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3772850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3586225509644</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959493637085</t>
@@ -1310,31 +1310,31 @@
     <t xml:space="preserve">10.6012563705444</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279710769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.4332780838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906442642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0226650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533725738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2653017044067</t>
+    <t xml:space="preserve">10.1906433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022665977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2652997970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">10.2466354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79869651794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159868240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.004002571106</t>
+    <t xml:space="preserve">9.79869556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
     <t xml:space="preserve">9.85468864440918</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">9.81735992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136684417725</t>
+    <t xml:space="preserve">9.74270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071918487549</t>
+    <t xml:space="preserve">9.63071727752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.64938259124756</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">9.6120548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68671035766602</t>
+    <t xml:space="preserve">9.68671226501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.70537567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201736450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3212928771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335300445557</t>
+    <t xml:space="preserve">9.78003120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201641082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3212947845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335205078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973243713379</t>
+    <t xml:space="preserve">10.0973234176636</t>
   </si>
   <si>
     <t xml:space="preserve">9.96667385101318</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">9.66804695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265979766846</t>
+    <t xml:space="preserve">10.4146127700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.470606803894</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">10.3026294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92934417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72403907775879</t>
+    <t xml:space="preserve">9.92934513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50007057189941</t>
+    <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1451,58 +1451,58 @@
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40674781799316</t>
+    <t xml:space="preserve">9.19210910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40674686431885</t>
   </si>
   <si>
     <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35075569152832</t>
+    <t xml:space="preserve">9.35075664520264</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31342601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57472705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10812091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05212879180908</t>
+    <t xml:space="preserve">9.31342697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57472610473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10812187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04279708862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90281581878662</t>
+    <t xml:space="preserve">9.04279613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63218593597412</t>
+    <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561677932739</t>
+    <t xml:space="preserve">8.40821361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561725616455</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559852600098</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682178497314</t>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565328598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231561660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
     <t xml:space="preserve">9.07079410552979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24810218811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077442169189</t>
+    <t xml:space="preserve">9.24810314178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077346801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.17344570159912</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476356506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207164764404</t>
+    <t xml:space="preserve">9.42541217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207355499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.25743389129639</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747325897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82815742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415050506592</t>
+    <t xml:space="preserve">8.97747230529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82815837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415145874023</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71617221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7908296585083</t>
+    <t xml:space="preserve">8.71617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79082870483398</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">9.78431415557861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83180999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692939758301</t>
+    <t xml:space="preserve">9.83181095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692930221558</t>
   </si>
   <si>
     <t xml:space="preserve">10.0217962265015</t>
@@ -1613,16 +1613,16 @@
     <t xml:space="preserve">9.87930679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642866134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017705917358</t>
+    <t xml:space="preserve">10.1642875671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
     <t xml:space="preserve">10.5442609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1637,40 +1637,40 @@
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542728424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97429943084717</t>
+    <t xml:space="preserve">10.3542737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917558670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6392526626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567110061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.066722869873</t>
+    <t xml:space="preserve">10.5917568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567100524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0667238235474</t>
   </si>
   <si>
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767356872559</t>
+    <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142206192017</t>
+    <t xml:space="preserve">11.1142196655273</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1679,19 +1679,19 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717311859131</t>
+    <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7342462539673</t>
+    <t xml:space="preserve">10.7342472076416</t>
   </si>
   <si>
     <t xml:space="preserve">11.6366834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7316770553589</t>
+    <t xml:space="preserve">11.7316780090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.8741664886475</t>
@@ -1703,49 +1703,49 @@
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.7791738510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966302871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816110610962</t>
+    <t xml:space="preserve">12.3966293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715963363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7291059494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9665899276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090803146362</t>
+    <t xml:space="preserve">13.0140867233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766027450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.919093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665908813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840463638306</t>
+    <t xml:space="preserve">13.5840473175049</t>
   </si>
   <si>
     <t xml:space="preserve">13.9640207290649</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315431594849</t>
+    <t xml:space="preserve">13.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540060043335</t>
+    <t xml:space="preserve">14.1065101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540069580078</t>
   </si>
   <si>
     <t xml:space="preserve">14.2015027999878</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.343994140625</t>
+    <t xml:space="preserve">14.3439931869507</t>
   </si>
   <si>
     <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8189601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4389867782593</t>
+    <t xml:space="preserve">14.8189611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4389877319336</t>
   </si>
   <si>
     <t xml:space="preserve">14.5339803695679</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.7714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0089473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8664560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4839124679565</t>
+    <t xml:space="preserve">15.0089464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8664569854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4839115142822</t>
   </si>
   <si>
     <t xml:space="preserve">15.9113826751709</t>
@@ -1835,118 +1835,118 @@
     <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2248630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388557434082</t>
+    <t xml:space="preserve">16.2248611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5668392181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.034875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5599069595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.293927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277408599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9356746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3967895507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8394460678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741678237915</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5668392181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6808300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8394451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741678237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975830078125</t>
+    <t xml:space="preserve">16.3975811004639</t>
   </si>
   <si>
     <t xml:space="preserve">16.3783340454102</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">17.3213882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1096820831299</t>
+    <t xml:space="preserve">17.1096839904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.3791255950928</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">17.4753570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24440574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9942054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8979759216309</t>
+    <t xml:space="preserve">17.2444038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9942073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8979740142822</t>
   </si>
   <si>
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6678161621094</t>
+    <t xml:space="preserve">17.2828941345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.667818069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180164337158</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561100006104</t>
+    <t xml:space="preserve">17.4561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983726501465</t>
+    <t xml:space="preserve">17.3983707427979</t>
   </si>
   <si>
     <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1674194335938</t>
+    <t xml:space="preserve">17.1674213409424</t>
   </si>
   <si>
     <t xml:space="preserve">17.6100769042969</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602733612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334873199463</t>
+    <t xml:space="preserve">17.8602752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1874561309814</t>
+    <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916233062744</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">18.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263450622559</t>
+    <t xml:space="preserve">18.7263431549072</t>
   </si>
   <si>
     <t xml:space="preserve">18.880313873291</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">19.6790218353271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0639400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">20.0639419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">19.3903312683105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2940998077393</t>
+    <t xml:space="preserve">19.2941017150879</t>
   </si>
   <si>
     <t xml:space="preserve">18.9380512237549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
+    <t xml:space="preserve">18.2644424438477</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">18.1297187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3414249420166</t>
+    <t xml:space="preserve">18.341423034668</t>
   </si>
   <si>
     <t xml:space="preserve">19.169002532959</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1112651824951</t>
+    <t xml:space="preserve">19.1112670898438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082843780518</t>
+    <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.304515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4865627288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4384460449219</t>
+    <t xml:space="preserve">20.5932064056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3045139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4865608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4384479522705</t>
   </si>
   <si>
     <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8233680725098</t>
+    <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">20.3526306152344</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2067012786865</t>
+    <t xml:space="preserve">19.1882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682109832764</t>
@@ -2240,16 +2240,16 @@
     <t xml:space="preserve">18.2259502410889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2451934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.764045715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4176197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2059116363525</t>
+    <t xml:space="preserve">18.2451953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7640438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4176177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2059097290039</t>
   </si>
   <si>
     <t xml:space="preserve">16.4360733032227</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749584197998</t>
+    <t xml:space="preserve">16.9749603271484</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4553203582764</t>
+    <t xml:space="preserve">16.4553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825012207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160356521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.011869430542</t>
+    <t xml:space="preserve">16.7825031280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.416036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.6269502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5122661590576</t>
+    <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
     <t xml:space="preserve">15.1273460388184</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.820200920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2813138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0896434783936</t>
+    <t xml:space="preserve">15.8202028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2813129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0896453857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.840238571167</t>
+    <t xml:space="preserve">16.8402366638184</t>
   </si>
   <si>
     <t xml:space="preserve">16.6670246124268</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8779382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0319061279297</t>
+    <t xml:space="preserve">15.8779392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0319080352783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.7817096710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3775434494019</t>
+    <t xml:space="preserve">15.3775424957275</t>
   </si>
   <si>
     <t xml:space="preserve">15.2428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1513595581055</t>
+    <t xml:space="preserve">16.1513614654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466606140137</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">16.5029010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1904182434082</t>
+    <t xml:space="preserve">16.1904201507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880706787109</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">16.4247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6200828552246</t>
+    <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
     <t xml:space="preserve">16.9325618743896</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">16.0927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5068683624268</t>
+    <t xml:space="preserve">15.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">15.5849876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3115673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725067138672</t>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4678077697754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7607574462891</t>
+    <t xml:space="preserve">15.7607583999634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0341796875</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">15.7998189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0146484375</t>
+    <t xml:space="preserve">16.0146503448486</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614910125732</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">16.5810203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8584079742432</t>
+    <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
     <t xml:space="preserve">16.2099494934082</t>
@@ -2492,22 +2492,22 @@
     <t xml:space="preserve">16.8349113464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6591415405273</t>
+    <t xml:space="preserve">16.6591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">17.0692710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6942367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4989356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3622226715088</t>
+    <t xml:space="preserve">17.6942348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4989337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3622245788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4794044494629</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">17.2059841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9911518096924</t>
+    <t xml:space="preserve">16.991153717041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4012832641602</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">17.2645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2841033935547</t>
+    <t xml:space="preserve">16.8739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2841053009033</t>
   </si>
   <si>
     <t xml:space="preserve">17.0302124023438</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">16.639612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2685413360596</t>
+    <t xml:space="preserve">16.2685394287109</t>
   </si>
   <si>
     <t xml:space="preserve">16.1708889007568</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">15.6435785293579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3506278991699</t>
+    <t xml:space="preserve">15.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">15.4482774734497</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">15.7216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2920360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310976028442</t>
+    <t xml:space="preserve">15.2920370101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.2294807434082</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">15.9169979095459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8193492889404</t>
+    <t xml:space="preserve">15.8193483352661</t>
   </si>
   <si>
     <t xml:space="preserve">15.7021684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3271312713623</t>
+    <t xml:space="preserve">16.3271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.0106830596924</t>
@@ -2600,13 +2600,13 @@
     <t xml:space="preserve">17.9676551818848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3231620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6747055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5184650421143</t>
+    <t xml:space="preserve">17.3231639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6747035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5184631347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9050998687744</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">18.8269786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3387260437012</t>
+    <t xml:space="preserve">18.6512069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3387279510498</t>
   </si>
   <si>
     <t xml:space="preserve">17.9481239318848</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">18.3777866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4559059143066</t>
+    <t xml:space="preserve">18.4559078216553</t>
   </si>
   <si>
     <t xml:space="preserve">18.3191967010498</t>
@@ -2648,58 +2648,58 @@
     <t xml:space="preserve">18.182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238956451416</t>
+    <t xml:space="preserve">18.1434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0067157745361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7918853759766</t>
+    <t xml:space="preserve">17.8504772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7918834686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.8114147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.596586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.557523727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4208126068115</t>
+    <t xml:space="preserve">17.5965843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5575218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4208145141602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8700046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9871864318848</t>
+    <t xml:space="preserve">17.6356430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9871845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.7488594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9832191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9694862365723</t>
+    <t xml:space="preserve">19.1003971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9832172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694881439209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2136135101318</t>
@@ -2711,19 +2711,19 @@
     <t xml:space="preserve">19.7741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647853851318</t>
+    <t xml:space="preserve">20.1647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">20.0183124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2624359130859</t>
+    <t xml:space="preserve">20.2624378204346</t>
   </si>
   <si>
     <t xml:space="preserve">20.5553874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0671348571777</t>
+    <t xml:space="preserve">20.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.8230094909668</t>
@@ -2732,34 +2732,34 @@
     <t xml:space="preserve">20.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.36008644104</t>
+    <t xml:space="preserve">20.3600883483887</t>
   </si>
   <si>
     <t xml:space="preserve">20.6042137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6530380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4342403411865</t>
+    <t xml:space="preserve">20.653039932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4342422485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.3854160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6295394897461</t>
+    <t xml:space="preserve">21.6295413970947</t>
   </si>
   <si>
     <t xml:space="preserve">21.7760162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8736667633057</t>
+    <t xml:space="preserve">21.8736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.8248424530029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2642688751221</t>
+    <t xml:space="preserve">22.2642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4595699310303</t>
@@ -2771,10 +2771,10 @@
     <t xml:space="preserve">23.2407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">23.680196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5337238311768</t>
+    <t xml:space="preserve">23.6801986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5337219238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.9966449737549</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">22.9478206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.166618347168</t>
+    <t xml:space="preserve">22.1666202545166</t>
   </si>
   <si>
     <t xml:space="preserve">22.8989963531494</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">22.3619194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5083923339844</t>
+    <t xml:space="preserve">22.508394241333</t>
   </si>
   <si>
     <t xml:space="preserve">22.0201416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5572204589844</t>
+    <t xml:space="preserve">22.5572185516357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3130931854248</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">24.4125747680664</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3149242401123</t>
+    <t xml:space="preserve">24.3149261474609</t>
   </si>
   <si>
     <t xml:space="preserve">25.242603302002</t>
@@ -2852,13 +2852,13 @@
     <t xml:space="preserve">25.4379024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7796783447266</t>
+    <t xml:space="preserve">25.7796802520752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8773307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4144039154053</t>
+    <t xml:space="preserve">26.4144058227539</t>
   </si>
   <si>
     <t xml:space="preserve">26.7561817169189</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">25.9261531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8285045623779</t>
+    <t xml:space="preserve">25.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">25.5355529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1214542388916</t>
+    <t xml:space="preserve">26.1214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.6097068786621</t>
@@ -3270,6 +3270,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.0999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6500015258789</t>
   </si>
 </sst>
 </file>
@@ -59797,7 +59800,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6493981481</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>59518</v>
@@ -59818,6 +59821,32 @@
         <v>1085</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6494444444</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>19514</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>33.8499984741211</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>32.9500007629395</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>33.6500015258789</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>33.6500015258789</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1089">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414375305176</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22734117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616777420044</t>
+    <t xml:space="preserve">7.20534658432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22734069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616729736328</t>
   </si>
   <si>
     <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96780824661255</t>
+    <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77865648269653</t>
+    <t xml:space="preserve">6.77865600585938</t>
   </si>
   <si>
     <t xml:space="preserve">6.68628025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77425718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636520385742</t>
+    <t xml:space="preserve">6.77425813674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636568069458</t>
   </si>
   <si>
     <t xml:space="preserve">6.42234802246094</t>
@@ -83,31 +83,31 @@
     <t xml:space="preserve">6.48833131790161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47073554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710000991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311178207397</t>
+    <t xml:space="preserve">6.4707350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592660903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710191726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994283676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311130523682</t>
   </si>
   <si>
     <t xml:space="preserve">6.71267366409302</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">6.86223602294922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7830548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
+    <t xml:space="preserve">6.78305578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8534369468689</t>
   </si>
   <si>
     <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90622425079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376211166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581317901611</t>
+    <t xml:space="preserve">6.90622329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376258850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581413269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939176559448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302730560303</t>
+    <t xml:space="preserve">7.15256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625225067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302778244019</t>
   </si>
   <si>
     <t xml:space="preserve">6.73906707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6906795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786424636841</t>
+    <t xml:space="preserve">6.63349342346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69067907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786472320557</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543201446533</t>
+    <t xml:space="preserve">6.84024143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543106079102</t>
   </si>
   <si>
     <t xml:space="preserve">6.87103319168091</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">6.87983131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9766058921814</t>
+    <t xml:space="preserve">6.93701648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660493850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466825485229</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">6.523521900177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7918529510498</t>
+    <t xml:space="preserve">6.4971284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79185247421265</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141483306885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91502141952515</t>
+    <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942071914673</t>
+    <t xml:space="preserve">6.91942024230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.8094482421875</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114614486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469577789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144283294678</t>
+    <t xml:space="preserve">6.43114566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642782211304</t>
+    <t xml:space="preserve">7.01343536376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642877578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.96429681777954</t>
@@ -251,46 +251,46 @@
     <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2903995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695516586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334770202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613563537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4690842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577089309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93302631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27253150939941</t>
+    <t xml:space="preserve">7.29039812088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334722518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609323501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1742525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9330267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2725305557251</t>
   </si>
   <si>
     <t xml:space="preserve">7.43781566619873</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">7.6388373374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76391696929932</t>
+    <t xml:space="preserve">7.76391744613647</t>
   </si>
   <si>
     <t xml:space="preserve">7.77285146713257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817993164062</t>
+    <t xml:space="preserve">7.78178739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818040847778</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682224273682</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68350839614868</t>
+    <t xml:space="preserve">7.683509349823</t>
   </si>
   <si>
     <t xml:space="preserve">7.36187314987183</t>
@@ -326,76 +326,76 @@
     <t xml:space="preserve">7.16531944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62096929550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974262237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142169952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228219985962</t>
+    <t xml:space="preserve">7.62096881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974309921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629632949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228267669678</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416580200195</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61203622817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146457672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363941192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155271530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688070297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150888442993</t>
+    <t xml:space="preserve">7.6120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146409988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05364036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155223846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150840759277</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101264953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162527084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015167236328</t>
+    <t xml:space="preserve">7.41101312637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523225784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4601526260376</t>
   </si>
   <si>
     <t xml:space="preserve">7.52269220352173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23679399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207862854004</t>
+    <t xml:space="preserve">7.23679351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207815170288</t>
   </si>
   <si>
     <t xml:space="preserve">7.39761066436768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46461772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080860137939</t>
+    <t xml:space="preserve">7.46461725234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080764770508</t>
   </si>
   <si>
     <t xml:space="preserve">7.34400510787964</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785902023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196081161499</t>
+    <t xml:space="preserve">7.22785806655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196128845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.97323083877563</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">6.95089530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962623596191</t>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962432861328</t>
   </si>
   <si>
     <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.807945728302</t>
+    <t xml:space="preserve">6.80794668197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835525512695</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">6.74540662765503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87942028045654</t>
+    <t xml:space="preserve">6.87942123413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.96876430511475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08044338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982933044434</t>
+    <t xml:space="preserve">7.08044242858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95982980728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728927612305</t>
@@ -458,73 +458,73 @@
     <t xml:space="preserve">6.9240927696228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023838043213</t>
+    <t xml:space="preserve">6.98663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023933410645</t>
   </si>
   <si>
     <t xml:space="preserve">7.06704139709473</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98216533660889</t>
+    <t xml:space="preserve">6.977698802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216485977173</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13404846191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241369247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966911315918</t>
+    <t xml:space="preserve">7.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917287826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966958999634</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42823791503906</t>
+    <t xml:space="preserve">6.42823886871338</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717241287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204847335815</t>
+    <t xml:space="preserve">6.43717193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397495269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.522047996521</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655836105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082180023193</t>
+    <t xml:space="preserve">6.31655979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520210266113</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277843475342</t>
+    <t xml:space="preserve">7.10277891159058</t>
   </si>
   <si>
     <t xml:space="preserve">6.8526177406311</t>
@@ -545,91 +545,91 @@
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266204833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17872047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547870635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25913047790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47801923751831</t>
+    <t xml:space="preserve">6.71860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266157150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871999740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547918319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212102890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826711654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20999002456665</t>
+    <t xml:space="preserve">7.20998954772949</t>
   </si>
   <si>
     <t xml:space="preserve">7.33953762054443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24126052856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171293258667</t>
+    <t xml:space="preserve">7.24126005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171245574951</t>
   </si>
   <si>
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588918685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686702728271</t>
+    <t xml:space="preserve">7.35740661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588823318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686845779419</t>
   </si>
   <si>
     <t xml:space="preserve">7.89793157577515</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21063327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358333587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39825439453125</t>
+    <t xml:space="preserve">8.21063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39825344085693</t>
   </si>
   <si>
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60821056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628265380859</t>
+    <t xml:space="preserve">8.60821151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628360748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939292907715</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">8.84496879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218181610107</t>
+    <t xml:space="preserve">8.95218276977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905738830566</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">9.33635520935059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751171112061</t>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90750980377197</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">8.97898483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88964080810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80029964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283779144287</t>
+    <t xml:space="preserve">8.88964176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8002986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.75562763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83603477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447113037109</t>
+    <t xml:space="preserve">8.83603668212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447399139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.90304279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02365589141846</t>
+    <t xml:space="preserve">9.02365684509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.29168510437012</t>
@@ -695,40 +695,40 @@
     <t xml:space="preserve">9.51831150054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550647735596</t>
+    <t xml:space="preserve">9.54550552368164</t>
   </si>
   <si>
     <t xml:space="preserve">9.60896301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
+    <t xml:space="preserve">9.40953159332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298526763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3823356628418</t>
+    <t xml:space="preserve">9.38233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">9.64522361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306819915771</t>
+    <t xml:space="preserve">9.76306915283203</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528654098511</t>
+    <t xml:space="preserve">10.6151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.97156429290771</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">9.83558940887451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6542854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737808227539</t>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270050048828</t>
+    <t xml:space="preserve">9.42766094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270336151123</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
@@ -773,28 +773,28 @@
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140224456787</t>
+    <t xml:space="preserve">9.79026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140033721924</t>
   </si>
   <si>
     <t xml:space="preserve">9.36420631408691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30075073242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24635982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701133728027</t>
+    <t xml:space="preserve">9.30074977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24635887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33700942993164</t>
   </si>
   <si>
     <t xml:space="preserve">9.53644180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241764068604</t>
+    <t xml:space="preserve">9.67241668701172</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">9.68148326873779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400352478027</t>
+    <t xml:space="preserve">9.75400447845459</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">9.49111747741699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3460750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35513973236084</t>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327098846436</t>
@@ -827,25 +827,25 @@
     <t xml:space="preserve">9.74493789672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88091373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85371971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904403686523</t>
+    <t xml:space="preserve">9.88091468811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85371875762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904308319092</t>
   </si>
   <si>
     <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99876022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90810966491699</t>
+    <t xml:space="preserve">9.99875926971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90811061859131</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">9.87184906005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7811975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103454589844</t>
+    <t xml:space="preserve">9.78119850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2010326385498</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046691894531</t>
+    <t xml:space="preserve">9.400465965271</t>
   </si>
   <si>
     <t xml:space="preserve">9.27355480194092</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">9.48205184936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15570831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66335201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77213382720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17384052276611</t>
+    <t xml:space="preserve">9.15571022033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66335296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17383861541748</t>
   </si>
   <si>
     <t xml:space="preserve">9.1375789642334</t>
@@ -902,34 +902,34 @@
     <t xml:space="preserve">8.97440814971924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19196891784668</t>
+    <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061191558838</t>
+    <t xml:space="preserve">10.0440835952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6423797607422</t>
+    <t xml:space="preserve">10.6423778533936</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874193191528</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0049810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055505752563</t>
+    <t xml:space="preserve">11.0049829483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.805549621582</t>
   </si>
   <si>
     <t xml:space="preserve">10.7511596679688</t>
@@ -941,31 +941,31 @@
     <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248180389404</t>
+    <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">10.261646270752</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891260147095</t>
+    <t xml:space="preserve">10.2797784805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253866195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530368804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891269683838</t>
   </si>
   <si>
     <t xml:space="preserve">10.297905921936</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3341655731201</t>
+    <t xml:space="preserve">10.3341665267944</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">10.3522987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9896936416626</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142311096191</t>
@@ -1001,55 +1001,55 @@
     <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94525527954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465801239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5592098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658515930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.331298828125</t>
+    <t xml:space="preserve">10.2577676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55920886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658525466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3312978744507</t>
   </si>
   <si>
     <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5151300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9011754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7908782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
+    <t xml:space="preserve">10.5151309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9011764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7908763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173452377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438121795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4967479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
+    <t xml:space="preserve">10.4967489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
   </si>
   <si>
     <t xml:space="preserve">10.2393856048584</t>
@@ -1058,34 +1058,34 @@
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805772781372</t>
+    <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50405979156494</t>
+    <t xml:space="preserve">9.816575050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112495422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.48567676544189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63274097442627</t>
+    <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
     <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3496837615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187864303589</t>
+    <t xml:space="preserve">10.3496828079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107025146484</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">10.2945337295532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1842355728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89010524749756</t>
+    <t xml:space="preserve">10.1842346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89010620117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.77980804443359</t>
@@ -1115,46 +1115,46 @@
     <t xml:space="preserve">9.74304103851318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87172222137451</t>
+    <t xml:space="preserve">9.8717212677002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54082679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28346252441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59597587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5224437713623</t>
+    <t xml:space="preserve">9.54082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2834644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59597492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
     <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57759189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739364624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789100646973</t>
+    <t xml:space="preserve">9.57759284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627593994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789196014404</t>
   </si>
   <si>
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18235683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729373931885</t>
+    <t xml:space="preserve">9.1823558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
     <t xml:space="preserve">9.44890975952148</t>
@@ -1172,19 +1172,19 @@
     <t xml:space="preserve">9.37537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22831344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214370727539</t>
+    <t xml:space="preserve">9.22831439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.459981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702800750732</t>
+    <t xml:space="preserve">10.5702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">10.6621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048318862915</t>
+    <t xml:space="preserve">10.4048309326172</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864488601685</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680658340454</t>
+    <t xml:space="preserve">10.1474676132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680648803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724943161011</t>
+    <t xml:space="preserve">10.7724933624268</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092594146729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.029857635498</t>
+    <t xml:space="preserve">11.0298585891724</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8276424407959</t>
+    <t xml:space="preserve">10.8276433944702</t>
   </si>
   <si>
     <t xml:space="preserve">10.7541103363037</t>
@@ -1241,91 +1241,91 @@
     <t xml:space="preserve">11.3664875030518</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2358379364014</t>
+    <t xml:space="preserve">11.2358388900757</t>
   </si>
   <si>
     <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3478240966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4224805831909</t>
+    <t xml:space="preserve">11.3478231430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9185476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9372129440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252267837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558763504028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7692337036133</t>
+    <t xml:space="preserve">10.9185466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9372100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252277374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.769232749939</t>
   </si>
   <si>
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.881217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.657247543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7132415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4892711639404</t>
+    <t xml:space="preserve">10.8812189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625555038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998823165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6572484970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7132406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4892692565918</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586225509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6012563705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279720306396</t>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959512710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6012554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279710769653</t>
   </si>
   <si>
     <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786590576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.022665977478</t>
+    <t xml:space="preserve">10.0786581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0226650238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533821105957</t>
@@ -1334,13 +1334,13 @@
     <t xml:space="preserve">10.0599937438965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2652997970581</t>
+    <t xml:space="preserve">10.2653007507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466354370117</t>
+    <t xml:space="preserve">10.246636390686</t>
   </si>
   <si>
     <t xml:space="preserve">9.79869556427002</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85468864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81735992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136779785156</t>
+    <t xml:space="preserve">9.8546895980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81736087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136875152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
@@ -1373,49 +1373,49 @@
     <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53739833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44407558441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6120548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671226501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70537567138672</t>
+    <t xml:space="preserve">9.53739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44407749176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
     <t xml:space="preserve">9.78003120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89201641082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3212947845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9480094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146127700806</t>
+    <t xml:space="preserve">9.89201736450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3212938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94800853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146146774292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5265989303589</t>
@@ -1427,16 +1427,16 @@
     <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
+    <t xml:space="preserve">10.3026285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873302459717</t>
+    <t xml:space="preserve">9.51873397827148</t>
   </si>
   <si>
     <t xml:space="preserve">9.5000696182251</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19210910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40674686431885</t>
+    <t xml:space="preserve">9.19211101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40674877166748</t>
   </si>
   <si>
     <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35075664520264</t>
+    <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609825134277</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0521297454834</t>
+    <t xml:space="preserve">9.10812091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
     <t xml:space="preserve">9.22010612487793</t>
@@ -1493,22 +1493,22 @@
     <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43621158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40821361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559852600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55899429321289</t>
+    <t xml:space="preserve">8.43621063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4082145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561773300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55899381637573</t>
   </si>
   <si>
     <t xml:space="preserve">7.93227767944336</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">7.57765817642212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60565328598022</t>
+    <t xml:space="preserve">7.60565376281738</t>
   </si>
   <si>
     <t xml:space="preserve">7.65231561660767</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079410552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810314178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077346801758</t>
+    <t xml:space="preserve">9.07079219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810218811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
     <t xml:space="preserve">9.17344570159912</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541217803955</t>
+    <t xml:space="preserve">9.42541313171387</t>
   </si>
   <si>
     <t xml:space="preserve">9.12678527832031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37875175476074</t>
+    <t xml:space="preserve">9.29476356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2574348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37875270843506</t>
   </si>
   <si>
     <t xml:space="preserve">9.20144176483154</t>
@@ -1568,22 +1568,22 @@
     <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82815837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415145874023</t>
+    <t xml:space="preserve">8.82815933227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415241241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01480007171631</t>
+    <t xml:space="preserve">9.01480102539062</t>
   </si>
   <si>
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79082870483398</t>
+    <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78431415557861</t>
+    <t xml:space="preserve">9.73681735992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83181095123291</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">10.1642875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017696380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5442609786987</t>
+    <t xml:space="preserve">10.4017705917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5442600250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.2592802047729</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3067770004272</t>
+    <t xml:space="preserve">10.3067779541016</t>
   </si>
   <si>
     <t xml:space="preserve">10.4492664337158</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
+    <t xml:space="preserve">10.5917558670044</t>
   </si>
   <si>
     <t xml:space="preserve">10.6392545700073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567100524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0667238235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1617164611816</t>
+    <t xml:space="preserve">11.3042058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567110061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.066722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.161717414856</t>
   </si>
   <si>
     <t xml:space="preserve">10.8767366409302</t>
@@ -1670,28 +1670,28 @@
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092132568359</t>
+    <t xml:space="preserve">11.1142206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092142105103</t>
   </si>
   <si>
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">10.9717292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342472076416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6366834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7316780090332</t>
+    <t xml:space="preserve">11.6366844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7316770553589</t>
   </si>
   <si>
     <t xml:space="preserve">11.8741664886475</t>
@@ -1700,64 +1700,64 @@
     <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6841802597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7791738510132</t>
+    <t xml:space="preserve">11.6841812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
     <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116504669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3966293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6341142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0140867233276</t>
+    <t xml:space="preserve">12.1116514205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3966302871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0140857696533</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7766027450562</t>
+    <t xml:space="preserve">12.7766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">12.7291069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.919093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9665908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990665435791</t>
+    <t xml:space="preserve">12.9190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090803146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990674972534</t>
   </si>
   <si>
     <t xml:space="preserve">13.5840473175049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9640207290649</t>
+    <t xml:space="preserve">13.9640188217163</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.7740345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315450668335</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,37 +1766,37 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
+    <t xml:space="preserve">14.1065111160278</t>
   </si>
   <si>
     <t xml:space="preserve">14.1540069580078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2015027999878</t>
+    <t xml:space="preserve">14.2015037536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2490005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.391489982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3439931869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5814771652222</t>
+    <t xml:space="preserve">14.2489995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3914890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.343994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5814781188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4389877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5339803695679</t>
+    <t xml:space="preserve">14.438985824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5339794158936</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7714643478394</t>
+    <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
     <t xml:space="preserve">14.9139528274536</t>
@@ -1820,25 +1820,25 @@
     <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664569854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4839115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113826751709</t>
+    <t xml:space="preserve">14.8664560317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4839124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113845825195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868667602539</t>
+    <t xml:space="preserve">16.1868648529053</t>
   </si>
   <si>
     <t xml:space="preserve">16.2248611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3388538360596</t>
+    <t xml:space="preserve">16.3388557434082</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628612518311</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5288410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
+    <t xml:space="preserve">16.5288429260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478401184082</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
@@ -1859,46 +1859,46 @@
     <t xml:space="preserve">16.6808280944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.034875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.673900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549024581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
+    <t xml:space="preserve">16.4148502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588785171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638887405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448896408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169033050537</t>
   </si>
   <si>
     <t xml:space="preserve">15.825888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
+    <t xml:space="preserve">15.8068895339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559907913208</t>
   </si>
   <si>
     <t xml:space="preserve">15.293927192688</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">15.3699216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9208831787109</t>
+    <t xml:space="preserve">15.9208822250366</t>
   </si>
   <si>
     <t xml:space="preserve">16.1281356811523</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">15.7624626159668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6277408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9356746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549226760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.743218421936</t>
+    <t xml:space="preserve">15.6277418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.935676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7432165145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">15.8394460678101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9741678237915</t>
+    <t xml:space="preserve">15.9741687774658</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628593444824</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">17.2444038391113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9942073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8979740142822</t>
+    <t xml:space="preserve">16.9942054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8979759216309</t>
   </si>
   <si>
     <t xml:space="preserve">17.128927230835</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180164337158</t>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561080932617</t>
+    <t xml:space="preserve">17.4561100006104</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983707427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3021430969238</t>
+    <t xml:space="preserve">17.3983726501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3021392822266</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674213409424</t>
@@ -2045,34 +2045,34 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142421722412</t>
+    <t xml:space="preserve">17.8602733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334911346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142440795898</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916233062744</t>
+    <t xml:space="preserve">18.591625213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263431549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.880313873291</t>
+    <t xml:space="preserve">18.7263450622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8803157806396</t>
   </si>
   <si>
     <t xml:space="preserve">18.976541519165</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6790218353271</t>
+    <t xml:space="preserve">19.6790237426758</t>
   </si>
   <si>
     <t xml:space="preserve">20.0639419555664</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">18.8610668182373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3903312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2941017150879</t>
+    <t xml:space="preserve">19.3903331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2940998077393</t>
   </si>
   <si>
     <t xml:space="preserve">18.9380512237549</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.264440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.341423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.169002532959</t>
+    <t xml:space="preserve">18.3414249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1690044403076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">19.0535259246826</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1112670898438</t>
+    <t xml:space="preserve">19.1112651824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.0727729797363</t>
@@ -2165,16 +2165,16 @@
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4488620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9300098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1224689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4111614227295</t>
+    <t xml:space="preserve">20.448860168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9300117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1224708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4111595153809</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">20.4969749450684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.641321182251</t>
+    <t xml:space="preserve">20.6413230895996</t>
   </si>
   <si>
     <t xml:space="preserve">21.1705856323242</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3045139312744</t>
+    <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865608215332</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3526306152344</t>
+    <t xml:space="preserve">20.352632522583</t>
   </si>
   <si>
     <t xml:space="preserve">20.1120567321777</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882514953613</t>
+    <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
     <t xml:space="preserve">18.2067031860352</t>
@@ -2234,25 +2234,25 @@
     <t xml:space="preserve">18.1682109832764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2451953887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7640438079834</t>
+    <t xml:space="preserve">18.3029346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2451934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.764045715332</t>
   </si>
   <si>
     <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2059097290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4360733032227</t>
+    <t xml:space="preserve">17.2059116363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.436071395874</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749603271484</t>
+    <t xml:space="preserve">16.9749584197998</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553184509277</t>
@@ -2282,46 +2282,46 @@
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.416036605835</t>
+    <t xml:space="preserve">16.7825012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160356521606</t>
   </si>
   <si>
     <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6269502639771</t>
+    <t xml:space="preserve">14.6269493103027</t>
   </si>
   <si>
     <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1273460388184</t>
+    <t xml:space="preserve">15.127345085144</t>
   </si>
   <si>
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8202028274536</t>
+    <t xml:space="preserve">15.820200920105</t>
   </si>
   <si>
     <t xml:space="preserve">15.2813129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7247619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8402366638184</t>
+    <t xml:space="preserve">16.1858768463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.840238571167</t>
   </si>
   <si>
     <t xml:space="preserve">16.6670246124268</t>
@@ -2330,156 +2330,159 @@
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
+    <t xml:space="preserve">15.8779382705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0319061279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6469879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1080989837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4737739562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3582973480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0503625869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9156398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7817106246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2436122894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3775434494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1513614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5029010772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1904201507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.620080947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9325618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3036327362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.928596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.577054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3973159790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8895359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1043663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6551742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7528247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6161155700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0497417449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6005516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1318302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9755887985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0927677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5068674087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5849876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4678077697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7607583999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8974695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9560585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3076019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7998189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0146503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5614910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5810203552246</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.8779392242432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6469869613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.108099937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4737739562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3582973480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0503625869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9156398773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311155319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7817096710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2436122894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3775424957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2428216934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1513614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466606140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5029010772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1904201507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.620080947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9325618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3036327362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.928596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.577054977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3973159790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8895359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1043663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6551742553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7528247833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6161155700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0497417449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6005516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1318302154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9755887985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0927677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5068674087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5849876403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3115682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4678077697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7607583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8974695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9560585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3076019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7998189926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0146503448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5614910125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5810203552246</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
@@ -3273,6 +3276,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.6500015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5</t>
   </si>
 </sst>
 </file>
@@ -46818,7 +46824,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1662" t="s">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46844,7 +46850,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1663" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46870,7 +46876,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47026,7 +47032,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1670" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47052,7 +47058,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1671" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47078,7 +47084,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47104,7 +47110,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1673" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47130,7 +47136,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1674" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47156,7 +47162,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1675" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47182,7 +47188,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1676" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47208,7 +47214,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1677" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47234,7 +47240,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47260,7 +47266,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1679" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47286,7 +47292,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1680" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47312,7 +47318,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47338,7 +47344,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47364,7 +47370,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47390,7 +47396,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47442,7 +47448,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1686" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47494,7 +47500,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1688" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47546,7 +47552,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1690" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47572,7 +47578,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1691" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47598,7 +47604,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1692" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47624,7 +47630,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1693" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47702,7 +47708,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1696" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47754,7 +47760,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47780,7 +47786,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1699" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47806,7 +47812,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1700" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47858,7 +47864,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1702" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47884,7 +47890,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1703" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47962,7 +47968,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1706" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48014,7 +48020,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1708" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48066,7 +48072,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1710" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48118,7 +48124,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1712" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48144,7 +48150,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1713" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48170,7 +48176,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48196,7 +48202,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48222,7 +48228,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48248,7 +48254,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1717" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48274,7 +48280,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48300,7 +48306,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48326,7 +48332,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1720" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48352,7 +48358,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48378,7 +48384,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48404,7 +48410,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1723" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48456,7 +48462,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1725" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48508,7 +48514,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48560,7 +48566,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48586,7 +48592,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1730" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48612,7 +48618,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1731" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48638,7 +48644,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1732" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48664,7 +48670,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48690,7 +48696,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48742,7 +48748,7 @@
         <v>18.5</v>
       </c>
       <c r="G1736" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48768,7 +48774,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1737" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48794,7 +48800,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1738" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48820,7 +48826,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48872,7 +48878,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1741" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48950,7 +48956,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48976,7 +48982,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1745" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49002,7 +49008,7 @@
         <v>18.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49028,7 +49034,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1747" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49054,7 +49060,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1748" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49080,7 +49086,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49106,7 +49112,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1750" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49132,7 +49138,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1751" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49158,7 +49164,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1752" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49184,7 +49190,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1753" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49210,7 +49216,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1754" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49236,7 +49242,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49262,7 +49268,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1756" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49288,7 +49294,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49314,7 +49320,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1758" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49340,7 +49346,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49366,7 +49372,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49392,7 +49398,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1761" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49444,7 +49450,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1763" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49470,7 +49476,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1764" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49522,7 +49528,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49574,7 +49580,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1768" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49600,7 +49606,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1769" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49626,7 +49632,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1770" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49652,7 +49658,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1771" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49678,7 +49684,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1772" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49704,7 +49710,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1773" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49730,7 +49736,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1774" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49756,7 +49762,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1775" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49808,7 +49814,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1777" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49834,7 +49840,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49886,7 +49892,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49912,7 +49918,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1781" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49938,7 +49944,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49964,7 +49970,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1783" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50016,7 +50022,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50042,7 +50048,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1786" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50094,7 +50100,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1788" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50120,7 +50126,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50146,7 +50152,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1790" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50172,7 +50178,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50198,7 +50204,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50224,7 +50230,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50250,7 +50256,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1794" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50276,7 +50282,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50302,7 +50308,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50328,7 +50334,7 @@
         <v>20.25</v>
       </c>
       <c r="G1797" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50354,7 +50360,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50380,7 +50386,7 @@
         <v>20.5</v>
       </c>
       <c r="G1799" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50406,7 +50412,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1800" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50432,7 +50438,7 @@
         <v>20.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50458,7 +50464,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50484,7 +50490,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50510,7 +50516,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50536,7 +50542,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50562,7 +50568,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1806" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50588,7 +50594,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50614,7 +50620,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50640,7 +50646,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50666,7 +50672,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50692,7 +50698,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50718,7 +50724,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50744,7 +50750,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50770,7 +50776,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1814" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50796,7 +50802,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1815" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50822,7 +50828,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50848,7 +50854,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50874,7 +50880,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50900,7 +50906,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50926,7 +50932,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1820" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50952,7 +50958,7 @@
         <v>23</v>
       </c>
       <c r="G1821" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50978,7 +50984,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51004,7 +51010,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51030,7 +51036,7 @@
         <v>24.25</v>
       </c>
       <c r="G1824" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51056,7 +51062,7 @@
         <v>24.25</v>
       </c>
       <c r="G1825" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51082,7 +51088,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51108,7 +51114,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51134,7 +51140,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1828" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51160,7 +51166,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1829" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51186,7 +51192,7 @@
         <v>23.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51212,7 +51218,7 @@
         <v>23.5</v>
       </c>
       <c r="G1831" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51238,7 +51244,7 @@
         <v>23.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51264,7 +51270,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51290,7 +51296,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1834" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51316,7 +51322,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51342,7 +51348,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51368,7 +51374,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1837" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51394,7 +51400,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51420,7 +51426,7 @@
         <v>23</v>
       </c>
       <c r="G1839" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51446,7 +51452,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51472,7 +51478,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51498,7 +51504,7 @@
         <v>23</v>
       </c>
       <c r="G1842" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51524,7 +51530,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51550,7 +51556,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51576,7 +51582,7 @@
         <v>23.5</v>
       </c>
       <c r="G1845" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51602,7 +51608,7 @@
         <v>23.75</v>
       </c>
       <c r="G1846" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51628,7 +51634,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51654,7 +51660,7 @@
         <v>25</v>
       </c>
       <c r="G1848" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51680,7 +51686,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1849" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51706,7 +51712,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51732,7 +51738,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51758,7 +51764,7 @@
         <v>26.25</v>
       </c>
       <c r="G1852" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51784,7 +51790,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1853" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51810,7 +51816,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1854" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51836,7 +51842,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51862,7 +51868,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51888,7 +51894,7 @@
         <v>26</v>
       </c>
       <c r="G1857" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51914,7 +51920,7 @@
         <v>26</v>
       </c>
       <c r="G1858" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51940,7 +51946,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51966,7 +51972,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51992,7 +51998,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52018,7 +52024,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1862" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52044,7 +52050,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52070,7 +52076,7 @@
         <v>26.25</v>
       </c>
       <c r="G1864" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52096,7 +52102,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1865" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52122,7 +52128,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52148,7 +52154,7 @@
         <v>26.5</v>
       </c>
       <c r="G1867" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52174,7 +52180,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52200,7 +52206,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1869" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52226,7 +52232,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1870" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52252,7 +52258,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1871" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52278,7 +52284,7 @@
         <v>26</v>
       </c>
       <c r="G1872" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52304,7 +52310,7 @@
         <v>26</v>
       </c>
       <c r="G1873" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52330,7 +52336,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52356,7 +52362,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52382,7 +52388,7 @@
         <v>26.25</v>
       </c>
       <c r="G1876" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52408,7 +52414,7 @@
         <v>26</v>
       </c>
       <c r="G1877" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52434,7 +52440,7 @@
         <v>26.75</v>
       </c>
       <c r="G1878" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52460,7 +52466,7 @@
         <v>27.25</v>
       </c>
       <c r="G1879" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52486,7 +52492,7 @@
         <v>26.75</v>
       </c>
       <c r="G1880" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52512,7 +52518,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52538,7 +52544,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52564,7 +52570,7 @@
         <v>26.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52590,7 +52596,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52616,7 +52622,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1885" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52642,7 +52648,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52668,7 +52674,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52694,7 +52700,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52720,7 +52726,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52746,7 +52752,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52772,7 +52778,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1891" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52798,7 +52804,7 @@
         <v>25.75</v>
       </c>
       <c r="G1892" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52824,7 +52830,7 @@
         <v>25.25</v>
       </c>
       <c r="G1893" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52850,7 +52856,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52876,7 +52882,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52902,7 +52908,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1896" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52928,7 +52934,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52954,7 +52960,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52980,7 +52986,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53006,7 +53012,7 @@
         <v>25</v>
       </c>
       <c r="G1900" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53032,7 +53038,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1901" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53058,7 +53064,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53084,7 +53090,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53110,7 +53116,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1904" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53136,7 +53142,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1905" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53162,7 +53168,7 @@
         <v>25.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53188,7 +53194,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1907" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53214,7 +53220,7 @@
         <v>26</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53240,7 +53246,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53266,7 +53272,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53292,7 +53298,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53318,7 +53324,7 @@
         <v>26.25</v>
       </c>
       <c r="G1912" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53344,7 +53350,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53370,7 +53376,7 @@
         <v>26.25</v>
       </c>
       <c r="G1914" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53396,7 +53402,7 @@
         <v>26.25</v>
       </c>
       <c r="G1915" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53422,7 +53428,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53448,7 +53454,7 @@
         <v>27.25</v>
       </c>
       <c r="G1917" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53474,7 +53480,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53500,7 +53506,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53526,7 +53532,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53552,7 +53558,7 @@
         <v>27</v>
       </c>
       <c r="G1921" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53578,7 +53584,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1922" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53604,7 +53610,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53630,7 +53636,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53656,7 +53662,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53682,7 +53688,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53708,7 +53714,7 @@
         <v>25.75</v>
       </c>
       <c r="G1927" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53734,7 +53740,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53760,7 +53766,7 @@
         <v>26</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53786,7 +53792,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1930" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53812,7 +53818,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1931" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53838,7 +53844,7 @@
         <v>25.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53864,7 +53870,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53890,7 +53896,7 @@
         <v>25.25</v>
       </c>
       <c r="G1934" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53916,7 +53922,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53942,7 +53948,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1936" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53968,7 +53974,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53994,7 +54000,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1938" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54020,7 +54026,7 @@
         <v>26.25</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54046,7 +54052,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1940" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54072,7 +54078,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54098,7 +54104,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1942" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54124,7 +54130,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54150,7 +54156,7 @@
         <v>26</v>
       </c>
       <c r="G1944" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54176,7 +54182,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54202,7 +54208,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54228,7 +54234,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54254,7 +54260,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54280,7 +54286,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54306,7 +54312,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54332,7 +54338,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54358,7 +54364,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54384,7 +54390,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1953" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54410,7 +54416,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1954" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54436,7 +54442,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1955" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54462,7 +54468,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54488,7 +54494,7 @@
         <v>26</v>
       </c>
       <c r="G1957" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54514,7 +54520,7 @@
         <v>26.25</v>
       </c>
       <c r="G1958" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54540,7 +54546,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1959" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54566,7 +54572,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54592,7 +54598,7 @@
         <v>27.75</v>
       </c>
       <c r="G1961" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54618,7 +54624,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1962" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54644,7 +54650,7 @@
         <v>27.75</v>
       </c>
       <c r="G1963" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54670,7 +54676,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1964" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54696,7 +54702,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54722,7 +54728,7 @@
         <v>27.5</v>
       </c>
       <c r="G1966" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54748,7 +54754,7 @@
         <v>27</v>
       </c>
       <c r="G1967" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54774,7 +54780,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1968" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54800,7 +54806,7 @@
         <v>25.75</v>
       </c>
       <c r="G1969" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54826,7 +54832,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54852,7 +54858,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1971" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54878,7 +54884,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54904,7 +54910,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54930,7 +54936,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54956,7 +54962,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54982,7 +54988,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55008,7 +55014,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55034,7 +55040,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1978" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55060,7 +55066,7 @@
         <v>26.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55086,7 +55092,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1980" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55112,7 +55118,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1981" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55138,7 +55144,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1982" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55164,7 +55170,7 @@
         <v>26.75</v>
       </c>
       <c r="G1983" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55190,7 +55196,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55216,7 +55222,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1985" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55242,7 +55248,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55268,7 +55274,7 @@
         <v>27.5</v>
       </c>
       <c r="G1987" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55294,7 +55300,7 @@
         <v>27</v>
       </c>
       <c r="G1988" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55320,7 +55326,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55346,7 +55352,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55372,7 +55378,7 @@
         <v>27.75</v>
       </c>
       <c r="G1991" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55398,7 +55404,7 @@
         <v>26.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55424,7 +55430,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55450,7 +55456,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55476,7 +55482,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1995" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55502,7 +55508,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55528,7 +55534,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55554,7 +55560,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55580,7 +55586,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55606,7 +55612,7 @@
         <v>27</v>
       </c>
       <c r="G2000" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55632,7 +55638,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55658,7 +55664,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55684,7 +55690,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55710,7 +55716,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55736,7 +55742,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2005" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55762,7 +55768,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2006" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55788,7 +55794,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55814,7 +55820,7 @@
         <v>27.5</v>
       </c>
       <c r="G2008" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55840,7 +55846,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55866,7 +55872,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G2010" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55892,7 +55898,7 @@
         <v>28.25</v>
       </c>
       <c r="G2011" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55918,7 +55924,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G2012" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55944,7 +55950,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G2013" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55970,7 +55976,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G2014" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55996,7 +56002,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56022,7 +56028,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56048,7 +56054,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56074,7 +56080,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2018" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56100,7 +56106,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G2019" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56126,7 +56132,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56152,7 +56158,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56178,7 +56184,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G2022" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56204,7 +56210,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G2023" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56230,7 +56236,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56256,7 +56262,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56282,7 +56288,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56308,7 +56314,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G2027" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56334,7 +56340,7 @@
         <v>28</v>
       </c>
       <c r="G2028" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56360,7 +56366,7 @@
         <v>27.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56386,7 +56392,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56412,7 +56418,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G2031" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56438,7 +56444,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2032" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56464,7 +56470,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2033" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56490,7 +56496,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2034" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56516,7 +56522,7 @@
         <v>28</v>
       </c>
       <c r="G2035" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56542,7 +56548,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2036" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56568,7 +56574,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2037" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56594,7 +56600,7 @@
         <v>26.5</v>
       </c>
       <c r="G2038" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56620,7 +56626,7 @@
         <v>27</v>
       </c>
       <c r="G2039" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56646,7 +56652,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56672,7 +56678,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56698,7 +56704,7 @@
         <v>27.25</v>
       </c>
       <c r="G2042" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56724,7 +56730,7 @@
         <v>27</v>
       </c>
       <c r="G2043" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56750,7 +56756,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56776,7 +56782,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G2045" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56802,7 +56808,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56828,7 +56834,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56854,7 +56860,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56880,7 +56886,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56906,7 +56912,7 @@
         <v>26.25</v>
       </c>
       <c r="G2050" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56932,7 +56938,7 @@
         <v>26.25</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56958,7 +56964,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56984,7 +56990,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57010,7 +57016,7 @@
         <v>26.75</v>
       </c>
       <c r="G2054" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57036,7 +57042,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2055" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57062,7 +57068,7 @@
         <v>26.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57088,7 +57094,7 @@
         <v>26.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57114,7 +57120,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57140,7 +57146,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G2059" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57166,7 +57172,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57192,7 +57198,7 @@
         <v>26.25</v>
       </c>
       <c r="G2061" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57218,7 +57224,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57244,7 +57250,7 @@
         <v>26.75</v>
       </c>
       <c r="G2063" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57270,7 +57276,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57296,7 +57302,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G2065" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57322,7 +57328,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57348,7 +57354,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57374,7 +57380,7 @@
         <v>26.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57400,7 +57406,7 @@
         <v>26</v>
       </c>
       <c r="G2069" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57426,7 +57432,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57452,7 +57458,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57478,7 +57484,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57504,7 +57510,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57530,7 +57536,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57556,7 +57562,7 @@
         <v>28.25</v>
       </c>
       <c r="G2075" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57582,7 +57588,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57608,7 +57614,7 @@
         <v>28.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57634,7 +57640,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2078" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57660,7 +57666,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G2079" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57686,7 +57692,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57712,7 +57718,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57738,7 +57744,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57764,7 +57770,7 @@
         <v>29.75</v>
       </c>
       <c r="G2083" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57790,7 +57796,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57816,7 +57822,7 @@
         <v>30.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57842,7 +57848,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57868,7 +57874,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57894,7 +57900,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57920,7 +57926,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2089" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57946,7 +57952,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57972,7 +57978,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57998,7 +58004,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58024,7 +58030,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2093" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58050,7 +58056,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58076,7 +58082,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58102,7 +58108,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58128,7 +58134,7 @@
         <v>31.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58154,7 +58160,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2098" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58180,7 +58186,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2099" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58206,7 +58212,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58232,7 +58238,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58258,7 +58264,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58284,7 +58290,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58310,7 +58316,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58336,7 +58342,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58362,7 +58368,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58388,7 +58394,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58414,7 +58420,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58440,7 +58446,7 @@
         <v>35</v>
       </c>
       <c r="G2109" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58466,7 +58472,7 @@
         <v>35</v>
       </c>
       <c r="G2110" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58492,7 +58498,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2111" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58518,7 +58524,7 @@
         <v>35.5</v>
       </c>
       <c r="G2112" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58544,7 +58550,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58570,7 +58576,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58596,7 +58602,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58622,7 +58628,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2116" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58648,7 +58654,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2117" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58674,7 +58680,7 @@
         <v>35</v>
       </c>
       <c r="G2118" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58700,7 +58706,7 @@
         <v>35.75</v>
       </c>
       <c r="G2119" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58726,7 +58732,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58752,7 +58758,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58778,7 +58784,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58804,7 +58810,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58830,7 +58836,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58856,7 +58862,7 @@
         <v>33.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58882,7 +58888,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58908,7 +58914,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2127" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58934,7 +58940,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58960,7 +58966,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2129" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58986,7 +58992,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59012,7 +59018,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59038,7 +59044,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2132" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59064,7 +59070,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59090,7 +59096,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59116,7 +59122,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59142,7 +59148,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2136" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59168,7 +59174,7 @@
         <v>31</v>
       </c>
       <c r="G2137" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59194,7 +59200,7 @@
         <v>31</v>
       </c>
       <c r="G2138" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59220,7 +59226,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59246,7 +59252,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59272,7 +59278,7 @@
         <v>32</v>
       </c>
       <c r="G2141" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59298,7 +59304,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59324,7 +59330,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2143" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59350,7 +59356,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2144" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59376,7 +59382,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2145" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59402,7 +59408,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59428,7 +59434,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2147" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59454,7 +59460,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2148" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59480,7 +59486,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59506,7 +59512,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59532,7 +59538,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G2151" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59558,7 +59564,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59584,7 +59590,7 @@
         <v>32</v>
       </c>
       <c r="G2153" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59610,7 +59616,7 @@
         <v>32.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59636,7 +59642,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59662,7 +59668,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2156" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59688,7 +59694,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59714,7 +59720,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59740,7 +59746,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2159" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59766,7 +59772,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59792,7 +59798,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59818,7 +59824,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59826,7 +59832,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6494444444</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>19514</v>
@@ -59844,9 +59850,35 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2163" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6495717593</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>26411</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>33.4500007629395</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1094">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414518356323</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534610748291</t>
+    <t xml:space="preserve">7.20534658432007</t>
   </si>
   <si>
     <t xml:space="preserve">7.25373363494873</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">7.12616729736328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97220659255981</t>
+    <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
     <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179647445679</t>
+    <t xml:space="preserve">7.01179599761963</t>
   </si>
   <si>
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68628025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425813674927</t>
+    <t xml:space="preserve">6.686279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425765991211</t>
   </si>
   <si>
     <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42234897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592708587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398944854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2287974357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912355422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710096359253</t>
+    <t xml:space="preserve">6.4223484992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833131790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710144042969</t>
   </si>
   <si>
     <t xml:space="preserve">6.43994426727295</t>
@@ -107,103 +107,103 @@
     <t xml:space="preserve">6.57190990447998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56311130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223459243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8534369468689</t>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343647003174</t>
   </si>
   <si>
     <t xml:space="preserve">7.07338094711304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90622329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376306533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256071090698</t>
+    <t xml:space="preserve">6.9062237739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376354217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256118774414</t>
   </si>
   <si>
     <t xml:space="preserve">6.79625225067139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89302635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349342346191</t>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349390029907</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786424636841</t>
+    <t xml:space="preserve">6.74786376953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103223800659</t>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103271484375</t>
   </si>
   <si>
     <t xml:space="preserve">6.85783624649048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75666284561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8798303604126</t>
+    <t xml:space="preserve">6.75666189193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983131408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9766058921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149930953979</t>
+    <t xml:space="preserve">6.97660541534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149978637695</t>
   </si>
   <si>
     <t xml:space="preserve">6.523521900177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712896347046</t>
+    <t xml:space="preserve">6.4971284866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.79185247421265</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94141387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9150218963623</t>
+    <t xml:space="preserve">6.94141435623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91502141952515</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
@@ -212,28 +212,28 @@
     <t xml:space="preserve">6.91942024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80944871902466</t>
+    <t xml:space="preserve">6.8094482421875</t>
   </si>
   <si>
     <t xml:space="preserve">6.57630825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114566802979</t>
+    <t xml:space="preserve">6.43114519119263</t>
   </si>
   <si>
     <t xml:space="preserve">6.62469625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73026943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144235610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818988800049</t>
+    <t xml:space="preserve">6.73026847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144283294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818941116333</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
@@ -242,37 +242,37 @@
     <t xml:space="preserve">7.01343584060669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94642877578735</t>
+    <t xml:space="preserve">6.94642782211304</t>
   </si>
   <si>
     <t xml:space="preserve">6.96429681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40654516220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2903995513916</t>
+    <t xml:space="preserve">7.40654563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29039859771729</t>
   </si>
   <si>
     <t xml:space="preserve">7.48695373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50482320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334817886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908617019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375675201416</t>
+    <t xml:space="preserve">7.50482130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334722518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375770568848</t>
   </si>
   <si>
     <t xml:space="preserve">7.45121669769287</t>
@@ -281,43 +281,43 @@
     <t xml:space="preserve">7.10724592208862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03577089309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93302726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2725305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6388373374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178644180298</t>
+    <t xml:space="preserve">7.03577136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9330267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27253103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391649246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285242080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178691864014</t>
   </si>
   <si>
     <t xml:space="preserve">7.7281813621521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.683509349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187410354614</t>
+    <t xml:space="preserve">8.11682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187267303467</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810737609863</t>
@@ -329,97 +329,97 @@
     <t xml:space="preserve">7.62096834182739</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37974214553833</t>
+    <t xml:space="preserve">7.37974262237549</t>
   </si>
   <si>
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142169952393</t>
+    <t xml:space="preserve">7.49142217636108</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203622817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248672485352</t>
+    <t xml:space="preserve">7.59416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248720169067</t>
   </si>
   <si>
     <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05363988876343</t>
+    <t xml:space="preserve">7.05363941192627</t>
   </si>
   <si>
     <t xml:space="preserve">6.8615517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81688070297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150793075562</t>
+    <t xml:space="preserve">6.81688117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150888442993</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101121902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162527084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015071868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269124984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679399490356</t>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523225784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015119552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269077301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679351806641</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761018753052</t>
+    <t xml:space="preserve">7.39761066436768</t>
   </si>
   <si>
     <t xml:space="preserve">7.46461725234985</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37080812454224</t>
+    <t xml:space="preserve">7.37080860137939</t>
   </si>
   <si>
     <t xml:space="preserve">7.34400510787964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31720113754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22785949707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384489059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323036193848</t>
+    <t xml:space="preserve">7.3172025680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22785806655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
+    <t xml:space="preserve">6.9508957862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.02236938476562</t>
@@ -428,55 +428,55 @@
     <t xml:space="preserve">6.91962480545044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83474969863892</t>
+    <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835477828979</t>
+    <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
     <t xml:space="preserve">6.74540615081787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8794207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044290542603</t>
+    <t xml:space="preserve">6.87942123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96876430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728927612305</t>
+    <t xml:space="preserve">6.89728975296021</t>
   </si>
   <si>
     <t xml:space="preserve">6.92409181594849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704092025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98216581344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003385543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13404893875122</t>
+    <t xml:space="preserve">6.98663282394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704139709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.977698802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404941558838</t>
   </si>
   <si>
     <t xml:space="preserve">7.04917240142822</t>
@@ -485,19 +485,19 @@
     <t xml:space="preserve">6.81241321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4416389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4282374382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930341720581</t>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966958999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44163942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42823791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930437088013</t>
   </si>
   <si>
     <t xml:space="preserve">6.43717241287231</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">6.46397495269775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5399169921875</t>
+    <t xml:space="preserve">6.53991651535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544950485229</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">6.70520210266113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70073509216309</t>
+    <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277795791626</t>
@@ -542,40 +542,40 @@
     <t xml:space="preserve">6.76327419281006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76774215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
+    <t xml:space="preserve">6.76774168014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064647674561</t>
   </si>
   <si>
     <t xml:space="preserve">7.17872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41548013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019454956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2591290473938</t>
+    <t xml:space="preserve">7.41547966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1921215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912857055664</t>
   </si>
   <si>
     <t xml:space="preserve">7.30826759338379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47801923751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54949474334717</t>
+    <t xml:space="preserve">7.47801971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
     <t xml:space="preserve">7.20999002456665</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">7.33953714370728</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24126052856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171293258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2993335723877</t>
+    <t xml:space="preserve">7.24126005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171340942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29933309555054</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740613937378</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">7.49588871002197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793300628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063423156738</t>
+    <t xml:space="preserve">7.90686750411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8979320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063232421875</t>
   </si>
   <si>
     <t xml:space="preserve">8.35358238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825439453125</t>
+    <t xml:space="preserve">8.39825534820557</t>
   </si>
   <si>
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60821151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57693958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571434020996</t>
+    <t xml:space="preserve">8.60821056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571338653564</t>
   </si>
   <si>
     <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66628360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84496974945068</t>
+    <t xml:space="preserve">8.66628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939197540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84496784210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.95218181610107</t>
@@ -644,28 +644,28 @@
     <t xml:space="preserve">9.64905738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33635711669922</t>
+    <t xml:space="preserve">9.3363561630249</t>
   </si>
   <si>
     <t xml:space="preserve">9.10406398773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93431377410889</t>
+    <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79136371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898387908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88964176177979</t>
+    <t xml:space="preserve">8.7913646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80029773712158</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">8.86283779144287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304279327393</t>
+    <t xml:space="preserve">8.75562763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603668212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447399139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365589141846</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51831245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
   </si>
   <si>
     <t xml:space="preserve">9.40953063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47298717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
+    <t xml:space="preserve">9.47298622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924682617188</t>
@@ -725,28 +725,28 @@
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528673171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156524658203</t>
+    <t xml:space="preserve">10.6151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156429290771</t>
   </si>
   <si>
     <t xml:space="preserve">9.83558940887451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65428733825684</t>
+    <t xml:space="preserve">9.65428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766094207764</t>
+    <t xml:space="preserve">9.6270923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42766189575195</t>
   </si>
   <si>
     <t xml:space="preserve">9.44579219818115</t>
@@ -764,121 +764,121 @@
     <t xml:space="preserve">9.86278438568115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140033721924</t>
+    <t xml:space="preserve">9.5545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140129089355</t>
   </si>
   <si>
     <t xml:space="preserve">9.3642053604126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30074977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24635982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644180297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67241668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4185962677002</t>
+    <t xml:space="preserve">9.30075073242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24636077880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5364408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67241764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41859722137451</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79932880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49111652374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34607601165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35513973236084</t>
+    <t xml:space="preserve">9.75400257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7993278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49111747741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3460750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45485687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74493885040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091564178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85371875762939</t>
+    <t xml:space="preserve">9.45485591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74493789672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091468811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85371780395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89904308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4639196395874</t>
+    <t xml:space="preserve">9.89904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87184906005859</t>
+    <t xml:space="preserve">9.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87184810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103454589844</t>
+    <t xml:space="preserve">9.20103549957275</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2735538482666</t>
+    <t xml:space="preserve">9.400465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.18290519714355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30981540679932</t>
+    <t xml:space="preserve">9.309814453125</t>
   </si>
   <si>
     <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48205089569092</t>
+    <t xml:space="preserve">9.48205184936523</t>
   </si>
   <si>
     <t xml:space="preserve">9.1557092666626</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">9.77213287353516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17383861541748</t>
+    <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
     <t xml:space="preserve">9.13757801055908</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">9.22823047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440814971924</t>
+    <t xml:space="preserve">8.97440719604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.191969871521</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">10.0440855026245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6061191558838</t>
+    <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">10.6423788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874202728271</t>
+    <t xml:space="preserve">10.7874183654785</t>
   </si>
   <si>
     <t xml:space="preserve">11.0049819946289</t>
@@ -935,37 +935,37 @@
     <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6242504119873</t>
+    <t xml:space="preserve">10.6242513656616</t>
   </si>
   <si>
     <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2616472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
+    <t xml:space="preserve">10.4248189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">9.84465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71774387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530368804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1891269683838</t>
+    <t xml:space="preserve">9.71774291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1891260147095</t>
   </si>
   <si>
     <t xml:space="preserve">10.297905921936</t>
@@ -977,28 +977,28 @@
     <t xml:space="preserve">10.3160362243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3341684341431</t>
+    <t xml:space="preserve">10.3341655731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078248977661</t>
+    <t xml:space="preserve">10.3522977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078258514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76142311096191</t>
+    <t xml:space="preserve">9.76142406463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363735198975</t>
+    <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577667236328</t>
@@ -1010,22 +1010,22 @@
     <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5592098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.055552482605</t>
+    <t xml:space="preserve">9.55921077728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3313007354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4783658981323</t>
+    <t xml:space="preserve">10.3312997817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783630371094</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151300430298</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393846511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232149124146</t>
+    <t xml:space="preserve">10.882791519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.312915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393836975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805782318115</t>
@@ -1067,52 +1067,52 @@
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112590789795</t>
+    <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48567676544189</t>
+    <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2026176452637</t>
+    <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187883377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107034683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945346832275</t>
+    <t xml:space="preserve">10.0187873840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945337295532</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010429382324</t>
+    <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
     <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92687129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0371694564819</t>
+    <t xml:space="preserve">9.92687225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0371704101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74304103851318</t>
+    <t xml:space="preserve">9.74304008483887</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597396850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244281768799</t>
+    <t xml:space="preserve">9.59597492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5224437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.90848827362061</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.073935508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789196014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154834747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1823558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
+    <t xml:space="preserve">10.0739364624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789100646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154739379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18235683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
@@ -1166,67 +1166,67 @@
     <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66950798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831344604492</t>
+    <t xml:space="preserve">9.66950702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41214561462402</t>
+    <t xml:space="preserve">9.41214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702791213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9379425048828</t>
+    <t xml:space="preserve">10.5702810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9379405975342</t>
   </si>
   <si>
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3864498138428</t>
+    <t xml:space="preserve">10.4048309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3864488601685</t>
   </si>
   <si>
     <t xml:space="preserve">10.1290864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761507034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724952697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8092594146729</t>
+    <t xml:space="preserve">10.1474695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680658340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724962234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8092603683472</t>
   </si>
   <si>
     <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1217727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747066497803</t>
+    <t xml:space="preserve">11.1217737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
     <t xml:space="preserve">10.993091583252</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">10.8276424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.754111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
+    <t xml:space="preserve">10.7541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664884567261</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
@@ -1250,25 +1250,25 @@
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238536834717</t>
+    <t xml:space="preserve">11.4224796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
     <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252258300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065614700317</t>
+    <t xml:space="preserve">10.9372129440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065624237061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.657247543335</t>
+    <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892721176147</t>
+    <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772850036621</t>
+    <t xml:space="preserve">10.3772859573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.35862159729</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332790374756</t>
+    <t xml:space="preserve">10.433277130127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279720306396</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906433105469</t>
+    <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
     <t xml:space="preserve">10.022665977478</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98533725738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599937438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2652997970581</t>
+    <t xml:space="preserve">9.98533821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599946975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2653007507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
@@ -1343,37 +1343,37 @@
     <t xml:space="preserve">10.246636390686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79869651794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159868240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.004002571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85468864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81736087799072</t>
+    <t xml:space="preserve">9.79869556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0040016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85468769073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81735897064209</t>
   </si>
   <si>
     <t xml:space="preserve">9.74270248413086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76136779785156</t>
+    <t xml:space="preserve">9.76136875152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64938354492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53739833831787</t>
+    <t xml:space="preserve">9.63071823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53739738464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.44407653808594</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">9.68671131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7053747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201736450195</t>
+    <t xml:space="preserve">9.70537567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201641082764</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804599761963</t>
+    <t xml:space="preserve">10.0973234176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804695129395</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146137237549</t>
@@ -1421,19 +1421,19 @@
     <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.470606803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.339955329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026285171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72403907775879</t>
+    <t xml:space="preserve">10.4706058502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.339958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.51873397827148</t>
@@ -1442,19 +1442,19 @@
     <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48140430450439</t>
+    <t xml:space="preserve">9.48140525817871</t>
   </si>
   <si>
     <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1454496383667</t>
+    <t xml:space="preserve">9.14545059204102</t>
   </si>
   <si>
     <t xml:space="preserve">9.19210910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40674686431885</t>
+    <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
     <t xml:space="preserve">9.36942005157471</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609920501709</t>
+    <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.31342697143555</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812091827393</t>
+    <t xml:space="preserve">9.10812187194824</t>
   </si>
   <si>
     <t xml:space="preserve">9.05212879180908</t>
@@ -1481,46 +1481,46 @@
     <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04279518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90281581878662</t>
+    <t xml:space="preserve">9.04279708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63218402862549</t>
+    <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.43621063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4082145690918</t>
+    <t xml:space="preserve">8.40821361541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561677932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559852600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55899477005005</t>
+    <t xml:space="preserve">7.88561630249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">7.93227767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57765817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565328598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231561660767</t>
+    <t xml:space="preserve">7.57765865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682273864746</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">9.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24810218811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1734447479248</t>
+    <t xml:space="preserve">9.24810314178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17344570159912</t>
   </si>
   <si>
     <t xml:space="preserve">9.16411399841309</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">9.12678527832031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29476165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207260131836</t>
+    <t xml:space="preserve">9.29476356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207355499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.2574348449707</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144271850586</t>
+    <t xml:space="preserve">9.20144081115723</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548614501953</t>
@@ -1583,37 +1583,37 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79082870483398</t>
+    <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681640625</t>
+    <t xml:space="preserve">9.73681735992432</t>
   </si>
   <si>
     <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83180999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217962265015</t>
+    <t xml:space="preserve">9.83181095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217971801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642866134644</t>
+    <t xml:space="preserve">10.1642875671387</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017696380615</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2117834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167907714844</t>
+    <t xml:space="preserve">10.2117824554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167888641357</t>
   </si>
   <si>
     <t xml:space="preserve">10.3067770004272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4492664337158</t>
+    <t xml:space="preserve">10.4492673873901</t>
   </si>
   <si>
     <t xml:space="preserve">10.3542737960815</t>
@@ -1646,31 +1646,31 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
+    <t xml:space="preserve">10.5917558670044</t>
   </si>
   <si>
     <t xml:space="preserve">10.6392545700073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567110061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0667238235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1617164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8767375946045</t>
+    <t xml:space="preserve">11.3042058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567100524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.066722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.161717414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142196655273</t>
+    <t xml:space="preserve">11.114218711853</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717292785645</t>
+    <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292398452759</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">10.7342472076416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6366834640503</t>
+    <t xml:space="preserve">11.6366844177246</t>
   </si>
   <si>
     <t xml:space="preserve">11.7316770553589</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8741664886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9216642379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6841802597046</t>
+    <t xml:space="preserve">11.8741674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9216632843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">11.7791728973389</t>
@@ -1709,22 +1709,22 @@
     <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116504669189</t>
+    <t xml:space="preserve">12.1116495132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816101074219</t>
+    <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.014087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715972900391</t>
+    <t xml:space="preserve">13.0140867233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715982437134</t>
   </si>
   <si>
     <t xml:space="preserve">12.7766027450562</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640207290649</t>
+    <t xml:space="preserve">13.5840463638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640197753906</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
@@ -1757,16 +1757,16 @@
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315431594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9165239334106</t>
+    <t xml:space="preserve">13.6315450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9165229797363</t>
   </si>
   <si>
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
+    <t xml:space="preserve">14.1065092086792</t>
   </si>
   <si>
     <t xml:space="preserve">14.1540069580078</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2490005493164</t>
+    <t xml:space="preserve">14.2489995956421</t>
   </si>
   <si>
     <t xml:space="preserve">14.391489982605</t>
@@ -1787,46 +1787,46 @@
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8189601898193</t>
+    <t xml:space="preserve">14.5814762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
     <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5339794158936</t>
+    <t xml:space="preserve">14.5339803695679</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7714643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139528274536</t>
+    <t xml:space="preserve">14.6764707565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7239675521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.771463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139537811279</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0089473724365</t>
+    <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664569854736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113836288452</t>
+    <t xml:space="preserve">15.4839124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113845825195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
@@ -1835,88 +1835,88 @@
     <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2248630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628593444824</t>
+    <t xml:space="preserve">16.2248611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628612518311</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5288391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
+    <t xml:space="preserve">16.5288410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478401184082</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808280944824</t>
+    <t xml:space="preserve">16.6808300018311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4148483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588813781738</t>
+    <t xml:space="preserve">16.0728702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.034875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588794708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.1108703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.673900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549034118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448886871338</t>
+    <t xml:space="preserve">15.8638887405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549005508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448877334595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4079189300537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.616904258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258895874023</t>
+    <t xml:space="preserve">15.6169061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258867263794</t>
   </si>
   <si>
     <t xml:space="preserve">15.8068904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5599069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
+    <t xml:space="preserve">15.559907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2939262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208812713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.1281356811523</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
+    <t xml:space="preserve">16.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624635696411</t>
   </si>
   <si>
     <t xml:space="preserve">15.6277418136597</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">15.935676574707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9549236297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.743218421936</t>
+    <t xml:space="preserve">15.9549226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7432165145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394451141357</t>
+    <t xml:space="preserve">15.8394460678101</t>
   </si>
   <si>
     <t xml:space="preserve">15.9741697311401</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">16.2628574371338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3975830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783340454102</t>
+    <t xml:space="preserve">16.3975811004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783359527588</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168243408203</t>
+    <t xml:space="preserve">16.4168262481689</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">16.6092872619629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5900402069092</t>
+    <t xml:space="preserve">16.5900382995605</t>
   </si>
   <si>
     <t xml:space="preserve">16.6862697601318</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">17.3213882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1096820831299</t>
+    <t xml:space="preserve">17.1096839904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.3791255950928</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">17.4753570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24440574646</t>
+    <t xml:space="preserve">17.2444038391113</t>
   </si>
   <si>
     <t xml:space="preserve">16.9942054748535</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">17.6678161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7063083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9180145263672</t>
+    <t xml:space="preserve">17.7063064575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9180164337158</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561080932617</t>
+    <t xml:space="preserve">17.4561100006104</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">17.3983707427979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1674194335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6100769042969</t>
+    <t xml:space="preserve">17.3021411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1674213409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6100788116455</t>
   </si>
   <si>
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602733612061</t>
+    <t xml:space="preserve">17.8602752685547</t>
   </si>
   <si>
     <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0142421722412</t>
+    <t xml:space="preserve">18.0142440795898</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874580383301</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225727081299</t>
+    <t xml:space="preserve">18.8225746154785</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6790218353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0639419555664</t>
+    <t xml:space="preserve">19.6790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.063943862915</t>
   </si>
   <si>
     <t xml:space="preserve">20.1601715087891</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">19.3422164916992</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9572982788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8610668182373</t>
+    <t xml:space="preserve">18.95729637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8610687255859</t>
   </si>
   <si>
     <t xml:space="preserve">19.3903312683105</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">19.2940998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9380493164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2836875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7832927703857</t>
+    <t xml:space="preserve">18.9380512237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0719814300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2836856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7832908630371</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527362823486</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">18.264440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4184074401855</t>
+    <t xml:space="preserve">18.4184093475342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2150,31 +2150,31 @@
     <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0535259246826</t>
+    <t xml:space="preserve">19.0535278320312</t>
   </si>
   <si>
     <t xml:space="preserve">19.1112651824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.072774887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2082843780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4007472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4488620758057</t>
+    <t xml:space="preserve">19.0727729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2082862854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4007453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.448860168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1224689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4111614227295</t>
+    <t xml:space="preserve">21.1224708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4111595153809</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">20.4969749450684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.641321182251</t>
+    <t xml:space="preserve">20.6413230895996</t>
   </si>
   <si>
     <t xml:space="preserve">21.1705856323242</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0158252716064</t>
+    <t xml:space="preserve">20.0158271789551</t>
   </si>
   <si>
     <t xml:space="preserve">20.5932064056396</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865627288818</t>
+    <t xml:space="preserve">19.4865608215332</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384479522705</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">20.3526306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1120567321777</t>
+    <t xml:space="preserve">20.1120548248291</t>
   </si>
   <si>
     <t xml:space="preserve">19.9195957183838</t>
@@ -2225,22 +2225,22 @@
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882514953613</t>
+    <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
     <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1682109832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2451934814453</t>
+    <t xml:space="preserve">18.168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2451953887939</t>
   </si>
   <si>
     <t xml:space="preserve">17.764045715332</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4360733032227</t>
+    <t xml:space="preserve">16.436071395874</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749584197998</t>
+    <t xml:space="preserve">16.9749603271484</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553184509277</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">15.1273460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">15.223575592041</t>
+    <t xml:space="preserve">15.2235765457153</t>
   </si>
   <si>
     <t xml:space="preserve">15.8202028274536</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2813138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0896434783936</t>
+    <t xml:space="preserve">15.2813129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0896453857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
@@ -2321,34 +2321,34 @@
     <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.840238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6670265197754</t>
+    <t xml:space="preserve">16.8402366638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6670246124268</t>
   </si>
   <si>
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8779382705688</t>
+    <t xml:space="preserve">15.8779373168945</t>
   </si>
   <si>
     <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6469869613647</t>
+    <t xml:space="preserve">15.6469879150391</t>
   </si>
   <si>
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503625869751</t>
+    <t xml:space="preserve">15.0503616333008</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817096710205</t>
+    <t xml:space="preserve">15.7817087173462</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3775434494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2428207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1513595581055</t>
+    <t xml:space="preserve">15.3775424957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1513614654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466606140137</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">16.5029010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1904182434082</t>
+    <t xml:space="preserve">16.1904201507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880706787109</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">16.4247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6200828552246</t>
+    <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
     <t xml:space="preserve">16.9325618743896</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">16.0927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5068683624268</t>
+    <t xml:space="preserve">15.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">15.5849876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3115673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725067138672</t>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4678077697754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7607574462891</t>
+    <t xml:space="preserve">15.7607583999634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0341796875</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">15.7998189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0146484375</t>
+    <t xml:space="preserve">16.0146503448486</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614910125732</t>
@@ -2480,7 +2480,10 @@
     <t xml:space="preserve">16.5810203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8584079742432</t>
+    <t xml:space="preserve">15.8779392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
     <t xml:space="preserve">16.2099494934082</t>
@@ -2492,22 +2495,22 @@
     <t xml:space="preserve">16.8349113464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6591415405273</t>
+    <t xml:space="preserve">16.6591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">17.0692710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6942367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4989356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3622226715088</t>
+    <t xml:space="preserve">17.6942348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4989337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3622245788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4794044494629</t>
@@ -2519,7 +2522,7 @@
     <t xml:space="preserve">17.2059841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9911518096924</t>
+    <t xml:space="preserve">16.991153717041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4012832641602</t>
@@ -2534,10 +2537,10 @@
     <t xml:space="preserve">17.2645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2841033935547</t>
+    <t xml:space="preserve">16.8739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2841053009033</t>
   </si>
   <si>
     <t xml:space="preserve">17.0302124023438</t>
@@ -2549,7 +2552,7 @@
     <t xml:space="preserve">16.639612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2685413360596</t>
+    <t xml:space="preserve">16.2685394287109</t>
   </si>
   <si>
     <t xml:space="preserve">16.1708889007568</t>
@@ -2558,7 +2561,7 @@
     <t xml:space="preserve">15.6435785293579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3506278991699</t>
+    <t xml:space="preserve">15.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">15.4482774734497</t>
@@ -2567,10 +2570,10 @@
     <t xml:space="preserve">15.7216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2920360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310976028442</t>
+    <t xml:space="preserve">15.2920370101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.2294807434082</t>
@@ -2579,13 +2582,13 @@
     <t xml:space="preserve">15.9169979095459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8193492889404</t>
+    <t xml:space="preserve">15.8193483352661</t>
   </si>
   <si>
     <t xml:space="preserve">15.7021684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3271312713623</t>
+    <t xml:space="preserve">16.3271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.0106830596924</t>
@@ -2600,13 +2603,13 @@
     <t xml:space="preserve">17.9676551818848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3231620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6747055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5184650421143</t>
+    <t xml:space="preserve">17.3231639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6747035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5184631347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9050998687744</t>
@@ -2615,10 +2618,10 @@
     <t xml:space="preserve">18.8269786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3387260437012</t>
+    <t xml:space="preserve">18.6512069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3387279510498</t>
   </si>
   <si>
     <t xml:space="preserve">17.9481239318848</t>
@@ -2639,7 +2642,7 @@
     <t xml:space="preserve">18.3777866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4559059143066</t>
+    <t xml:space="preserve">18.4559078216553</t>
   </si>
   <si>
     <t xml:space="preserve">18.3191967010498</t>
@@ -2648,58 +2651,58 @@
     <t xml:space="preserve">18.182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238956451416</t>
+    <t xml:space="preserve">18.1434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0067157745361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7918853759766</t>
+    <t xml:space="preserve">17.8504772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7918834686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.8114147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.596586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.557523727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4208126068115</t>
+    <t xml:space="preserve">17.5965843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5575218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4208145141602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8700046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9871864318848</t>
+    <t xml:space="preserve">17.6356430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9871845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.7488594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9832191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9694862365723</t>
+    <t xml:space="preserve">19.1003971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9832172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694881439209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2136135101318</t>
@@ -2711,19 +2714,19 @@
     <t xml:space="preserve">19.7741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647853851318</t>
+    <t xml:space="preserve">20.1647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">20.0183124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2624359130859</t>
+    <t xml:space="preserve">20.2624378204346</t>
   </si>
   <si>
     <t xml:space="preserve">20.5553874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0671348571777</t>
+    <t xml:space="preserve">20.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.8230094909668</t>
@@ -2732,34 +2735,34 @@
     <t xml:space="preserve">20.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.36008644104</t>
+    <t xml:space="preserve">20.3600883483887</t>
   </si>
   <si>
     <t xml:space="preserve">20.6042137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6530380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4342403411865</t>
+    <t xml:space="preserve">20.653039932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4342422485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.3854160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6295394897461</t>
+    <t xml:space="preserve">21.6295413970947</t>
   </si>
   <si>
     <t xml:space="preserve">21.7760162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8736667633057</t>
+    <t xml:space="preserve">21.8736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.8248424530029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2642688751221</t>
+    <t xml:space="preserve">22.2642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4595699310303</t>
@@ -2771,10 +2774,10 @@
     <t xml:space="preserve">23.2407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">23.680196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5337238311768</t>
+    <t xml:space="preserve">23.6801986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5337219238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.9966449737549</t>
@@ -2783,7 +2786,7 @@
     <t xml:space="preserve">22.9478206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.166618347168</t>
+    <t xml:space="preserve">22.1666202545166</t>
   </si>
   <si>
     <t xml:space="preserve">22.8989963531494</t>
@@ -2792,13 +2795,13 @@
     <t xml:space="preserve">22.3619194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5083923339844</t>
+    <t xml:space="preserve">22.508394241333</t>
   </si>
   <si>
     <t xml:space="preserve">22.0201416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5572204589844</t>
+    <t xml:space="preserve">22.5572185516357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3130931854248</t>
@@ -2816,7 +2819,7 @@
     <t xml:space="preserve">24.4125747680664</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3149242401123</t>
+    <t xml:space="preserve">24.3149261474609</t>
   </si>
   <si>
     <t xml:space="preserve">25.242603302002</t>
@@ -2852,13 +2855,13 @@
     <t xml:space="preserve">25.4379024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7796783447266</t>
+    <t xml:space="preserve">25.7796802520752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8773307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4144039154053</t>
+    <t xml:space="preserve">26.4144058227539</t>
   </si>
   <si>
     <t xml:space="preserve">26.7561817169189</t>
@@ -2870,13 +2873,13 @@
     <t xml:space="preserve">25.9261531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8285045623779</t>
+    <t xml:space="preserve">25.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">25.5355529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1214542388916</t>
+    <t xml:space="preserve">26.1214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.6097068786621</t>
@@ -3288,6 +3291,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.9000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5</t>
   </si>
 </sst>
 </file>
@@ -46833,7 +46839,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1662" t="s">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46859,7 +46865,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1663" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46885,7 +46891,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47041,7 +47047,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1670" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47067,7 +47073,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1671" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47093,7 +47099,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47119,7 +47125,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1673" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47145,7 +47151,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1674" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47171,7 +47177,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1675" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47197,7 +47203,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1676" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47223,7 +47229,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1677" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47249,7 +47255,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47275,7 +47281,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1679" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47301,7 +47307,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1680" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47327,7 +47333,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47353,7 +47359,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47379,7 +47385,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47405,7 +47411,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47457,7 +47463,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1686" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47509,7 +47515,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1688" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47561,7 +47567,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1690" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47587,7 +47593,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1691" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47613,7 +47619,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1692" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47639,7 +47645,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1693" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47717,7 +47723,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1696" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47769,7 +47775,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47795,7 +47801,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1699" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47821,7 +47827,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1700" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47873,7 +47879,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1702" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47899,7 +47905,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1703" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47977,7 +47983,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1706" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48029,7 +48035,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1708" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48081,7 +48087,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1710" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48133,7 +48139,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1712" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48159,7 +48165,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1713" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48185,7 +48191,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48211,7 +48217,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48237,7 +48243,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48263,7 +48269,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1717" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48289,7 +48295,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48315,7 +48321,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48341,7 +48347,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1720" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48367,7 +48373,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48393,7 +48399,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48419,7 +48425,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1723" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48471,7 +48477,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1725" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48523,7 +48529,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48575,7 +48581,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48601,7 +48607,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1730" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48627,7 +48633,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1731" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48653,7 +48659,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1732" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48679,7 +48685,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48705,7 +48711,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48757,7 +48763,7 @@
         <v>18.5</v>
       </c>
       <c r="G1736" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48783,7 +48789,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1737" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48809,7 +48815,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1738" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48835,7 +48841,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48887,7 +48893,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1741" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48965,7 +48971,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48991,7 +48997,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1745" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49017,7 +49023,7 @@
         <v>18.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49043,7 +49049,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1747" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49069,7 +49075,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1748" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49095,7 +49101,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49121,7 +49127,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1750" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49147,7 +49153,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1751" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49173,7 +49179,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1752" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49199,7 +49205,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1753" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49225,7 +49231,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1754" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49251,7 +49257,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49277,7 +49283,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1756" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49303,7 +49309,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49329,7 +49335,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1758" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49355,7 +49361,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49381,7 +49387,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49407,7 +49413,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1761" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49459,7 +49465,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1763" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49485,7 +49491,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1764" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49537,7 +49543,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49589,7 +49595,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1768" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49615,7 +49621,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1769" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49641,7 +49647,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1770" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49667,7 +49673,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1771" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49693,7 +49699,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1772" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49719,7 +49725,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1773" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49745,7 +49751,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1774" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49771,7 +49777,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1775" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49823,7 +49829,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1777" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49849,7 +49855,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49901,7 +49907,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49927,7 +49933,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1781" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49953,7 +49959,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49979,7 +49985,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1783" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50031,7 +50037,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50057,7 +50063,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1786" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50109,7 +50115,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1788" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50135,7 +50141,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50161,7 +50167,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1790" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50187,7 +50193,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50213,7 +50219,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50239,7 +50245,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50265,7 +50271,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1794" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50291,7 +50297,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50317,7 +50323,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50343,7 +50349,7 @@
         <v>20.25</v>
       </c>
       <c r="G1797" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50369,7 +50375,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50395,7 +50401,7 @@
         <v>20.5</v>
       </c>
       <c r="G1799" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50421,7 +50427,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1800" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50447,7 +50453,7 @@
         <v>20.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50473,7 +50479,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50499,7 +50505,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50525,7 +50531,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50551,7 +50557,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50577,7 +50583,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1806" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50603,7 +50609,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50629,7 +50635,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50655,7 +50661,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50681,7 +50687,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50707,7 +50713,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50733,7 +50739,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50759,7 +50765,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50785,7 +50791,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1814" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50811,7 +50817,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1815" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50837,7 +50843,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50863,7 +50869,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50889,7 +50895,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50915,7 +50921,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50941,7 +50947,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1820" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50967,7 +50973,7 @@
         <v>23</v>
       </c>
       <c r="G1821" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50993,7 +50999,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51019,7 +51025,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51045,7 +51051,7 @@
         <v>24.25</v>
       </c>
       <c r="G1824" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51071,7 +51077,7 @@
         <v>24.25</v>
       </c>
       <c r="G1825" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51097,7 +51103,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51123,7 +51129,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51149,7 +51155,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1828" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51175,7 +51181,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1829" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51201,7 +51207,7 @@
         <v>23.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51227,7 +51233,7 @@
         <v>23.5</v>
       </c>
       <c r="G1831" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51253,7 +51259,7 @@
         <v>23.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51279,7 +51285,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51305,7 +51311,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1834" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51331,7 +51337,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51357,7 +51363,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51383,7 +51389,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1837" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51409,7 +51415,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51435,7 +51441,7 @@
         <v>23</v>
       </c>
       <c r="G1839" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51461,7 +51467,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51487,7 +51493,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51513,7 +51519,7 @@
         <v>23</v>
       </c>
       <c r="G1842" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51539,7 +51545,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51565,7 +51571,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51591,7 +51597,7 @@
         <v>23.5</v>
       </c>
       <c r="G1845" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51617,7 +51623,7 @@
         <v>23.75</v>
       </c>
       <c r="G1846" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51643,7 +51649,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51669,7 +51675,7 @@
         <v>25</v>
       </c>
       <c r="G1848" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51695,7 +51701,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1849" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51721,7 +51727,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51747,7 +51753,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51773,7 +51779,7 @@
         <v>26.25</v>
       </c>
       <c r="G1852" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51799,7 +51805,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1853" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51825,7 +51831,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1854" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51851,7 +51857,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51877,7 +51883,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51903,7 +51909,7 @@
         <v>26</v>
       </c>
       <c r="G1857" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51929,7 +51935,7 @@
         <v>26</v>
       </c>
       <c r="G1858" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51955,7 +51961,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51981,7 +51987,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52007,7 +52013,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52033,7 +52039,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1862" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52059,7 +52065,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52085,7 +52091,7 @@
         <v>26.25</v>
       </c>
       <c r="G1864" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52111,7 +52117,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1865" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52137,7 +52143,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52163,7 +52169,7 @@
         <v>26.5</v>
       </c>
       <c r="G1867" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52189,7 +52195,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52215,7 +52221,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1869" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52241,7 +52247,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1870" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52267,7 +52273,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1871" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52293,7 +52299,7 @@
         <v>26</v>
       </c>
       <c r="G1872" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52319,7 +52325,7 @@
         <v>26</v>
       </c>
       <c r="G1873" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52345,7 +52351,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52371,7 +52377,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52397,7 +52403,7 @@
         <v>26.25</v>
       </c>
       <c r="G1876" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52423,7 +52429,7 @@
         <v>26</v>
       </c>
       <c r="G1877" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52449,7 +52455,7 @@
         <v>26.75</v>
       </c>
       <c r="G1878" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52475,7 +52481,7 @@
         <v>27.25</v>
       </c>
       <c r="G1879" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52501,7 +52507,7 @@
         <v>26.75</v>
       </c>
       <c r="G1880" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52527,7 +52533,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52553,7 +52559,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52579,7 +52585,7 @@
         <v>26.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52605,7 +52611,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52631,7 +52637,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1885" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52657,7 +52663,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52683,7 +52689,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52709,7 +52715,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52735,7 +52741,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52761,7 +52767,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52787,7 +52793,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1891" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52813,7 +52819,7 @@
         <v>25.75</v>
       </c>
       <c r="G1892" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52839,7 +52845,7 @@
         <v>25.25</v>
       </c>
       <c r="G1893" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52865,7 +52871,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52891,7 +52897,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52917,7 +52923,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1896" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52943,7 +52949,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52969,7 +52975,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52995,7 +53001,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53021,7 +53027,7 @@
         <v>25</v>
       </c>
       <c r="G1900" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53047,7 +53053,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1901" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53073,7 +53079,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53099,7 +53105,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53125,7 +53131,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1904" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53151,7 +53157,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1905" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53177,7 +53183,7 @@
         <v>25.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53203,7 +53209,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1907" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53229,7 +53235,7 @@
         <v>26</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53255,7 +53261,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53281,7 +53287,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53307,7 +53313,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53333,7 +53339,7 @@
         <v>26.25</v>
       </c>
       <c r="G1912" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53359,7 +53365,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53385,7 +53391,7 @@
         <v>26.25</v>
       </c>
       <c r="G1914" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53411,7 +53417,7 @@
         <v>26.25</v>
       </c>
       <c r="G1915" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53437,7 +53443,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53463,7 +53469,7 @@
         <v>27.25</v>
       </c>
       <c r="G1917" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53489,7 +53495,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53515,7 +53521,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53541,7 +53547,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53567,7 +53573,7 @@
         <v>27</v>
       </c>
       <c r="G1921" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53593,7 +53599,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1922" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53619,7 +53625,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53645,7 +53651,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53671,7 +53677,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53697,7 +53703,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53723,7 +53729,7 @@
         <v>25.75</v>
       </c>
       <c r="G1927" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53749,7 +53755,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53775,7 +53781,7 @@
         <v>26</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53801,7 +53807,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1930" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53827,7 +53833,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1931" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53853,7 +53859,7 @@
         <v>25.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53879,7 +53885,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53905,7 +53911,7 @@
         <v>25.25</v>
       </c>
       <c r="G1934" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53931,7 +53937,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53957,7 +53963,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1936" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53983,7 +53989,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54009,7 +54015,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1938" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54035,7 +54041,7 @@
         <v>26.25</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54061,7 +54067,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1940" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54087,7 +54093,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54113,7 +54119,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1942" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54139,7 +54145,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54165,7 +54171,7 @@
         <v>26</v>
       </c>
       <c r="G1944" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54191,7 +54197,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54217,7 +54223,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54243,7 +54249,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54269,7 +54275,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54295,7 +54301,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54321,7 +54327,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54347,7 +54353,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54373,7 +54379,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54399,7 +54405,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1953" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54425,7 +54431,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1954" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54451,7 +54457,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1955" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54477,7 +54483,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54503,7 +54509,7 @@
         <v>26</v>
       </c>
       <c r="G1957" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54529,7 +54535,7 @@
         <v>26.25</v>
       </c>
       <c r="G1958" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54555,7 +54561,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1959" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54581,7 +54587,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54607,7 +54613,7 @@
         <v>27.75</v>
       </c>
       <c r="G1961" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54633,7 +54639,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1962" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54659,7 +54665,7 @@
         <v>27.75</v>
       </c>
       <c r="G1963" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54685,7 +54691,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1964" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54711,7 +54717,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54737,7 +54743,7 @@
         <v>27.5</v>
       </c>
       <c r="G1966" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54763,7 +54769,7 @@
         <v>27</v>
       </c>
       <c r="G1967" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54789,7 +54795,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1968" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54815,7 +54821,7 @@
         <v>25.75</v>
       </c>
       <c r="G1969" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54841,7 +54847,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54867,7 +54873,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1971" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54893,7 +54899,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54919,7 +54925,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54945,7 +54951,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54971,7 +54977,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54997,7 +55003,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55023,7 +55029,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55049,7 +55055,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1978" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55075,7 +55081,7 @@
         <v>26.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55101,7 +55107,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1980" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55127,7 +55133,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1981" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55153,7 +55159,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1982" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55179,7 +55185,7 @@
         <v>26.75</v>
       </c>
       <c r="G1983" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55205,7 +55211,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55231,7 +55237,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1985" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55257,7 +55263,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55283,7 +55289,7 @@
         <v>27.5</v>
       </c>
       <c r="G1987" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55309,7 +55315,7 @@
         <v>27</v>
       </c>
       <c r="G1988" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55335,7 +55341,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55361,7 +55367,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55387,7 +55393,7 @@
         <v>27.75</v>
       </c>
       <c r="G1991" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55413,7 +55419,7 @@
         <v>26.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55439,7 +55445,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55465,7 +55471,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55491,7 +55497,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1995" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55517,7 +55523,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55543,7 +55549,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55569,7 +55575,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55595,7 +55601,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55621,7 +55627,7 @@
         <v>27</v>
       </c>
       <c r="G2000" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55647,7 +55653,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55673,7 +55679,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55699,7 +55705,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55725,7 +55731,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55751,7 +55757,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2005" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55777,7 +55783,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2006" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55803,7 +55809,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55829,7 +55835,7 @@
         <v>27.5</v>
       </c>
       <c r="G2008" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55855,7 +55861,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55881,7 +55887,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G2010" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55907,7 +55913,7 @@
         <v>28.25</v>
       </c>
       <c r="G2011" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55933,7 +55939,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G2012" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55959,7 +55965,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G2013" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55985,7 +55991,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G2014" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56011,7 +56017,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56037,7 +56043,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56063,7 +56069,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56089,7 +56095,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2018" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56115,7 +56121,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G2019" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56141,7 +56147,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56167,7 +56173,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56193,7 +56199,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G2022" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56219,7 +56225,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G2023" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56245,7 +56251,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56271,7 +56277,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56297,7 +56303,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56323,7 +56329,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G2027" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56349,7 +56355,7 @@
         <v>28</v>
       </c>
       <c r="G2028" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56375,7 +56381,7 @@
         <v>27.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56401,7 +56407,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56427,7 +56433,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G2031" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56453,7 +56459,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2032" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56479,7 +56485,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2033" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56505,7 +56511,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2034" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56531,7 +56537,7 @@
         <v>28</v>
       </c>
       <c r="G2035" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56557,7 +56563,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2036" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56583,7 +56589,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2037" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56609,7 +56615,7 @@
         <v>26.5</v>
       </c>
       <c r="G2038" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56635,7 +56641,7 @@
         <v>27</v>
       </c>
       <c r="G2039" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56661,7 +56667,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56687,7 +56693,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56713,7 +56719,7 @@
         <v>27.25</v>
       </c>
       <c r="G2042" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56739,7 +56745,7 @@
         <v>27</v>
       </c>
       <c r="G2043" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56765,7 +56771,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56791,7 +56797,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G2045" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56817,7 +56823,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56843,7 +56849,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56869,7 +56875,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56895,7 +56901,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56921,7 +56927,7 @@
         <v>26.25</v>
       </c>
       <c r="G2050" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56947,7 +56953,7 @@
         <v>26.25</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56973,7 +56979,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56999,7 +57005,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57025,7 +57031,7 @@
         <v>26.75</v>
       </c>
       <c r="G2054" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57051,7 +57057,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2055" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57077,7 +57083,7 @@
         <v>26.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57103,7 +57109,7 @@
         <v>26.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57129,7 +57135,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57155,7 +57161,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G2059" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57181,7 +57187,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57207,7 +57213,7 @@
         <v>26.25</v>
       </c>
       <c r="G2061" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57233,7 +57239,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57259,7 +57265,7 @@
         <v>26.75</v>
       </c>
       <c r="G2063" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57285,7 +57291,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57311,7 +57317,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G2065" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57337,7 +57343,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57363,7 +57369,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57389,7 +57395,7 @@
         <v>26.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57415,7 +57421,7 @@
         <v>26</v>
       </c>
       <c r="G2069" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57441,7 +57447,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57467,7 +57473,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57493,7 +57499,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57519,7 +57525,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57545,7 +57551,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57571,7 +57577,7 @@
         <v>28.25</v>
       </c>
       <c r="G2075" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57597,7 +57603,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57623,7 +57629,7 @@
         <v>28.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57649,7 +57655,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2078" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57675,7 +57681,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G2079" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57701,7 +57707,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57727,7 +57733,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57753,7 +57759,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57779,7 +57785,7 @@
         <v>29.75</v>
       </c>
       <c r="G2083" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57805,7 +57811,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57831,7 +57837,7 @@
         <v>30.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57857,7 +57863,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57883,7 +57889,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57909,7 +57915,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57935,7 +57941,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2089" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57961,7 +57967,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57987,7 +57993,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58013,7 +58019,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58039,7 +58045,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2093" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58065,7 +58071,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58091,7 +58097,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58117,7 +58123,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58143,7 +58149,7 @@
         <v>31.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58169,7 +58175,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2098" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58195,7 +58201,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2099" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58221,7 +58227,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58247,7 +58253,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58273,7 +58279,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58299,7 +58305,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58325,7 +58331,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58351,7 +58357,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58377,7 +58383,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58403,7 +58409,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58429,7 +58435,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58455,7 +58461,7 @@
         <v>35</v>
       </c>
       <c r="G2109" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58481,7 +58487,7 @@
         <v>35</v>
       </c>
       <c r="G2110" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58507,7 +58513,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2111" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58533,7 +58539,7 @@
         <v>35.5</v>
       </c>
       <c r="G2112" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58559,7 +58565,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58585,7 +58591,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58611,7 +58617,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58637,7 +58643,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2116" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58663,7 +58669,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2117" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58689,7 +58695,7 @@
         <v>35</v>
       </c>
       <c r="G2118" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58715,7 +58721,7 @@
         <v>35.75</v>
       </c>
       <c r="G2119" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58741,7 +58747,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58767,7 +58773,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58793,7 +58799,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58819,7 +58825,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58845,7 +58851,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58871,7 +58877,7 @@
         <v>33.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58897,7 +58903,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58923,7 +58929,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2127" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58949,7 +58955,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58975,7 +58981,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2129" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59001,7 +59007,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59027,7 +59033,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59053,7 +59059,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2132" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59079,7 +59085,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59105,7 +59111,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59131,7 +59137,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59157,7 +59163,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2136" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59183,7 +59189,7 @@
         <v>31</v>
       </c>
       <c r="G2137" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59209,7 +59215,7 @@
         <v>31</v>
       </c>
       <c r="G2138" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59235,7 +59241,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59261,7 +59267,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59287,7 +59293,7 @@
         <v>32</v>
       </c>
       <c r="G2141" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59313,7 +59319,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59339,7 +59345,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2143" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59365,7 +59371,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2144" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59391,7 +59397,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2145" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59417,7 +59423,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59443,7 +59449,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2147" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59469,7 +59475,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2148" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59495,7 +59501,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59521,7 +59527,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59547,7 +59553,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G2151" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59573,7 +59579,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59599,7 +59605,7 @@
         <v>32</v>
       </c>
       <c r="G2153" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59625,7 +59631,7 @@
         <v>32.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59651,7 +59657,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59677,7 +59683,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2156" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59703,7 +59709,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59729,7 +59735,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59755,7 +59761,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2159" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59781,7 +59787,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59807,7 +59813,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59833,7 +59839,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59859,7 +59865,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2163" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59885,7 +59891,7 @@
         <v>32.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59911,7 +59917,7 @@
         <v>33.25</v>
       </c>
       <c r="G2165" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59937,7 +59943,7 @@
         <v>33.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59963,7 +59969,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59989,7 +59995,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2168" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59997,7 +60003,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6493981481</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>58121</v>
@@ -60015,9 +60021,35 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2169" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6495601852</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>21817</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>35.1500015258789</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>34.4000015258789</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>34.7999992370605</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1099">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414422988892</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -47,49 +47,49 @@
     <t xml:space="preserve">7.20534658432007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25373411178589</t>
+    <t xml:space="preserve">7.25373506546021</t>
   </si>
   <si>
     <t xml:space="preserve">7.22734117507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220754623413</t>
+    <t xml:space="preserve">7.12616682052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
     <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865600585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68627977371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425813674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636472702026</t>
+    <t xml:space="preserve">7.01179647445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073650360107</t>
+    <t xml:space="preserve">6.48833131790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073602676392</t>
   </si>
   <si>
     <t xml:space="preserve">6.50592708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26398992538452</t>
+    <t xml:space="preserve">6.26398897171021</t>
   </si>
   <si>
     <t xml:space="preserve">6.22879791259766</t>
@@ -98,100 +98,100 @@
     <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710000991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
+    <t xml:space="preserve">6.60710096359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994426727295</t>
   </si>
   <si>
     <t xml:space="preserve">6.57190942764282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56311178207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267414093018</t>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
   </si>
   <si>
     <t xml:space="preserve">6.86223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
+    <t xml:space="preserve">6.78305578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8534369468689</t>
   </si>
   <si>
     <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90622425079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349342346191</t>
+    <t xml:space="preserve">6.9062237739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376258850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581365585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625225067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349390029907</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786472320557</t>
+    <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103319168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8798303604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9766058921814</t>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7566614151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983083724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660541534424</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466777801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.523521900177</t>
+    <t xml:space="preserve">6.61149930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352237701416</t>
   </si>
   <si>
     <t xml:space="preserve">6.49712896347046</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">6.79185342788696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94141483306885</t>
+    <t xml:space="preserve">6.94141435623169</t>
   </si>
   <si>
     <t xml:space="preserve">6.9150218963623</t>
@@ -209,34 +209,34 @@
     <t xml:space="preserve">6.91062211990356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942024230957</t>
+    <t xml:space="preserve">6.91941928863525</t>
   </si>
   <si>
     <t xml:space="preserve">6.80944871902466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57630825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43114614486694</t>
+    <t xml:space="preserve">6.57630920410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43114519119263</t>
   </si>
   <si>
     <t xml:space="preserve">6.62469577789307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73026943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144235610962</t>
+    <t xml:space="preserve">6.73026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03818941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00450134277344</t>
+    <t xml:space="preserve">7.03818988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00450229644775</t>
   </si>
   <si>
     <t xml:space="preserve">7.01343536376953</t>
@@ -245,133 +245,133 @@
     <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96429681777954</t>
+    <t xml:space="preserve">6.9642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2903995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695421218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482273101807</t>
+    <t xml:space="preserve">7.29039907455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.43334770202637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32613563537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4690842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9330267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27253103256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781423568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391744613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68350887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187362670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974309921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142265319824</t>
+    <t xml:space="preserve">7.32613706588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121717453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1742525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2725305557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6388373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7728533744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818040847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350839614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187314987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810642242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531991958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142217636108</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6120343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248720169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363893508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155223846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688117980957</t>
+    <t xml:space="preserve">7.59416532516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146409988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8615517616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
     <t xml:space="preserve">7.07150840759277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33507061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101217269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162527084351</t>
+    <t xml:space="preserve">7.33507108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162622451782</t>
   </si>
   <si>
     <t xml:space="preserve">7.58523178100586</t>
@@ -380,55 +380,55 @@
     <t xml:space="preserve">7.46015167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269124984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679351806641</t>
+    <t xml:space="preserve">7.52269220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679304122925</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207815170288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761114120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3172025680542</t>
+    <t xml:space="preserve">7.39761066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785902023315</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196033477783</t>
+    <t xml:space="preserve">7.09384393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196081161499</t>
   </si>
   <si>
     <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01790285110474</t>
+    <t xml:space="preserve">7.01790237426758</t>
   </si>
   <si>
     <t xml:space="preserve">6.95089530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02236986160278</t>
+    <t xml:space="preserve">7.02236938476562</t>
   </si>
   <si>
     <t xml:space="preserve">6.91962480545044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8347487449646</t>
+    <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
@@ -437,64 +437,64 @@
     <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87942028045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876430511475</t>
+    <t xml:space="preserve">6.74540615081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8794207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9687647819519</t>
   </si>
   <si>
     <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95983028411865</t>
+    <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728879928589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92409181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663282394409</t>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663234710693</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023838043213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06704139709473</t>
+    <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
     <t xml:space="preserve">6.97769832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98216581344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003385543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13404846191406</t>
+    <t xml:space="preserve">6.98216485977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
     <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163942337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823839187622</t>
+    <t xml:space="preserve">6.81241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966958999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42823886871338</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930389404297</t>
@@ -503,49 +503,49 @@
     <t xml:space="preserve">6.43717241287231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46397495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245704650879</t>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245656967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29869031906128</t>
+    <t xml:space="preserve">6.2986912727356</t>
   </si>
   <si>
     <t xml:space="preserve">6.31655979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28082132339478</t>
+    <t xml:space="preserve">6.28082180023193</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520162582397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70073461532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261869430542</t>
+    <t xml:space="preserve">6.70073413848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85261821746826</t>
   </si>
   <si>
     <t xml:space="preserve">6.76327514648438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76774168014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860265731812</t>
+    <t xml:space="preserve">6.76774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860361099243</t>
   </si>
   <si>
     <t xml:space="preserve">6.64266204833984</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">7.12064743041992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17872047424316</t>
+    <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
     <t xml:space="preserve">7.41547966003418</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">7.25019454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19212198257446</t>
+    <t xml:space="preserve">7.1921215057373</t>
   </si>
   <si>
     <t xml:space="preserve">7.25912952423096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30826807022095</t>
+    <t xml:space="preserve">7.30826711654663</t>
   </si>
   <si>
     <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949331283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20999002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953762054443</t>
+    <t xml:space="preserve">7.54949426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20998954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953714370728</t>
   </si>
   <si>
     <t xml:space="preserve">7.24125957489014</t>
@@ -593,43 +593,43 @@
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588823318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686750411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8979320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358238220215</t>
+    <t xml:space="preserve">7.35740661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588871002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686655044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793157577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358333587646</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11299991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57693958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571338653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628265380859</t>
+    <t xml:space="preserve">9.11299896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60821056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628360748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939197540283</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">8.84496974945068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64905834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33635807037354</t>
+    <t xml:space="preserve">8.95218181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64905643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3363561630249</t>
   </si>
   <si>
     <t xml:space="preserve">9.10406494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93431377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751171112061</t>
+    <t xml:space="preserve">8.93431282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88963985443115</t>
+    <t xml:space="preserve">8.88964176177979</t>
   </si>
   <si>
     <t xml:space="preserve">8.80029773712158</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">8.86283779144287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75562572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603382110596</t>
+    <t xml:space="preserve">8.7556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603572845459</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447208404541</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.518310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
+    <t xml:space="preserve">9.51831245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
   </si>
   <si>
     <t xml:space="preserve">9.40953159332275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47298622131348</t>
+    <t xml:space="preserve">9.47298431396484</t>
   </si>
   <si>
     <t xml:space="preserve">9.43672657012939</t>
@@ -713,76 +713,76 @@
     <t xml:space="preserve">9.50924682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38233470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9534330368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151847839355</t>
+    <t xml:space="preserve">9.3823356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
     <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83559036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737712860107</t>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5545711517334</t>
+    <t xml:space="preserve">9.42766094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961452484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457210540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56363677978516</t>
+    <t xml:space="preserve">9.56363773345947</t>
   </si>
   <si>
     <t xml:space="preserve">9.79026317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39140033721924</t>
+    <t xml:space="preserve">9.39139938354492</t>
   </si>
   <si>
     <t xml:space="preserve">9.36420631408691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30074977874756</t>
+    <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">9.67241668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4185962677002</t>
+    <t xml:space="preserve">9.41859722137451</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79932880401611</t>
+    <t xml:space="preserve">9.79932975769043</t>
   </si>
   <si>
     <t xml:space="preserve">9.49111843109131</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37327098846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485496520996</t>
+    <t xml:space="preserve">9.37327003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485591888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493789672852</t>
@@ -833,34 +833,34 @@
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371780395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99875831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90810871124268</t>
+    <t xml:space="preserve">9.85371875762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4639196395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99875926971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90811157226562</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87184906005859</t>
+    <t xml:space="preserve">9.87184810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103359222412</t>
+    <t xml:space="preserve">9.20103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477394104004</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205184936523</t>
+    <t xml:space="preserve">9.18290328979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205280303955</t>
   </si>
   <si>
     <t xml:space="preserve">9.15571022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335296630859</t>
+    <t xml:space="preserve">9.66335201263428</t>
   </si>
   <si>
     <t xml:space="preserve">9.77213287353516</t>
@@ -896,64 +896,64 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757991790771</t>
+    <t xml:space="preserve">9.1375789642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.22823047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440814971924</t>
+    <t xml:space="preserve">8.97440719604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440855026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418092727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7874183654785</t>
+    <t xml:space="preserve">9.31888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418111801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7874202728271</t>
   </si>
   <si>
     <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8780708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055505752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511596679688</t>
+    <t xml:space="preserve">10.8780698776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.805549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
     <t xml:space="preserve">10.624249458313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.533597946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2616472244263</t>
+    <t xml:space="preserve">10.5335988998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248180389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616443634033</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797765731812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2253847122192</t>
+    <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">9.84465312957764</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2979049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704261779785</t>
+    <t xml:space="preserve">10.1891250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2979068756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.3160371780396</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">10.3341665267944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.859938621521</t>
+    <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522977828979</t>
@@ -992,52 +992,52 @@
     <t xml:space="preserve">10.0078248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96363830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2577657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9452543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465705871582</t>
+    <t xml:space="preserve">9.98969554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142501831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83495616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96363735198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2577676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.55920886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555543899536</t>
+    <t xml:space="preserve">9.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3313007354736</t>
+    <t xml:space="preserve">10.331298828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5151300430298</t>
+    <t xml:space="preserve">10.5151309967041</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908754348755</t>
+    <t xml:space="preserve">10.7908773422241</t>
   </si>
   <si>
     <t xml:space="preserve">10.7173442840576</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">10.8827924728394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393846511841</t>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393856048584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232149124146</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112400054932</t>
+    <t xml:space="preserve">9.81657409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187864303589</t>
+    <t xml:space="preserve">10.0187883377075</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107034683228</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">9.89010620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980709075928</t>
+    <t xml:space="preserve">9.77980804443359</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687129974365</t>
@@ -1112,25 +1112,25 @@
     <t xml:space="preserve">10.0371704101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98202037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8717212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54082775115967</t>
+    <t xml:space="preserve">9.98202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7430419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87172031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54082679748535</t>
   </si>
   <si>
     <t xml:space="preserve">9.2834644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597492218018</t>
+    <t xml:space="preserve">9.59597587585449</t>
   </si>
   <si>
     <t xml:space="preserve">9.52244281768799</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0739364624023</t>
+    <t xml:space="preserve">10.073935508728</t>
   </si>
   <si>
     <t xml:space="preserve">9.68789100646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19154834747314</t>
+    <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.1823558807373</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44890975952148</t>
+    <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">9.66950798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37537860870361</t>
+    <t xml:space="preserve">9.37537956237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.459981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0923185348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702791213989</t>
+    <t xml:space="preserve">10.4599809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379405975342</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3864498138428</t>
+    <t xml:space="preserve">10.4048309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3864488601685</t>
   </si>
   <si>
     <t xml:space="preserve">10.1290855407715</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761526107788</t>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680658340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761507034302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.029857635498</t>
+    <t xml:space="preserve">10.8092594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0298585891724</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747076034546</t>
+    <t xml:space="preserve">10.9747066497803</t>
   </si>
   <si>
     <t xml:space="preserve">10.9930906295776</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">10.8276433944702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7541103363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
+    <t xml:space="preserve">10.7541122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664884567261</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1985101699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3478221893311</t>
+    <t xml:space="preserve">11.1985111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3478240966797</t>
   </si>
   <si>
     <t xml:space="preserve">11.4224796295166</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">10.9372110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8252267837524</t>
+    <t xml:space="preserve">10.8252258300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558744430542</t>
@@ -1274,43 +1274,43 @@
     <t xml:space="preserve">10.8065624237061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7692346572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7505702972412</t>
+    <t xml:space="preserve">10.7692337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7505693435669</t>
   </si>
   <si>
     <t xml:space="preserve">10.881217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8625535964966</t>
+    <t xml:space="preserve">10.8625555038452</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7132406234741</t>
+    <t xml:space="preserve">10.6572484970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7132396697998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.35862159729</t>
+    <t xml:space="preserve">10.2093076705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3586225509644</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959503173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6012554168701</t>
+    <t xml:space="preserve">10.6012544631958</t>
   </si>
   <si>
     <t xml:space="preserve">10.4332780838013</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">10.2279720306396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786590576172</t>
@@ -1328,19 +1328,19 @@
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2653007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1533155441284</t>
+    <t xml:space="preserve">10.0226650238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2652997970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1533145904541</t>
   </si>
   <si>
     <t xml:space="preserve">10.246636390686</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8546895980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81736087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136684417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55606174468994</t>
+    <t xml:space="preserve">9.85468864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81735992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55606079101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">9.53739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407558441162</t>
+    <t xml:space="preserve">9.44407749176025</t>
   </si>
   <si>
     <t xml:space="preserve">9.61205387115479</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">9.68671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70537567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201831817627</t>
+    <t xml:space="preserve">9.7053747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201736450195</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
@@ -1406,43 +1406,43 @@
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602333068848</t>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9666748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265979766846</t>
+    <t xml:space="preserve">10.4146146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.339958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934417724609</t>
+    <t xml:space="preserve">10.3399572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873207092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50006866455078</t>
+    <t xml:space="preserve">9.51873397827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35075569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27609825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342601776123</t>
+    <t xml:space="preserve">9.35075664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27609729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342792510986</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472515106201</t>
@@ -1481,28 +1481,28 @@
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010707855225</t>
+    <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9028148651123</t>
+    <t xml:space="preserve">8.90281581878662</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092235565186</t>
+    <t xml:space="preserve">8.63218402862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40821361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
     <t xml:space="preserve">7.88561773300171</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">8.02559947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93227815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565423965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810314178467</t>
+    <t xml:space="preserve">7.55899381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231561660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810218811035</t>
   </si>
   <si>
     <t xml:space="preserve">9.21077442169189</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">9.17344665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16411304473877</t>
+    <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541217803955</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">9.126784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29476451873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207164764404</t>
+    <t xml:space="preserve">9.29476356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
     <t xml:space="preserve">9.2574348449707</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415145874023</t>
+    <t xml:space="preserve">8.88415241241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880889892578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01479911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71617221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79083061218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">9.01480102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7908296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66017913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83180999755859</t>
+    <t xml:space="preserve">9.7843132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83181095123291</t>
   </si>
   <si>
     <t xml:space="preserve">10.0692939758301</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">10.5442609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542728424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97429943084717</t>
+    <t xml:space="preserve">10.3542737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">10.5917558670044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6392526626587</t>
+    <t xml:space="preserve">10.639253616333</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767356872559</t>
+    <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717311859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">10.9717302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342462539673</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6341142654419</t>
+    <t xml:space="preserve">12.6341133117676</t>
   </si>
   <si>
     <t xml:space="preserve">13.0140857696533</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">13.5840463638306</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9640207290649</t>
+    <t xml:space="preserve">13.9640197753906</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315431594849</t>
+    <t xml:space="preserve">13.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8189601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4389867782593</t>
+    <t xml:space="preserve">14.8189611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.438985824585</t>
   </si>
   <si>
     <t xml:space="preserve">14.5339803695679</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764698028564</t>
+    <t xml:space="preserve">14.6764707565308</t>
   </si>
   <si>
     <t xml:space="preserve">14.7239665985107</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0089473724365</t>
+    <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664560317993</t>
@@ -1829,127 +1829,127 @@
     <t xml:space="preserve">15.4839124679565</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9113826751709</t>
+    <t xml:space="preserve">15.9113845825195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2248630523682</t>
+    <t xml:space="preserve">16.1868648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2248611450195</t>
   </si>
   <si>
     <t xml:space="preserve">16.3388557434082</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2628612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5668392181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6808300018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588794708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.293927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.935676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7432165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3967895507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8394460678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741687774658</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5668392181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6808300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8394451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741678237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975830078125</t>
+    <t xml:space="preserve">16.3975811004639</t>
   </si>
   <si>
     <t xml:space="preserve">16.3783340454102</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">17.3213882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1096820831299</t>
+    <t xml:space="preserve">17.1096839904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.3791255950928</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">17.4753570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24440574646</t>
+    <t xml:space="preserve">17.2444038391113</t>
   </si>
   <si>
     <t xml:space="preserve">16.9942054748535</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6678161621094</t>
+    <t xml:space="preserve">17.2828941345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.667818069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">17.3983726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1674194335938</t>
+    <t xml:space="preserve">17.3021392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1674213409424</t>
   </si>
   <si>
     <t xml:space="preserve">17.6100769042969</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">17.8602733612061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0334873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142421722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1874561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5916233062744</t>
+    <t xml:space="preserve">18.0334911346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142440795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.591625213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2075,25 +2075,25 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.880313873291</t>
+    <t xml:space="preserve">18.8803157806396</t>
   </si>
   <si>
     <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6790218353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0639400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">19.6790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0639419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">18.8610668182373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3903312683105</t>
+    <t xml:space="preserve">19.3903331756592</t>
   </si>
   <si>
     <t xml:space="preserve">19.2940998077393</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">18.9380512237549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.264440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.169002532959</t>
+    <t xml:space="preserve">19.1690044403076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
@@ -2162,22 +2162,22 @@
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082843780518</t>
+    <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4488620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9300098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1224689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4111614227295</t>
+    <t xml:space="preserve">20.448860168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9300117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1224708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4111595153809</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">20.4969749450684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.641321182251</t>
+    <t xml:space="preserve">20.6413230895996</t>
   </si>
   <si>
     <t xml:space="preserve">21.1705856323242</t>
@@ -2198,31 +2198,31 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
+    <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865627288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4384460449219</t>
+    <t xml:space="preserve">19.4865608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4384479522705</t>
   </si>
   <si>
     <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8233680725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3526306152344</t>
+    <t xml:space="preserve">19.8233661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.352632522583</t>
   </si>
   <si>
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2067012786865</t>
+    <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682109832764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259502410889</t>
+    <t xml:space="preserve">18.3029346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259483337402</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">17.764045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4176197052002</t>
+    <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4360733032227</t>
+    <t xml:space="preserve">16.436071395874</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2276,10 +2276,10 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4553203582764</t>
+    <t xml:space="preserve">17.0134506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7440090179443</t>
@@ -2291,16 +2291,16 @@
     <t xml:space="preserve">15.4160356521606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.011869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6269502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5122661590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1273460388184</t>
+    <t xml:space="preserve">15.0118703842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6269493103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5122671127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.127345085144</t>
   </si>
   <si>
     <t xml:space="preserve">15.223575592041</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">15.820200920105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2813138961792</t>
+    <t xml:space="preserve">15.2813129425049</t>
   </si>
   <si>
     <t xml:space="preserve">16.0896434783936</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7247619628906</t>
+    <t xml:space="preserve">16.1858768463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724760055542</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
@@ -2339,28 +2339,28 @@
     <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6469869613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.108099937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.6469879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1080989837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311155319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.0311164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7817106246948</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">15.2428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1513595581055</t>
+    <t xml:space="preserve">16.1513614654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466606140137</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">16.5029010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1904182434082</t>
+    <t xml:space="preserve">16.1904201507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880706787109</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">16.4247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6200828552246</t>
+    <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
     <t xml:space="preserve">16.9325618743896</t>
@@ -2438,25 +2438,25 @@
     <t xml:space="preserve">16.0927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5068683624268</t>
+    <t xml:space="preserve">15.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">15.5849876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3115673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725067138672</t>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4678077697754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7607574462891</t>
+    <t xml:space="preserve">15.7607583999634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0341796875</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">15.7998189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0146484375</t>
+    <t xml:space="preserve">16.0146503448486</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614910125732</t>
@@ -2483,7 +2483,10 @@
     <t xml:space="preserve">16.5810203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8584079742432</t>
+    <t xml:space="preserve">15.8779392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
     <t xml:space="preserve">16.2099494934082</t>
@@ -2495,22 +2498,22 @@
     <t xml:space="preserve">16.8349113464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6591415405273</t>
+    <t xml:space="preserve">16.6591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">17.0692710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6942367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4989356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3622226715088</t>
+    <t xml:space="preserve">17.6942348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4989337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3622245788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4794044494629</t>
@@ -2522,7 +2525,7 @@
     <t xml:space="preserve">17.2059841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9911518096924</t>
+    <t xml:space="preserve">16.991153717041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4012832641602</t>
@@ -2537,10 +2540,10 @@
     <t xml:space="preserve">17.2645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2841033935547</t>
+    <t xml:space="preserve">16.8739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2841053009033</t>
   </si>
   <si>
     <t xml:space="preserve">17.0302124023438</t>
@@ -2552,7 +2555,7 @@
     <t xml:space="preserve">16.639612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2685413360596</t>
+    <t xml:space="preserve">16.2685394287109</t>
   </si>
   <si>
     <t xml:space="preserve">16.1708889007568</t>
@@ -2561,7 +2564,7 @@
     <t xml:space="preserve">15.6435785293579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3506278991699</t>
+    <t xml:space="preserve">15.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">15.4482774734497</t>
@@ -2570,10 +2573,10 @@
     <t xml:space="preserve">15.7216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2920360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310976028442</t>
+    <t xml:space="preserve">15.2920370101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.2294807434082</t>
@@ -2582,13 +2585,13 @@
     <t xml:space="preserve">15.9169979095459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8193492889404</t>
+    <t xml:space="preserve">15.8193483352661</t>
   </si>
   <si>
     <t xml:space="preserve">15.7021684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3271312713623</t>
+    <t xml:space="preserve">16.3271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.0106830596924</t>
@@ -2603,13 +2606,13 @@
     <t xml:space="preserve">17.9676551818848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3231620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6747055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5184650421143</t>
+    <t xml:space="preserve">17.3231639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6747035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5184631347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9050998687744</t>
@@ -2618,10 +2621,10 @@
     <t xml:space="preserve">18.8269786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3387260437012</t>
+    <t xml:space="preserve">18.6512069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3387279510498</t>
   </si>
   <si>
     <t xml:space="preserve">17.9481239318848</t>
@@ -2642,7 +2645,7 @@
     <t xml:space="preserve">18.3777866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4559059143066</t>
+    <t xml:space="preserve">18.4559078216553</t>
   </si>
   <si>
     <t xml:space="preserve">18.3191967010498</t>
@@ -2651,58 +2654,58 @@
     <t xml:space="preserve">18.182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238956451416</t>
+    <t xml:space="preserve">18.1434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0067157745361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7918853759766</t>
+    <t xml:space="preserve">17.8504772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7918834686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.8114147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.596586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.557523727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4208126068115</t>
+    <t xml:space="preserve">17.5965843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5575218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4208145141602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8700046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9871864318848</t>
+    <t xml:space="preserve">17.6356430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9871845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.7488594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9832191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9694862365723</t>
+    <t xml:space="preserve">19.1003971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9832172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694881439209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2136135101318</t>
@@ -2714,19 +2717,19 @@
     <t xml:space="preserve">19.7741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647853851318</t>
+    <t xml:space="preserve">20.1647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">20.0183124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2624359130859</t>
+    <t xml:space="preserve">20.2624378204346</t>
   </si>
   <si>
     <t xml:space="preserve">20.5553874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0671348571777</t>
+    <t xml:space="preserve">20.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.8230094909668</t>
@@ -2735,34 +2738,34 @@
     <t xml:space="preserve">20.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.36008644104</t>
+    <t xml:space="preserve">20.3600883483887</t>
   </si>
   <si>
     <t xml:space="preserve">20.6042137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6530380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4342403411865</t>
+    <t xml:space="preserve">20.653039932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4342422485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.3854160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6295394897461</t>
+    <t xml:space="preserve">21.6295413970947</t>
   </si>
   <si>
     <t xml:space="preserve">21.7760162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8736667633057</t>
+    <t xml:space="preserve">21.8736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.8248424530029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2642688751221</t>
+    <t xml:space="preserve">22.2642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4595699310303</t>
@@ -2774,10 +2777,10 @@
     <t xml:space="preserve">23.2407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">23.680196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5337238311768</t>
+    <t xml:space="preserve">23.6801986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5337219238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.9966449737549</t>
@@ -2786,7 +2789,7 @@
     <t xml:space="preserve">22.9478206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.166618347168</t>
+    <t xml:space="preserve">22.1666202545166</t>
   </si>
   <si>
     <t xml:space="preserve">22.8989963531494</t>
@@ -2795,13 +2798,13 @@
     <t xml:space="preserve">22.3619194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5083923339844</t>
+    <t xml:space="preserve">22.508394241333</t>
   </si>
   <si>
     <t xml:space="preserve">22.0201416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5572204589844</t>
+    <t xml:space="preserve">22.5572185516357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3130931854248</t>
@@ -2819,7 +2822,7 @@
     <t xml:space="preserve">24.4125747680664</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3149242401123</t>
+    <t xml:space="preserve">24.3149261474609</t>
   </si>
   <si>
     <t xml:space="preserve">25.242603302002</t>
@@ -2855,13 +2858,13 @@
     <t xml:space="preserve">25.4379024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7796783447266</t>
+    <t xml:space="preserve">25.7796802520752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8773307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4144039154053</t>
+    <t xml:space="preserve">26.4144058227539</t>
   </si>
   <si>
     <t xml:space="preserve">26.7561817169189</t>
@@ -2873,13 +2876,13 @@
     <t xml:space="preserve">25.9261531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8285045623779</t>
+    <t xml:space="preserve">25.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">25.5355529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1214542388916</t>
+    <t xml:space="preserve">26.1214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.6097068786621</t>
@@ -3303,6 +3306,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.25</t>
   </si>
 </sst>
 </file>
@@ -46848,7 +46854,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1662" t="s">
-        <v>773</v>
+        <v>823</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46874,7 +46880,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1663" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46900,7 +46906,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47056,7 +47062,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1670" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47082,7 +47088,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1671" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47108,7 +47114,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47134,7 +47140,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1673" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47160,7 +47166,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1674" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47186,7 +47192,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1675" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47212,7 +47218,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1676" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47238,7 +47244,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1677" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47264,7 +47270,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47290,7 +47296,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1679" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47316,7 +47322,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1680" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47342,7 +47348,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47368,7 +47374,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47394,7 +47400,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47420,7 +47426,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47472,7 +47478,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1686" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47524,7 +47530,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1688" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47576,7 +47582,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1690" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47602,7 +47608,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1691" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47628,7 +47634,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1692" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47654,7 +47660,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1693" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47732,7 +47738,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1696" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47784,7 +47790,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47810,7 +47816,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1699" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47836,7 +47842,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1700" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47888,7 +47894,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1702" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47914,7 +47920,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1703" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47992,7 +47998,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1706" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48044,7 +48050,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1708" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48096,7 +48102,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1710" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48148,7 +48154,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1712" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48174,7 +48180,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1713" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48200,7 +48206,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48226,7 +48232,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48252,7 +48258,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48278,7 +48284,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1717" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48304,7 +48310,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48330,7 +48336,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48356,7 +48362,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1720" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48382,7 +48388,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48408,7 +48414,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48434,7 +48440,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1723" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48486,7 +48492,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1725" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48538,7 +48544,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48590,7 +48596,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48616,7 +48622,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1730" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48642,7 +48648,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1731" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48668,7 +48674,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1732" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48694,7 +48700,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48720,7 +48726,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48772,7 +48778,7 @@
         <v>18.5</v>
       </c>
       <c r="G1736" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48798,7 +48804,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1737" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48824,7 +48830,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1738" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48850,7 +48856,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48902,7 +48908,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1741" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48980,7 +48986,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49006,7 +49012,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1745" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49032,7 +49038,7 @@
         <v>18.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49058,7 +49064,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1747" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49084,7 +49090,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1748" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49110,7 +49116,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49136,7 +49142,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1750" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49162,7 +49168,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1751" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49188,7 +49194,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1752" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49214,7 +49220,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1753" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49240,7 +49246,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1754" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49266,7 +49272,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49292,7 +49298,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1756" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49318,7 +49324,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49344,7 +49350,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1758" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49370,7 +49376,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49396,7 +49402,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49422,7 +49428,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1761" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49474,7 +49480,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1763" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49500,7 +49506,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1764" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49552,7 +49558,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49604,7 +49610,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1768" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49630,7 +49636,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1769" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49656,7 +49662,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1770" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49682,7 +49688,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1771" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49708,7 +49714,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1772" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49734,7 +49740,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1773" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49760,7 +49766,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1774" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49786,7 +49792,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1775" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49838,7 +49844,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1777" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49864,7 +49870,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49916,7 +49922,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49942,7 +49948,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1781" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49968,7 +49974,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49994,7 +50000,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1783" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50046,7 +50052,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50072,7 +50078,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1786" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50124,7 +50130,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1788" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50150,7 +50156,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50176,7 +50182,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1790" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50202,7 +50208,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50228,7 +50234,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50254,7 +50260,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50280,7 +50286,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1794" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50306,7 +50312,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50332,7 +50338,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50358,7 +50364,7 @@
         <v>20.25</v>
       </c>
       <c r="G1797" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50384,7 +50390,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50410,7 +50416,7 @@
         <v>20.5</v>
       </c>
       <c r="G1799" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50436,7 +50442,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1800" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50462,7 +50468,7 @@
         <v>20.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50488,7 +50494,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50514,7 +50520,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50540,7 +50546,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50566,7 +50572,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50592,7 +50598,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1806" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50618,7 +50624,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50644,7 +50650,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50670,7 +50676,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50696,7 +50702,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50722,7 +50728,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50748,7 +50754,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50774,7 +50780,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50800,7 +50806,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1814" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50826,7 +50832,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1815" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50852,7 +50858,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50878,7 +50884,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50904,7 +50910,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50930,7 +50936,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50956,7 +50962,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1820" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50982,7 +50988,7 @@
         <v>23</v>
       </c>
       <c r="G1821" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51008,7 +51014,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51034,7 +51040,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51060,7 +51066,7 @@
         <v>24.25</v>
       </c>
       <c r="G1824" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51086,7 +51092,7 @@
         <v>24.25</v>
       </c>
       <c r="G1825" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51112,7 +51118,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51138,7 +51144,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51164,7 +51170,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1828" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51190,7 +51196,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1829" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51216,7 +51222,7 @@
         <v>23.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51242,7 +51248,7 @@
         <v>23.5</v>
       </c>
       <c r="G1831" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51268,7 +51274,7 @@
         <v>23.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51294,7 +51300,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51320,7 +51326,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1834" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51346,7 +51352,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51372,7 +51378,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51398,7 +51404,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1837" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51424,7 +51430,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51450,7 +51456,7 @@
         <v>23</v>
       </c>
       <c r="G1839" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51476,7 +51482,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51502,7 +51508,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51528,7 +51534,7 @@
         <v>23</v>
       </c>
       <c r="G1842" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51554,7 +51560,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51580,7 +51586,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51606,7 +51612,7 @@
         <v>23.5</v>
       </c>
       <c r="G1845" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51632,7 +51638,7 @@
         <v>23.75</v>
       </c>
       <c r="G1846" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51658,7 +51664,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51684,7 +51690,7 @@
         <v>25</v>
       </c>
       <c r="G1848" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51710,7 +51716,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1849" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51736,7 +51742,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51762,7 +51768,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51788,7 +51794,7 @@
         <v>26.25</v>
       </c>
       <c r="G1852" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51814,7 +51820,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1853" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51840,7 +51846,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1854" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51866,7 +51872,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51892,7 +51898,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51918,7 +51924,7 @@
         <v>26</v>
       </c>
       <c r="G1857" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51944,7 +51950,7 @@
         <v>26</v>
       </c>
       <c r="G1858" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51970,7 +51976,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51996,7 +52002,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52022,7 +52028,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52048,7 +52054,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1862" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52074,7 +52080,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52100,7 +52106,7 @@
         <v>26.25</v>
       </c>
       <c r="G1864" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52126,7 +52132,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1865" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52152,7 +52158,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52178,7 +52184,7 @@
         <v>26.5</v>
       </c>
       <c r="G1867" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52204,7 +52210,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52230,7 +52236,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1869" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52256,7 +52262,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1870" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52282,7 +52288,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1871" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52308,7 +52314,7 @@
         <v>26</v>
       </c>
       <c r="G1872" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52334,7 +52340,7 @@
         <v>26</v>
       </c>
       <c r="G1873" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52360,7 +52366,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52386,7 +52392,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52412,7 +52418,7 @@
         <v>26.25</v>
       </c>
       <c r="G1876" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52438,7 +52444,7 @@
         <v>26</v>
       </c>
       <c r="G1877" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52464,7 +52470,7 @@
         <v>26.75</v>
       </c>
       <c r="G1878" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52490,7 +52496,7 @@
         <v>27.25</v>
       </c>
       <c r="G1879" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52516,7 +52522,7 @@
         <v>26.75</v>
       </c>
       <c r="G1880" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52542,7 +52548,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52568,7 +52574,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52594,7 +52600,7 @@
         <v>26.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52620,7 +52626,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52646,7 +52652,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1885" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52672,7 +52678,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52698,7 +52704,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52724,7 +52730,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52750,7 +52756,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52776,7 +52782,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52802,7 +52808,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1891" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52828,7 +52834,7 @@
         <v>25.75</v>
       </c>
       <c r="G1892" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52854,7 +52860,7 @@
         <v>25.25</v>
       </c>
       <c r="G1893" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52880,7 +52886,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52906,7 +52912,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52932,7 +52938,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1896" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52958,7 +52964,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52984,7 +52990,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53010,7 +53016,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53036,7 +53042,7 @@
         <v>25</v>
       </c>
       <c r="G1900" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53062,7 +53068,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1901" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53088,7 +53094,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53114,7 +53120,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53140,7 +53146,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1904" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53166,7 +53172,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1905" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53192,7 +53198,7 @@
         <v>25.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53218,7 +53224,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1907" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53244,7 +53250,7 @@
         <v>26</v>
       </c>
       <c r="G1908" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53270,7 +53276,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53296,7 +53302,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53322,7 +53328,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53348,7 +53354,7 @@
         <v>26.25</v>
       </c>
       <c r="G1912" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53374,7 +53380,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53400,7 +53406,7 @@
         <v>26.25</v>
       </c>
       <c r="G1914" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53426,7 +53432,7 @@
         <v>26.25</v>
       </c>
       <c r="G1915" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53452,7 +53458,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53478,7 +53484,7 @@
         <v>27.25</v>
       </c>
       <c r="G1917" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53504,7 +53510,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53530,7 +53536,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53556,7 +53562,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53582,7 +53588,7 @@
         <v>27</v>
       </c>
       <c r="G1921" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53608,7 +53614,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1922" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53634,7 +53640,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53660,7 +53666,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53686,7 +53692,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53712,7 +53718,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53738,7 +53744,7 @@
         <v>25.75</v>
       </c>
       <c r="G1927" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53764,7 +53770,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53790,7 +53796,7 @@
         <v>26</v>
       </c>
       <c r="G1929" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53816,7 +53822,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1930" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53842,7 +53848,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1931" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53868,7 +53874,7 @@
         <v>25.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53894,7 +53900,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53920,7 +53926,7 @@
         <v>25.25</v>
       </c>
       <c r="G1934" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53946,7 +53952,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53972,7 +53978,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1936" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53998,7 +54004,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54024,7 +54030,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1938" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54050,7 +54056,7 @@
         <v>26.25</v>
       </c>
       <c r="G1939" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54076,7 +54082,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1940" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54102,7 +54108,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54128,7 +54134,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1942" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54154,7 +54160,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54180,7 +54186,7 @@
         <v>26</v>
       </c>
       <c r="G1944" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54206,7 +54212,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54232,7 +54238,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54258,7 +54264,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54284,7 +54290,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54310,7 +54316,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54336,7 +54342,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54362,7 +54368,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54388,7 +54394,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54414,7 +54420,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1953" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54440,7 +54446,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1954" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54466,7 +54472,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1955" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54492,7 +54498,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54518,7 +54524,7 @@
         <v>26</v>
       </c>
       <c r="G1957" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54544,7 +54550,7 @@
         <v>26.25</v>
       </c>
       <c r="G1958" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54570,7 +54576,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1959" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54596,7 +54602,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54622,7 +54628,7 @@
         <v>27.75</v>
       </c>
       <c r="G1961" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54648,7 +54654,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1962" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54674,7 +54680,7 @@
         <v>27.75</v>
       </c>
       <c r="G1963" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54700,7 +54706,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1964" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54726,7 +54732,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54752,7 +54758,7 @@
         <v>27.5</v>
       </c>
       <c r="G1966" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54778,7 +54784,7 @@
         <v>27</v>
       </c>
       <c r="G1967" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54804,7 +54810,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1968" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54830,7 +54836,7 @@
         <v>25.75</v>
       </c>
       <c r="G1969" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54856,7 +54862,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54882,7 +54888,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1971" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54908,7 +54914,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54934,7 +54940,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1973" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54960,7 +54966,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54986,7 +54992,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55012,7 +55018,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55038,7 +55044,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55064,7 +55070,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1978" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55090,7 +55096,7 @@
         <v>26.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55116,7 +55122,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1980" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55142,7 +55148,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1981" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55168,7 +55174,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1982" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55194,7 +55200,7 @@
         <v>26.75</v>
       </c>
       <c r="G1983" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55220,7 +55226,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55246,7 +55252,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1985" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55272,7 +55278,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55298,7 +55304,7 @@
         <v>27.5</v>
       </c>
       <c r="G1987" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55324,7 +55330,7 @@
         <v>27</v>
       </c>
       <c r="G1988" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55350,7 +55356,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55376,7 +55382,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55402,7 +55408,7 @@
         <v>27.75</v>
       </c>
       <c r="G1991" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55428,7 +55434,7 @@
         <v>26.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55454,7 +55460,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55480,7 +55486,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55506,7 +55512,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1995" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55532,7 +55538,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55558,7 +55564,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55584,7 +55590,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55610,7 +55616,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55636,7 +55642,7 @@
         <v>27</v>
       </c>
       <c r="G2000" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55662,7 +55668,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55688,7 +55694,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55714,7 +55720,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55740,7 +55746,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55766,7 +55772,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2005" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55792,7 +55798,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2006" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55818,7 +55824,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55844,7 +55850,7 @@
         <v>27.5</v>
       </c>
       <c r="G2008" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55870,7 +55876,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55896,7 +55902,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G2010" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55922,7 +55928,7 @@
         <v>28.25</v>
       </c>
       <c r="G2011" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55948,7 +55954,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G2012" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55974,7 +55980,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G2013" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56000,7 +56006,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G2014" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56026,7 +56032,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56052,7 +56058,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56078,7 +56084,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2017" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56104,7 +56110,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2018" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56130,7 +56136,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G2019" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56156,7 +56162,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56182,7 +56188,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56208,7 +56214,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G2022" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56234,7 +56240,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G2023" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56260,7 +56266,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56286,7 +56292,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56312,7 +56318,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56338,7 +56344,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G2027" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56364,7 +56370,7 @@
         <v>28</v>
       </c>
       <c r="G2028" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56390,7 +56396,7 @@
         <v>27.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56416,7 +56422,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56442,7 +56448,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G2031" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56468,7 +56474,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2032" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56494,7 +56500,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2033" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56520,7 +56526,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2034" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56546,7 +56552,7 @@
         <v>28</v>
       </c>
       <c r="G2035" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56572,7 +56578,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2036" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56598,7 +56604,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2037" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56624,7 +56630,7 @@
         <v>26.5</v>
       </c>
       <c r="G2038" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56650,7 +56656,7 @@
         <v>27</v>
       </c>
       <c r="G2039" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56676,7 +56682,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56702,7 +56708,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56728,7 +56734,7 @@
         <v>27.25</v>
       </c>
       <c r="G2042" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56754,7 +56760,7 @@
         <v>27</v>
       </c>
       <c r="G2043" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56780,7 +56786,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56806,7 +56812,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G2045" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56832,7 +56838,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56858,7 +56864,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56884,7 +56890,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56910,7 +56916,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56936,7 +56942,7 @@
         <v>26.25</v>
       </c>
       <c r="G2050" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56962,7 +56968,7 @@
         <v>26.25</v>
       </c>
       <c r="G2051" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56988,7 +56994,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57014,7 +57020,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57040,7 +57046,7 @@
         <v>26.75</v>
       </c>
       <c r="G2054" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57066,7 +57072,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2055" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57092,7 +57098,7 @@
         <v>26.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57118,7 +57124,7 @@
         <v>26.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57144,7 +57150,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57170,7 +57176,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G2059" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57196,7 +57202,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57222,7 +57228,7 @@
         <v>26.25</v>
       </c>
       <c r="G2061" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57248,7 +57254,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57274,7 +57280,7 @@
         <v>26.75</v>
       </c>
       <c r="G2063" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57300,7 +57306,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57326,7 +57332,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G2065" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57352,7 +57358,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57378,7 +57384,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57404,7 +57410,7 @@
         <v>26.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57430,7 +57436,7 @@
         <v>26</v>
       </c>
       <c r="G2069" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57456,7 +57462,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57482,7 +57488,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57508,7 +57514,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57534,7 +57540,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57560,7 +57566,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57586,7 +57592,7 @@
         <v>28.25</v>
       </c>
       <c r="G2075" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57612,7 +57618,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57638,7 +57644,7 @@
         <v>28.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57664,7 +57670,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2078" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57690,7 +57696,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G2079" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57716,7 +57722,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57742,7 +57748,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57768,7 +57774,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57794,7 +57800,7 @@
         <v>29.75</v>
       </c>
       <c r="G2083" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57820,7 +57826,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57846,7 +57852,7 @@
         <v>30.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57872,7 +57878,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57898,7 +57904,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57924,7 +57930,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57950,7 +57956,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2089" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57976,7 +57982,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58002,7 +58008,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58028,7 +58034,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58054,7 +58060,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2093" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58080,7 +58086,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58106,7 +58112,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58132,7 +58138,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58158,7 +58164,7 @@
         <v>31.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58184,7 +58190,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2098" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58210,7 +58216,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2099" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58236,7 +58242,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58262,7 +58268,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58288,7 +58294,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58314,7 +58320,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58340,7 +58346,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58366,7 +58372,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58392,7 +58398,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58418,7 +58424,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58444,7 +58450,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58470,7 +58476,7 @@
         <v>35</v>
       </c>
       <c r="G2109" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58496,7 +58502,7 @@
         <v>35</v>
       </c>
       <c r="G2110" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58522,7 +58528,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2111" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58548,7 +58554,7 @@
         <v>35.5</v>
       </c>
       <c r="G2112" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58574,7 +58580,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58600,7 +58606,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58626,7 +58632,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58652,7 +58658,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2116" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58678,7 +58684,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2117" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58704,7 +58710,7 @@
         <v>35</v>
       </c>
       <c r="G2118" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58730,7 +58736,7 @@
         <v>35.75</v>
       </c>
       <c r="G2119" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58756,7 +58762,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58782,7 +58788,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58808,7 +58814,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58834,7 +58840,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58860,7 +58866,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58886,7 +58892,7 @@
         <v>33.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58912,7 +58918,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58938,7 +58944,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2127" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58964,7 +58970,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58990,7 +58996,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2129" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59016,7 +59022,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59042,7 +59048,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59068,7 +59074,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2132" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59094,7 +59100,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59120,7 +59126,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59146,7 +59152,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59172,7 +59178,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2136" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59198,7 +59204,7 @@
         <v>31</v>
       </c>
       <c r="G2137" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59224,7 +59230,7 @@
         <v>31</v>
       </c>
       <c r="G2138" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59250,7 +59256,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59276,7 +59282,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59302,7 +59308,7 @@
         <v>32</v>
       </c>
       <c r="G2141" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59328,7 +59334,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59354,7 +59360,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2143" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59380,7 +59386,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2144" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59406,7 +59412,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2145" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59432,7 +59438,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59458,7 +59464,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2147" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59484,7 +59490,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2148" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59510,7 +59516,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59536,7 +59542,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59562,7 +59568,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G2151" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59588,7 +59594,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59614,7 +59620,7 @@
         <v>32</v>
       </c>
       <c r="G2153" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59640,7 +59646,7 @@
         <v>32.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59666,7 +59672,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59692,7 +59698,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2156" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59718,7 +59724,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59744,7 +59750,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59770,7 +59776,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2159" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59796,7 +59802,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59822,7 +59828,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59848,7 +59854,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59874,7 +59880,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2163" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59900,7 +59906,7 @@
         <v>32.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59926,7 +59932,7 @@
         <v>33.25</v>
       </c>
       <c r="G2165" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59952,7 +59958,7 @@
         <v>33.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59978,7 +59984,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60004,7 +60010,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2168" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60030,7 +60036,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2169" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60056,7 +60062,7 @@
         <v>34.5</v>
       </c>
       <c r="G2170" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60082,7 +60088,7 @@
         <v>35.25</v>
       </c>
       <c r="G2171" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60108,7 +60114,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G2172" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60116,7 +60122,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494907407</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>51229</v>
@@ -60134,9 +60140,35 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G2173" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.649375</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>54485</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>36.6500015258789</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>35.7999992370605</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1100">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,10 +50,10 @@
     <t xml:space="preserve">7.25373363494873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22734069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616777420044</t>
+    <t xml:space="preserve">7.2273416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616729736328</t>
   </si>
   <si>
     <t xml:space="preserve">6.97220706939697</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68627977371216</t>
+    <t xml:space="preserve">6.68628072738647</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425765991211</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42234802246094</t>
+    <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
     <t xml:space="preserve">6.48833131790161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47073554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592708587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879838943481</t>
+    <t xml:space="preserve">6.4707350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592660903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879886627197</t>
   </si>
   <si>
     <t xml:space="preserve">6.51912307739258</t>
@@ -101,106 +101,106 @@
     <t xml:space="preserve">6.60710096359253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190990447998</t>
+    <t xml:space="preserve">6.43994426727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
   </si>
   <si>
     <t xml:space="preserve">6.56311225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71267318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305578231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8534369468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338094711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9062237739563</t>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305530548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343790054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07338047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90622425079346</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376258850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94581317901611</t>
+    <t xml:space="preserve">6.94581365585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256118774414</t>
+    <t xml:space="preserve">7.15256023406982</t>
   </si>
   <si>
     <t xml:space="preserve">6.79625225067139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89302778244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349342346191</t>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906564712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349294662476</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786424636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463977813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024095535278</t>
+    <t xml:space="preserve">6.74786472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84464025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024047851562</t>
   </si>
   <si>
     <t xml:space="preserve">6.87543153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103223800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783672332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87983083724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466777801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185247421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94141483306885</t>
+    <t xml:space="preserve">6.87103271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7566614151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8798303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660541534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466825485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712944030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">6.91502141952515</t>
@@ -209,124 +209,124 @@
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942071914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944871902466</t>
+    <t xml:space="preserve">6.91941976547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80944776535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.57630825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144378662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00450086593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343536376953</t>
+    <t xml:space="preserve">6.43114614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00450229644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343584060669</t>
   </si>
   <si>
     <t xml:space="preserve">6.94642782211304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96429634094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29039907455444</t>
+    <t xml:space="preserve">6.96429681777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2903995513916</t>
   </si>
   <si>
     <t xml:space="preserve">7.48695421218872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50482320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609323501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908521652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577089309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425203323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93302631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27253103256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6388373374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391744613647</t>
+    <t xml:space="preserve">7.50482225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334722518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4690842628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121717453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9330267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27253198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391792297363</t>
   </si>
   <si>
     <t xml:space="preserve">7.77285194396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178644180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818088531494</t>
+    <t xml:space="preserve">7.78178691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817850112915</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68350791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096881866455</t>
+    <t xml:space="preserve">7.68350887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187362670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096834182739</t>
   </si>
   <si>
     <t xml:space="preserve">7.37974214553833</t>
@@ -335,19 +335,19 @@
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142217636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416484832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248672485352</t>
+    <t xml:space="preserve">7.49142122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228219985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248720169067</t>
   </si>
   <si>
     <t xml:space="preserve">7.28146457672119</t>
@@ -356,64 +356,64 @@
     <t xml:space="preserve">7.05363988876343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86155223846436</t>
+    <t xml:space="preserve">6.8615517616272</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
+    <t xml:space="preserve">7.07150793075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101264953613</t>
+    <t xml:space="preserve">7.41101217269897</t>
   </si>
   <si>
     <t xml:space="preserve">7.53162574768066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679399490356</t>
+    <t xml:space="preserve">7.5852313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015119552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5226902961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679351806641</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207815170288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761114120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4646167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.227858543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323036193848</t>
+    <t xml:space="preserve">7.39761018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461868286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22785902023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790285110474</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">7.02236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91962432861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474969863892</t>
+    <t xml:space="preserve">6.91962480545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540662765503</t>
+    <t xml:space="preserve">6.88835525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540710449219</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
@@ -446,34 +446,34 @@
     <t xml:space="preserve">6.96876382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08044242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982980728149</t>
+    <t xml:space="preserve">7.08044290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95983028411865</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728879928589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92409229278564</t>
+    <t xml:space="preserve">6.92409181594849</t>
   </si>
   <si>
     <t xml:space="preserve">6.98663282394409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04023885726929</t>
+    <t xml:space="preserve">7.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98216533660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003385543823</t>
+    <t xml:space="preserve">6.977698802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216581344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
@@ -485,28 +485,28 @@
     <t xml:space="preserve">6.81241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921670913696</t>
+    <t xml:space="preserve">6.83921718597412</t>
   </si>
   <si>
     <t xml:space="preserve">6.70966958999634</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44163990020752</t>
+    <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
     <t xml:space="preserve">6.42823839187622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41930294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717241287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53991746902466</t>
+    <t xml:space="preserve">6.41930389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991794586182</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544998168945</t>
@@ -515,46 +515,46 @@
     <t xml:space="preserve">6.60245656967163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52204847335815</t>
+    <t xml:space="preserve">6.52204895019531</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520257949829</t>
+    <t xml:space="preserve">6.31655883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520162582397</t>
   </si>
   <si>
     <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261726379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327466964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860361099243</t>
+    <t xml:space="preserve">7.10277843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85261821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860313415527</t>
   </si>
   <si>
     <t xml:space="preserve">6.64266157150269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12064647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871999740601</t>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871952056885</t>
   </si>
   <si>
     <t xml:space="preserve">7.41547966003418</t>
@@ -566,49 +566,49 @@
     <t xml:space="preserve">7.1921215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2591290473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826759338379</t>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826854705811</t>
   </si>
   <si>
     <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949474334717</t>
+    <t xml:space="preserve">7.54949522018433</t>
   </si>
   <si>
     <t xml:space="preserve">7.20998954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953809738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24126005172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171293258667</t>
+    <t xml:space="preserve">7.33953762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24125957489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171340942383</t>
   </si>
   <si>
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740661621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588823318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793252944946</t>
+    <t xml:space="preserve">7.35740566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588918685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793109893799</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063327789307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35358238220215</t>
+    <t xml:space="preserve">8.35358333587646</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825248718262</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">8.60821056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57694149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578594207764</t>
+    <t xml:space="preserve">8.57694053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578784942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.66628456115723</t>
@@ -635,37 +635,37 @@
     <t xml:space="preserve">9.05939388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84496879577637</t>
+    <t xml:space="preserve">8.84496974945068</t>
   </si>
   <si>
     <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64905834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3363561630249</t>
+    <t xml:space="preserve">9.64905738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33635711669922</t>
   </si>
   <si>
     <t xml:space="preserve">9.10406494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93431282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90750885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79136371612549</t>
+    <t xml:space="preserve">8.93431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90750980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7913646697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.06832695007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97898483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88964080810547</t>
+    <t xml:space="preserve">8.97898387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88964176177979</t>
   </si>
   <si>
     <t xml:space="preserve">8.8002986907959</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">8.86283779144287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75562572479248</t>
+    <t xml:space="preserve">8.7556266784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.83603477478027</t>
@@ -686,49 +686,49 @@
     <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02365684509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168510437012</t>
+    <t xml:space="preserve">9.02365589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168605804443</t>
   </si>
   <si>
     <t xml:space="preserve">9.51831245422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896396636963</t>
+    <t xml:space="preserve">9.54550552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
   </si>
   <si>
     <t xml:space="preserve">9.40953159332275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47298526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924587249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3823356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528654098511</t>
+    <t xml:space="preserve">9.47298717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38233661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.97156524658203</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">9.8355884552002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65428829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737617492676</t>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737712860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
@@ -749,25 +749,25 @@
     <t xml:space="preserve">9.42766094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44579124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59083271026611</t>
+    <t xml:space="preserve">9.44579029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083080291748</t>
   </si>
   <si>
     <t xml:space="preserve">9.57270240783691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69961261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615798950195</t>
+    <t xml:space="preserve">9.69961357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363677978516</t>
@@ -779,31 +779,31 @@
     <t xml:space="preserve">9.39139938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3642053604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30074977874756</t>
+    <t xml:space="preserve">9.36420631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33701038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644275665283</t>
+    <t xml:space="preserve">9.33700847625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644180297852</t>
   </si>
   <si>
     <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41859722137451</t>
+    <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148326873779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400257110596</t>
+    <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932975769043</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">9.49111652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34607696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35514068603516</t>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35513973236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327003479004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45485591888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74493789672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091373443604</t>
+    <t xml:space="preserve">9.45485782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74493885040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091278076172</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371875762939</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">9.89904403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46392154693604</t>
+    <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811061859131</t>
+    <t xml:space="preserve">9.90810871124268</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
@@ -854,34 +854,34 @@
     <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7811975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.400465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355480194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981731414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018215179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205089569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15571022033691</t>
+    <t xml:space="preserve">9.78119850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477298736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40046691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2735538482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
     <t xml:space="preserve">9.66335296630859</t>
@@ -890,28 +890,28 @@
     <t xml:space="preserve">9.77213382720947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17383861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1375789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.191969871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061191558838</t>
+    <t xml:space="preserve">9.1738395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13757991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440814971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19197082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">10.6423788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874202728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049819946289</t>
+    <t xml:space="preserve">10.7874193191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049829483032</t>
   </si>
   <si>
     <t xml:space="preserve">10.8780708312988</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">10.8055486679077</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511596679688</t>
+    <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335988998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248180389404</t>
+    <t xml:space="preserve">10.533597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">10.2616472244263</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">10.2797775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2253866195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
+    <t xml:space="preserve">10.2253847122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
     <t xml:space="preserve">9.93530464172363</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">10.297905921936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704280853271</t>
+    <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.3160362243652</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">10.0078248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">9.98969650268555</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142406463623</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363925933838</t>
+    <t xml:space="preserve">9.96363735198975</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577676773071</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94525337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465705871582</t>
+    <t xml:space="preserve">9.9452543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.85333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555534362793</t>
@@ -1022,88 +1022,88 @@
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.331298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.478364944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151290893555</t>
+    <t xml:space="preserve">10.3312997817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908754348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173433303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438112258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393856048584</t>
+    <t xml:space="preserve">10.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173452377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393846511841</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805791854858</t>
+    <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112495422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406074523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567771911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274192810059</t>
+    <t xml:space="preserve">9.81657409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112590789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50405979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274097442627</t>
   </si>
   <si>
     <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3496837615967</t>
+    <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1107025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945337295532</t>
+    <t xml:space="preserve">10.1107015609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945346832275</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010715484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687225341797</t>
+    <t xml:space="preserve">9.89010524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371704101562</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74304103851318</t>
+    <t xml:space="preserve">9.7430419921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">9.54082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2834644317627</t>
+    <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
     <t xml:space="preserve">9.59597492218018</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57759189605713</t>
+    <t xml:space="preserve">9.57759284973145</t>
   </si>
   <si>
     <t xml:space="preserve">9.70627498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0739364624023</t>
+    <t xml:space="preserve">10.0739374160767</t>
   </si>
   <si>
     <t xml:space="preserve">9.68789196014404</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729564666748</t>
+    <t xml:space="preserve">9.46729278564453</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">9.669508934021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3753776550293</t>
+    <t xml:space="preserve">9.37537860870361</t>
   </si>
   <si>
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.459981918335</t>
+    <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214561462402</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702791213989</t>
+    <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621971130371</t>
+    <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048318862915</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680639266968</t>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680648803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761507034302</t>
@@ -1217,25 +1217,25 @@
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0298595428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1217727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747066497803</t>
+    <t xml:space="preserve">10.8092603683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.029857635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1217737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
     <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8276433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754111289978</t>
+    <t xml:space="preserve">10.8276424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664875030518</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">11.2358379364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1985092163086</t>
+    <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224796295166</t>
+    <t xml:space="preserve">11.4224805831909</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238527297974</t>
@@ -1271,25 +1271,25 @@
     <t xml:space="preserve">10.8065624237061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7692346572876</t>
+    <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
     <t xml:space="preserve">10.7505693435669</t>
   </si>
   <si>
-    <t xml:space="preserve">10.881217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6572484970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7132396697998</t>
+    <t xml:space="preserve">10.8812189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625555038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.899884223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.657247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
     <t xml:space="preserve">10.4892702102661</t>
@@ -1298,52 +1298,52 @@
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.35862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959512710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6012554168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279710769653</t>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3586225509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6012544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.227972984314</t>
   </si>
   <si>
     <t xml:space="preserve">10.1719789505005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786590576172</t>
+    <t xml:space="preserve">10.0786581039429</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599946975708</t>
+    <t xml:space="preserve">10.0226669311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599937438965</t>
   </si>
   <si>
     <t xml:space="preserve">10.2652997970581</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1533164978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2466373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">10.1533155441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.246636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.11598777771</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85468864440918</t>
+    <t xml:space="preserve">9.8546895980835</t>
   </si>
   <si>
     <t xml:space="preserve">9.81736087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136684417725</t>
+    <t xml:space="preserve">9.74270248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071823120117</t>
+    <t xml:space="preserve">9.63071727752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.64938163757324</t>
@@ -1379,49 +1379,49 @@
     <t xml:space="preserve">9.44407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61205387115479</t>
+    <t xml:space="preserve">9.61205291748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.68671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70537567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78003025054932</t>
+    <t xml:space="preserve">9.7053747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78003120422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201736450195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3212947845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335300445557</t>
+    <t xml:space="preserve">10.3212938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335205078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9666748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602428436279</t>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.470606803894</t>
+    <t xml:space="preserve">10.4146137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4706077575684</t>
   </si>
   <si>
     <t xml:space="preserve">10.3399572372437</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">10.3026285171509</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92934513092041</t>
+    <t xml:space="preserve">9.92934703826904</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50006866455078</t>
+    <t xml:space="preserve">9.50007057189941</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">9.19211006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40674781799316</t>
+    <t xml:space="preserve">9.40674877166748</t>
   </si>
   <si>
     <t xml:space="preserve">9.36941909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35075569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27609825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57472515106201</t>
+    <t xml:space="preserve">9.350754737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27609920501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
     <t xml:space="preserve">9.10812091827393</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.697509765625</t>
+    <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
     <t xml:space="preserve">8.6321849822998</t>
@@ -1496,82 +1496,82 @@
     <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93227767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565423965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810218811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344665527344</t>
+    <t xml:space="preserve">8.4082145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559852600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93227815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079410552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810314178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734447479248</t>
   </si>
   <si>
     <t xml:space="preserve">9.16411304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678527832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476451873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743579864502</t>
+    <t xml:space="preserve">9.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.126784324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207164764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25743389129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747135162354</t>
+    <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415145874023</t>
+    <t xml:space="preserve">8.88415241241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7908296585083</t>
+    <t xml:space="preserve">8.79083061218262</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7843132019043</t>
+    <t xml:space="preserve">9.73681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78431224822998</t>
   </si>
   <si>
     <t xml:space="preserve">9.83181095123291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0692930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">10.0692949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">10.1642866134644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017705917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2117824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3067779541016</t>
+    <t xml:space="preserve">10.4017696380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5442609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592802047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2117834091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167898178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3067770004272</t>
   </si>
   <si>
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542737960815</t>
+    <t xml:space="preserve">10.3542728424072</t>
   </si>
   <si>
     <t xml:space="preserve">9.97430038452148</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">10.5917568206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6392526626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042058944702</t>
+    <t xml:space="preserve">10.6392545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.2567110061646</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">11.066722869873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.161717414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8767366409302</t>
+    <t xml:space="preserve">11.1617164611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8767375946045</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">11.1142196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2092132568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0192279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9717302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">11.2092123031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0192270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9717292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342472076416</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216642379761</t>
+    <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.7791719436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
@@ -1718,10 +1718,10 @@
     <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6341142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0140857696533</t>
+    <t xml:space="preserve">12.6341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.014087677002</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
@@ -1736,25 +1736,25 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665899276733</t>
+    <t xml:space="preserve">12.966588973999</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2990674972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5840463638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640197753906</t>
+    <t xml:space="preserve">13.2990665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5840473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640207290649</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
+    <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
     <t xml:space="preserve">13.6315441131592</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">14.1065101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.1540060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015047073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
+    <t xml:space="preserve">14.2490005493164</t>
   </si>
   <si>
     <t xml:space="preserve">14.391489982605</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814771652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.818959236145</t>
+    <t xml:space="preserve">14.5814781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8189601898193</t>
   </si>
   <si>
     <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5339803695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4864845275879</t>
+    <t xml:space="preserve">14.5339794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
     <t xml:space="preserve">14.6764698028564</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113826751709</t>
+    <t xml:space="preserve">15.4839115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113836288452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868648529053</t>
+    <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
     <t xml:space="preserve">16.2248630523682</t>
@@ -1841,13 +1841,13 @@
     <t xml:space="preserve">16.3388538360596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628593444824</t>
+    <t xml:space="preserve">16.2628574371338</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768520355225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5288410186768</t>
+    <t xml:space="preserve">16.5288391113281</t>
   </si>
   <si>
     <t xml:space="preserve">16.5478401184082</t>
@@ -1859,10 +1859,10 @@
     <t xml:space="preserve">16.6808280944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4148502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728740692139</t>
+    <t xml:space="preserve">16.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
@@ -1871,31 +1871,31 @@
     <t xml:space="preserve">15.9588794708252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1108684539795</t>
+    <t xml:space="preserve">16.1108703613281</t>
   </si>
   <si>
     <t xml:space="preserve">15.8638887405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448896408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258905410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068914413452</t>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.407919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169052124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068885803223</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1904,31 +1904,31 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208860397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088905334473</t>
+    <t xml:space="preserve">15.3699226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088924407959</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6277408599854</t>
+    <t xml:space="preserve">15.6277418136597</t>
   </si>
   <si>
     <t xml:space="preserve">15.935676574707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432165145874</t>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1937,22 +1937,22 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394460678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741687774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783359527588</t>
+    <t xml:space="preserve">15.8394451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3975830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">17.1096820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3791275024414</t>
+    <t xml:space="preserve">17.3791255950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.4753570556641</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.667818069458</t>
+    <t xml:space="preserve">17.2828941345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6678161621094</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485691070557</t>
+    <t xml:space="preserve">17.6485710144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561100006104</t>
+    <t xml:space="preserve">17.4561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983726501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3021411895752</t>
+    <t xml:space="preserve">17.3983707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674194335938</t>
@@ -2042,25 +2042,25 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
+    <t xml:space="preserve">17.8602733612061</t>
   </si>
   <si>
     <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0142440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1874561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.591625213623</t>
+    <t xml:space="preserve">18.0142421722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5916233062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8803157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.976541519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">19.6790218353271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0639400482178</t>
+    <t xml:space="preserve">20.0639419555664</t>
   </si>
   <si>
     <t xml:space="preserve">20.1601715087891</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">19.2940998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9380512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.9380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7832908630371</t>
+    <t xml:space="preserve">17.7832927703857</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527362823486</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">18.264440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1690044403076</t>
+    <t xml:space="preserve">19.169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">19.1112651824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0727729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2082862854004</t>
+    <t xml:space="preserve">19.072774887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2082843780518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.448860168457</t>
+    <t xml:space="preserve">20.4488620758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">21.1224689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4111595153809</t>
+    <t xml:space="preserve">21.4111614227295</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
+    <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865608215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4384460449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7752494812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8233680725098</t>
+    <t xml:space="preserve">19.4865627288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4384479522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7752513885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">20.3526306152344</t>
@@ -2216,25 +2216,25 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195976257324</t>
+    <t xml:space="preserve">19.9195957183838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882495880127</t>
+    <t xml:space="preserve">19.1882514953613</t>
   </si>
   <si>
     <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1682090759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259483337402</t>
+    <t xml:space="preserve">18.1682109832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259521484375</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">17.764045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4176197052002</t>
+    <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.436071395874</t>
+    <t xml:space="preserve">16.4360733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">16.8787307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628532409668</t>
+    <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
     <t xml:space="preserve">16.9749584197998</t>
@@ -2270,28 +2270,28 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4553203582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7440071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7825012207031</t>
+    <t xml:space="preserve">17.0134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4553184509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7440090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7825031280518</t>
   </si>
   <si>
     <t xml:space="preserve">15.4160356521606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.011869430542</t>
+    <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.6269502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5122661590576</t>
+    <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
     <t xml:space="preserve">15.1273460388184</t>
@@ -2300,28 +2300,28 @@
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.820200920105</t>
+    <t xml:space="preserve">15.8202028274536</t>
   </si>
   <si>
     <t xml:space="preserve">15.2813138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.724760055542</t>
+    <t xml:space="preserve">16.1858749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6670246124268</t>
+    <t xml:space="preserve">16.6670265197754</t>
   </si>
   <si>
     <t xml:space="preserve">16.647777557373</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319080352783</t>
+    <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737739562988</t>
+    <t xml:space="preserve">15.4737730026245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817087173462</t>
+    <t xml:space="preserve">15.7817096710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">15.3775434494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2428216934204</t>
+    <t xml:space="preserve">15.2428207397461</t>
   </si>
   <si>
     <t xml:space="preserve">16.1513595581055</t>
@@ -3309,6 +3309,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5</t>
   </si>
 </sst>
 </file>
@@ -60226,13 +60229,13 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6496064815</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>11707</v>
       </c>
       <c r="C2177" t="n">
-        <v>36.0499992370605</v>
+        <v>36.2000007629395</v>
       </c>
       <c r="D2177" t="n">
         <v>35.5999984741211</v>
@@ -60247,6 +60250,32 @@
         <v>1098</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6493171296</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>132743</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>36.9500007629395</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1102">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414518356323</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">7.20534658432007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25373363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2273416519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179647445679</t>
+    <t xml:space="preserve">7.25373458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22734069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220611572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780824661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179599761963</t>
   </si>
   <si>
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68628072738647</t>
+    <t xml:space="preserve">6.68628025054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425765991211</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4707350730896</t>
+    <t xml:space="preserve">6.48833084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073602676392</t>
   </si>
   <si>
     <t xml:space="preserve">6.50592660903931</t>
@@ -92,64 +92,64 @@
     <t xml:space="preserve">6.26398897171021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22879886627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912307739258</t>
+    <t xml:space="preserve">6.2287974357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912260055542</t>
   </si>
   <si>
     <t xml:space="preserve">6.60710096359253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43994426727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190942764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8622350692749</t>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311273574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86223554611206</t>
   </si>
   <si>
     <t xml:space="preserve">6.78305530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85343790054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622425079346</t>
+    <t xml:space="preserve">6.8534369468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07338094711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9062237739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376258850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94581365585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625225067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302730560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906564712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349294662476</t>
+    <t xml:space="preserve">6.94581317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302682876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349342346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">6.74786472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84464025497437</t>
+    <t xml:space="preserve">6.84463977813721</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024047851562</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">6.87103271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7566614151001</t>
+    <t xml:space="preserve">6.85783624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.8798303604126</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97660541534424</t>
+    <t xml:space="preserve">6.9766058921814</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149883270264</t>
+    <t xml:space="preserve">6.61149978637695</t>
   </si>
   <si>
     <t xml:space="preserve">6.52352237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49712944030762</t>
+    <t xml:space="preserve">6.49712896347046</t>
   </si>
   <si>
     <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94141387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91502141952515</t>
+    <t xml:space="preserve">6.94141435623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">6.57630825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114614486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381954193115</t>
+    <t xml:space="preserve">6.43114566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469625473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144378662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
     <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00450229644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429681777954</t>
+    <t xml:space="preserve">7.00450134277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343488693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9464282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654563903809</t>
@@ -254,31 +254,31 @@
     <t xml:space="preserve">7.2903995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695421218872</t>
+    <t xml:space="preserve">7.4869532585144</t>
   </si>
   <si>
     <t xml:space="preserve">7.50482225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43334722518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4690842628479</t>
+    <t xml:space="preserve">7.43334865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609418869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724639892578</t>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724544525146</t>
   </si>
   <si>
     <t xml:space="preserve">7.03577136993408</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27253198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781518936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285194396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817850112915</t>
+    <t xml:space="preserve">7.2725305557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883781433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391744613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285242080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818040847778</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
@@ -317,130 +317,130 @@
     <t xml:space="preserve">7.68350887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36187362670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096834182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974214553833</t>
+    <t xml:space="preserve">7.36187410354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810785293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974309921265</t>
   </si>
   <si>
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228219985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248720169067</t>
+    <t xml:space="preserve">7.49142169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203622817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248624801636</t>
   </si>
   <si>
     <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05363988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8615517616272</t>
+    <t xml:space="preserve">7.05364036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155223846436</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150793075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101217269897</t>
+    <t xml:space="preserve">7.07150840759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101169586182</t>
   </si>
   <si>
     <t xml:space="preserve">7.53162574768066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5852313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015119552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5226902961731</t>
+    <t xml:space="preserve">7.58523082733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015071868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269172668457</t>
   </si>
   <si>
     <t xml:space="preserve">7.23679351806641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40207815170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761018753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400606155396</t>
+    <t xml:space="preserve">7.40207767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3440055847168</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785902023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
+    <t xml:space="preserve">7.22785949707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384489059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962480545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88835525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87942028045654</t>
+    <t xml:space="preserve">6.95089483261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8347487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.807945728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88835477828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540615081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87942123413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.96876382827759</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">7.08044290542603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95983028411865</t>
+    <t xml:space="preserve">6.95982980728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728879928589</t>
@@ -464,55 +464,55 @@
     <t xml:space="preserve">7.04023838043213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06704092025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.977698802948</t>
+    <t xml:space="preserve">7.06704139709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003433227539</t>
+    <t xml:space="preserve">7.00003385543823</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04917192459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241369247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966958999634</t>
+    <t xml:space="preserve">7.04917240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42823839187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717193603516</t>
+    <t xml:space="preserve">6.42823791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717241287231</t>
   </si>
   <si>
     <t xml:space="preserve">6.46397542953491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53991794586182</t>
+    <t xml:space="preserve">6.53991746902466</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245656967163</t>
+    <t xml:space="preserve">6.60245609283447</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204895019531</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655883789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082227706909</t>
+    <t xml:space="preserve">6.31655931472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082275390625</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520162582397</t>
@@ -533,76 +533,76 @@
     <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774120330811</t>
+    <t xml:space="preserve">7.10277795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8526177406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327466964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774072647095</t>
   </si>
   <si>
     <t xml:space="preserve">6.71860313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64266157150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547966003418</t>
+    <t xml:space="preserve">6.64266109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547918319702</t>
   </si>
   <si>
     <t xml:space="preserve">7.25019454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1921215057373</t>
+    <t xml:space="preserve">7.19212198257446</t>
   </si>
   <si>
     <t xml:space="preserve">7.25912952423096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30826854705811</t>
+    <t xml:space="preserve">7.30826759338379</t>
   </si>
   <si>
     <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949522018433</t>
+    <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
     <t xml:space="preserve">7.20998954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24125957489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171340942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2993335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588918685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793109893799</t>
+    <t xml:space="preserve">7.33953714370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24126005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29933404922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740613937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588775634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686750411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8979320526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063327789307</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">8.35358333587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825248718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299896240234</t>
+    <t xml:space="preserve">8.39825439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299800872803</t>
   </si>
   <si>
     <t xml:space="preserve">8.60821056365967</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">8.57694053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578784942627</t>
+    <t xml:space="preserve">8.33571338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
     <t xml:space="preserve">8.66628456115723</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">8.84496974945068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218181610107</t>
+    <t xml:space="preserve">8.95218086242676</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33635711669922</t>
+    <t xml:space="preserve">9.3363561630249</t>
   </si>
   <si>
     <t xml:space="preserve">9.10406494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93431186676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90750980377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7913646697998</t>
+    <t xml:space="preserve">8.93431282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90751075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.06832695007324</t>
@@ -665,37 +665,37 @@
     <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88964176177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8002986907959</t>
+    <t xml:space="preserve">8.88964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80029964447021</t>
   </si>
   <si>
     <t xml:space="preserve">8.86283779144287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603477478027</t>
+    <t xml:space="preserve">8.75562572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603572845459</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304374694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168605804443</t>
+    <t xml:space="preserve">8.90304470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
     <t xml:space="preserve">9.51831245422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550552368164</t>
+    <t xml:space="preserve">9.54550647735596</t>
   </si>
   <si>
     <t xml:space="preserve">9.608962059021</t>
@@ -710,67 +710,67 @@
     <t xml:space="preserve">9.43672657012939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50924777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38233661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306819915771</t>
+    <t xml:space="preserve">9.50924587249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3823356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76307010650635</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151847839355</t>
+    <t xml:space="preserve">10.6151828765869</t>
   </si>
   <si>
     <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428638458252</t>
+    <t xml:space="preserve">9.97156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83559036254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737712860107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6270923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59083080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457305908203</t>
+    <t xml:space="preserve">9.62709331512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457210540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56363677978516</t>
+    <t xml:space="preserve">9.56363582611084</t>
   </si>
   <si>
     <t xml:space="preserve">9.79026317596436</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">9.39139938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36420631408691</t>
+    <t xml:space="preserve">9.3642053604126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24635982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33700847625732</t>
+    <t xml:space="preserve">9.24635887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701133728027</t>
   </si>
   <si>
     <t xml:space="preserve">9.53644180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241764068604</t>
+    <t xml:space="preserve">9.67241668701172</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68148326873779</t>
+    <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
     <t xml:space="preserve">9.75400352478027</t>
@@ -809,25 +809,25 @@
     <t xml:space="preserve">9.79932975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111652374268</t>
+    <t xml:space="preserve">9.49111557006836</t>
   </si>
   <si>
     <t xml:space="preserve">9.34607601165771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35513973236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485782623291</t>
+    <t xml:space="preserve">9.35514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485591888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493885040283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88091278076172</t>
+    <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371875762939</t>
@@ -845,40 +845,40 @@
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90810871124268</t>
+    <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87185001373291</t>
+    <t xml:space="preserve">9.87185096740723</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103359222412</t>
+    <t xml:space="preserve">9.20103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477298736572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046691894531</t>
+    <t xml:space="preserve">9.40046501159668</t>
   </si>
   <si>
     <t xml:space="preserve">9.2735538482666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290519714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981636047363</t>
+    <t xml:space="preserve">9.18290424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981540679932</t>
   </si>
   <si>
     <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48205184936523</t>
+    <t xml:space="preserve">9.48205089569092</t>
   </si>
   <si>
     <t xml:space="preserve">9.1557092666626</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">9.77213382720947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1738395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13757991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
+    <t xml:space="preserve">9.17384052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823143005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.97440814971924</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">9.31887912750244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0440864562988</t>
+    <t xml:space="preserve">10.0440845489502</t>
   </si>
   <si>
     <t xml:space="preserve">10.6061182022095</t>
@@ -917,28 +917,28 @@
     <t xml:space="preserve">10.8418102264404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6423788070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7874193191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049829483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055486679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511587142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242504119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.533597946167</t>
+    <t xml:space="preserve">10.6423778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7874183654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780698776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8055505752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.624249458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335969924927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
@@ -947,22 +947,22 @@
     <t xml:space="preserve">10.2616472244263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797775268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774387359619</t>
+    <t xml:space="preserve">10.2797765731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253866195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774291992188</t>
   </si>
   <si>
     <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93530464172363</t>
+    <t xml:space="preserve">9.93530368804932</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891260147095</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3160362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341665267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8599395751953</t>
+    <t xml:space="preserve">10.3160371780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859938621521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522968292236</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">10.0078248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142406463623</t>
+    <t xml:space="preserve">9.98969554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142311096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363735198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2577676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9452543258667</t>
+    <t xml:space="preserve">9.96363830566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2577657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525337219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.72465801239014</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333824157715</t>
+    <t xml:space="preserve">9.85333919525146</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555534362793</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9011754989624</t>
+    <t xml:space="preserve">10.9011745452881</t>
   </si>
   <si>
     <t xml:space="preserve">10.7908773422241</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827924728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967470169067</t>
+    <t xml:space="preserve">10.882794380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.3129177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393846511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4415969848633</t>
+    <t xml:space="preserve">10.2393856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232149124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805772781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657409667969</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">9.65112590789795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50405979156494</t>
+    <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.48567676544189</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">9.63274097442627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.202618598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496828079224</t>
+    <t xml:space="preserve">10.2026176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010524749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980804443359</t>
+    <t xml:space="preserve">9.89010620117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0371704101562</t>
+    <t xml:space="preserve">10.0371694564819</t>
   </si>
   <si>
     <t xml:space="preserve">9.98202037811279</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">9.7430419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87172222137451</t>
+    <t xml:space="preserve">9.8717212677002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0004043579102</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739374160767</t>
+    <t xml:space="preserve">9.90848922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759380340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627403259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
     <t xml:space="preserve">9.68789196014404</t>
@@ -1154,31 +1154,31 @@
     <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4489107131958</t>
+    <t xml:space="preserve">9.46729564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44890975952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79818916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.669508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
+    <t xml:space="preserve">9.79819011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3753776550293</t>
   </si>
   <si>
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214561462402</t>
+    <t xml:space="preserve">10.459981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">10.9379415512085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621961593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048318862915</t>
+    <t xml:space="preserve">10.6621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048328399658</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864498138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1290855407715</t>
+    <t xml:space="preserve">10.1290874481201</t>
   </si>
   <si>
     <t xml:space="preserve">10.1474685668945</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092603683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.029857635498</t>
+    <t xml:space="preserve">10.8092613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0298566818237</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747076034546</t>
+    <t xml:space="preserve">10.9747085571289</t>
   </si>
   <si>
     <t xml:space="preserve">10.993091583252</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664875030518</t>
+    <t xml:space="preserve">11.3664865493774</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">10.9558753967285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065624237061</t>
+    <t xml:space="preserve">10.8065614700317</t>
   </si>
   <si>
     <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7505693435669</t>
+    <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
     <t xml:space="preserve">10.8812189102173</t>
@@ -1292,37 +1292,37 @@
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892702102661</t>
+    <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586225509644</t>
+    <t xml:space="preserve">10.3772850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959493637085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6012544631958</t>
+    <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
     <t xml:space="preserve">10.4332790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">10.227972984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.2279720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719799041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786581039429</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906442642212</t>
+    <t xml:space="preserve">10.1906433105469</t>
   </si>
   <si>
     <t xml:space="preserve">10.0226669311523</t>
@@ -1370,19 +1370,19 @@
     <t xml:space="preserve">9.63071727752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938163757324</t>
+    <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61205291748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671035766602</t>
+    <t xml:space="preserve">9.44407558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671131134033</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">9.78003120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89201736450195</t>
+    <t xml:space="preserve">9.89201641082764</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">10.0973224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96667385101318</t>
+    <t xml:space="preserve">9.96667289733887</t>
   </si>
   <si>
     <t xml:space="preserve">9.83602523803711</t>
@@ -1415,22 +1415,22 @@
     <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265979766846</t>
+    <t xml:space="preserve">10.4146127700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3399572372437</t>
+    <t xml:space="preserve">10.3399562835693</t>
   </si>
   <si>
     <t xml:space="preserve">10.3026285171509</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92934703826904</t>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40674877166748</t>
+    <t xml:space="preserve">9.19210910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
     <t xml:space="preserve">9.36941909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.350754737854</t>
+    <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609920501709</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">8.4082145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09092426300049</t>
+    <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
     <t xml:space="preserve">7.88561725616455</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">9.1734447479248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16411304473877</t>
+    <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.126784324646</t>
+    <t xml:space="preserve">9.12678527832031</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207164764404</t>
+    <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
     <t xml:space="preserve">9.25743389129639</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144176483154</t>
+    <t xml:space="preserve">9.20144271850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82815837860107</t>
+    <t xml:space="preserve">8.82815742492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.88415241241455</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79083061218262</t>
+    <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77216529846191</t>
+    <t xml:space="preserve">8.77216625213623</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83181095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692949295044</t>
+    <t xml:space="preserve">9.7843132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83180999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692939758301</t>
   </si>
   <si>
     <t xml:space="preserve">10.0217962265015</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442609786987</t>
+    <t xml:space="preserve">10.5442600250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.2592802047729</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">10.2117834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1167898178101</t>
+    <t xml:space="preserve">10.1167907714844</t>
   </si>
   <si>
     <t xml:space="preserve">10.3067770004272</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542728424072</t>
+    <t xml:space="preserve">10.3542737960815</t>
   </si>
   <si>
     <t xml:space="preserve">9.97430038452148</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066722869873</t>
+    <t xml:space="preserve">11.0667238235474</t>
   </si>
   <si>
     <t xml:space="preserve">11.1617164611816</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">11.1142196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2092123031616</t>
+    <t xml:space="preserve">11.2092132568359</t>
   </si>
   <si>
     <t xml:space="preserve">11.0192270278931</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216632843018</t>
+    <t xml:space="preserve">11.9216642379761</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791719436646</t>
+    <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
     <t xml:space="preserve">11.8266706466675</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6341133117676</t>
+    <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
     <t xml:space="preserve">13.014087677002</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">12.8715972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7766036987305</t>
+    <t xml:space="preserve">12.7766027450562</t>
   </si>
   <si>
     <t xml:space="preserve">12.7291069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9190940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.966588973999</t>
+    <t xml:space="preserve">12.919093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665899276733</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090793609619</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315441131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9165229797363</t>
+    <t xml:space="preserve">13.6315431594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">14.0115165710449</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">14.1065101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015047073364</t>
+    <t xml:space="preserve">14.1540069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015037536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.7714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">15.0089473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664560317993</t>
+    <t xml:space="preserve">14.8664569854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.4839115142822</t>
@@ -1841,108 +1841,111 @@
     <t xml:space="preserve">16.3388538360596</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5668392181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5599069595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.293927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088924407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.935676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3967895507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8394451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741697311401</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.2628574371338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5668392181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6808280944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638887405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.673900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549034118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.407919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1281356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277418136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549236297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.743218421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8394451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741697311401</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.3975830078125</t>
   </si>
   <si>
@@ -3312,6 +3315,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5999984741211</t>
   </si>
 </sst>
 </file>
@@ -39551,7 +39557,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1381" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39577,7 +39583,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1382" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39603,7 +39609,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1383" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39629,7 +39635,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1384" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39681,7 +39687,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1386" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39707,7 +39713,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1387" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39733,7 +39739,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1388" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39785,7 +39791,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1390" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39811,7 +39817,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39837,7 +39843,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1392" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39863,7 +39869,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1393" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39889,7 +39895,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1394" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39915,7 +39921,7 @@
         <v>17</v>
       </c>
       <c r="G1395" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39941,7 +39947,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1396" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39967,7 +39973,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1397" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39993,7 +39999,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1398" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40019,7 +40025,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1399" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40045,7 +40051,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1400" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40071,7 +40077,7 @@
         <v>18</v>
       </c>
       <c r="G1401" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40097,7 +40103,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1402" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40123,7 +40129,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1403" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40149,7 +40155,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1404" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40175,7 +40181,7 @@
         <v>18</v>
       </c>
       <c r="G1405" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40201,7 +40207,7 @@
         <v>18</v>
       </c>
       <c r="G1406" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -40227,7 +40233,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G1407" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -40253,7 +40259,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1408" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -40279,7 +40285,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1409" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40305,7 +40311,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1410" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40331,7 +40337,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1411" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40357,7 +40363,7 @@
         <v>18</v>
       </c>
       <c r="G1412" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40383,7 +40389,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1413" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40409,7 +40415,7 @@
         <v>18</v>
       </c>
       <c r="G1414" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40435,7 +40441,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1415" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40461,7 +40467,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40487,7 +40493,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1417" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40513,7 +40519,7 @@
         <v>18.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40539,7 +40545,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40565,7 +40571,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1420" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40591,7 +40597,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1421" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40617,7 +40623,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1422" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40643,7 +40649,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1423" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40669,7 +40675,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1424" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40695,7 +40701,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1425" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40721,7 +40727,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1426" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40747,7 +40753,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1427" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40773,7 +40779,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1428" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40799,7 +40805,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1429" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40825,7 +40831,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1430" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40851,7 +40857,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1431" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40877,7 +40883,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1432" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40903,7 +40909,7 @@
         <v>18.5</v>
       </c>
       <c r="G1433" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40929,7 +40935,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1434" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40955,7 +40961,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1435" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40981,7 +40987,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1436" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41007,7 +41013,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1437" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41033,7 +41039,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1438" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -41059,7 +41065,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1439" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41085,7 +41091,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1440" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41111,7 +41117,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1441" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -41137,7 +41143,7 @@
         <v>19.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -41163,7 +41169,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1443" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -41189,7 +41195,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="G1444" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -41215,7 +41221,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1445" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -41241,7 +41247,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G1446" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -41267,7 +41273,7 @@
         <v>20.5</v>
       </c>
       <c r="G1447" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -41293,7 +41299,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41319,7 +41325,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41345,7 +41351,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1450" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41371,7 +41377,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1451" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41397,7 +41403,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1452" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41423,7 +41429,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41449,7 +41455,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41475,7 +41481,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41501,7 +41507,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1456" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41527,7 +41533,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1457" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41553,7 +41559,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1458" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41579,7 +41585,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1459" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41605,7 +41611,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1460" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41631,7 +41637,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1461" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41657,7 +41663,7 @@
         <v>19</v>
       </c>
       <c r="G1462" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41683,7 +41689,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1463" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41709,7 +41715,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1464" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41735,7 +41741,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1465" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41761,7 +41767,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1466" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41787,7 +41793,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1467" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41813,7 +41819,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G1468" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41839,7 +41845,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1469" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41865,7 +41871,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1470" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41891,7 +41897,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41917,7 +41923,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1472" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41943,7 +41949,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G1473" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41969,7 +41975,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1474" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41995,7 +42001,7 @@
         <v>20</v>
       </c>
       <c r="G1475" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -42021,7 +42027,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1476" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -42047,7 +42053,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1477" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42073,7 +42079,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42099,7 +42105,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G1479" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42125,7 +42131,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1480" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -42151,7 +42157,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1481" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -42177,7 +42183,7 @@
         <v>20</v>
       </c>
       <c r="G1482" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -42203,7 +42209,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1483" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -42229,7 +42235,7 @@
         <v>20</v>
       </c>
       <c r="G1484" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -42255,7 +42261,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1485" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -42281,7 +42287,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1486" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42307,7 +42313,7 @@
         <v>20</v>
       </c>
       <c r="G1487" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42333,7 +42339,7 @@
         <v>20</v>
       </c>
       <c r="G1488" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42359,7 +42365,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1489" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42385,7 +42391,7 @@
         <v>20</v>
       </c>
       <c r="G1490" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42411,7 +42417,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1491" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42437,7 +42443,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1492" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42463,7 +42469,7 @@
         <v>21</v>
       </c>
       <c r="G1493" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42489,7 +42495,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1494" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42515,7 +42521,7 @@
         <v>21.25</v>
       </c>
       <c r="G1495" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42541,7 +42547,7 @@
         <v>21.75</v>
       </c>
       <c r="G1496" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42567,7 +42573,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1497" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42593,7 +42599,7 @@
         <v>22.25</v>
       </c>
       <c r="G1498" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42619,7 +42625,7 @@
         <v>22.5</v>
       </c>
       <c r="G1499" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42645,7 +42651,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1500" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42671,7 +42677,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1501" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42697,7 +42703,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1502" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42723,7 +42729,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42749,7 +42755,7 @@
         <v>22</v>
       </c>
       <c r="G1504" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42775,7 +42781,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1505" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42801,7 +42807,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1506" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42827,7 +42833,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42853,7 +42859,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1508" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42879,7 +42885,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1509" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42905,7 +42911,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1510" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42931,7 +42937,7 @@
         <v>20.25</v>
       </c>
       <c r="G1511" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42957,7 +42963,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1512" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42983,7 +42989,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1513" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43009,7 +43015,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1514" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43035,7 +43041,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1515" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43061,7 +43067,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43087,7 +43093,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1517" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -43113,7 +43119,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1518" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -43139,7 +43145,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1519" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -43165,7 +43171,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1520" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -43191,7 +43197,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1521" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -43217,7 +43223,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1522" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43243,7 +43249,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1523" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -43269,7 +43275,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1524" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -43295,7 +43301,7 @@
         <v>21</v>
       </c>
       <c r="G1525" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43321,7 +43327,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1526" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43347,7 +43353,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1527" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43373,7 +43379,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43399,7 +43405,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1529" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43425,7 +43431,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1530" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43451,7 +43457,7 @@
         <v>20.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43477,7 +43483,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1532" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43503,7 +43509,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43529,7 +43535,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1534" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43555,7 +43561,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43581,7 +43587,7 @@
         <v>20</v>
       </c>
       <c r="G1536" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43607,7 +43613,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1537" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43633,7 +43639,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1538" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43659,7 +43665,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1539" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43685,7 +43691,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43711,7 +43717,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1541" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43737,7 +43743,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1542" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43763,7 +43769,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1543" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43789,7 +43795,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1544" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43815,7 +43821,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1545" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43841,7 +43847,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1546" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43867,7 +43873,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1547" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43893,7 +43899,7 @@
         <v>19</v>
       </c>
       <c r="G1548" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43919,7 +43925,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1549" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43945,7 +43951,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1550" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43971,7 +43977,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1551" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43997,7 +44003,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1552" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -44023,7 +44029,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1553" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44049,7 +44055,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1554" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44075,7 +44081,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1555" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44101,7 +44107,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1556" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44127,7 +44133,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1557" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -44153,7 +44159,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1558" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -44179,7 +44185,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -44205,7 +44211,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1560" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -44231,7 +44237,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1561" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -44257,7 +44263,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1562" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -44283,7 +44289,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1563" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44309,7 +44315,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1564" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44335,7 +44341,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1565" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44361,7 +44367,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1566" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44387,7 +44393,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1567" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44413,7 +44419,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1568" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44439,7 +44445,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1569" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44465,7 +44471,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1570" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44491,7 +44497,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1571" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44517,7 +44523,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1572" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44543,7 +44549,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1573" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44569,7 +44575,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1574" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44595,7 +44601,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1575" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44621,7 +44627,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1576" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44647,7 +44653,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1577" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44673,7 +44679,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1578" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44699,7 +44705,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1579" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44725,7 +44731,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1580" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44751,7 +44757,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1581" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44777,7 +44783,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1582" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44803,7 +44809,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1583" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44829,7 +44835,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1584" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44855,7 +44861,7 @@
         <v>17</v>
       </c>
       <c r="G1585" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44881,7 +44887,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1586" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44907,7 +44913,7 @@
         <v>17.5</v>
       </c>
       <c r="G1587" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44933,7 +44939,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1588" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44959,7 +44965,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44985,7 +44991,7 @@
         <v>16.5</v>
       </c>
       <c r="G1590" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45011,7 +45017,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1591" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45089,7 +45095,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1594" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45115,7 +45121,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1595" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -45167,7 +45173,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1597" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -45219,7 +45225,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1599" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -45245,7 +45251,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1600" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -45271,7 +45277,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1601" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45297,7 +45303,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1602" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45323,7 +45329,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1603" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45349,7 +45355,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1604" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45375,7 +45381,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1605" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45401,7 +45407,7 @@
         <v>15.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45427,7 +45433,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1607" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45453,7 +45459,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45505,7 +45511,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1610" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45557,7 +45563,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1612" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45635,7 +45641,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1615" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45687,7 +45693,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45713,7 +45719,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1618" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45739,7 +45745,7 @@
         <v>16.5</v>
       </c>
       <c r="G1619" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45765,7 +45771,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1620" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45791,7 +45797,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1621" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45817,7 +45823,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45843,7 +45849,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1623" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45869,7 +45875,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1624" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45895,7 +45901,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45921,7 +45927,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1626" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45947,7 +45953,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1627" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45973,7 +45979,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1628" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45999,7 +46005,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1629" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46025,7 +46031,7 @@
         <v>18</v>
       </c>
       <c r="G1630" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46051,7 +46057,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1631" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46077,7 +46083,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1632" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46103,7 +46109,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1633" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46129,7 +46135,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1634" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46155,7 +46161,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1635" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46181,7 +46187,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1636" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46207,7 +46213,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1637" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46233,7 +46239,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1638" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46259,7 +46265,7 @@
         <v>17</v>
       </c>
       <c r="G1639" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46285,7 +46291,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1640" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46311,7 +46317,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G1641" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46337,7 +46343,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1642" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46363,7 +46369,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1643" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46389,7 +46395,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1644" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46415,7 +46421,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G1645" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46441,7 +46447,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G1646" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46467,7 +46473,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1647" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46493,7 +46499,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1648" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46519,7 +46525,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1649" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46545,7 +46551,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1650" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46571,7 +46577,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1651" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46597,7 +46603,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46623,7 +46629,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1653" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46649,7 +46655,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1654" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46675,7 +46681,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46701,7 +46707,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1656" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46727,7 +46733,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1657" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46753,7 +46759,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1658" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46779,7 +46785,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1659" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46805,7 +46811,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1660" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46831,7 +46837,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1661" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46857,7 +46863,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1662" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46883,7 +46889,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1663" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46909,7 +46915,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46935,7 +46941,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1665" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46961,7 +46967,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46987,7 +46993,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1667" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47013,7 +47019,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1668" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47039,7 +47045,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47065,7 +47071,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1670" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47091,7 +47097,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1671" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47117,7 +47123,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47143,7 +47149,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1673" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47169,7 +47175,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1674" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47195,7 +47201,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1675" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47221,7 +47227,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1676" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47247,7 +47253,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1677" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47273,7 +47279,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47299,7 +47305,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G1679" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47325,7 +47331,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1680" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47351,7 +47357,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47377,7 +47383,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47403,7 +47409,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47429,7 +47435,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47455,7 +47461,7 @@
         <v>18</v>
       </c>
       <c r="G1685" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47481,7 +47487,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1686" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47507,7 +47513,7 @@
         <v>18</v>
       </c>
       <c r="G1687" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47533,7 +47539,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1688" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47559,7 +47565,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1689" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47585,7 +47591,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1690" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47611,7 +47617,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1691" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47637,7 +47643,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1692" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47663,7 +47669,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1693" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47689,7 +47695,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1694" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47715,7 +47721,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1695" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47741,7 +47747,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1696" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47767,7 +47773,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1697" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47793,7 +47799,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47819,7 +47825,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1699" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47845,7 +47851,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1700" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47871,7 +47877,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1701" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47897,7 +47903,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1702" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47923,7 +47929,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1703" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47949,7 +47955,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1704" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47975,7 +47981,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1705" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48001,7 +48007,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1706" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48027,7 +48033,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1707" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48053,7 +48059,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1708" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48079,7 +48085,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1709" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48105,7 +48111,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1710" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48131,7 +48137,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1711" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48157,7 +48163,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1712" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48183,7 +48189,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1713" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48209,7 +48215,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48235,7 +48241,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48261,7 +48267,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48287,7 +48293,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1717" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48313,7 +48319,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48339,7 +48345,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48365,7 +48371,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1720" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48391,7 +48397,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48417,7 +48423,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48443,7 +48449,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1723" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48469,7 +48475,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1724" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48495,7 +48501,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G1725" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48521,7 +48527,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1726" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48547,7 +48553,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48573,7 +48579,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1728" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48599,7 +48605,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48625,7 +48631,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1730" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48651,7 +48657,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1731" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48677,7 +48683,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1732" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48703,7 +48709,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48729,7 +48735,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48755,7 +48761,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1735" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48781,7 +48787,7 @@
         <v>18.5</v>
       </c>
       <c r="G1736" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48807,7 +48813,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1737" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48833,7 +48839,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1738" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48859,7 +48865,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48885,7 +48891,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1740" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48911,7 +48917,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1741" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48937,7 +48943,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1742" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48963,7 +48969,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1743" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48989,7 +48995,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49015,7 +49021,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1745" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49041,7 +49047,7 @@
         <v>18.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49067,7 +49073,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1747" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49093,7 +49099,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1748" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49119,7 +49125,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49145,7 +49151,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1750" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49171,7 +49177,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1751" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49197,7 +49203,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1752" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49223,7 +49229,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1753" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49249,7 +49255,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1754" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49275,7 +49281,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49301,7 +49307,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1756" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49327,7 +49333,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49353,7 +49359,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1758" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49379,7 +49385,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49405,7 +49411,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49431,7 +49437,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1761" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49457,7 +49463,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1762" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49483,7 +49489,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1763" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49509,7 +49515,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1764" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49535,7 +49541,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49561,7 +49567,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49587,7 +49593,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49613,7 +49619,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1768" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49639,7 +49645,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1769" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49665,7 +49671,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1770" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49691,7 +49697,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1771" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49717,7 +49723,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1772" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49743,7 +49749,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1773" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49769,7 +49775,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1774" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49795,7 +49801,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1775" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49821,7 +49827,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1776" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49847,7 +49853,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1777" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49873,7 +49879,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49899,7 +49905,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1779" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49925,7 +49931,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49951,7 +49957,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1781" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49977,7 +49983,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50003,7 +50009,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1783" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50029,7 +50035,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1784" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50055,7 +50061,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50081,7 +50087,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G1786" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50107,7 +50113,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1787" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50133,7 +50139,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1788" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50159,7 +50165,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50185,7 +50191,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1790" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50211,7 +50217,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50237,7 +50243,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50263,7 +50269,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50289,7 +50295,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1794" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50315,7 +50321,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50341,7 +50347,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50367,7 +50373,7 @@
         <v>20.25</v>
       </c>
       <c r="G1797" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50393,7 +50399,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50419,7 +50425,7 @@
         <v>20.5</v>
       </c>
       <c r="G1799" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50445,7 +50451,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1800" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50471,7 +50477,7 @@
         <v>20.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50497,7 +50503,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50523,7 +50529,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50549,7 +50555,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50575,7 +50581,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50601,7 +50607,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1806" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50627,7 +50633,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50653,7 +50659,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50679,7 +50685,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50705,7 +50711,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50731,7 +50737,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50757,7 +50763,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50783,7 +50789,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50809,7 +50815,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1814" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50835,7 +50841,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1815" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50861,7 +50867,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50887,7 +50893,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50913,7 +50919,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50939,7 +50945,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50965,7 +50971,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1820" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50991,7 +50997,7 @@
         <v>23</v>
       </c>
       <c r="G1821" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51017,7 +51023,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51043,7 +51049,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51069,7 +51075,7 @@
         <v>24.25</v>
       </c>
       <c r="G1824" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51095,7 +51101,7 @@
         <v>24.25</v>
       </c>
       <c r="G1825" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51121,7 +51127,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51147,7 +51153,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51173,7 +51179,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1828" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51199,7 +51205,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1829" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51225,7 +51231,7 @@
         <v>23.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51251,7 +51257,7 @@
         <v>23.5</v>
       </c>
       <c r="G1831" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51277,7 +51283,7 @@
         <v>23.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51303,7 +51309,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51329,7 +51335,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1834" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51355,7 +51361,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51381,7 +51387,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51407,7 +51413,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1837" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51433,7 +51439,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51459,7 +51465,7 @@
         <v>23</v>
       </c>
       <c r="G1839" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51485,7 +51491,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51511,7 +51517,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51537,7 +51543,7 @@
         <v>23</v>
       </c>
       <c r="G1842" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51563,7 +51569,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51589,7 +51595,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51615,7 +51621,7 @@
         <v>23.5</v>
       </c>
       <c r="G1845" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51641,7 +51647,7 @@
         <v>23.75</v>
       </c>
       <c r="G1846" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51667,7 +51673,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51693,7 +51699,7 @@
         <v>25</v>
       </c>
       <c r="G1848" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51719,7 +51725,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1849" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51745,7 +51751,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51771,7 +51777,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51797,7 +51803,7 @@
         <v>26.25</v>
       </c>
       <c r="G1852" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51823,7 +51829,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1853" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51849,7 +51855,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1854" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51875,7 +51881,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51901,7 +51907,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51927,7 +51933,7 @@
         <v>26</v>
       </c>
       <c r="G1857" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51953,7 +51959,7 @@
         <v>26</v>
       </c>
       <c r="G1858" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51979,7 +51985,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52005,7 +52011,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52031,7 +52037,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52057,7 +52063,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1862" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52083,7 +52089,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52109,7 +52115,7 @@
         <v>26.25</v>
       </c>
       <c r="G1864" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52135,7 +52141,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1865" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52161,7 +52167,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52187,7 +52193,7 @@
         <v>26.5</v>
       </c>
       <c r="G1867" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52213,7 +52219,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52239,7 +52245,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1869" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52265,7 +52271,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1870" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52291,7 +52297,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1871" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52317,7 +52323,7 @@
         <v>26</v>
       </c>
       <c r="G1872" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52343,7 +52349,7 @@
         <v>26</v>
       </c>
       <c r="G1873" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52369,7 +52375,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52395,7 +52401,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52421,7 +52427,7 @@
         <v>26.25</v>
       </c>
       <c r="G1876" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52447,7 +52453,7 @@
         <v>26</v>
       </c>
       <c r="G1877" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52473,7 +52479,7 @@
         <v>26.75</v>
       </c>
       <c r="G1878" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52499,7 +52505,7 @@
         <v>27.25</v>
       </c>
       <c r="G1879" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52525,7 +52531,7 @@
         <v>26.75</v>
       </c>
       <c r="G1880" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52551,7 +52557,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52577,7 +52583,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52603,7 +52609,7 @@
         <v>26.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52629,7 +52635,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52655,7 +52661,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1885" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52681,7 +52687,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52707,7 +52713,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52733,7 +52739,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52759,7 +52765,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52785,7 +52791,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52811,7 +52817,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1891" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52837,7 +52843,7 @@
         <v>25.75</v>
       </c>
       <c r="G1892" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52863,7 +52869,7 @@
         <v>25.25</v>
       </c>
       <c r="G1893" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52889,7 +52895,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52915,7 +52921,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52941,7 +52947,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1896" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52967,7 +52973,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52993,7 +52999,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53019,7 +53025,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53045,7 +53051,7 @@
         <v>25</v>
       </c>
       <c r="G1900" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53071,7 +53077,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1901" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53097,7 +53103,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53123,7 +53129,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53149,7 +53155,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1904" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53175,7 +53181,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1905" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53201,7 +53207,7 @@
         <v>25.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53227,7 +53233,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1907" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53253,7 +53259,7 @@
         <v>26</v>
       </c>
       <c r="G1908" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53279,7 +53285,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53305,7 +53311,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53331,7 +53337,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53357,7 +53363,7 @@
         <v>26.25</v>
       </c>
       <c r="G1912" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53383,7 +53389,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53409,7 +53415,7 @@
         <v>26.25</v>
       </c>
       <c r="G1914" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53435,7 +53441,7 @@
         <v>26.25</v>
       </c>
       <c r="G1915" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53461,7 +53467,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53487,7 +53493,7 @@
         <v>27.25</v>
       </c>
       <c r="G1917" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53513,7 +53519,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53539,7 +53545,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53565,7 +53571,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53591,7 +53597,7 @@
         <v>27</v>
       </c>
       <c r="G1921" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53617,7 +53623,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1922" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53643,7 +53649,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53669,7 +53675,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53695,7 +53701,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53721,7 +53727,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53747,7 +53753,7 @@
         <v>25.75</v>
       </c>
       <c r="G1927" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53773,7 +53779,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53799,7 +53805,7 @@
         <v>26</v>
       </c>
       <c r="G1929" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53825,7 +53831,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1930" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53851,7 +53857,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1931" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53877,7 +53883,7 @@
         <v>25.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53903,7 +53909,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53929,7 +53935,7 @@
         <v>25.25</v>
       </c>
       <c r="G1934" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53955,7 +53961,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53981,7 +53987,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1936" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54007,7 +54013,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54033,7 +54039,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1938" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54059,7 +54065,7 @@
         <v>26.25</v>
       </c>
       <c r="G1939" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54085,7 +54091,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1940" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54111,7 +54117,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54137,7 +54143,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1942" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54163,7 +54169,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54189,7 +54195,7 @@
         <v>26</v>
       </c>
       <c r="G1944" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54215,7 +54221,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54241,7 +54247,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54267,7 +54273,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54293,7 +54299,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54319,7 +54325,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54345,7 +54351,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54371,7 +54377,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54397,7 +54403,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54423,7 +54429,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1953" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54449,7 +54455,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1954" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54475,7 +54481,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1955" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54501,7 +54507,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54527,7 +54533,7 @@
         <v>26</v>
       </c>
       <c r="G1957" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54553,7 +54559,7 @@
         <v>26.25</v>
       </c>
       <c r="G1958" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54579,7 +54585,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1959" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54605,7 +54611,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54631,7 +54637,7 @@
         <v>27.75</v>
       </c>
       <c r="G1961" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54657,7 +54663,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1962" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54683,7 +54689,7 @@
         <v>27.75</v>
       </c>
       <c r="G1963" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54709,7 +54715,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1964" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54735,7 +54741,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54761,7 +54767,7 @@
         <v>27.5</v>
       </c>
       <c r="G1966" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54787,7 +54793,7 @@
         <v>27</v>
       </c>
       <c r="G1967" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54813,7 +54819,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1968" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54839,7 +54845,7 @@
         <v>25.75</v>
       </c>
       <c r="G1969" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54865,7 +54871,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54891,7 +54897,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1971" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54917,7 +54923,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54943,7 +54949,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1973" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54969,7 +54975,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54995,7 +55001,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55021,7 +55027,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55047,7 +55053,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55073,7 +55079,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1978" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55099,7 +55105,7 @@
         <v>26.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55125,7 +55131,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1980" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55151,7 +55157,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1981" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55177,7 +55183,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1982" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55203,7 +55209,7 @@
         <v>26.75</v>
       </c>
       <c r="G1983" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55229,7 +55235,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55255,7 +55261,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1985" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55281,7 +55287,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55307,7 +55313,7 @@
         <v>27.5</v>
       </c>
       <c r="G1987" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55333,7 +55339,7 @@
         <v>27</v>
       </c>
       <c r="G1988" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55359,7 +55365,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55385,7 +55391,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55411,7 +55417,7 @@
         <v>27.75</v>
       </c>
       <c r="G1991" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55437,7 +55443,7 @@
         <v>26.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55463,7 +55469,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55489,7 +55495,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55515,7 +55521,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1995" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55541,7 +55547,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55567,7 +55573,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55593,7 +55599,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55619,7 +55625,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55645,7 +55651,7 @@
         <v>27</v>
       </c>
       <c r="G2000" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55671,7 +55677,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55697,7 +55703,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55723,7 +55729,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55749,7 +55755,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55775,7 +55781,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2005" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55801,7 +55807,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2006" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55827,7 +55833,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55853,7 +55859,7 @@
         <v>27.5</v>
       </c>
       <c r="G2008" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55879,7 +55885,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55905,7 +55911,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G2010" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55931,7 +55937,7 @@
         <v>28.25</v>
       </c>
       <c r="G2011" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55957,7 +55963,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G2012" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55983,7 +55989,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G2013" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56009,7 +56015,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G2014" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56035,7 +56041,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56061,7 +56067,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56087,7 +56093,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G2017" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56113,7 +56119,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G2018" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56139,7 +56145,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G2019" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56165,7 +56171,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56191,7 +56197,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56217,7 +56223,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G2022" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56243,7 +56249,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G2023" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56269,7 +56275,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56295,7 +56301,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56321,7 +56327,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56347,7 +56353,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G2027" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56373,7 +56379,7 @@
         <v>28</v>
       </c>
       <c r="G2028" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56399,7 +56405,7 @@
         <v>27.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56425,7 +56431,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56451,7 +56457,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G2031" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56477,7 +56483,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2032" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56503,7 +56509,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2033" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56529,7 +56535,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2034" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56555,7 +56561,7 @@
         <v>28</v>
       </c>
       <c r="G2035" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56581,7 +56587,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2036" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56607,7 +56613,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2037" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56633,7 +56639,7 @@
         <v>26.5</v>
       </c>
       <c r="G2038" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56659,7 +56665,7 @@
         <v>27</v>
       </c>
       <c r="G2039" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56685,7 +56691,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56711,7 +56717,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56737,7 +56743,7 @@
         <v>27.25</v>
       </c>
       <c r="G2042" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56763,7 +56769,7 @@
         <v>27</v>
       </c>
       <c r="G2043" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56789,7 +56795,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56815,7 +56821,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G2045" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56841,7 +56847,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56867,7 +56873,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56893,7 +56899,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56919,7 +56925,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56945,7 +56951,7 @@
         <v>26.25</v>
       </c>
       <c r="G2050" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56971,7 +56977,7 @@
         <v>26.25</v>
       </c>
       <c r="G2051" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56997,7 +57003,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57023,7 +57029,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57049,7 +57055,7 @@
         <v>26.75</v>
       </c>
       <c r="G2054" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57075,7 +57081,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2055" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57101,7 +57107,7 @@
         <v>26.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57127,7 +57133,7 @@
         <v>26.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57153,7 +57159,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57179,7 +57185,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G2059" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57205,7 +57211,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57231,7 +57237,7 @@
         <v>26.25</v>
       </c>
       <c r="G2061" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57257,7 +57263,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57283,7 +57289,7 @@
         <v>26.75</v>
       </c>
       <c r="G2063" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57309,7 +57315,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57335,7 +57341,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G2065" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57361,7 +57367,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57387,7 +57393,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57413,7 +57419,7 @@
         <v>26.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57439,7 +57445,7 @@
         <v>26</v>
       </c>
       <c r="G2069" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57465,7 +57471,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57491,7 +57497,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57517,7 +57523,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57543,7 +57549,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57569,7 +57575,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57595,7 +57601,7 @@
         <v>28.25</v>
       </c>
       <c r="G2075" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57621,7 +57627,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57647,7 +57653,7 @@
         <v>28.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57673,7 +57679,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2078" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57699,7 +57705,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G2079" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57725,7 +57731,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57751,7 +57757,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57777,7 +57783,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G2082" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57803,7 +57809,7 @@
         <v>29.75</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57829,7 +57835,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57855,7 +57861,7 @@
         <v>30.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57881,7 +57887,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57907,7 +57913,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57933,7 +57939,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57959,7 +57965,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2089" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57985,7 +57991,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58011,7 +58017,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58037,7 +58043,7 @@
         <v>30.1499996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58063,7 +58069,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G2093" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58089,7 +58095,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58115,7 +58121,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58141,7 +58147,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58167,7 +58173,7 @@
         <v>31.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58193,7 +58199,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2098" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58219,7 +58225,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2099" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58245,7 +58251,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58271,7 +58277,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58297,7 +58303,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58323,7 +58329,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58349,7 +58355,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58375,7 +58381,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58401,7 +58407,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58427,7 +58433,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58453,7 +58459,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58479,7 +58485,7 @@
         <v>35</v>
       </c>
       <c r="G2109" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58505,7 +58511,7 @@
         <v>35</v>
       </c>
       <c r="G2110" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58531,7 +58537,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2111" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58557,7 +58563,7 @@
         <v>35.5</v>
       </c>
       <c r="G2112" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58583,7 +58589,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58609,7 +58615,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58635,7 +58641,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58661,7 +58667,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2116" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58687,7 +58693,7 @@
         <v>34.6500015258789</v>
       </c>
       <c r="G2117" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58713,7 +58719,7 @@
         <v>35</v>
       </c>
       <c r="G2118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58739,7 +58745,7 @@
         <v>35.75</v>
       </c>
       <c r="G2119" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58765,7 +58771,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58791,7 +58797,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58817,7 +58823,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58843,7 +58849,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58869,7 +58875,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58895,7 +58901,7 @@
         <v>33.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58921,7 +58927,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58947,7 +58953,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2127" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58973,7 +58979,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58999,7 +59005,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2129" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59025,7 +59031,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59051,7 +59057,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59077,7 +59083,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2132" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59103,7 +59109,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2133" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59129,7 +59135,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59155,7 +59161,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59181,7 +59187,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2136" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59207,7 +59213,7 @@
         <v>31</v>
       </c>
       <c r="G2137" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59233,7 +59239,7 @@
         <v>31</v>
       </c>
       <c r="G2138" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59259,7 +59265,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59285,7 +59291,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59311,7 +59317,7 @@
         <v>32</v>
       </c>
       <c r="G2141" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59337,7 +59343,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59363,7 +59369,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2143" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59389,7 +59395,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G2144" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59415,7 +59421,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2145" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59441,7 +59447,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59467,7 +59473,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2147" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59493,7 +59499,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G2148" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59519,7 +59525,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59545,7 +59551,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59571,7 +59577,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G2151" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59597,7 +59603,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59623,7 +59629,7 @@
         <v>32</v>
       </c>
       <c r="G2153" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59649,7 +59655,7 @@
         <v>32.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59675,7 +59681,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59701,7 +59707,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2156" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59727,7 +59733,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59753,7 +59759,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59779,7 +59785,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2159" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59805,7 +59811,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59831,7 +59837,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59857,7 +59863,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59883,7 +59889,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G2163" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59909,7 +59915,7 @@
         <v>32.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59935,7 +59941,7 @@
         <v>33.25</v>
       </c>
       <c r="G2165" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59961,7 +59967,7 @@
         <v>33.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59987,7 +59993,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60013,7 +60019,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G2168" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60039,7 +60045,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2169" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60065,7 +60071,7 @@
         <v>34.5</v>
       </c>
       <c r="G2170" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60091,7 +60097,7 @@
         <v>35.25</v>
       </c>
       <c r="G2171" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60117,7 +60123,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G2172" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60143,7 +60149,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G2173" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60169,7 +60175,7 @@
         <v>36.25</v>
       </c>
       <c r="G2174" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -60195,7 +60201,7 @@
         <v>35.7999992370605</v>
       </c>
       <c r="G2175" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -60221,7 +60227,7 @@
         <v>35.8499984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -60247,7 +60253,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G2177" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -60255,7 +60261,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6493171296</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>132743</v>
@@ -60273,9 +60279,35 @@
         <v>36.5</v>
       </c>
       <c r="G2178" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6495833333</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>23695</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>35.1500015258789</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>35.5999984741211</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -53,22 +53,22 @@
     <t xml:space="preserve">7.22734069824219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220754623413</t>
+    <t xml:space="preserve">7.1261682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
     <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179599761963</t>
+    <t xml:space="preserve">7.01179647445679</t>
   </si>
   <si>
     <t xml:space="preserve">6.77865695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68628025054932</t>
+    <t xml:space="preserve">6.68627977371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425765991211</t>
@@ -77,109 +77,109 @@
     <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4223484992981</t>
+    <t xml:space="preserve">6.42234802246094</t>
   </si>
   <si>
     <t xml:space="preserve">6.48833131790161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4707350730896</t>
+    <t xml:space="preserve">6.47073554992676</t>
   </si>
   <si>
     <t xml:space="preserve">6.50592660903931</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26398849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879838943481</t>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
     <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
+    <t xml:space="preserve">6.60710048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994426727295</t>
   </si>
   <si>
     <t xml:space="preserve">6.57190942764282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267366409302</t>
+    <t xml:space="preserve">6.56311130523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267414093018</t>
   </si>
   <si>
     <t xml:space="preserve">6.8622350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7830548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338094711304</t>
+    <t xml:space="preserve">6.78305435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343790054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0733814239502</t>
   </si>
   <si>
     <t xml:space="preserve">6.90622329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14376306533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302778244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906660079956</t>
+    <t xml:space="preserve">7.14376258850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581365585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302682876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906707763672</t>
   </si>
   <si>
     <t xml:space="preserve">6.63349390029907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69067907333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103223800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666093826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87983131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701601028442</t>
+    <t xml:space="preserve">6.6906795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786424636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84463930130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666189193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983083724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701553344727</t>
   </si>
   <si>
     <t xml:space="preserve">6.97660541534424</t>
@@ -191,151 +191,151 @@
     <t xml:space="preserve">6.61149930953979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52352237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4971284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185342788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94141435623169</t>
+    <t xml:space="preserve">6.52352142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712944030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94141530990601</t>
   </si>
   <si>
     <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91062211990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91941976547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944776535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5763087272644</t>
+    <t xml:space="preserve">6.91062307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91942024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80944871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57630777359009</t>
   </si>
   <si>
     <t xml:space="preserve">6.43114566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62469625473022</t>
+    <t xml:space="preserve">6.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.73026895523071</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83144330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818988800049</t>
+    <t xml:space="preserve">6.83144283294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818941116333</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343488693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9464282989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429586410522</t>
+    <t xml:space="preserve">7.01343584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29039907455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334722518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121717453003</t>
+    <t xml:space="preserve">7.29039859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695516586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482273101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334770202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609418869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4690842628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121669769287</t>
   </si>
   <si>
     <t xml:space="preserve">7.10724592208862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03577184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1742525100708</t>
+    <t xml:space="preserve">7.03577041625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425203323364</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2725305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391649246216</t>
+    <t xml:space="preserve">7.27253103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.763916015625</t>
   </si>
   <si>
     <t xml:space="preserve">7.77285242080688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682319641113</t>
+    <t xml:space="preserve">7.78178644180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682224273682</t>
   </si>
   <si>
     <t xml:space="preserve">7.68350887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36187267303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531944274902</t>
+    <t xml:space="preserve">7.36187314987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531848907471</t>
   </si>
   <si>
     <t xml:space="preserve">7.62096834182739</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3797435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142217636108</t>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142169952393</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228219985962</t>
@@ -344,58 +344,58 @@
     <t xml:space="preserve">7.59416580200195</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6120343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248720169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146409988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363941192627</t>
+    <t xml:space="preserve">7.61203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363988876343</t>
   </si>
   <si>
     <t xml:space="preserve">6.86155128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81688022613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150840759277</t>
+    <t xml:space="preserve">6.81688117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150793075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101217269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523082733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015119552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761066436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080717086792</t>
+    <t xml:space="preserve">7.41101264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523178100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015071868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269124984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679447174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207815170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761114120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4646167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080812454224</t>
   </si>
   <si>
     <t xml:space="preserve">7.34400510787964</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">7.09384393692017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196081161499</t>
+    <t xml:space="preserve">6.94196033477783</t>
   </si>
   <si>
     <t xml:space="preserve">6.97323131561279</t>
@@ -419,37 +419,37 @@
     <t xml:space="preserve">7.01790237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962480545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8347487449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794668197632</t>
+    <t xml:space="preserve">6.95089483261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962575912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474922180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835477828979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540662765503</t>
+    <t xml:space="preserve">6.74540710449219</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876382827759</t>
+    <t xml:space="preserve">6.96876430511475</t>
   </si>
   <si>
     <t xml:space="preserve">7.08044290542603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95982933044434</t>
+    <t xml:space="preserve">6.95982980728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728927612305</t>
@@ -458,52 +458,52 @@
     <t xml:space="preserve">6.92409229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023790359497</t>
+    <t xml:space="preserve">6.98663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">7.06704139709473</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769784927368</t>
+    <t xml:space="preserve">6.977698802948</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003433227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13404846191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917192459106</t>
+    <t xml:space="preserve">7.00003385543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917335510254</t>
   </si>
   <si>
     <t xml:space="preserve">6.81241321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966958999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823839187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930341720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397590637207</t>
+    <t xml:space="preserve">6.8392162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44163942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42823791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397495269775</t>
   </si>
   <si>
     <t xml:space="preserve">6.53991746902466</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245704650879</t>
+    <t xml:space="preserve">6.60245609283447</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655931472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082275390625</t>
+    <t xml:space="preserve">6.31655883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520210266113</t>
@@ -533,46 +533,46 @@
     <t xml:space="preserve">6.70073413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8526177406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327466964722</t>
+    <t xml:space="preserve">7.10277843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85261821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327514648438</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266204833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871999740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547918319702</t>
+    <t xml:space="preserve">6.71860265731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266157150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17872095108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547966003418</t>
   </si>
   <si>
     <t xml:space="preserve">7.25019454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19212102890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826711654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47802019119263</t>
+    <t xml:space="preserve">7.1921215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826807022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47802066802979</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949331283569</t>
@@ -581,58 +581,58 @@
     <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24126052856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171340942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2993335723877</t>
+    <t xml:space="preserve">7.33953809738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24126005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29933404922485</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740566253662</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4958872795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793252944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063232421875</t>
+    <t xml:space="preserve">7.49588966369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686655044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8979320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063423156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.35358238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39825344085693</t>
+    <t xml:space="preserve">8.39825439453125</t>
   </si>
   <si>
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60821056365967</t>
+    <t xml:space="preserve">8.60821151733398</t>
   </si>
   <si>
     <t xml:space="preserve">8.57694053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939388275146</t>
+    <t xml:space="preserve">8.33571338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939292907715</t>
   </si>
   <si>
     <t xml:space="preserve">8.84496974945068</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">9.3363561630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7913646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88964176177979</t>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90750980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79136371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88963985443115</t>
   </si>
   <si>
     <t xml:space="preserve">8.8002986907959</t>
@@ -683,73 +683,73 @@
     <t xml:space="preserve">9.18447208404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365779876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2916841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.518310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.608962059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672752380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38233661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
+    <t xml:space="preserve">8.90304374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168510437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60896396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38233470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76306819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9534330368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62709140777588</t>
+    <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.42765998840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44579029083252</t>
+    <t xml:space="preserve">9.44579124450684</t>
   </si>
   <si>
     <t xml:space="preserve">9.5908317565918</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615703582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363868713379</t>
+    <t xml:space="preserve">9.86278533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
     <t xml:space="preserve">9.79026412963867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3642053604126</t>
+    <t xml:space="preserve">9.39140129089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36420631408691</t>
   </si>
   <si>
     <t xml:space="preserve">9.30075073242188</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">9.24635982513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29168605804443</t>
+    <t xml:space="preserve">9.29168701171875</t>
   </si>
   <si>
     <t xml:space="preserve">9.33701133728027</t>
@@ -800,64 +800,64 @@
     <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4185962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68148326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400352478027</t>
+    <t xml:space="preserve">9.41859531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68148231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400257110596</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3460750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35514163970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7449369430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091468811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85371875762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839347839355</t>
+    <t xml:space="preserve">9.49111843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35513877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74493789672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85371780395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839538574219</t>
   </si>
   <si>
     <t xml:space="preserve">9.89904308319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4639196395874</t>
+    <t xml:space="preserve">9.46392154693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90810966491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87185001373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7811975479126</t>
+    <t xml:space="preserve">9.90810871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87184906005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
     <t xml:space="preserve">9.20103359222412</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">9.16477394104004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40046501159668</t>
+    <t xml:space="preserve">9.400465965271</t>
   </si>
   <si>
     <t xml:space="preserve">9.2735538482666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290519714355</t>
+    <t xml:space="preserve">9.18290424346924</t>
   </si>
   <si>
     <t xml:space="preserve">9.30981540679932</t>
@@ -881,34 +881,34 @@
     <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48205184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15571022033691</t>
+    <t xml:space="preserve">9.48205089569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
     <t xml:space="preserve">9.66335296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77213382720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17383861541748</t>
+    <t xml:space="preserve">9.77213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
     <t xml:space="preserve">9.1375789642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.191969871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31887912750244</t>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440814971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19197082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31888008117676</t>
   </si>
   <si>
     <t xml:space="preserve">10.0440845489502</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">10.6061191558838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8418092727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423778533936</t>
+    <t xml:space="preserve">10.8418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423768997192</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874183654785</t>
@@ -929,31 +929,31 @@
     <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8780717849731</t>
+    <t xml:space="preserve">10.8780708312988</t>
   </si>
   <si>
     <t xml:space="preserve">10.8055505752563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511606216431</t>
+    <t xml:space="preserve">10.7511596679688</t>
   </si>
   <si>
     <t xml:space="preserve">10.624249458313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.533597946167</t>
+    <t xml:space="preserve">10.5335969924927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2616453170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797775268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253856658936</t>
+    <t xml:space="preserve">10.261646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797765731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253847122192</t>
   </si>
   <si>
     <t xml:space="preserve">9.84465312957764</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0984754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530464172363</t>
+    <t xml:space="preserve">10.0984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530368804932</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891260147095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.297905921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704261779785</t>
+    <t xml:space="preserve">10.2979049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.3160371780396</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078239440918</t>
+    <t xml:space="preserve">10.3522987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078248977661</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969554901123</t>
@@ -1001,28 +1001,28 @@
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2577676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9452543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465801239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55921077728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.96363925933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2577657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525623321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55920886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85334014892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658525466919</t>
+    <t xml:space="preserve">10.1658535003662</t>
   </si>
   <si>
     <t xml:space="preserve">10.3312997817993</t>
@@ -1031,40 +1031,40 @@
     <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5151290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9011764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7908773422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173452377319</t>
+    <t xml:space="preserve">10.5151309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9011754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7908754348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">10.8827924728394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393856048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232168197632</t>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393836975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232149124146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805772781372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415979385376</t>
+    <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50405979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567771911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274097442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2026166915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.349681854248</t>
+    <t xml:space="preserve">9.50406074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.202618598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496837615967</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
@@ -1094,34 +1094,34 @@
     <t xml:space="preserve">10.1107034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2945346832275</t>
+    <t xml:space="preserve">10.2945327758789</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980613708496</t>
+    <t xml:space="preserve">9.89010524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0371704101562</t>
+    <t xml:space="preserve">10.0371694564819</t>
   </si>
   <si>
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87172222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004034042358</t>
+    <t xml:space="preserve">9.7430419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004053115845</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848922729492</t>
+    <t xml:space="preserve">9.59597587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5224437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
     <t xml:space="preserve">9.57759284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70627498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0739364624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154739379883</t>
+    <t xml:space="preserve">9.70627403259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154834747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729373931885</t>
+    <t xml:space="preserve">9.46729469299316</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
@@ -1172,43 +1172,43 @@
     <t xml:space="preserve">9.66950798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37537956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214656829834</t>
+    <t xml:space="preserve">9.37537860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.459981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923185348511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702800750732</t>
+    <t xml:space="preserve">10.5702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048309326172</t>
+    <t xml:space="preserve">10.6621961593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048318862915</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864498138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1290855407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1474676132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210025787354</t>
+    <t xml:space="preserve">10.1290864944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1474685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2210006713867</t>
   </si>
   <si>
     <t xml:space="preserve">10.3680648803711</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092603683472</t>
+    <t xml:space="preserve">10.8092613220215</t>
   </si>
   <si>
     <t xml:space="preserve">11.029857635498</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9930906295776</t>
+    <t xml:space="preserve">10.993091583252</t>
   </si>
   <si>
     <t xml:space="preserve">10.8276424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7541103363037</t>
+    <t xml:space="preserve">10.754111289978</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664875030518</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">11.4224796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238536834717</t>
+    <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
     <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252258300781</t>
+    <t xml:space="preserve">10.9372110366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252267837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558753967285</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8812189102173</t>
+    <t xml:space="preserve">10.881217956543</t>
   </si>
   <si>
     <t xml:space="preserve">10.8625545501709</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892711639404</t>
+    <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772869110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586206436157</t>
+    <t xml:space="preserve">10.3772850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959503173828</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">10.4332780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2279720306396</t>
+    <t xml:space="preserve">10.2279710769653</t>
   </si>
   <si>
     <t xml:space="preserve">10.1719789505005</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906442642212</t>
+    <t xml:space="preserve">10.1906433105469</t>
   </si>
   <si>
     <t xml:space="preserve">10.022665977478</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2466354370117</t>
+    <t xml:space="preserve">10.246636390686</t>
   </si>
   <si>
     <t xml:space="preserve">9.79869556427002</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81735897064209</t>
+    <t xml:space="preserve">9.81736183166504</t>
   </si>
   <si>
     <t xml:space="preserve">9.74270248413086</t>
@@ -1367,19 +1367,19 @@
     <t xml:space="preserve">9.76136779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55606269836426</t>
+    <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938163757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44407558441162</t>
+    <t xml:space="preserve">9.64938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44407653808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.61205387115479</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">9.68671131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70537567138672</t>
+    <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
     <t xml:space="preserve">9.78003120422363</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">9.87335300445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9480094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
+    <t xml:space="preserve">9.94800853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9666748046875</t>
   </si>
   <si>
     <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66804695129395</t>
+    <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146146774292</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026285171509</t>
+    <t xml:space="preserve">10.3026294708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.92934513092041</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5000696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140430450439</t>
+    <t xml:space="preserve">9.51873302459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50006866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140525817871</t>
   </si>
   <si>
     <t xml:space="preserve">9.33209133148193</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35075664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27609825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342697143555</t>
+    <t xml:space="preserve">9.35075569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27609920501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04279708862305</t>
+    <t xml:space="preserve">9.22010707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04279613494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028148651123</t>
@@ -1493,31 +1493,31 @@
     <t xml:space="preserve">8.697509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63218402862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40821361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559947967529</t>
+    <t xml:space="preserve">8.6321849822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4082145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561773300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559852600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227672576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765865325928</t>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765769958496</t>
   </si>
   <si>
     <t xml:space="preserve">7.60565423965454</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079315185547</t>
+    <t xml:space="preserve">9.07079219818115</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077346801758</t>
+    <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
     <t xml:space="preserve">9.17344570159912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16411399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42541217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678527832031</t>
+    <t xml:space="preserve">9.16411304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678623199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747135162354</t>
+    <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415241241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95880699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01480102539062</t>
+    <t xml:space="preserve">8.88415145874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79082870483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018104553223</t>
+    <t xml:space="preserve">8.79083061218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.77216529846191</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">10.0692930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">10.1642875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017696380615</t>
+    <t xml:space="preserve">10.4017705917358</t>
   </si>
   <si>
     <t xml:space="preserve">10.5442600250244</t>
@@ -1628,16 +1628,16 @@
     <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2117824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3067770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4492673873901</t>
+    <t xml:space="preserve">10.2117834091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167898178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3067779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
     <t xml:space="preserve">10.3542737960815</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">11.3042058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2567100524902</t>
+    <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
     <t xml:space="preserve">11.066722869873</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.114218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092132568359</t>
+    <t xml:space="preserve">11.1142206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092142105103</t>
   </si>
   <si>
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717302322388</t>
+    <t xml:space="preserve">10.9717292785645</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292398452759</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">11.7316770553589</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8741674423218</t>
+    <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
     <t xml:space="preserve">11.9216632843018</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116495132446</t>
+    <t xml:space="preserve">12.1116514205933</t>
   </si>
   <si>
     <t xml:space="preserve">12.3966302871704</t>
@@ -1721,43 +1721,43 @@
     <t xml:space="preserve">12.6816110610962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6341142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0140867233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766027450562</t>
+    <t xml:space="preserve">12.6341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0140857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">12.7291069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.919093132019</t>
+    <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
     <t xml:space="preserve">12.9665899276733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1090793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5840463638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640197753906</t>
+    <t xml:space="preserve">13.1090803146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990674972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5840473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640188217163</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740335464478</t>
+    <t xml:space="preserve">13.7740345001221</t>
   </si>
   <si>
     <t xml:space="preserve">13.6315450668335</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065092086792</t>
+    <t xml:space="preserve">14.1065111160278</t>
   </si>
   <si>
     <t xml:space="preserve">14.1540069580078</t>
@@ -1784,37 +1784,37 @@
     <t xml:space="preserve">14.2489995956421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.391489982605</t>
+    <t xml:space="preserve">14.3914890289307</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814762115479</t>
+    <t xml:space="preserve">14.5814781188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4389867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5339803695679</t>
+    <t xml:space="preserve">14.438985824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5339794158936</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764707565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7239675521851</t>
+    <t xml:space="preserve">14.6764698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
     <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664569854736</t>
+    <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
     <t xml:space="preserve">15.4839124679565</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868667602539</t>
+    <t xml:space="preserve">16.1868648529053</t>
   </si>
   <si>
     <t xml:space="preserve">16.2248611450195</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5288410186768</t>
+    <t xml:space="preserve">16.5288429260254</t>
   </si>
   <si>
     <t xml:space="preserve">16.5478401184082</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.034875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588794708252</t>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588785171509</t>
   </si>
   <si>
     <t xml:space="preserve">16.1108703613281</t>
@@ -1880,37 +1880,37 @@
     <t xml:space="preserve">15.8638887405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6738986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549005508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448877334595</t>
+    <t xml:space="preserve">15.6738996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.654899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448896408081</t>
   </si>
   <si>
     <t xml:space="preserve">15.4079189300537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6169061660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258867263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068904876709</t>
+    <t xml:space="preserve">15.6169033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068895339966</t>
   </si>
   <si>
     <t xml:space="preserve">15.559907913208</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2939262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699207305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208812713623</t>
+    <t xml:space="preserve">15.293927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208822250366</t>
   </si>
   <si>
     <t xml:space="preserve">16.1281356811523</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">16.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7624635696411</t>
+    <t xml:space="preserve">15.7624626159668</t>
   </si>
   <si>
     <t xml:space="preserve">15.6277418136597</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">15.935676574707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9549226760864</t>
+    <t xml:space="preserve">15.9549236297607</t>
   </si>
   <si>
     <t xml:space="preserve">15.7432165145874</t>
@@ -1943,22 +1943,22 @@
     <t xml:space="preserve">15.8394460678101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9741697311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
+    <t xml:space="preserve">15.9741687774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
     <t xml:space="preserve">16.3975811004639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3783359527588</t>
+    <t xml:space="preserve">16.3783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.6092872619629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5900382995605</t>
+    <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
     <t xml:space="preserve">16.6862697601318</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">17.2828941345215</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6678161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7063064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9180164337158</t>
+    <t xml:space="preserve">17.667818069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7063083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983707427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3021411895752</t>
+    <t xml:space="preserve">17.3983726501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3021392822266</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674213409424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6100788116455</t>
+    <t xml:space="preserve">17.6100769042969</t>
   </si>
   <si>
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334892272949</t>
+    <t xml:space="preserve">17.8602733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334911346436</t>
   </si>
   <si>
     <t xml:space="preserve">18.0142440795898</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916233062744</t>
+    <t xml:space="preserve">18.591625213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.880313873291</t>
+    <t xml:space="preserve">18.8803157806396</t>
   </si>
   <si>
     <t xml:space="preserve">18.976541519165</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">19.6790237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">20.063943862915</t>
+    <t xml:space="preserve">20.0639419555664</t>
   </si>
   <si>
     <t xml:space="preserve">20.1601715087891</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">19.3422164916992</t>
   </si>
   <si>
-    <t xml:space="preserve">18.95729637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3903312683105</t>
+    <t xml:space="preserve">18.9572982788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8610668182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3903331756592</t>
   </si>
   <si>
     <t xml:space="preserve">19.2940998077393</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">18.9380512237549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0719814300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2836856842041</t>
+    <t xml:space="preserve">18.0719833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2836875915527</t>
   </si>
   <si>
     <t xml:space="preserve">17.7832908630371</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">18.264440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.169002532959</t>
+    <t xml:space="preserve">19.1690044403076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0535278320312</t>
+    <t xml:space="preserve">19.0535259246826</t>
   </si>
   <si>
     <t xml:space="preserve">19.1112651824951</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4007453918457</t>
+    <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
     <t xml:space="preserve">20.448860168457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9300098419189</t>
+    <t xml:space="preserve">20.9300117492676</t>
   </si>
   <si>
     <t xml:space="preserve">21.1224708557129</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">21.1705856323242</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0158271789551</t>
+    <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
     <t xml:space="preserve">20.5932064056396</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1120548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">20.352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1120567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.168212890625</t>
+    <t xml:space="preserve">18.1682109832764</t>
   </si>
   <si>
     <t xml:space="preserve">18.3029346466064</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">18.2259483337402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2451953887939</t>
+    <t xml:space="preserve">18.2451934814453</t>
   </si>
   <si>
     <t xml:space="preserve">17.764045715332</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749603271484</t>
+    <t xml:space="preserve">16.9749584197998</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825031280518</t>
+    <t xml:space="preserve">16.7825012207031</t>
   </si>
   <si>
     <t xml:space="preserve">15.4160356521606</t>
@@ -2294,37 +2294,37 @@
     <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6269502639771</t>
+    <t xml:space="preserve">14.6269493103027</t>
   </si>
   <si>
     <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1273460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2235765457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8202028274536</t>
+    <t xml:space="preserve">15.127345085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.223575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.820200920105</t>
   </si>
   <si>
     <t xml:space="preserve">15.2813129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7247619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8402366638184</t>
+    <t xml:space="preserve">16.1858768463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.840238571167</t>
   </si>
   <si>
     <t xml:space="preserve">16.6670246124268</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8779373168945</t>
+    <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
     <t xml:space="preserve">16.0319061279297</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">15.6469879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">15.108099937439</t>
+    <t xml:space="preserve">15.1080989837646</t>
   </si>
   <si>
     <t xml:space="preserve">15.4737739562988</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311155319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7817087173462</t>
+    <t xml:space="preserve">15.0311164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7817106246948</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3775424957275</t>
+    <t xml:space="preserve">15.3775434494019</t>
   </si>
   <si>
     <t xml:space="preserve">15.2428216934204</t>
@@ -60409,7 +60409,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6495138889</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>11203</v>
@@ -60430,6 +60430,32 @@
         <v>1107</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6493287037</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>14987</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>34.4500007629395</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414422988892</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373363494873</t>
+    <t xml:space="preserve">7.20534658432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373411178589</t>
   </si>
   <si>
     <t xml:space="preserve">7.22734117507935</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">6.96780824661255</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179647445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865552902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68627977371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425765991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636425018311</t>
+    <t xml:space="preserve">7.01179599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
     <t xml:space="preserve">6.4223484992981</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">6.47073602676392</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50592660903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398897171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2287974357605</t>
+    <t xml:space="preserve">6.50592613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
     <t xml:space="preserve">6.51912307739258</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">6.60710096359253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43994426727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311178207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223602294922</t>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86223554611206</t>
   </si>
   <si>
     <t xml:space="preserve">6.78305530548096</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">6.85343742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07338047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622282028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376258850098</t>
+    <t xml:space="preserve">7.07338094711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9062237739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376211166382</t>
   </si>
   <si>
     <t xml:space="preserve">6.94581317901611</t>
@@ -137,67 +137,67 @@
     <t xml:space="preserve">7.02939224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256071090698</t>
+    <t xml:space="preserve">7.15256023406982</t>
   </si>
   <si>
     <t xml:space="preserve">6.79625225067139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89302730560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906707763672</t>
+    <t xml:space="preserve">6.89302635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7390661239624</t>
   </si>
   <si>
     <t xml:space="preserve">6.63349437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69067859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463930130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024095535278</t>
+    <t xml:space="preserve">6.69067907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786424636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84464025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024047851562</t>
   </si>
   <si>
     <t xml:space="preserve">6.87543153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103319168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87983131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466777801514</t>
+    <t xml:space="preserve">6.87103366851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783672332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666189193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983083724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9370174407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660541534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.61149883270264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.523521900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712991714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185247421265</t>
+    <t xml:space="preserve">6.52352237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712944030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141435623169</t>
@@ -209,115 +209,115 @@
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91942024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944871902466</t>
+    <t xml:space="preserve">6.91941976547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80944776535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114614486694</t>
+    <t xml:space="preserve">6.43114566802979</t>
   </si>
   <si>
     <t xml:space="preserve">6.62469625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73026847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144330978394</t>
+    <t xml:space="preserve">6.73026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381954193115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03819036483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00450134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343536376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642734527588</t>
+    <t xml:space="preserve">7.03818988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0045018196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343488693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
     <t xml:space="preserve">6.96429634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40654468536377</t>
+    <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
     <t xml:space="preserve">7.29039907455444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695516586304</t>
+    <t xml:space="preserve">7.4869532585144</t>
   </si>
   <si>
     <t xml:space="preserve">7.50482225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43334817886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613563537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908569335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121812820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9330267906189</t>
+    <t xml:space="preserve">7.43334722518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609228134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577041625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425203323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302726745605</t>
   </si>
   <si>
     <t xml:space="preserve">7.27253103256226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781518936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6388373374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391792297363</t>
+    <t xml:space="preserve">7.43781471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391744613647</t>
   </si>
   <si>
     <t xml:space="preserve">7.77285194396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178644180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817993164062</t>
+    <t xml:space="preserve">7.78178596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817945480347</t>
   </si>
   <si>
     <t xml:space="preserve">8.11682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68350839614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187362670898</t>
+    <t xml:space="preserve">7.68350982666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187410354614</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810689926147</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62096977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974262237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228219985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203479766846</t>
+    <t xml:space="preserve">7.62096834182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629632949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416484832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203527450562</t>
   </si>
   <si>
     <t xml:space="preserve">7.48248624801636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28146457672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363988876343</t>
+    <t xml:space="preserve">7.28146505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05364036560059</t>
   </si>
   <si>
     <t xml:space="preserve">6.8615517616272</t>
@@ -365,43 +365,43 @@
     <t xml:space="preserve">7.07150840759277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33507108688354</t>
+    <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
     <t xml:space="preserve">7.41101264953613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53162670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523082733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4601526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207815170288</t>
+    <t xml:space="preserve">7.53162622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5852313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015214920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269077301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679447174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
     <t xml:space="preserve">7.39761018753052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4646167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720066070557</t>
+    <t xml:space="preserve">7.46461820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785902023315</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01790285110474</t>
+    <t xml:space="preserve">6.94196033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01790237426758</t>
   </si>
   <si>
     <t xml:space="preserve">6.95089530944824</t>
@@ -425,82 +425,82 @@
     <t xml:space="preserve">7.02237033843994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91962575912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474969863892</t>
+    <t xml:space="preserve">6.9196252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835525512695</t>
+    <t xml:space="preserve">6.88835477828979</t>
   </si>
   <si>
     <t xml:space="preserve">6.74540615081787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8794207572937</t>
+    <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
     <t xml:space="preserve">6.96876382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08044338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982980728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89728879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9240927696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663187026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98216485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003480911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13404846191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917287826538</t>
+    <t xml:space="preserve">7.08044290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95982933044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98216581344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003385543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
     <t xml:space="preserve">6.81241321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966911315918</t>
+    <t xml:space="preserve">6.8392162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966863632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42823791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717193603516</t>
+    <t xml:space="preserve">6.42823934555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717288970947</t>
   </si>
   <si>
     <t xml:space="preserve">6.46397542953491</t>
@@ -509,79 +509,79 @@
     <t xml:space="preserve">6.5399169921875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53544950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204847335815</t>
+    <t xml:space="preserve">6.53544998168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52204895019531</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655931472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082180023193</t>
+    <t xml:space="preserve">6.31655979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520162582397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70073413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277891159058</t>
+    <t xml:space="preserve">6.70073461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277843475342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8526177406311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76327562332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064790725708</t>
+    <t xml:space="preserve">6.76327514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774168014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064647674561</t>
   </si>
   <si>
     <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41547870635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019502639771</t>
+    <t xml:space="preserve">7.41547918319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019407272339</t>
   </si>
   <si>
     <t xml:space="preserve">7.19212198257446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25913000106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47801971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54949426651001</t>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826902389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47801923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54949522018433</t>
   </si>
   <si>
     <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953905105591</t>
+    <t xml:space="preserve">7.33953809738159</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126052856445</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740613937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588823318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686750411987</t>
+    <t xml:space="preserve">7.35740566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588775634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686702728271</t>
   </si>
   <si>
     <t xml:space="preserve">7.89793252944946</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">8.39825248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11299991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571434020996</t>
+    <t xml:space="preserve">9.11299896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60821151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57693958282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571338653564</t>
   </si>
   <si>
     <t xml:space="preserve">9.00578689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66628360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939102172852</t>
+    <t xml:space="preserve">8.66628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939388275146</t>
   </si>
   <si>
     <t xml:space="preserve">8.84496974945068</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6490592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33635711669922</t>
+    <t xml:space="preserve">9.64905738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33635807037354</t>
   </si>
   <si>
     <t xml:space="preserve">9.10406494140625</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">8.7913646697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898292541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88964080810547</t>
+    <t xml:space="preserve">9.06832790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8896427154541</t>
   </si>
   <si>
     <t xml:space="preserve">8.80029773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86283779144287</t>
+    <t xml:space="preserve">8.86283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.7556266784668</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">8.83603477478027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18447399139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304279327393</t>
+    <t xml:space="preserve">9.18447208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365589141846</t>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.518310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.608962059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924587249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38233661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64522361755371</t>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60896301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3823356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64522171020508</t>
   </si>
   <si>
     <t xml:space="preserve">9.76306915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95343494415283</t>
+    <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151838302612</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">10.1528654098511</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97156429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83558940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6542854309082</t>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558750152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737617492676</t>
@@ -749,79 +749,79 @@
     <t xml:space="preserve">9.42766094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44579124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59083271026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
+    <t xml:space="preserve">9.44579219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083080291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5545711517334</t>
+    <t xml:space="preserve">9.86278438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55457210540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56363868713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140129089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36420631408691</t>
+    <t xml:space="preserve">9.56363677978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3642053604126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24636077880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644180297852</t>
+    <t xml:space="preserve">9.24635982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
     <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41859722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68148136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400352478027</t>
+    <t xml:space="preserve">9.41859531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68148231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400257110596</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3460750579834</t>
+    <t xml:space="preserve">9.49111652374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34607601165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.35513973236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37327003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485687255859</t>
+    <t xml:space="preserve">9.37327098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485782623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493789672852</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371875762939</t>
+    <t xml:space="preserve">9.85371780395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839347839355</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">9.89904403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46392154693604</t>
+    <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811061859131</t>
+    <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
@@ -857,70 +857,70 @@
     <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20103359222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477298736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40046691894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2735538482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981636047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5001802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15571022033691</t>
+    <t xml:space="preserve">9.20103454589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477394104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.400465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355575561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.309814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205089569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
     <t xml:space="preserve">9.66335201263428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77213382720947</t>
+    <t xml:space="preserve">9.77213287353516</t>
   </si>
   <si>
     <t xml:space="preserve">9.17383861541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823143005371</t>
+    <t xml:space="preserve">9.1375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.97440814971924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19196796417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31888103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418102264404</t>
+    <t xml:space="preserve">9.19197082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440855026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418092727661</t>
   </si>
   <si>
     <t xml:space="preserve">10.6423788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874193191528</t>
+    <t xml:space="preserve">10.7874183654785</t>
   </si>
   <si>
     <t xml:space="preserve">11.0049819946289</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">10.8055505752563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511587142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.624249458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335988998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248189926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.261646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797775268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93530559539795</t>
+    <t xml:space="preserve">10.7511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.533597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891260147095</t>
@@ -974,79 +974,79 @@
     <t xml:space="preserve">10.3704261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3160371780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341674804688</t>
+    <t xml:space="preserve">10.3160362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341655731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078258514404</t>
+    <t xml:space="preserve">10.3522968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078239440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76142406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8349552154541</t>
+    <t xml:space="preserve">9.76142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.96363735198975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9452543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465801239014</t>
+    <t xml:space="preserve">10.2577667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465705871582</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333919525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.055552482605</t>
+    <t xml:space="preserve">9.85334014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3312997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.478364944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5151309967041</t>
+    <t xml:space="preserve">10.331298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4783630371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908763885498</t>
+    <t xml:space="preserve">10.7908773422241</t>
   </si>
   <si>
     <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967489242554</t>
+    <t xml:space="preserve">10.882791519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.3129167556763</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4415969848633</t>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112495422363</t>
+    <t xml:space="preserve">9.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63274097442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2026176452637</t>
+    <t xml:space="preserve">9.6327428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187873840332</t>
+    <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107034683228</t>
@@ -1094,34 +1094,34 @@
     <t xml:space="preserve">10.2945337295532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1842346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89010429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0371694564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98202133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7430419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87172031402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004034042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54082679748535</t>
+    <t xml:space="preserve">10.1842355728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89010524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0371704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98202037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74304103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87172222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54082584381104</t>
   </si>
   <si>
     <t xml:space="preserve">9.28346347808838</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">9.59597587585449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5224437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627403259277</t>
+    <t xml:space="preserve">9.52244281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848731994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759380340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627498626709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68789196014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19154739379883</t>
+    <t xml:space="preserve">9.68789100646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19154644012451</t>
   </si>
   <si>
     <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44891166687012</t>
+    <t xml:space="preserve">9.46729469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44890975952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
@@ -1169,103 +1169,103 @@
     <t xml:space="preserve">9.669508934021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37538051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831249237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.459981918335</t>
+    <t xml:space="preserve">9.37537860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0923194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702810287476</t>
+    <t xml:space="preserve">10.0923185348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048318862915</t>
+    <t xml:space="preserve">10.6621961593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048299789429</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864488601685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1290855407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1474695205688</t>
+    <t xml:space="preserve">10.1290864944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
     <t xml:space="preserve">10.221001625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761507034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724943161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8092603683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.029857635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1217746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7541103363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664884567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985101699829</t>
+    <t xml:space="preserve">10.3680658340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724952697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8092594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0298566818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1217737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747076034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276414871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.754111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664875030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358388900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985092163086</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185466766357</t>
+    <t xml:space="preserve">11.4224805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238527297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372119903564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8252258300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558744430542</t>
+    <t xml:space="preserve">10.8252267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558753967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065624237061</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7505693435669</t>
+    <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
     <t xml:space="preserve">10.8812189102173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8625545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6572494506836</t>
+    <t xml:space="preserve">10.8625555038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.899884223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892711639404</t>
+    <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
@@ -1301,49 +1301,49 @@
     <t xml:space="preserve">10.3772859573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.35862159729</t>
+    <t xml:space="preserve">10.3586225509644</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959493637085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6012544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.227972984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719799041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0786600112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0226650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533725738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2653007507324</t>
+    <t xml:space="preserve">10.6012554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719789505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0786581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022665977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2653017044067</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.246636390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">10.2466354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.1159868240356</t>
@@ -1361,34 +1361,34 @@
     <t xml:space="preserve">9.74270343780518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76136779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55606174468994</t>
+    <t xml:space="preserve">9.76136684417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55606269836426</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938354492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44407653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61205387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671131134033</t>
+    <t xml:space="preserve">9.64938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44407558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6120548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671035766602</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003025054932</t>
+    <t xml:space="preserve">9.78003215789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.89201736450195</t>
@@ -1397,100 +1397,100 @@
     <t xml:space="preserve">10.3212938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335300445557</t>
+    <t xml:space="preserve">9.87335205078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667289733887</t>
+    <t xml:space="preserve">10.0973234176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667385101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66804695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265979766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4706058502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3399562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72403907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5187349319458</t>
+    <t xml:space="preserve">9.66804599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.470606803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.339958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72404003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
     <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48140430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209133148193</t>
+    <t xml:space="preserve">9.48140525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209037780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40674686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36941909790039</t>
+    <t xml:space="preserve">9.19211101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40674781799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36942005157471</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342697143555</t>
+    <t xml:space="preserve">9.27609729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05212783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22010517120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04279518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90281581878662</t>
+    <t xml:space="preserve">9.10812091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05212879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22010707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04279613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6321849822998</t>
+    <t xml:space="preserve">8.63218402862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.43621063232422</t>
@@ -1499,34 +1499,34 @@
     <t xml:space="preserve">8.4082145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09092330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561677932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559852600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93227767944336</t>
+    <t xml:space="preserve">8.09092235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9322772026062</t>
   </si>
   <si>
     <t xml:space="preserve">7.57765817642212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60565328598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079315185547</t>
+    <t xml:space="preserve">7.60565423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079410552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810218811035</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">9.17344570159912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16411399841309</t>
+    <t xml:space="preserve">9.16411304473877</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541217803955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207164764404</t>
+    <t xml:space="preserve">9.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
     <t xml:space="preserve">9.2574348449707</t>
@@ -1559,34 +1559,34 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86548614501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97747135162354</t>
+    <t xml:space="preserve">9.20144176483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86548709869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415145874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9588098526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01480007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71617412567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7908296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66018009185791</t>
+    <t xml:space="preserve">8.88415050506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01480102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79082870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66018104553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.77216529846191</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681735992432</t>
+    <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
     <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83180999755859</t>
+    <t xml:space="preserve">9.83181095123291</t>
   </si>
   <si>
     <t xml:space="preserve">10.0692939758301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217971801758</t>
+    <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1616,37 +1616,37 @@
     <t xml:space="preserve">10.1642866134644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017696380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2117824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1167888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3067779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4492673873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3542737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97429943084717</t>
+    <t xml:space="preserve">10.4017705917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5442609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592802047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2117834091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1167898178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3067770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4492664337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3542728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917568206787</t>
+    <t xml:space="preserve">10.5917558670044</t>
   </si>
   <si>
     <t xml:space="preserve">10.639253616333</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0667238235474</t>
+    <t xml:space="preserve">11.066722869873</t>
   </si>
   <si>
     <t xml:space="preserve">11.1617164611816</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1142196655273</t>
+    <t xml:space="preserve">10.9242334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1142206192017</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8292398452759</t>
+    <t xml:space="preserve">10.8292388916016</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342462539673</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6366834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7316770553589</t>
+    <t xml:space="preserve">11.636682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7316761016846</t>
   </si>
   <si>
     <t xml:space="preserve">11.8741664886475</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791719436646</t>
+    <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
     <t xml:space="preserve">11.8266706466675</t>
@@ -1712,37 +1712,37 @@
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6341142654419</t>
+    <t xml:space="preserve">12.3966302871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6341133117676</t>
   </si>
   <si>
     <t xml:space="preserve">13.0140867233276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8715972900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766027450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.919093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.966588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990674972534</t>
+    <t xml:space="preserve">12.8715963363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7291059494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090803146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
     <t xml:space="preserve">13.5840463638306</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
+    <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
     <t xml:space="preserve">13.6315441131592</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540069580078</t>
+    <t xml:space="preserve">14.1065111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540050506592</t>
   </si>
   <si>
     <t xml:space="preserve">14.2015037536621</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3914909362793</t>
+    <t xml:space="preserve">14.2490005493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
     <t xml:space="preserve">14.343994140625</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8189601898193</t>
+    <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
     <t xml:space="preserve">14.4389867782593</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764698028564</t>
+    <t xml:space="preserve">14.6764707565308</t>
   </si>
   <si>
     <t xml:space="preserve">14.7239665985107</t>
@@ -1811,22 +1811,22 @@
     <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9139528274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9614515304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0089473724365</t>
+    <t xml:space="preserve">14.9139537811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614496231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113836288452</t>
+    <t xml:space="preserve">15.4839124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113826751709</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
@@ -1838,28 +1838,28 @@
     <t xml:space="preserve">16.2248630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288391113281</t>
+    <t xml:space="preserve">16.3388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288410186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.5478382110596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5668392181396</t>
+    <t xml:space="preserve">16.5668411254883</t>
   </si>
   <si>
     <t xml:space="preserve">16.6808280944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4148483276367</t>
+    <t xml:space="preserve">16.4148502349854</t>
   </si>
   <si>
     <t xml:space="preserve">16.0728740692139</t>
@@ -1874,61 +1874,61 @@
     <t xml:space="preserve">16.1108684539795</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8638887405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549005508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6169033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
+    <t xml:space="preserve">15.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258905410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559907913208</t>
   </si>
   <si>
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208850860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
+    <t xml:space="preserve">15.3699226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624626159668</t>
   </si>
   <si>
     <t xml:space="preserve">15.6277408599854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432174682617</t>
+    <t xml:space="preserve">15.9356746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394451141357</t>
+    <t xml:space="preserve">15.8394460678101</t>
   </si>
   <si>
     <t xml:space="preserve">15.9741678237915</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3975830078125</t>
+    <t xml:space="preserve">16.3975811004639</t>
   </si>
   <si>
     <t xml:space="preserve">16.3783340454102</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">17.3213882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1096820831299</t>
+    <t xml:space="preserve">17.1096839904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.3791255950928</t>
@@ -1982,28 +1982,28 @@
     <t xml:space="preserve">17.4753570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24440574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9942054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8979759216309</t>
+    <t xml:space="preserve">17.2444038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9942073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8979740142822</t>
   </si>
   <si>
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6678161621094</t>
+    <t xml:space="preserve">17.2828941345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.667818069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180164337158</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561100006104</t>
+    <t xml:space="preserve">17.4561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983726501465</t>
+    <t xml:space="preserve">17.3983707427979</t>
   </si>
   <si>
     <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1674194335938</t>
+    <t xml:space="preserve">17.1674213409424</t>
   </si>
   <si>
     <t xml:space="preserve">17.6100769042969</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602733612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334873199463</t>
+    <t xml:space="preserve">17.8602752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1874561309814</t>
+    <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916233062744</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">18.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263450622559</t>
+    <t xml:space="preserve">18.7263431549072</t>
   </si>
   <si>
     <t xml:space="preserve">18.880313873291</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">19.6790218353271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0639400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">20.0639419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">19.3903312683105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2940998077393</t>
+    <t xml:space="preserve">19.2941017150879</t>
   </si>
   <si>
     <t xml:space="preserve">18.9380512237549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
+    <t xml:space="preserve">18.2644424438477</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">18.1297187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3414249420166</t>
+    <t xml:space="preserve">18.341423034668</t>
   </si>
   <si>
     <t xml:space="preserve">19.169002532959</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1112651824951</t>
+    <t xml:space="preserve">19.1112670898438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082843780518</t>
+    <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.304515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4865627288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4384460449219</t>
+    <t xml:space="preserve">20.5932064056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3045139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4865608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4384479522705</t>
   </si>
   <si>
     <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8233680725098</t>
+    <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">20.3526306152344</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2067012786865</t>
+    <t xml:space="preserve">19.1882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682109832764</t>
@@ -2237,16 +2237,16 @@
     <t xml:space="preserve">18.2259502410889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2451934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.764045715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4176197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2059116363525</t>
+    <t xml:space="preserve">18.2451953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7640438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4176177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2059097290039</t>
   </si>
   <si>
     <t xml:space="preserve">16.4360733032227</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749584197998</t>
+    <t xml:space="preserve">16.9749603271484</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2273,25 +2273,25 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4553203582764</t>
+    <t xml:space="preserve">16.4553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825012207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160356521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.011869430542</t>
+    <t xml:space="preserve">16.7825031280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.416036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.6269502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5122661590576</t>
+    <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
     <t xml:space="preserve">15.1273460388184</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.820200920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2813138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0896434783936</t>
+    <t xml:space="preserve">15.8202028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2813129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0896453857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.840238571167</t>
+    <t xml:space="preserve">16.8402366638184</t>
   </si>
   <si>
     <t xml:space="preserve">16.6670246124268</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8779382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0319061279297</t>
+    <t xml:space="preserve">15.8779392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0319080352783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.7817096710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3775434494019</t>
+    <t xml:space="preserve">15.3775424957275</t>
   </si>
   <si>
     <t xml:space="preserve">15.2428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1513595581055</t>
+    <t xml:space="preserve">16.1513614654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466606140137</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">16.5029010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1904182434082</t>
+    <t xml:space="preserve">16.1904201507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880706787109</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">16.4247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6200828552246</t>
+    <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
     <t xml:space="preserve">16.9325618743896</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">16.0927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5068683624268</t>
+    <t xml:space="preserve">15.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">15.5849876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3115673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725067138672</t>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4678077697754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7607574462891</t>
+    <t xml:space="preserve">15.7607583999634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0341796875</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">15.7998189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0146484375</t>
+    <t xml:space="preserve">16.0146503448486</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614910125732</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">16.5810203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8584079742432</t>
+    <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
     <t xml:space="preserve">16.2099494934082</t>
@@ -2489,22 +2489,22 @@
     <t xml:space="preserve">16.8349113464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6591415405273</t>
+    <t xml:space="preserve">16.6591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">17.0692710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6942367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4989356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3622226715088</t>
+    <t xml:space="preserve">17.6942348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4989337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3622245788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4794044494629</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">17.2059841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9911518096924</t>
+    <t xml:space="preserve">16.991153717041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4012832641602</t>
@@ -2531,10 +2531,10 @@
     <t xml:space="preserve">17.2645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2841033935547</t>
+    <t xml:space="preserve">16.8739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2841053009033</t>
   </si>
   <si>
     <t xml:space="preserve">17.0302124023438</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">16.639612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2685413360596</t>
+    <t xml:space="preserve">16.2685394287109</t>
   </si>
   <si>
     <t xml:space="preserve">16.1708889007568</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">15.6435785293579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3506278991699</t>
+    <t xml:space="preserve">15.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">15.4482774734497</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">15.7216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2920360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310976028442</t>
+    <t xml:space="preserve">15.2920370101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.2294807434082</t>
@@ -2576,13 +2576,13 @@
     <t xml:space="preserve">15.9169979095459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8193492889404</t>
+    <t xml:space="preserve">15.8193483352661</t>
   </si>
   <si>
     <t xml:space="preserve">15.7021684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3271312713623</t>
+    <t xml:space="preserve">16.3271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.0106830596924</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">17.9676551818848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3231620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6747055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5184650421143</t>
+    <t xml:space="preserve">17.3231639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6747035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5184631347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9050998687744</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">18.8269786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3387260437012</t>
+    <t xml:space="preserve">18.6512069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3387279510498</t>
   </si>
   <si>
     <t xml:space="preserve">17.9481239318848</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">18.3777866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4559059143066</t>
+    <t xml:space="preserve">18.4559078216553</t>
   </si>
   <si>
     <t xml:space="preserve">18.3191967010498</t>
@@ -2645,58 +2645,58 @@
     <t xml:space="preserve">18.182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238956451416</t>
+    <t xml:space="preserve">18.1434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0067157745361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7918853759766</t>
+    <t xml:space="preserve">17.8504772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7918834686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.8114147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.596586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.557523727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4208126068115</t>
+    <t xml:space="preserve">17.5965843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5575218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4208145141602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8700046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9871864318848</t>
+    <t xml:space="preserve">17.6356430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9871845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.7488594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9832191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9694862365723</t>
+    <t xml:space="preserve">19.1003971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9832172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694881439209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2136135101318</t>
@@ -2708,19 +2708,19 @@
     <t xml:space="preserve">19.7741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647853851318</t>
+    <t xml:space="preserve">20.1647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">20.0183124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2624359130859</t>
+    <t xml:space="preserve">20.2624378204346</t>
   </si>
   <si>
     <t xml:space="preserve">20.5553874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0671348571777</t>
+    <t xml:space="preserve">20.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.8230094909668</t>
@@ -2729,34 +2729,34 @@
     <t xml:space="preserve">20.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.36008644104</t>
+    <t xml:space="preserve">20.3600883483887</t>
   </si>
   <si>
     <t xml:space="preserve">20.6042137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6530380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4342403411865</t>
+    <t xml:space="preserve">20.653039932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4342422485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.3854160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6295394897461</t>
+    <t xml:space="preserve">21.6295413970947</t>
   </si>
   <si>
     <t xml:space="preserve">21.7760162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8736667633057</t>
+    <t xml:space="preserve">21.8736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.8248424530029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2642688751221</t>
+    <t xml:space="preserve">22.2642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4595699310303</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">23.2407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">23.680196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5337238311768</t>
+    <t xml:space="preserve">23.6801986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5337219238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.9966449737549</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">22.9478206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.166618347168</t>
+    <t xml:space="preserve">22.1666202545166</t>
   </si>
   <si>
     <t xml:space="preserve">22.8989963531494</t>
@@ -2789,13 +2789,13 @@
     <t xml:space="preserve">22.3619194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5083923339844</t>
+    <t xml:space="preserve">22.508394241333</t>
   </si>
   <si>
     <t xml:space="preserve">22.0201416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5572204589844</t>
+    <t xml:space="preserve">22.5572185516357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3130931854248</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">24.4125747680664</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3149242401123</t>
+    <t xml:space="preserve">24.3149261474609</t>
   </si>
   <si>
     <t xml:space="preserve">25.242603302002</t>
@@ -2849,13 +2849,13 @@
     <t xml:space="preserve">25.4379024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7796783447266</t>
+    <t xml:space="preserve">25.7796802520752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8773307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4144039154053</t>
+    <t xml:space="preserve">26.4144058227539</t>
   </si>
   <si>
     <t xml:space="preserve">26.7561817169189</t>
@@ -2867,13 +2867,13 @@
     <t xml:space="preserve">25.9261531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8285045623779</t>
+    <t xml:space="preserve">25.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">25.5355529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1214542388916</t>
+    <t xml:space="preserve">26.1214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.6097068786621</t>
@@ -60510,7 +60510,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6495949074</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>11022</v>
@@ -60531,6 +60531,32 @@
         <v>1106</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.6006597222</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>23756</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>30.2999992370605</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>33.0499992370605</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1111">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414422988892</t>
+    <t xml:space="preserve">7.21414470672607</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534610748291</t>
+    <t xml:space="preserve">7.20534658432007</t>
   </si>
   <si>
     <t xml:space="preserve">7.25373458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22734212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616682052612</t>
+    <t xml:space="preserve">7.2273416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616729736328</t>
   </si>
   <si>
     <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96780824661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68628025054932</t>
+    <t xml:space="preserve">6.96780776977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179647445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68627977371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425718307495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35636425018311</t>
+    <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073650360107</t>
+    <t xml:space="preserve">6.48833179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073602676392</t>
   </si>
   <si>
     <t xml:space="preserve">6.50592708587646</t>
@@ -98,49 +98,49 @@
     <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994426727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311178207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223459243774</t>
+    <t xml:space="preserve">6.60710096359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
   </si>
   <si>
     <t xml:space="preserve">6.78305530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85343742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338094711304</t>
+    <t xml:space="preserve">6.8534369468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
     <t xml:space="preserve">6.90622329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14376258850098</t>
+    <t xml:space="preserve">7.14376211166382</t>
   </si>
   <si>
     <t xml:space="preserve">6.94581365585327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02939224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15256023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625225067139</t>
+    <t xml:space="preserve">7.02939176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15256071090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625129699707</t>
   </si>
   <si>
     <t xml:space="preserve">6.89302682876587</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">6.73906707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349390029907</t>
+    <t xml:space="preserve">6.63349342346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786424636841</t>
+    <t xml:space="preserve">6.74786472320557</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024000167847</t>
+    <t xml:space="preserve">6.84024095535278</t>
   </si>
   <si>
     <t xml:space="preserve">6.87543153762817</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">6.8798303604126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149835586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352285385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185247421265</t>
+    <t xml:space="preserve">6.93701601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712944030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141483306885</t>
@@ -212,37 +212,37 @@
     <t xml:space="preserve">6.91942024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8094482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630777359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43114519119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469577789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144283294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00450086593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343536376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642734527588</t>
+    <t xml:space="preserve">6.80944776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57630825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43114614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92382001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03819036483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00450134277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343488693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
     <t xml:space="preserve">6.96429681777954</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">7.29039907455444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695516586304</t>
+    <t xml:space="preserve">7.48695421218872</t>
   </si>
   <si>
     <t xml:space="preserve">7.50482273101807</t>
@@ -263,22 +263,22 @@
     <t xml:space="preserve">7.43334770202637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32613611221313</t>
+    <t xml:space="preserve">7.32613658905029</t>
   </si>
   <si>
     <t xml:space="preserve">7.53609275817871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46908569335938</t>
+    <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724592208862</t>
   </si>
   <si>
     <t xml:space="preserve">7.03577136993408</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">7.17425298690796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93302631378174</t>
+    <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
     <t xml:space="preserve">7.27253103256226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883686065674</t>
+    <t xml:space="preserve">7.43781518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883781433105</t>
   </si>
   <si>
     <t xml:space="preserve">7.76391696929932</t>
@@ -308,49 +308,49 @@
     <t xml:space="preserve">7.78178596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72817945480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682415008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68350839614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096929550171</t>
+    <t xml:space="preserve">7.72817993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.683509349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187267303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096977233887</t>
   </si>
   <si>
     <t xml:space="preserve">7.37974214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57629776000977</t>
+    <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
     <t xml:space="preserve">7.49142122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44228267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248624801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146409988403</t>
+    <t xml:space="preserve">7.44228315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203527450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
     <t xml:space="preserve">7.05364036560059</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
+    <t xml:space="preserve">7.07150888442993</t>
   </si>
   <si>
     <t xml:space="preserve">7.33507061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101264953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162670135498</t>
+    <t xml:space="preserve">7.41101217269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162622451782</t>
   </si>
   <si>
     <t xml:space="preserve">7.5852313041687</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">7.46015167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269124984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207815170288</t>
+    <t xml:space="preserve">7.52269172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
     <t xml:space="preserve">7.39760971069336</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">7.46461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37080764770508</t>
+    <t xml:space="preserve">7.37080717086792</t>
   </si>
   <si>
     <t xml:space="preserve">7.3440055847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31720113754272</t>
+    <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785949707031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09384441375732</t>
+    <t xml:space="preserve">7.09384489059448</t>
   </si>
   <si>
     <t xml:space="preserve">6.94196081161499</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9196252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474922180176</t>
+    <t xml:space="preserve">6.95089483261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0223708152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962480545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8347487449646</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044290542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982980728149</t>
+    <t xml:space="preserve">6.96876382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
     <t xml:space="preserve">6.89728879928589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92409181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704139709473</t>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663282394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
     <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98216485977173</t>
+    <t xml:space="preserve">6.98216533660889</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003385543823</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">7.04917287826538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83921670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966863632202</t>
+    <t xml:space="preserve">6.81241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8392162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">6.42823839187622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41930341720581</t>
+    <t xml:space="preserve">6.41930294036865</t>
   </si>
   <si>
     <t xml:space="preserve">6.43717193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46397590637207</t>
+    <t xml:space="preserve">6.46397638320923</t>
   </si>
   <si>
     <t xml:space="preserve">6.5399169921875</t>
@@ -512,31 +512,31 @@
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29869079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31655931472778</t>
+    <t xml:space="preserve">6.60245656967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52204895019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29869031906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31655979156494</t>
   </si>
   <si>
     <t xml:space="preserve">6.28082275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70520210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073366165161</t>
+    <t xml:space="preserve">6.70520162582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073413848877</t>
   </si>
   <si>
     <t xml:space="preserve">7.10277843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8526177406311</t>
+    <t xml:space="preserve">6.85261821746826</t>
   </si>
   <si>
     <t xml:space="preserve">6.76327514648438</t>
@@ -545,43 +545,43 @@
     <t xml:space="preserve">6.76774120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860313415527</t>
+    <t xml:space="preserve">6.71860218048096</t>
   </si>
   <si>
     <t xml:space="preserve">6.64266157150269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12064743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871999740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019550323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2591290473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47801923751831</t>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547918319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1921215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953857421875</t>
+    <t xml:space="preserve">7.20998954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953809738159</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126052856445</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">7.35740613937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49588918685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793157577515</t>
+    <t xml:space="preserve">7.49588871002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686750411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8979320526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063327789307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35358333587646</t>
+    <t xml:space="preserve">8.35358142852783</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825344085693</t>
@@ -617,13 +617,13 @@
     <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571338653564</t>
+    <t xml:space="preserve">8.60821151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571434020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.00578594207764</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">8.66628360748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05939388275146</t>
+    <t xml:space="preserve">9.05939197540283</t>
   </si>
   <si>
     <t xml:space="preserve">8.84496879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218181610107</t>
+    <t xml:space="preserve">8.95218086242676</t>
   </si>
   <si>
     <t xml:space="preserve">9.6490592956543</t>
@@ -653,46 +653,46 @@
     <t xml:space="preserve">8.93431186676025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90751075744629</t>
+    <t xml:space="preserve">8.90750980377197</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898387908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88963985443115</t>
+    <t xml:space="preserve">9.06832599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80029773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86283874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447303771973</t>
+    <t xml:space="preserve">8.86283683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75562572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447399139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.90304374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02365589141846</t>
+    <t xml:space="preserve">9.02365684509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51831245422363</t>
+    <t xml:space="preserve">9.51831150054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.54550647735596</t>
@@ -701,31 +701,31 @@
     <t xml:space="preserve">9.60896301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
+    <t xml:space="preserve">9.40953254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
   </si>
   <si>
     <t xml:space="preserve">9.43672561645508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50924777984619</t>
+    <t xml:space="preserve">9.50924587249756</t>
   </si>
   <si>
     <t xml:space="preserve">9.38233661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64522361755371</t>
+    <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
     <t xml:space="preserve">9.76306915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151828765869</t>
+    <t xml:space="preserve">9.95343399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
     <t xml:space="preserve">10.1528654098511</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">9.97156429290771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83558940887451</t>
+    <t xml:space="preserve">9.83559036254883</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52737617492676</t>
+    <t xml:space="preserve">9.52737712860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270923614502</t>
@@ -758,31 +758,31 @@
     <t xml:space="preserve">9.57270240783691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69961357116699</t>
+    <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">9.86278438568115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615703582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026412963867</t>
+    <t xml:space="preserve">9.55457210540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363677978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026508331299</t>
   </si>
   <si>
     <t xml:space="preserve">9.39139938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36420631408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30074977874756</t>
+    <t xml:space="preserve">9.36420726776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
@@ -794,73 +794,73 @@
     <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241859436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41859722137451</t>
+    <t xml:space="preserve">9.67241668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79932975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3460750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35514163970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327194213867</t>
+    <t xml:space="preserve">9.75400257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79932880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49111652374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34607601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327003479004</t>
   </si>
   <si>
     <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74493789672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091468811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85372066497803</t>
+    <t xml:space="preserve">9.74493885040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85371875762939</t>
   </si>
   <si>
     <t xml:space="preserve">9.80839443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89904594421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392250061035</t>
+    <t xml:space="preserve">9.89904499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392154693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652568817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87185096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78119945526123</t>
+    <t xml:space="preserve">9.90810871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87185001373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78119850158691</t>
   </si>
   <si>
     <t xml:space="preserve">9.20103359222412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16477394104004</t>
+    <t xml:space="preserve">9.16477298736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.400465965271</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981731414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5001802444458</t>
+    <t xml:space="preserve">9.18290424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205089569092</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335201263428</t>
+    <t xml:space="preserve">9.66335296630859</t>
   </si>
   <si>
     <t xml:space="preserve">9.77213382720947</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
+    <t xml:space="preserve">9.1375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823143005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.97440719604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.191969871521</t>
+    <t xml:space="preserve">9.19196891784668</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8418092727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423778533936</t>
+    <t xml:space="preserve">10.8418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423788070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874193191528</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">10.8780708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.805549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511577606201</t>
+    <t xml:space="preserve">10.8055486679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335988998413</t>
+    <t xml:space="preserve">10.5335969924927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.261646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774387359619</t>
+    <t xml:space="preserve">10.2616472244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774291992188</t>
   </si>
   <si>
     <t xml:space="preserve">10.0984754562378</t>
@@ -971,61 +971,61 @@
     <t xml:space="preserve">10.297905921936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160352706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3522977828979</t>
+    <t xml:space="preserve">10.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341665267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8599395751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3522958755493</t>
   </si>
   <si>
     <t xml:space="preserve">10.0078258514404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8349552154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96363925933838</t>
+    <t xml:space="preserve">9.98969554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83495616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94525623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465705871582</t>
+    <t xml:space="preserve">9.9452543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658515930176</t>
+    <t xml:space="preserve">9.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
     <t xml:space="preserve">10.3312997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.478364944458</t>
+    <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151300430298</t>
@@ -1052,28 +1052,28 @@
     <t xml:space="preserve">10.3129177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393846511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805791854858</t>
+    <t xml:space="preserve">10.2393856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232149124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805782318115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112495422363</t>
+    <t xml:space="preserve">9.81657409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48567771911621</t>
+    <t xml:space="preserve">9.48567676544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.63274097442627</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187873840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107034683228</t>
+    <t xml:space="preserve">10.0187864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107025146484</t>
   </si>
   <si>
     <t xml:space="preserve">10.2945337295532</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89010429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980804443359</t>
+    <t xml:space="preserve">9.89010620117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687225341797</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87172222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004043579102</t>
+    <t xml:space="preserve">9.7430419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004053115845</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
@@ -1127,31 +1127,31 @@
     <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597587585449</t>
+    <t xml:space="preserve">9.59597492218018</t>
   </si>
   <si>
     <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759380340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073935508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68789196014404</t>
+    <t xml:space="preserve">9.90848922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0739364624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68789100646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18235683441162</t>
+    <t xml:space="preserve">9.1823558807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.46729469299316</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35699558258057</t>
+    <t xml:space="preserve">9.35699653625488</t>
   </si>
   <si>
     <t xml:space="preserve">9.79818916320801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.669508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537956237793</t>
+    <t xml:space="preserve">9.66950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537860870361</t>
   </si>
   <si>
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599800109863</t>
+    <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214561462402</t>
@@ -1202,34 +1202,34 @@
     <t xml:space="preserve">10.1290864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474704742432</t>
+    <t xml:space="preserve">10.1474695205688</t>
   </si>
   <si>
     <t xml:space="preserve">10.221001625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761507034302</t>
+    <t xml:space="preserve">10.3680658340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761516571045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092594146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.029857635498</t>
+    <t xml:space="preserve">10.8092603683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0298566818237</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930896759033</t>
+    <t xml:space="preserve">10.9747076034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9930906295776</t>
   </si>
   <si>
     <t xml:space="preserve">10.8276424407959</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664884567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985101699829</t>
+    <t xml:space="preserve">11.3664865493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358388900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985092163086</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478240966797</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372110366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252258300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558744430542</t>
+    <t xml:space="preserve">10.9372100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558753967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065624237061</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7505693435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625545501709</t>
+    <t xml:space="preserve">10.7505702972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.881217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625555038452</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">10.4892702102661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3772850036621</t>
+    <t xml:space="preserve">10.2093076705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3772859573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.35862159729</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">10.4332790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">10.227972984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719799041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0786600112915</t>
+    <t xml:space="preserve">10.2279720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719789505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0226650238037</t>
+    <t xml:space="preserve">10.022665977478</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533725738525</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">10.0599946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2652997970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1533164978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2466354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79869651794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159868240356</t>
+    <t xml:space="preserve">10.2653007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1533155441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.246636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79869556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11598777771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0040016174316</t>
@@ -1355,22 +1355,22 @@
     <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81735992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136875152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55606079101562</t>
+    <t xml:space="preserve">9.81736087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64938354492188</t>
+    <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739738464355</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">9.6120548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68671131134033</t>
+    <t xml:space="preserve">9.68671035766602</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
@@ -1397,40 +1397,40 @@
     <t xml:space="preserve">10.3212938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335300445557</t>
+    <t xml:space="preserve">9.87335205078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602333068848</t>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4706058502197</t>
+    <t xml:space="preserve">10.4146127700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.470606803894</t>
   </si>
   <si>
     <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026285171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
+    <t xml:space="preserve">10.3026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72404003143311</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">9.51873397827148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5000696182251</t>
+    <t xml:space="preserve">9.50007057189941</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">9.19211006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40674781799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36942005157471</t>
+    <t xml:space="preserve">9.40674877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36941814422607</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812187194824</t>
+    <t xml:space="preserve">9.10812091827393</t>
   </si>
   <si>
     <t xml:space="preserve">9.05212879180908</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04279518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90281581878662</t>
+    <t xml:space="preserve">9.04279708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63218402862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621063232422</t>
+    <t xml:space="preserve">8.63218593597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
     <t xml:space="preserve">8.40821552276611</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">8.09092426300049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561677932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559947967529</t>
+    <t xml:space="preserve">7.88561725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559852600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227767944336</t>
+    <t xml:space="preserve">7.93227815628052</t>
   </si>
   <si>
     <t xml:space="preserve">7.57765817642212</t>
@@ -1523,25 +1523,25 @@
     <t xml:space="preserve">7.65231466293335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84682178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810218811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21077442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344570159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16411399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42541122436523</t>
+    <t xml:space="preserve">8.84682083129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079410552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810314178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21077346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16411304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42541217803955</t>
   </si>
   <si>
     <t xml:space="preserve">9.12678527832031</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2574348449707</t>
+    <t xml:space="preserve">9.47207164764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25743389129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86548614501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97747230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82815933227539</t>
+    <t xml:space="preserve">8.86548709869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97747325897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82815742492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.88415145874023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95880889892578</t>
+    <t xml:space="preserve">8.95880794525146</t>
   </si>
   <si>
     <t xml:space="preserve">9.01480007171631</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7908296585083</t>
+    <t xml:space="preserve">8.79083061218262</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">9.78431415557861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83181095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692930221558</t>
+    <t xml:space="preserve">9.83180999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692939758301</t>
   </si>
   <si>
     <t xml:space="preserve">10.0217962265015</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">10.1642866134644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017705917358</t>
+    <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
     <t xml:space="preserve">10.5442600250244</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">10.3067779541016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4492664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3542737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97430038452148</t>
+    <t xml:space="preserve">10.4492673873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3542728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97429943084717</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917558670044</t>
+    <t xml:space="preserve">10.5917568206787</t>
   </si>
   <si>
     <t xml:space="preserve">10.639253616333</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.161717414856</t>
+    <t xml:space="preserve">11.0667238235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
     <t xml:space="preserve">10.8767366409302</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">11.1142206192017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2092142105103</t>
+    <t xml:space="preserve">11.2092132568359</t>
   </si>
   <si>
     <t xml:space="preserve">11.0192270278931</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342472076416</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6841812133789</t>
+    <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
     <t xml:space="preserve">11.7791728973389</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">11.8266696929932</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116514205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3966302871704</t>
+    <t xml:space="preserve">12.1116504669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3966312408447</t>
   </si>
   <si>
     <t xml:space="preserve">12.6816110610962</t>
@@ -1721,25 +1721,25 @@
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140857696533</t>
+    <t xml:space="preserve">13.0140867233276</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7766036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7291069030762</t>
+    <t xml:space="preserve">12.7766027450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7291059494019</t>
   </si>
   <si>
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665899276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090803146362</t>
+    <t xml:space="preserve">12.966588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990674972534</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">13.5840473175049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9640197753906</t>
+    <t xml:space="preserve">13.9640207290649</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690271377563</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">13.7740345001221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315441131592</t>
+    <t xml:space="preserve">13.6315431594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065111160278</t>
+    <t xml:space="preserve">14.1065101623535</t>
   </si>
   <si>
     <t xml:space="preserve">14.1540069580078</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">14.2964963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489995956421</t>
+    <t xml:space="preserve">14.2490005493164</t>
   </si>
   <si>
     <t xml:space="preserve">14.391489982605</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814781188965</t>
+    <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189601898193</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">14.4389867782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5339803695679</t>
+    <t xml:space="preserve">14.5339794158936</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139537811279</t>
+    <t xml:space="preserve">14.7714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139528274536</t>
   </si>
   <si>
     <t xml:space="preserve">14.9614505767822</t>
@@ -1823,37 +1823,37 @@
     <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113826751709</t>
+    <t xml:space="preserve">15.4839115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113836288452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868648529053</t>
+    <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
     <t xml:space="preserve">16.2248611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3388557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5668392181396</t>
+    <t xml:space="preserve">16.3388538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.566837310791</t>
   </si>
   <si>
     <t xml:space="preserve">16.6808280944824</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108703613281</t>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108684539795</t>
   </si>
   <si>
     <t xml:space="preserve">15.8638887405396</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">15.654899597168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8448896408081</t>
+    <t xml:space="preserve">15.8448905944824</t>
   </si>
   <si>
     <t xml:space="preserve">15.4079179763794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6169033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258905410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068914413452</t>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">15.3699216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9208841323853</t>
+    <t xml:space="preserve">15.9208831787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.128137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1088905334473</t>
+    <t xml:space="preserve">16.1088924407959</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624616622925</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">15.9549217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7432165145874</t>
+    <t xml:space="preserve">15.7432174682617</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1937,19 +1937,19 @@
     <t xml:space="preserve">15.3967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8394460678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741687774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3783359527588</t>
+    <t xml:space="preserve">15.8394451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628574371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3975830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">16.1473827362061</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862697601318</t>
+    <t xml:space="preserve">16.6862716674805</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">17.1096820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3791275024414</t>
+    <t xml:space="preserve">17.3791255950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.4753570556641</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">17.2828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.667818069458</t>
+    <t xml:space="preserve">17.6678161621094</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180145263672</t>
+    <t xml:space="preserve">17.9180126190186</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485691070557</t>
+    <t xml:space="preserve">17.6485710144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">17.3983726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3021411895752</t>
+    <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.1674194335938</t>
@@ -2045,19 +2045,19 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0334892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0142440795898</t>
+    <t xml:space="preserve">17.8602733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0334873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
     <t xml:space="preserve">18.1874561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.591625213623</t>
+    <t xml:space="preserve">18.5916233062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.668607711792</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">18.7263450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8803157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9765434265137</t>
+    <t xml:space="preserve">18.880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6878547668457</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">20.0639400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1601715087891</t>
+    <t xml:space="preserve">20.1601734161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.264440536499</t>
+    <t xml:space="preserve">18.2644386291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.4184093475342</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">18.3414249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1690044403076</t>
+    <t xml:space="preserve">19.169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2459869384766</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">19.0727729797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2082862854004</t>
+    <t xml:space="preserve">20.2082843780518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.448860168457</t>
+    <t xml:space="preserve">20.4488620758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.9300098419189</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">21.1224689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4111595153809</t>
+    <t xml:space="preserve">21.4111614227295</t>
   </si>
   <si>
     <t xml:space="preserve">21.6517353057861</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">20.304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4865608215332</t>
+    <t xml:space="preserve">19.4865627288818</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384460449219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7752494812012</t>
+    <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
     <t xml:space="preserve">19.8233680725098</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195976257324</t>
+    <t xml:space="preserve">19.9195957183838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2228,16 +2228,16 @@
     <t xml:space="preserve">19.1882495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2067031860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682090759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3029346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2259483337402</t>
+    <t xml:space="preserve">18.2067012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682109832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2259502410889</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">17.2059116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.436071395874</t>
+    <t xml:space="preserve">16.4360733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.1866683959961</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">16.8787307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628532409668</t>
+    <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
     <t xml:space="preserve">16.9749584197998</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">16.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134506225586</t>
+    <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
     <t xml:space="preserve">16.4553203582764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7440071105957</t>
+    <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
     <t xml:space="preserve">16.7825012207031</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">15.2813138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0896453857422</t>
+    <t xml:space="preserve">16.0896434783936</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1858768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.724760055542</t>
+    <t xml:space="preserve">16.1858749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
     <t xml:space="preserve">16.840238571167</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">15.8779382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0319080352783</t>
+    <t xml:space="preserve">16.0319061279297</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737739562988</t>
+    <t xml:space="preserve">15.4737730026245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817087173462</t>
+    <t xml:space="preserve">15.7817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -3342,6 +3342,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.8499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -60597,7 +60600,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.649375</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>11345</v>
@@ -60618,6 +60621,32 @@
         <v>1109</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6502199074</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>11127</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>33.6500015258789</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>33.7999992370605</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1112">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414375305176</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -47,58 +47,58 @@
     <t xml:space="preserve">7.20534658432007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25373458862305</t>
+    <t xml:space="preserve">7.25373363494873</t>
   </si>
   <si>
     <t xml:space="preserve">7.2273416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12616729736328</t>
+    <t xml:space="preserve">7.12616682052612</t>
   </si>
   <si>
     <t xml:space="preserve">6.97220706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96780776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179647445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865648269653</t>
+    <t xml:space="preserve">6.96780681610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865695953369</t>
   </si>
   <si>
     <t xml:space="preserve">6.68627977371216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77425718307495</t>
+    <t xml:space="preserve">6.77425765991211</t>
   </si>
   <si>
     <t xml:space="preserve">6.35636520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4223484992981</t>
+    <t xml:space="preserve">6.42234802246094</t>
   </si>
   <si>
     <t xml:space="preserve">6.48833179473877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47073602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592708587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398897171021</t>
+    <t xml:space="preserve">6.47073554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398801803589</t>
   </si>
   <si>
     <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51912307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710096359253</t>
+    <t xml:space="preserve">6.51912355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710000991821</t>
   </si>
   <si>
     <t xml:space="preserve">6.43994379043579</t>
@@ -107,88 +107,88 @@
     <t xml:space="preserve">6.57190942764282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267318725586</t>
+    <t xml:space="preserve">6.56311321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
   </si>
   <si>
     <t xml:space="preserve">6.8622350692749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8534369468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376211166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581365585327</t>
+    <t xml:space="preserve">6.78305578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85343742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07337999343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9062237739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376306533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581460952759</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939176559448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625129699707</t>
+    <t xml:space="preserve">7.15255975723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625225067139</t>
   </si>
   <si>
     <t xml:space="preserve">6.89302682876587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73906707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349342346191</t>
+    <t xml:space="preserve">6.73906660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349437713623</t>
   </si>
   <si>
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463930130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84024095535278</t>
+    <t xml:space="preserve">6.74786424636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84464025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84024143218994</t>
   </si>
   <si>
     <t xml:space="preserve">6.87543153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103223800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783624649048</t>
+    <t xml:space="preserve">6.87103271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783672332764</t>
   </si>
   <si>
     <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8798303604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660636901855</t>
+    <t xml:space="preserve">6.87983131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660541534424</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466777801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149883270264</t>
+    <t xml:space="preserve">6.61149930953979</t>
   </si>
   <si>
     <t xml:space="preserve">6.52352237701416</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">6.94141483306885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9150218963623</t>
+    <t xml:space="preserve">6.91502141952515</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
@@ -212,79 +212,79 @@
     <t xml:space="preserve">6.91942024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80944776535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630825042725</t>
+    <t xml:space="preserve">6.80944728851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
     <t xml:space="preserve">6.43114614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62469673156738</t>
+    <t xml:space="preserve">6.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.73026895523071</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83144330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92382001876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03819036483765</t>
+    <t xml:space="preserve">6.83144235610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343488693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9464282989502</t>
+    <t xml:space="preserve">7.01343584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642782211304</t>
   </si>
   <si>
     <t xml:space="preserve">6.96429681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40654468536377</t>
+    <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
     <t xml:space="preserve">7.29039907455444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48695421218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482273101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334770202637</t>
+    <t xml:space="preserve">7.4869532585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334865570068</t>
   </si>
   <si>
     <t xml:space="preserve">7.32613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53609275817871</t>
+    <t xml:space="preserve">7.53609323501587</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51375675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45121669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17425298690796</t>
+    <t xml:space="preserve">7.51375722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45121622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724496841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">7.27253103256226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781518936157</t>
+    <t xml:space="preserve">7.43781471252441</t>
   </si>
   <si>
     <t xml:space="preserve">7.63883781433105</t>
@@ -305,28 +305,28 @@
     <t xml:space="preserve">7.77285146713257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817993164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.683509349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187267303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096977233887</t>
+    <t xml:space="preserve">7.78178644180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682415008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187314987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810689926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096929550171</t>
   </si>
   <si>
     <t xml:space="preserve">7.37974214553833</t>
@@ -335,16 +335,16 @@
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203527450562</t>
+    <t xml:space="preserve">7.49142169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228219985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203384399414</t>
   </si>
   <si>
     <t xml:space="preserve">7.48248672485352</t>
@@ -353,34 +353,34 @@
     <t xml:space="preserve">7.28146457672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05364036560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8615517616272</t>
+    <t xml:space="preserve">7.05363988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155223846436</t>
   </si>
   <si>
     <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150888442993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
+    <t xml:space="preserve">7.07150840759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">7.41101217269897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53162622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5852313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52269172668457</t>
+    <t xml:space="preserve">7.53162574768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015119552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52269124984741</t>
   </si>
   <si>
     <t xml:space="preserve">7.23679351806641</t>
@@ -389,37 +389,37 @@
     <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39760971069336</t>
+    <t xml:space="preserve">7.39761066436768</t>
   </si>
   <si>
     <t xml:space="preserve">7.46461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37080717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3440055847168</t>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400463104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785949707031</t>
+    <t xml:space="preserve">7.22785902023315</t>
   </si>
   <si>
     <t xml:space="preserve">7.09384489059448</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01790285110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95089483261108</t>
+    <t xml:space="preserve">6.94196128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9508957862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.0223708152771</t>
@@ -428,37 +428,37 @@
     <t xml:space="preserve">6.91962480545044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8347487449646</t>
+    <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540615081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87942028045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982933044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89728879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92409229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663282394409</t>
+    <t xml:space="preserve">6.88835573196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540567398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8794207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96876430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95983028411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9240927696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023885726929</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">7.00003385543823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13404893875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917287826538</t>
+    <t xml:space="preserve">7.13404941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
     <t xml:space="preserve">6.81241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163942337036</t>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966863632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
   </si>
   <si>
     <t xml:space="preserve">6.42823839187622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41930294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397638320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245656967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204895019531</t>
+    <t xml:space="preserve">6.41930341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544950485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245752334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.522047996521</t>
   </si>
   <si>
     <t xml:space="preserve">6.29869031906128</t>
@@ -524,46 +524,46 @@
     <t xml:space="preserve">6.31655979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28082275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520162582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70073413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71860218048096</t>
+    <t xml:space="preserve">6.28082180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70073509216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8526177406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327466964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71860361099243</t>
   </si>
   <si>
     <t xml:space="preserve">6.64266157150269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12064695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17872047424316</t>
+    <t xml:space="preserve">7.12064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871952056885</t>
   </si>
   <si>
     <t xml:space="preserve">7.41547918319702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25019502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1921215057373</t>
+    <t xml:space="preserve">7.25019454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212198257446</t>
   </si>
   <si>
     <t xml:space="preserve">7.25912952423096</t>
@@ -575,94 +575,94 @@
     <t xml:space="preserve">7.47801971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20998954772949</t>
+    <t xml:space="preserve">7.54949474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
     <t xml:space="preserve">7.33953809738159</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24126052856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171293258667</t>
+    <t xml:space="preserve">7.24126005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171340942383</t>
   </si>
   <si>
     <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35740613937378</t>
+    <t xml:space="preserve">7.35740518569946</t>
   </si>
   <si>
     <t xml:space="preserve">7.49588871002197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90686750411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8979320526123</t>
+    <t xml:space="preserve">7.90686702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793300628662</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063327789307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35358142852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39825344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939197540283</t>
+    <t xml:space="preserve">8.35358238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39825248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60820865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939388275146</t>
   </si>
   <si>
     <t xml:space="preserve">8.84496879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95218086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6490592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3363561630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10406494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431186676025</t>
+    <t xml:space="preserve">8.95218181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64905643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33635711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.90750980377197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79136371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898483276367</t>
+    <t xml:space="preserve">8.7913646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898292541504</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">8.80029773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86283683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75562572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447399139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304374694824</t>
+    <t xml:space="preserve">8.86283874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603572845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447303771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304279327393</t>
   </si>
   <si>
     <t xml:space="preserve">9.02365684509277</t>
@@ -695,49 +695,49 @@
     <t xml:space="preserve">9.51831150054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672561645508</t>
+    <t xml:space="preserve">9.54550552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60896396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672466278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38233661651611</t>
+    <t xml:space="preserve">9.3823356628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343399047852</t>
+    <t xml:space="preserve">9.76307010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9534330368042</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151838302612</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1528654098511</t>
+    <t xml:space="preserve">10.1528663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.97156429290771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83559036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
+    <t xml:space="preserve">9.8355884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737712860107</t>
@@ -746,40 +746,40 @@
     <t xml:space="preserve">9.6270923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42766094207764</t>
+    <t xml:space="preserve">9.42765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.44579124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961261749268</t>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961166381836</t>
   </si>
   <si>
     <t xml:space="preserve">9.86278438568115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56363677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79026508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39139938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36420726776123</t>
+    <t xml:space="preserve">9.5545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615703582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56363773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79026317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3642053604126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30075073242188</t>
@@ -794,58 +794,58 @@
     <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241668701172</t>
+    <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68148231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400257110596</t>
+    <t xml:space="preserve">9.68148326873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111652374268</t>
+    <t xml:space="preserve">9.49111843109131</t>
   </si>
   <si>
     <t xml:space="preserve">9.34607601165771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485687255859</t>
+    <t xml:space="preserve">9.35513973236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485782623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493885040283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88091373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85371875762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904499053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99875926971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90810871124268</t>
+    <t xml:space="preserve">9.88091468811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85371971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99876022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
@@ -854,55 +854,55 @@
     <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78119850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103359222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477298736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.400465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27355480194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18290424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981636047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205089569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1557092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66335296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77213382720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1738395690918</t>
+    <t xml:space="preserve">9.7811975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477394104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40046691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27355575561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5001802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15571022033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66335201263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17383861541748</t>
   </si>
   <si>
     <t xml:space="preserve">9.1375789642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22823143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19196891784668</t>
+    <t xml:space="preserve">9.22822952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440814971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">10.0440845489502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6061182022095</t>
+    <t xml:space="preserve">10.6061191558838</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6423788070679</t>
+    <t xml:space="preserve">10.6423797607422</t>
   </si>
   <si>
     <t xml:space="preserve">10.7874193191528</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8780708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055486679077</t>
+    <t xml:space="preserve">10.8780717849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8055515289307</t>
   </si>
   <si>
     <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6242485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335969924927</t>
+    <t xml:space="preserve">10.624249458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335988998413</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2616472244263</t>
+    <t xml:space="preserve">10.2616453170776</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797775268555</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84465312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774291992188</t>
+    <t xml:space="preserve">9.84465408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.0984754562378</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891260147095</t>
+    <t xml:space="preserve">10.1891250610352</t>
   </si>
   <si>
     <t xml:space="preserve">10.297905921936</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3160362243652</t>
+    <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3341665267944</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078258514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142311096191</t>
+    <t xml:space="preserve">10.3522968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9896936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142406463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">9.9452543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72465801239014</t>
+    <t xml:space="preserve">9.72465705871582</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">9.85333919525146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0555534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658525466919</t>
+    <t xml:space="preserve">10.0555543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658515930176</t>
   </si>
   <si>
     <t xml:space="preserve">10.3312997817993</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9011745452881</t>
+    <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
     <t xml:space="preserve">10.7908763885498</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">10.7173442840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8827924728394</t>
+    <t xml:space="preserve">10.8827934265137</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438121795654</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">10.3129177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393856048584</t>
+    <t xml:space="preserve">10.2393846511841</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232149124146</t>
@@ -1064,34 +1064,34 @@
     <t xml:space="preserve">10.4415969848633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81657409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406074523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567676544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274097442627</t>
+    <t xml:space="preserve">9.81657314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112495422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50406169891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567771911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
     <t xml:space="preserve">10.202618598938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3496828079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187864303589</t>
+    <t xml:space="preserve">10.3496837615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187854766846</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2945337295532</t>
+    <t xml:space="preserve">10.2945327758789</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842355728149</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">9.89010620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77980709075928</t>
+    <t xml:space="preserve">9.77980804443359</t>
   </si>
   <si>
     <t xml:space="preserve">9.92687225341797</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">9.98202037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7430419921875</t>
+    <t xml:space="preserve">9.74304008483887</t>
   </si>
   <si>
     <t xml:space="preserve">9.8717212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0004053115845</t>
+    <t xml:space="preserve">10.0004043579102</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28346347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59597492218018</t>
+    <t xml:space="preserve">9.2834644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59597396850586</t>
   </si>
   <si>
     <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90848922729492</t>
+    <t xml:space="preserve">9.90848827362061</t>
   </si>
   <si>
     <t xml:space="preserve">9.57759284973145</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1823558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
+    <t xml:space="preserve">9.18235683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">9.35699653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79818916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66950798034668</t>
+    <t xml:space="preserve">9.79819011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.669508934021</t>
   </si>
   <si>
     <t xml:space="preserve">9.37537860870361</t>
@@ -1175,22 +1175,22 @@
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0923194885254</t>
+    <t xml:space="preserve">10.459981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0923185348511</t>
   </si>
   <si>
     <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6621961593628</t>
+    <t xml:space="preserve">10.9379415512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048318862915</t>
@@ -1202,49 +1202,49 @@
     <t xml:space="preserve">10.1290864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474695205688</t>
+    <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
     <t xml:space="preserve">10.221001625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680658340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724943161011</t>
+    <t xml:space="preserve">10.3680648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761507034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724952697754</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0298566818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1217737197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747076034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7541103363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664865493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358388900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985092163086</t>
+    <t xml:space="preserve">11.029857635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1217727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276433944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.754111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664875030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478240966797</t>
@@ -1259,31 +1259,31 @@
     <t xml:space="preserve">10.9185476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252267837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7692337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7505702972412</t>
+    <t xml:space="preserve">10.9372119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252277374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065614700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7692346572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7505683898926</t>
   </si>
   <si>
     <t xml:space="preserve">10.881217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8625555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
+    <t xml:space="preserve">10.8625535964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.899884223938</t>
   </si>
   <si>
     <t xml:space="preserve">10.6572484970093</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892702102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2093076705933</t>
+    <t xml:space="preserve">10.4892711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2093086242676</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772859573364</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3959493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6012554168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332790374756</t>
+    <t xml:space="preserve">10.3959503173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6012544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332780838013</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279720306396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1719789505005</t>
+    <t xml:space="preserve">10.1719779968262</t>
   </si>
   <si>
     <t xml:space="preserve">10.0786590576172</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533725738525</t>
+    <t xml:space="preserve">10.0226650238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533821105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599946975708</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">10.1533155441284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.246636390686</t>
+    <t xml:space="preserve">10.2466354370117</t>
   </si>
   <si>
     <t xml:space="preserve">9.79869556427002</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">9.81736087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270248413086</t>
+    <t xml:space="preserve">9.74270153045654</t>
   </si>
   <si>
     <t xml:space="preserve">9.76136779785156</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64938259124756</t>
+    <t xml:space="preserve">9.63071918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64938354492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739738464355</t>
@@ -1379,10 +1379,10 @@
     <t xml:space="preserve">9.44407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6120548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671035766602</t>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671131134033</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">9.89201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3212938308716</t>
+    <t xml:space="preserve">10.3212928771973</t>
   </si>
   <si>
     <t xml:space="preserve">9.87335205078125</t>
@@ -1406,40 +1406,40 @@
     <t xml:space="preserve">10.0973224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96667289733887</t>
+    <t xml:space="preserve">9.96667385101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66804695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146127700806</t>
+    <t xml:space="preserve">9.66804599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146137237549</t>
   </si>
   <si>
     <t xml:space="preserve">10.5265979766846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.470606803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3399572372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026294708252</t>
+    <t xml:space="preserve">10.4706077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.339958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026285171509</t>
   </si>
   <si>
     <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72404003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51873397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50007057189941</t>
+    <t xml:space="preserve">9.72403907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51873302459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">9.40674877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36941814422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35075569152832</t>
+    <t xml:space="preserve">9.36942005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35075664520264</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609825134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31342697143555</t>
+    <t xml:space="preserve">9.31342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
@@ -1478,52 +1478,52 @@
     <t xml:space="preserve">9.05212879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22010612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04279708862305</t>
+    <t xml:space="preserve">9.22010707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04279613494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69750881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63218593597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621158599854</t>
+    <t xml:space="preserve">8.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6321849822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621063232422</t>
   </si>
   <si>
     <t xml:space="preserve">8.40821552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561725616455</t>
+    <t xml:space="preserve">8.09092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561773300171</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559852600098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93227815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84682083129883</t>
+    <t xml:space="preserve">7.55899524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9322772026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84682273864746</t>
   </si>
   <si>
     <t xml:space="preserve">9.07079410552979</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077346801758</t>
+    <t xml:space="preserve">9.21077442169189</t>
   </si>
   <si>
     <t xml:space="preserve">9.1734447479248</t>
@@ -1541,19 +1541,19 @@
     <t xml:space="preserve">9.16411304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12678527832031</t>
+    <t xml:space="preserve">9.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678623199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207164764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743389129639</t>
+    <t xml:space="preserve">9.47207260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2574348449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747325897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82815742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415145874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95880794525146</t>
+    <t xml:space="preserve">8.97747230529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82815837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415050506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880889892578</t>
   </si>
   <si>
     <t xml:space="preserve">9.01480007171631</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79083061218262</t>
+    <t xml:space="preserve">8.79083156585693</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">9.73681735992432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431415557861</t>
+    <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83180999755859</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">9.87930679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642866134644</t>
+    <t xml:space="preserve">10.1642875671387</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017696380615</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">10.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">10.5917568206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.639253616333</t>
+    <t xml:space="preserve">10.6392545700073</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717302322388</t>
+    <t xml:space="preserve">10.9717292785645</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292398452759</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.7791719436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">12.3966312408447</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6341142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0140867233276</t>
+    <t xml:space="preserve">12.6816101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.014087677002</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">13.2990674972534</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840473175049</t>
+    <t xml:space="preserve">13.5840463638306</t>
   </si>
   <si>
     <t xml:space="preserve">13.9640207290649</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">13.7740345001221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315431594849</t>
+    <t xml:space="preserve">13.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">14.1540069580078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.2015047073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">14.5814771652222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8189601898193</t>
+    <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
     <t xml:space="preserve">14.4389867782593</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">14.4864835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6764698028564</t>
+    <t xml:space="preserve">14.6764707565308</t>
   </si>
   <si>
     <t xml:space="preserve">14.7239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7714643478394</t>
+    <t xml:space="preserve">14.771463394165</t>
   </si>
   <si>
     <t xml:space="preserve">14.9139528274536</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0089473724365</t>
+    <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664560317993</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">16.5478382110596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.566837310791</t>
+    <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
     <t xml:space="preserve">16.6808280944824</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">16.4148483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728740692139</t>
+    <t xml:space="preserve">16.0728721618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588813781738</t>
+    <t xml:space="preserve">15.9588794708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.1108684539795</t>
@@ -1880,22 +1880,22 @@
     <t xml:space="preserve">15.6738996505737</t>
   </si>
   <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
+    <t xml:space="preserve">15.6549015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169061660767</t>
   </si>
   <si>
     <t xml:space="preserve">15.8258895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068904876709</t>
+    <t xml:space="preserve">15.8068885803223</t>
   </si>
   <si>
     <t xml:space="preserve">15.5599069595337</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128137588501</t>
+    <t xml:space="preserve">15.3699226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
   </si>
   <si>
     <t xml:space="preserve">16.1088924407959</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">15.7624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6277408599854</t>
+    <t xml:space="preserve">15.6277418136597</t>
   </si>
   <si>
     <t xml:space="preserve">15.935676574707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432174682617</t>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">15.8394451141357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9741678237915</t>
+    <t xml:space="preserve">15.9741697311401</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628574371338</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
+    <t xml:space="preserve">17.2828941345215</t>
   </si>
   <si>
     <t xml:space="preserve">17.6678161621094</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561100006104</t>
+    <t xml:space="preserve">17.4561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983726501465</t>
+    <t xml:space="preserve">17.3983707427979</t>
   </si>
   <si>
     <t xml:space="preserve">17.3021430969238</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">17.8602733612061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0334873199463</t>
+    <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1874561309814</t>
+    <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916233062744</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">19.6790218353271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0639400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">20.0639419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">19.2940998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9380512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.9380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7832908630371</t>
+    <t xml:space="preserve">17.7832927703857</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.264440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">19.1112651824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0727729797363</t>
+    <t xml:space="preserve">19.072774887085</t>
   </si>
   <si>
     <t xml:space="preserve">20.2082843780518</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
+    <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
     <t xml:space="preserve">20.304515838623</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">19.4865627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4384460449219</t>
+    <t xml:space="preserve">19.4384479522705</t>
   </si>
   <si>
     <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8233680725098</t>
+    <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">20.3526306152344</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2067012786865</t>
+    <t xml:space="preserve">19.1882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682109832764</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">18.3029327392578</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2259502410889</t>
+    <t xml:space="preserve">18.2259521484375</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">17.764045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4176197052002</t>
+    <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.2059116363525</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4553203582764</t>
+    <t xml:space="preserve">16.4553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825012207031</t>
+    <t xml:space="preserve">16.7825031280518</t>
   </si>
   <si>
     <t xml:space="preserve">15.4160356521606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.011869430542</t>
+    <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.6269502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5122661590576</t>
+    <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
     <t xml:space="preserve">15.1273460388184</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.820200920105</t>
+    <t xml:space="preserve">15.8202028274536</t>
   </si>
   <si>
     <t xml:space="preserve">15.2813138961792</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">16.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6670246124268</t>
+    <t xml:space="preserve">16.6670265197754</t>
   </si>
   <si>
     <t xml:space="preserve">16.647777557373</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.7817096710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">15.3775434494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2428216934204</t>
+    <t xml:space="preserve">15.2428207397461</t>
   </si>
   <si>
     <t xml:space="preserve">16.1513595581055</t>
@@ -3345,6 +3345,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.7999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.25</t>
   </si>
 </sst>
 </file>
@@ -60626,7 +60629,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6502199074</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>11127</v>
@@ -60647,6 +60650,32 @@
         <v>1110</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6493402778</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>12015</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>33.7000007629395</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>34.2999992370605</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1115">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,100 +38,100 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414518356323</t>
+    <t xml:space="preserve">7.21414566040039</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534658432007</t>
+    <t xml:space="preserve">7.20534610748291</t>
   </si>
   <si>
     <t xml:space="preserve">7.25373411178589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22734022140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01179695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865695953369</t>
+    <t xml:space="preserve">7.22734069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220659255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780824661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01179647445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
     <t xml:space="preserve">6.68628072738647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77425718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636520385742</t>
+    <t xml:space="preserve">6.77425765991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592660903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398944854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879791259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710096359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994426727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190942764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8622350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305625915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07338047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90622425079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376211166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581365585327</t>
+    <t xml:space="preserve">6.48833084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4707350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2287974357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86223554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8534369468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07337999343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90622329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376306533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581317901611</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939224243164</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">6.89302778244019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73906707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63349437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69068002700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786472320557</t>
+    <t xml:space="preserve">6.73906660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63349342346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6906795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84024095535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87543201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87103176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783624649048</t>
+    <t xml:space="preserve">6.84024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87543153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87103223800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783576965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.7566614151001</t>
@@ -179,40 +179,40 @@
     <t xml:space="preserve">6.87983083724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97660541534424</t>
+    <t xml:space="preserve">6.93701648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9766058921814</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466825485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712944030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79185342788696</t>
+    <t xml:space="preserve">6.61149978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.523521900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712991714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141435623169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91502141952515</t>
+    <t xml:space="preserve">6.9150218963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91941928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944871902466</t>
+    <t xml:space="preserve">6.91942024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8094482421875</t>
   </si>
   <si>
     <t xml:space="preserve">6.57630825042725</t>
@@ -224,40 +224,40 @@
     <t xml:space="preserve">6.62469625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144235610962</t>
+    <t xml:space="preserve">6.73026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03818941116333</t>
+    <t xml:space="preserve">7.03819036483765</t>
   </si>
   <si>
     <t xml:space="preserve">7.0045018196106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343584060669</t>
+    <t xml:space="preserve">7.01343488693237</t>
   </si>
   <si>
     <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29039907455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482368469238</t>
+    <t xml:space="preserve">6.96429634094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2903995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695421218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.43334770202637</t>
@@ -266,34 +266,34 @@
     <t xml:space="preserve">7.32613706588745</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53609275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46908521652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.513756275177</t>
+    <t xml:space="preserve">7.53609418869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46908569335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375675201416</t>
   </si>
   <si>
     <t xml:space="preserve">7.45121669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10724592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03577089309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1742525100708</t>
+    <t xml:space="preserve">7.10724544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03577184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17425346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.9330267906189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2725305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
+    <t xml:space="preserve">7.27253103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781566619873</t>
   </si>
   <si>
     <t xml:space="preserve">7.6388373374939</t>
@@ -302,55 +302,55 @@
     <t xml:space="preserve">7.76391792297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77285242080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178644180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818040847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682415008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68351030349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187267303467</t>
+    <t xml:space="preserve">7.77285099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178453445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72818088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.683509349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187362670898</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531944274902</t>
+    <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
     <t xml:space="preserve">7.62096881866455</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37974309921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629728317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142169952393</t>
+    <t xml:space="preserve">7.37974262237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142122268677</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228267669678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416580200195</t>
+    <t xml:space="preserve">7.59416627883911</t>
   </si>
   <si>
     <t xml:space="preserve">7.61203479766846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48248767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146457672119</t>
+    <t xml:space="preserve">7.48248720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146409988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.05363988876343</t>
@@ -359,22 +359,22 @@
     <t xml:space="preserve">6.86155128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81688117980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07150840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41101312637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162574768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58523082733154</t>
+    <t xml:space="preserve">6.81688070297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07150888442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41101217269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162527084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523178100586</t>
   </si>
   <si>
     <t xml:space="preserve">7.46015119552612</t>
@@ -386,28 +386,28 @@
     <t xml:space="preserve">7.23679351806641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40207815170288</t>
+    <t xml:space="preserve">7.40207767486572</t>
   </si>
   <si>
     <t xml:space="preserve">7.39761114120483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46461772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3440055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720209121704</t>
+    <t xml:space="preserve">7.4646167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400510787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.22785949707031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09384536743164</t>
+    <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
     <t xml:space="preserve">6.94196081161499</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089483261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02236986160278</t>
+    <t xml:space="preserve">6.95089530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02237033843994</t>
   </si>
   <si>
     <t xml:space="preserve">6.91962480545044</t>
@@ -434,31 +434,31 @@
     <t xml:space="preserve">6.80794668197632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88835573196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540567398071</t>
+    <t xml:space="preserve">6.88835477828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540615081787</t>
   </si>
   <si>
     <t xml:space="preserve">6.87942028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95982980728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89728975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9240927696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663282394409</t>
+    <t xml:space="preserve">6.96876430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95982933044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023838043213</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">7.06704044342041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769737243652</t>
+    <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003480911255</t>
+    <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83921670913696</t>
+    <t xml:space="preserve">6.81241273880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921718597412</t>
   </si>
   <si>
     <t xml:space="preserve">6.70966911315918</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42823791503906</t>
+    <t xml:space="preserve">6.42823886871338</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930341720581</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717288970947</t>
+    <t xml:space="preserve">6.43717193603516</t>
   </si>
   <si>
     <t xml:space="preserve">6.46397495269775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53991746902466</t>
+    <t xml:space="preserve">6.5399169921875</t>
   </si>
   <si>
     <t xml:space="preserve">6.53544998168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245800018311</t>
+    <t xml:space="preserve">6.60245704650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655931472778</t>
+    <t xml:space="preserve">6.31655883789062</t>
   </si>
   <si>
     <t xml:space="preserve">6.28082227706909</t>
@@ -539,136 +539,136 @@
     <t xml:space="preserve">6.85261821746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76327466964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76774168014526</t>
+    <t xml:space="preserve">6.76327514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76774120330811</t>
   </si>
   <si>
     <t xml:space="preserve">6.71860361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64266204833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17872095108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4154806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19212245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25912952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826759338379</t>
+    <t xml:space="preserve">6.64266109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19212198257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826807022095</t>
   </si>
   <si>
     <t xml:space="preserve">7.47801923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953714370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24126005172729</t>
+    <t xml:space="preserve">7.54949426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20999002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24126052856445</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2993335723877</t>
+    <t xml:space="preserve">7.29933404922485</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740613937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49588918685913</t>
+    <t xml:space="preserve">7.49588823318481</t>
   </si>
   <si>
     <t xml:space="preserve">7.90686750411987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89793252944946</t>
+    <t xml:space="preserve">7.89793348312378</t>
   </si>
   <si>
     <t xml:space="preserve">8.21063423156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35358238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39825439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11299991607666</t>
+    <t xml:space="preserve">8.35358333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39825344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11299896240234</t>
   </si>
   <si>
     <t xml:space="preserve">8.60821056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57694053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571338653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84496879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218181610107</t>
+    <t xml:space="preserve">8.57693958282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571529388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628360748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939292907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.844970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218276977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905834197998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3363561630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10406494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9343147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7913646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06832599639893</t>
+    <t xml:space="preserve">9.33635711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90750789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79136371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06832790374756</t>
   </si>
   <si>
     <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88964080810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8002986907959</t>
+    <t xml:space="preserve">8.88964176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80029773712158</t>
   </si>
   <si>
     <t xml:space="preserve">8.86283779144287</t>
@@ -677,91 +677,91 @@
     <t xml:space="preserve">8.7556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83603477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18447303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90304279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51831340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953063964844</t>
+    <t xml:space="preserve">8.83603572845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18447399139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90304470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168510437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953159332275</t>
   </si>
   <si>
     <t xml:space="preserve">9.47298717498779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43672561645508</t>
+    <t xml:space="preserve">9.43672657012939</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3823356628418</t>
+    <t xml:space="preserve">9.38233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528654098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44579124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86278438568115</t>
+    <t xml:space="preserve">9.76306915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52737712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62709331512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42766094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44579029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86278343200684</t>
   </si>
   <si>
     <t xml:space="preserve">9.5545711517334</t>
@@ -773,85 +773,85 @@
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026412963867</t>
+    <t xml:space="preserve">9.79026317596436</t>
   </si>
   <si>
     <t xml:space="preserve">9.39139938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36420631408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30075168609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24636077880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644180297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67241859436035</t>
+    <t xml:space="preserve">9.3642053604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30075073242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24635982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644275665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
     <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68148326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400447845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7993278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49111652374268</t>
+    <t xml:space="preserve">9.68148231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79933071136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49111747741699</t>
   </si>
   <si>
     <t xml:space="preserve">9.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35513877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37327003479004</t>
+    <t xml:space="preserve">9.35514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
     <t xml:space="preserve">9.45485687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74493980407715</t>
+    <t xml:space="preserve">9.74493789672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.88091373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85371875762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80839157104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392059326172</t>
+    <t xml:space="preserve">9.85371780395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80839347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392154693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.99875926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90811061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82652378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87184906005859</t>
+    <t xml:space="preserve">9.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82652282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
     <t xml:space="preserve">9.78119850158691</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290424346924</t>
+    <t xml:space="preserve">9.18290519714355</t>
   </si>
   <si>
     <t xml:space="preserve">9.30981540679932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50018119812012</t>
+    <t xml:space="preserve">9.5001802444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205184936523</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">9.15571022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77213191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17383861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1375789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440814971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19196891784668</t>
+    <t xml:space="preserve">9.66335296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77213382720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1738395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13757801055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
     <t xml:space="preserve">9.31888008117676</t>
@@ -914,73 +914,73 @@
     <t xml:space="preserve">10.6061182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8418092727661</t>
+    <t xml:space="preserve">10.8418111801147</t>
   </si>
   <si>
     <t xml:space="preserve">10.6423788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7874202728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0049810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780698776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055486679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511606216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335969924927</t>
+    <t xml:space="preserve">10.7874193191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0049819946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.805549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511587142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242504119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.261646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
+    <t xml:space="preserve">10.2616472244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">9.84465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71774291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
+    <t xml:space="preserve">9.71774196624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
     <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2979068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704280853271</t>
+    <t xml:space="preserve">10.1891260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.297905921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3341684341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8599395751953</t>
+    <t xml:space="preserve">10.3341674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859938621521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3522968292236</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">10.0078239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">9.98969554901123</t>
   </si>
   <si>
     <t xml:space="preserve">9.76142406463623</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363830566406</t>
+    <t xml:space="preserve">9.96363639831543</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577667236328</t>
@@ -1007,55 +1007,55 @@
     <t xml:space="preserve">9.9452543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7246561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55920886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.72465896606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5592098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658515930176</t>
+    <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
     <t xml:space="preserve">10.3312997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4783639907837</t>
+    <t xml:space="preserve">10.478364944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9011745452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4967470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393836975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4232149124146</t>
+    <t xml:space="preserve">10.9011754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173452377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438121795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4967479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393846511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805782318115</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112400054932</t>
+    <t xml:space="preserve">9.65112495422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
@@ -1076,22 +1076,22 @@
     <t xml:space="preserve">9.48567771911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63274192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.202618598938</t>
+    <t xml:space="preserve">9.63274097442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2026176452637</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187873840332</t>
+    <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.1107025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2945327758789</t>
+    <t xml:space="preserve">10.2945346832275</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842346191406</t>
@@ -1103,43 +1103,43 @@
     <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0371704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98202037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7430419921875</t>
+    <t xml:space="preserve">9.92687129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0371694564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74304103851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0004043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28346347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759380340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70627498626709</t>
+    <t xml:space="preserve">10.0004034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2834644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59597587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52244281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
     <t xml:space="preserve">10.0739364624023</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1823558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
+    <t xml:space="preserve">9.18235492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.4489107131958</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">9.79819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66950798034668</t>
+    <t xml:space="preserve">9.669508934021</t>
   </si>
   <si>
     <t xml:space="preserve">9.37537860870361</t>
@@ -1175,25 +1175,25 @@
     <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599809646606</t>
+    <t xml:space="preserve">10.459981918335</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0923204421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9379415512085</t>
+    <t xml:space="preserve">10.0923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9379405975342</t>
   </si>
   <si>
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048309326172</t>
+    <t xml:space="preserve">10.4048328399658</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864488601685</t>
@@ -1202,49 +1202,49 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680658340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724943161011</t>
+    <t xml:space="preserve">10.1474685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761507034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724952697754</t>
   </si>
   <si>
     <t xml:space="preserve">10.8092613220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0298566818237</t>
+    <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217737197876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2358388900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1985092163086</t>
+    <t xml:space="preserve">10.9747076034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664865493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1985101699829</t>
   </si>
   <si>
     <t xml:space="preserve">11.3478231430054</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9185476303101</t>
+    <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372119903564</t>
@@ -1265,22 +1265,22 @@
     <t xml:space="preserve">10.8252267837524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.769232749939</t>
+    <t xml:space="preserve">10.9558753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065614700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7692337036133</t>
   </si>
   <si>
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.881217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625555038452</t>
+    <t xml:space="preserve">10.8812189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625545501709</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7132396697998</t>
+    <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
     <t xml:space="preserve">10.4892702102661</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3586225509644</t>
+    <t xml:space="preserve">10.3772859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959493637085</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">10.1719789505005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0786590576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906442642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.022665977478</t>
+    <t xml:space="preserve">10.0786581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0226669311523</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533725738525</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">10.2653007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1533155441284</t>
+    <t xml:space="preserve">10.1533145904541</t>
   </si>
   <si>
     <t xml:space="preserve">10.246636390686</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">9.79869556427002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11598777771</t>
+    <t xml:space="preserve">10.1159868240356</t>
   </si>
   <si>
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8546895980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81735992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136684417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55606269836426</t>
+    <t xml:space="preserve">9.85468864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81736087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
     <t xml:space="preserve">9.63071823120117</t>
@@ -1373,49 +1373,49 @@
     <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53739833831787</t>
+    <t xml:space="preserve">9.53739738464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.44407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61205577850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6867094039917</t>
+    <t xml:space="preserve">9.61205387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671131134033</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78003215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89201736450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3212928771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87335205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9480094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0973234176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96667385101318</t>
+    <t xml:space="preserve">9.78003120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89201641082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3212938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87335300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94801044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0973224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96667289733887</t>
   </si>
   <si>
     <t xml:space="preserve">9.83602428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66804695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146137237549</t>
+    <t xml:space="preserve">9.66804599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146127700806</t>
   </si>
   <si>
     <t xml:space="preserve">10.5265989303589</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72404003143311</t>
+    <t xml:space="preserve">10.3026285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5000696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140525817871</t>
+    <t xml:space="preserve">9.50007057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140430450439</t>
   </si>
   <si>
     <t xml:space="preserve">9.33209133148193</t>
@@ -1451,40 +1451,40 @@
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211101531982</t>
+    <t xml:space="preserve">9.19210910797119</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36942005157471</t>
+    <t xml:space="preserve">9.36941909790039</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342601776123</t>
+    <t xml:space="preserve">9.27609920501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342792510986</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10812187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0521297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22010707855225</t>
+    <t xml:space="preserve">9.10812091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05212879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22010612487793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90281581878662</t>
+    <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.69750881195068</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43621063232422</t>
+    <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
     <t xml:space="preserve">8.4082145690918</t>
@@ -1502,34 +1502,34 @@
     <t xml:space="preserve">8.09092330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88561630249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02559947967529</t>
+    <t xml:space="preserve">7.88561725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02559852600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9322772026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
+    <t xml:space="preserve">7.93227815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765865325928</t>
   </si>
   <si>
     <t xml:space="preserve">7.60565376281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65231418609619</t>
+    <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24810218811035</t>
+    <t xml:space="preserve">9.07079410552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
     <t xml:space="preserve">9.21077442169189</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42541217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476356506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47207164764404</t>
+    <t xml:space="preserve">9.42541408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
     <t xml:space="preserve">9.25743389129639</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144271850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747325897217</t>
+    <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815742492676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8841495513916</t>
+    <t xml:space="preserve">8.88415241241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71617221832275</t>
+    <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
     <t xml:space="preserve">8.7908296585083</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7721643447876</t>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78431415557861</t>
+    <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83180999755859</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">10.0692939758301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217962265015</t>
+    <t xml:space="preserve">10.0217971801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.87930679321289</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">10.1642866134644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017705917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5442609786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.4017696380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5442600250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3067770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4492664337158</t>
+    <t xml:space="preserve">10.3067779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4492673873901</t>
   </si>
   <si>
     <t xml:space="preserve">10.3542728424072</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917558670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6392526626587</t>
+    <t xml:space="preserve">10.5917568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6392545700073</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1658,31 +1658,31 @@
     <t xml:space="preserve">11.2567110061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1617164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8767356872559</t>
+    <t xml:space="preserve">11.0667238235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1617155075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2092132568359</t>
+    <t xml:space="preserve">11.1142196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2092142105103</t>
   </si>
   <si>
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717311859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292407989502</t>
+    <t xml:space="preserve">10.9717292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292398452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342462539673</t>
@@ -1706,46 +1706,46 @@
     <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966302871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816110610962</t>
+    <t xml:space="preserve">12.3966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715963363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766036987305</t>
+    <t xml:space="preserve">13.014087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766027450562</t>
   </si>
   <si>
     <t xml:space="preserve">12.7291059494019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9190940856934</t>
+    <t xml:space="preserve">12.919093132019</t>
   </si>
   <si>
     <t xml:space="preserve">12.9665899276733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1090803146362</t>
+    <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840463638306</t>
+    <t xml:space="preserve">13.5840473175049</t>
   </si>
   <si>
     <t xml:space="preserve">13.9640207290649</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6315431594849</t>
+    <t xml:space="preserve">13.7740345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.9165229797363</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">14.0115165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1065111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1540060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2015027999878</t>
+    <t xml:space="preserve">14.1065101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1540069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2015037536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814771652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8189601898193</t>
+    <t xml:space="preserve">14.5814781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8189611434937</t>
   </si>
   <si>
     <t xml:space="preserve">14.4389867782593</t>
@@ -1799,22 +1799,22 @@
     <t xml:space="preserve">14.5339803695679</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4864835739136</t>
+    <t xml:space="preserve">14.4864826202393</t>
   </si>
   <si>
     <t xml:space="preserve">14.6764698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.771463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9139537811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9614505767822</t>
+    <t xml:space="preserve">14.7239656448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9139518737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614515304565</t>
   </si>
   <si>
     <t xml:space="preserve">15.0089473724365</t>
@@ -1823,76 +1823,76 @@
     <t xml:space="preserve">14.8664560317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4839124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113826751709</t>
+    <t xml:space="preserve">15.4839115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113836288452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1868667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2248630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3388557434082</t>
+    <t xml:space="preserve">16.1868648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2248611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3388538360596</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
+    <t xml:space="preserve">16.3768520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478363037109</t>
   </si>
   <si>
     <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6808300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728740692139</t>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728721618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825888633728</t>
+    <t xml:space="preserve">15.9588794708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6169052124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8258895874023</t>
   </si>
   <si>
     <t xml:space="preserve">15.8068904876709</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
+    <t xml:space="preserve">15.3699226379395</t>
   </si>
   <si>
     <t xml:space="preserve">15.9208831787109</t>
@@ -3354,6 +3354,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.9500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -60765,7 +60768,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n">
-        <v>45520.6495023148</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B2196" t="n">
         <v>20738</v>
@@ -60786,6 +60789,32 @@
         <v>1111</v>
       </c>
       <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45523.6493055556</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>26265</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>34.7999992370605</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>34.0999984741211</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>34.0999984741211</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>34.7000007629395</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H2197" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414470672607</t>
+    <t xml:space="preserve">7.21414518356323</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">7.20534610748291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25373411178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22734117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780872344971</t>
+    <t xml:space="preserve">7.25373363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22734069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220659255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780824661255</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179647445679</t>
@@ -68,67 +68,67 @@
     <t xml:space="preserve">6.77865648269653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68628025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425765991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35636472702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42234897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4707350730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592708587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2287974357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51912307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60710144042969</t>
+    <t xml:space="preserve">6.68628072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35636520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42234802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48833084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073602676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592660903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60710096359253</t>
   </si>
   <si>
     <t xml:space="preserve">6.43994379043579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57190990447998</t>
+    <t xml:space="preserve">6.57190895080566</t>
   </si>
   <si>
     <t xml:space="preserve">6.56311225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71267414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8622350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305625915527</t>
+    <t xml:space="preserve">6.71267318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86223459243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305578231812</t>
   </si>
   <si>
     <t xml:space="preserve">6.8534369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07338094711304</t>
+    <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
     <t xml:space="preserve">6.9062237739563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14376163482666</t>
+    <t xml:space="preserve">7.14376306533813</t>
   </si>
   <si>
     <t xml:space="preserve">6.94581365585327</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">6.89302682876587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7390661239624</t>
+    <t xml:space="preserve">6.73906707763672</t>
   </si>
   <si>
     <t xml:space="preserve">6.63349342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69068002700806</t>
+    <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
     <t xml:space="preserve">6.74786424636841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84463977813721</t>
+    <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024095535278</t>
@@ -167,70 +167,70 @@
     <t xml:space="preserve">6.87543201446533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103271484375</t>
+    <t xml:space="preserve">6.87103223800659</t>
   </si>
   <si>
     <t xml:space="preserve">6.85783624649048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75666189193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87983083724976</t>
+    <t xml:space="preserve">6.75666236877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8798303604126</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97660493850708</t>
+    <t xml:space="preserve">6.9766058921814</t>
   </si>
   <si>
     <t xml:space="preserve">6.73466873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61149930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.523521900177</t>
+    <t xml:space="preserve">6.61149883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352237701416</t>
   </si>
   <si>
     <t xml:space="preserve">6.49712944030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79185247421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94141387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91502141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062259674072</t>
+    <t xml:space="preserve">6.7918529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94141435623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9150218963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062164306641</t>
   </si>
   <si>
     <t xml:space="preserve">6.91941976547241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80944728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630777359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469577789307</t>
+    <t xml:space="preserve">6.80944776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57630920410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43114614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469673156738</t>
   </si>
   <si>
     <t xml:space="preserve">6.73026895523071</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83144283294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381954193115</t>
+    <t xml:space="preserve">6.83144330978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381906509399</t>
   </si>
   <si>
     <t xml:space="preserve">7.03818988800049</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">7.00450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01343536376953</t>
+    <t xml:space="preserve">7.01343488693237</t>
   </si>
   <si>
     <t xml:space="preserve">6.9464282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29039907455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695373535156</t>
+    <t xml:space="preserve">6.9642972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40654563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2903995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695421218872</t>
   </si>
   <si>
     <t xml:space="preserve">7.50482320785522</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">7.32613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53609466552734</t>
+    <t xml:space="preserve">7.53609371185303</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
@@ -275,55 +275,55 @@
     <t xml:space="preserve">7.51375675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45121622085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10724544525146</t>
+    <t xml:space="preserve">7.45121669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10724639892578</t>
   </si>
   <si>
     <t xml:space="preserve">7.03577136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1742525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9330267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27253103256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178739547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72817850112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68350887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187267303467</t>
+    <t xml:space="preserve">7.17425346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2725305557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285146713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7281813621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682224273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.683509349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187410354614</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531944274902</t>
+    <t xml:space="preserve">7.16531896591187</t>
   </si>
   <si>
     <t xml:space="preserve">7.62096881866455</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">7.57629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49142169952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44228267669678</t>
+    <t xml:space="preserve">7.49142122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416675567627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61203527450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8615517616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688117980957</t>
+    <t xml:space="preserve">7.61203575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05364036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86155223846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688070297241</t>
   </si>
   <si>
     <t xml:space="preserve">7.07150840759277</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">7.33507108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101264953613</t>
+    <t xml:space="preserve">7.41101169586182</t>
   </si>
   <si>
     <t xml:space="preserve">7.53162574768066</t>
@@ -377,43 +377,43 @@
     <t xml:space="preserve">7.5852313041687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46015167236328</t>
+    <t xml:space="preserve">7.46015119552612</t>
   </si>
   <si>
     <t xml:space="preserve">7.52269077301025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23679351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461725234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3440055847168</t>
+    <t xml:space="preserve">7.23679399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207815170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400510787964</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785902023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323179244995</t>
+    <t xml:space="preserve">7.22785997390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323083877563</t>
   </si>
   <si>
     <t xml:space="preserve">7.01790285110474</t>
@@ -422,22 +422,22 @@
     <t xml:space="preserve">6.95089530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962480545044</t>
+    <t xml:space="preserve">7.02237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962432861328</t>
   </si>
   <si>
     <t xml:space="preserve">6.83474922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80794620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88835573196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540710449219</t>
+    <t xml:space="preserve">6.807945728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88835525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540567398071</t>
   </si>
   <si>
     <t xml:space="preserve">6.8794207572937</t>
@@ -452,58 +452,58 @@
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92409229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97769832611084</t>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9240927696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97769784927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003385543823</t>
+    <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04917192459106</t>
+    <t xml:space="preserve">7.04917240142822</t>
   </si>
   <si>
     <t xml:space="preserve">6.81241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966958999634</t>
+    <t xml:space="preserve">6.83921670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966911315918</t>
   </si>
   <si>
     <t xml:space="preserve">6.44163942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42823791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43717288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397495269775</t>
+    <t xml:space="preserve">6.42823839187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43717241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397590637207</t>
   </si>
   <si>
     <t xml:space="preserve">6.5399169921875</t>
@@ -512,28 +512,28 @@
     <t xml:space="preserve">6.53544950485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52204895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2986912727356</t>
+    <t xml:space="preserve">6.60245656967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
     <t xml:space="preserve">6.31655931472778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28082180023193</t>
+    <t xml:space="preserve">6.28082275390625</t>
   </si>
   <si>
     <t xml:space="preserve">6.70520162582397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70073509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10277891159058</t>
+    <t xml:space="preserve">6.70073461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10277795791626</t>
   </si>
   <si>
     <t xml:space="preserve">6.8526177406311</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">6.64266109466553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12064695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871999740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41547918319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25019454956055</t>
+    <t xml:space="preserve">7.12064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871952056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547870635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25019407272339</t>
   </si>
   <si>
     <t xml:space="preserve">7.1921215057373</t>
@@ -572,97 +572,97 @@
     <t xml:space="preserve">7.30826807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47801923751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54949474334717</t>
+    <t xml:space="preserve">7.47802019119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
     <t xml:space="preserve">7.20999002456665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33953809738159</t>
+    <t xml:space="preserve">7.33953714370728</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11171340942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29933404922485</t>
+    <t xml:space="preserve">7.11171293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2993335723877</t>
   </si>
   <si>
     <t xml:space="preserve">7.35740613937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49588871002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686750411987</t>
+    <t xml:space="preserve">7.49588775634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686655044556</t>
   </si>
   <si>
     <t xml:space="preserve">7.89793300628662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21063327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358142852783</t>
+    <t xml:space="preserve">8.21063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358333587646</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11299991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60821151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57694053649902</t>
+    <t xml:space="preserve">9.11299896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60820960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57693958282471</t>
   </si>
   <si>
     <t xml:space="preserve">8.33571434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00578594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628360748291</t>
+    <t xml:space="preserve">9.00578498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628456115723</t>
   </si>
   <si>
     <t xml:space="preserve">9.05939292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84496974945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6490592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3363561630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10406589508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90750980377197</t>
+    <t xml:space="preserve">8.844970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218086242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64905738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33635711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10406303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90751075744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898483276367</t>
+    <t xml:space="preserve">9.06832790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964176177979</t>
@@ -671,46 +671,46 @@
     <t xml:space="preserve">8.80029773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86283874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75562572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603668212891</t>
+    <t xml:space="preserve">8.86283779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603572845459</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365684509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168605804443</t>
+    <t xml:space="preserve">8.90304470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
     <t xml:space="preserve">9.51831245422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54550743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60896301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40953063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47298622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43672466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50924491882324</t>
+    <t xml:space="preserve">9.54550647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.608962059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40953159332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47298717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50924682617188</t>
   </si>
   <si>
     <t xml:space="preserve">9.3823356628418</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528654098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97156524658203</t>
+    <t xml:space="preserve">9.76307010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95343494415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9715633392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.8355884552002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65428638458252</t>
+    <t xml:space="preserve">9.65428829193115</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737617492676</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">9.44579124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59083271026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69961166381836</t>
+    <t xml:space="preserve">9.5908317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57270336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">9.86278438568115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5545711517334</t>
+    <t xml:space="preserve">9.55457210540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.63615798950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56363773345947</t>
+    <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
     <t xml:space="preserve">9.79026317596436</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24636077880859</t>
+    <t xml:space="preserve">9.24635982513428</t>
   </si>
   <si>
     <t xml:space="preserve">9.33701038360596</t>
@@ -794,34 +794,34 @@
     <t xml:space="preserve">9.53644275665283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67241764068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41859817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68148326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400447845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79932880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49111747741699</t>
+    <t xml:space="preserve">9.67241668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41859722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68148231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79932975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49111652374268</t>
   </si>
   <si>
     <t xml:space="preserve">9.34607696533203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35514068603516</t>
+    <t xml:space="preserve">9.35513973236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45485687255859</t>
+    <t xml:space="preserve">9.45485782623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.74493885040283</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">9.80839347839355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89904308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99875926971436</t>
+    <t xml:space="preserve">9.89904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46392059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99875831604004</t>
   </si>
   <si>
     <t xml:space="preserve">9.90810871124268</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">9.82652378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87184906005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7811975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103359222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16477489471436</t>
+    <t xml:space="preserve">9.87185001373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78119850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103454589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16477394104004</t>
   </si>
   <si>
     <t xml:space="preserve">9.400465965271</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">9.18290424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30981540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48205089569092</t>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5001802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48205184936523</t>
   </si>
   <si>
     <t xml:space="preserve">9.1557092666626</t>
@@ -893,28 +893,28 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1375789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440719604492</t>
+    <t xml:space="preserve">9.13757801055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440910339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440855026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418102264404</t>
+    <t xml:space="preserve">9.31888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440835952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061182022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418111801147</t>
   </si>
   <si>
     <t xml:space="preserve">10.6423778533936</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">10.7874202728271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0049810409546</t>
+    <t xml:space="preserve">11.0049819946289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8780708312988</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">10.805549621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511577606201</t>
+    <t xml:space="preserve">10.7511587142944</t>
   </si>
   <si>
     <t xml:space="preserve">10.624249458313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335988998413</t>
+    <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248170852661</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">10.2797775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465312957764</t>
+    <t xml:space="preserve">10.2253866195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465408325195</t>
   </si>
   <si>
     <t xml:space="preserve">9.71774291992188</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93530464172363</t>
+    <t xml:space="preserve">9.93530368804932</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891260147095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2979049682617</t>
+    <t xml:space="preserve">10.297905921936</t>
   </si>
   <si>
     <t xml:space="preserve">10.3704271316528</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3341665267944</t>
+    <t xml:space="preserve">10.3341674804688</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522968292236</t>
+    <t xml:space="preserve">10.3522958755493</t>
   </si>
   <si>
     <t xml:space="preserve">10.0078248977661</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76142501831055</t>
+    <t xml:space="preserve">9.76142406463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">9.96363735198975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94525337219238</t>
+    <t xml:space="preserve">10.2577667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9452543258667</t>
   </si>
   <si>
     <t xml:space="preserve">9.72465801239014</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3312997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4783639907837</t>
+    <t xml:space="preserve">10.3313007354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.478364944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.5151300430298</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173442840576</t>
+    <t xml:space="preserve">10.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.8827934265137</t>
@@ -1046,37 +1046,37 @@
     <t xml:space="preserve">10.6438121795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4967489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393856048584</t>
+    <t xml:space="preserve">10.4967470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393846511841</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.441596031189</t>
+    <t xml:space="preserve">10.6805782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415979385376</t>
   </si>
   <si>
     <t xml:space="preserve">9.81657314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65112495422363</t>
+    <t xml:space="preserve">9.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.50406074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48567867279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63274192810059</t>
+    <t xml:space="preserve">9.48567676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63274097442627</t>
   </si>
   <si>
     <t xml:space="preserve">10.2026176452637</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187864303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945337295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842355728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89010715484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92687225341797</t>
+    <t xml:space="preserve">10.0187873840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107015609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945346832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842336654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89010524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77980709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92687129974365</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371694564819</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">9.74304103851318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8717212677002</t>
+    <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
     <t xml:space="preserve">10.0004043579102</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">9.59597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52244186401367</t>
+    <t xml:space="preserve">9.52244281768799</t>
   </si>
   <si>
     <t xml:space="preserve">9.90848827362061</t>
@@ -1139,25 +1139,25 @@
     <t xml:space="preserve">9.57759284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70627403259277</t>
+    <t xml:space="preserve">9.70627498626709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68789100646973</t>
+    <t xml:space="preserve">9.68789196014404</t>
   </si>
   <si>
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18235492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44890975952148</t>
+    <t xml:space="preserve">9.18235683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4489107131958</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">9.79818916320801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.669508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3753776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831535339355</t>
+    <t xml:space="preserve">9.66950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831439971924</t>
   </si>
   <si>
     <t xml:space="preserve">10.459981918335</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0923185348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5702791213989</t>
+    <t xml:space="preserve">10.0923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5702800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474695205688</t>
+    <t xml:space="preserve">10.1474685668945</t>
   </si>
   <si>
     <t xml:space="preserve">10.2210006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3680648803711</t>
+    <t xml:space="preserve">10.3680658340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2761507034302</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">10.7724943161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8092613220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0298585891724</t>
+    <t xml:space="preserve">10.8092603683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1217727661133</t>
@@ -1229,16 +1229,16 @@
     <t xml:space="preserve">10.9747076034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664865493774</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224796295166</t>
+    <t xml:space="preserve">11.4224805831909</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238527297974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9185476303101</t>
+    <t xml:space="preserve">10.9185466766357</t>
   </si>
   <si>
     <t xml:space="preserve">10.9372110366821</t>
@@ -1265,37 +1265,37 @@
     <t xml:space="preserve">10.8252267837524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7692346572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7505693435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.881217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625535964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6572484970093</t>
+    <t xml:space="preserve">10.9558753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065614700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7692337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7505702972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8812189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625555038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.899884223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.657247543335</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4892702102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2093086242676</t>
+    <t xml:space="preserve">10.4892711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772850036621</t>
@@ -1304,37 +1304,37 @@
     <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3959503173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6012544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4332780838013</t>
+    <t xml:space="preserve">10.3959493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6012554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4332790374756</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279720306396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1719789505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0786590576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906442642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.022665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2653007507324</t>
+    <t xml:space="preserve">10.1719799041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0786581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0226669311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98533725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2652997970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.1533155441284</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">10.246636390686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79869556427002</t>
+    <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
     <t xml:space="preserve">10.11598777771</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071823120117</t>
+    <t xml:space="preserve">9.63071727752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53739738464355</t>
+    <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
     <t xml:space="preserve">9.44407558441162</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">9.78003120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89201736450195</t>
+    <t xml:space="preserve">9.89201641082764</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
@@ -1406,70 +1406,70 @@
     <t xml:space="preserve">10.0973224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96667385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602428436279</t>
+    <t xml:space="preserve">9.96667289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.66804599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265979766846</t>
+    <t xml:space="preserve">10.4146127700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265989303589</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.339958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
+    <t xml:space="preserve">10.3399562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51873207092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50006866455078</t>
+    <t xml:space="preserve">9.51873302459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50007057189941</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33209228515625</t>
+    <t xml:space="preserve">9.33209133148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.1454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19211006164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40674877166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36942005157471</t>
+    <t xml:space="preserve">9.19210910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40674781799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36941909790039</t>
   </si>
   <si>
     <t xml:space="preserve">9.35075569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27609825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31342601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57472515106201</t>
+    <t xml:space="preserve">9.27609920501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31342697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57472610473633</t>
   </si>
   <si>
     <t xml:space="preserve">9.10812091827393</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">8.9028148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.697509765625</t>
+    <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
     <t xml:space="preserve">8.6321849822998</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09092235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88561773300171</t>
+    <t xml:space="preserve">8.4082145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88561725616455</t>
   </si>
   <si>
     <t xml:space="preserve">8.02559852600098</t>
@@ -1514,31 +1514,31 @@
     <t xml:space="preserve">7.93227815628052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57765769958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6056547164917</t>
+    <t xml:space="preserve">7.57765817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
   </si>
   <si>
     <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84682273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079315185547</t>
+    <t xml:space="preserve">8.84682178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079410552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344570159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16411304473877</t>
+    <t xml:space="preserve">9.21077346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541313171387</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">9.12678527832031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29476356506348</t>
+    <t xml:space="preserve">9.29476261138916</t>
   </si>
   <si>
     <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2574348449707</t>
+    <t xml:space="preserve">9.25743389129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144176483154</t>
+    <t xml:space="preserve">9.20144271850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
@@ -1568,22 +1568,22 @@
     <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82815837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415145874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95880889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01479911804199</t>
+    <t xml:space="preserve">8.82815742492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415241241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95880794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01480007171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79083061218262</t>
+    <t xml:space="preserve">8.7908296585083</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018009185791</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78431415557861</t>
+    <t xml:space="preserve">9.73681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83180999755859</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">10.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1167898178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3067779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4492673873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3542728424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97429943084717</t>
+    <t xml:space="preserve">10.1167907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3067770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4492664337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3542737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867504119873</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">10.5917568206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.639253616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042058944702</t>
+    <t xml:space="preserve">10.6392545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.2567110061646</t>
@@ -1664,13 +1664,13 @@
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767366409302</t>
+    <t xml:space="preserve">10.8767375946045</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142206192017</t>
+    <t xml:space="preserve">11.1142196655273</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717302322388</t>
+    <t xml:space="preserve">10.9717292785645</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292398452759</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">10.7342472076416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6366844177246</t>
+    <t xml:space="preserve">11.6366834640503</t>
   </si>
   <si>
     <t xml:space="preserve">11.7316770553589</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216632843018</t>
+    <t xml:space="preserve">11.9216642379761</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">11.7791728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8266696929932</t>
+    <t xml:space="preserve">11.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816110610962</t>
+    <t xml:space="preserve">12.3966302871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0140867233276</t>
+    <t xml:space="preserve">13.014087677002</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
@@ -1730,19 +1730,19 @@
     <t xml:space="preserve">12.7766027450562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7291059494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.966588973999</t>
+    <t xml:space="preserve">12.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.919093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9665899276733</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2990674972534</t>
+    <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
     <t xml:space="preserve">13.5840473175049</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">13.8690271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7740345001221</t>
+    <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
     <t xml:space="preserve">13.6315431594849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9165229797363</t>
+    <t xml:space="preserve">13.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">14.0115165710449</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">14.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5814771652222</t>
+    <t xml:space="preserve">14.5814781188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8189601898193</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">15.0089473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664560317993</t>
+    <t xml:space="preserve">14.8664569854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.4839115142822</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2248611450195</t>
+    <t xml:space="preserve">16.2248630523682</t>
   </si>
   <si>
     <t xml:space="preserve">16.3388538360596</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768520355225</t>
+    <t xml:space="preserve">16.3768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">16.5288391113281</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">16.5478382110596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.566837310791</t>
+    <t xml:space="preserve">16.5668392181396</t>
   </si>
   <si>
     <t xml:space="preserve">16.6808280944824</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">16.4148483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728740692139</t>
+    <t xml:space="preserve">16.0728721618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348739624023</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">15.9588813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638887405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6738996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.654899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079179763794</t>
+    <t xml:space="preserve">16.1108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079189300537</t>
   </si>
   <si>
     <t xml:space="preserve">15.616904258728</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">15.293927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699216842651</t>
+    <t xml:space="preserve">15.3699226379395</t>
   </si>
   <si>
     <t xml:space="preserve">15.9208831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.128137588501</t>
+    <t xml:space="preserve">16.1281356811523</t>
   </si>
   <si>
     <t xml:space="preserve">16.1088924407959</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">15.7624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6277408599854</t>
+    <t xml:space="preserve">15.6277418136597</t>
   </si>
   <si>
     <t xml:space="preserve">15.935676574707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9549217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7432174682617</t>
+    <t xml:space="preserve">15.9549236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">15.6854782104492</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">15.8394451141357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9741678237915</t>
+    <t xml:space="preserve">15.9741697311401</t>
   </si>
   <si>
     <t xml:space="preserve">16.2628574371338</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168262481689</t>
+    <t xml:space="preserve">16.4168243408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">16.5900402069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6862716674805</t>
+    <t xml:space="preserve">16.6862697601318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7055168151855</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">17.128927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2828960418701</t>
+    <t xml:space="preserve">17.2828941345215</t>
   </si>
   <si>
     <t xml:space="preserve">17.6678161621094</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180126190186</t>
+    <t xml:space="preserve">17.9180145263672</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">17.4946022033691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4561100006104</t>
+    <t xml:space="preserve">17.4561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5138492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3983726501465</t>
+    <t xml:space="preserve">17.3983707427979</t>
   </si>
   <si>
     <t xml:space="preserve">17.3021430969238</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">17.8602733612061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0334873199463</t>
+    <t xml:space="preserve">18.0334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">18.0142421722412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1874561309814</t>
+    <t xml:space="preserve">18.1874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916233062744</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225746154785</t>
+    <t xml:space="preserve">18.8225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">18.976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6878547668457</t>
+    <t xml:space="preserve">18.6878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271366119385</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">19.6790218353271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0639400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1601734161377</t>
+    <t xml:space="preserve">20.0639419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1601715087891</t>
   </si>
   <si>
     <t xml:space="preserve">19.6309070587158</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">19.2940998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9380512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0719814300537</t>
+    <t xml:space="preserve">18.9380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0719833374023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7832908630371</t>
+    <t xml:space="preserve">17.7832927703857</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4184093475342</t>
+    <t xml:space="preserve">18.264440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4184074401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">19.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1497554779053</t>
+    <t xml:space="preserve">19.1497573852539</t>
   </si>
   <si>
     <t xml:space="preserve">19.0535259246826</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">19.1112651824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0727729797363</t>
+    <t xml:space="preserve">19.072774887085</t>
   </si>
   <si>
     <t xml:space="preserve">20.2082843780518</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">20.0158252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.593204498291</t>
+    <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
     <t xml:space="preserve">20.304515838623</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">19.4865627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4384460449219</t>
+    <t xml:space="preserve">19.4384479522705</t>
   </si>
   <si>
     <t xml:space="preserve">19.7752513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8233680725098</t>
+    <t xml:space="preserve">19.8233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">20.3526306152344</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">19.0150356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1882495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2067012786865</t>
+    <t xml:space="preserve">19.1882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2067031860352</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682109832764</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">18.3029327392578</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2259502410889</t>
+    <t xml:space="preserve">18.2259521484375</t>
   </si>
   <si>
     <t xml:space="preserve">18.2451934814453</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">17.764045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4176197052002</t>
+    <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.2059116363525</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4553203582764</t>
+    <t xml:space="preserve">16.4553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7440090179443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7825012207031</t>
+    <t xml:space="preserve">16.7825031280518</t>
   </si>
   <si>
     <t xml:space="preserve">15.4160356521606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.011869430542</t>
+    <t xml:space="preserve">15.0118703842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.6269502639771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5122661590576</t>
+    <t xml:space="preserve">15.5122671127319</t>
   </si>
   <si>
     <t xml:space="preserve">15.1273460388184</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">15.223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.820200920105</t>
+    <t xml:space="preserve">15.8202028274536</t>
   </si>
   <si>
     <t xml:space="preserve">15.2813138961792</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">16.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6670246124268</t>
+    <t xml:space="preserve">16.6670265197754</t>
   </si>
   <si>
     <t xml:space="preserve">16.647777557373</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">15.3582973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0503616333008</t>
+    <t xml:space="preserve">15.0503625869751</t>
   </si>
   <si>
     <t xml:space="preserve">14.9156398773193</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7817077636719</t>
+    <t xml:space="preserve">15.7817096710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.2436122894287</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">15.3775434494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2428216934204</t>
+    <t xml:space="preserve">15.2428207397461</t>
   </si>
   <si>
     <t xml:space="preserve">16.1513595581055</t>
@@ -60933,7 +60933,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="1" t="n">
-        <v>45530.6495601852</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B2202" t="n">
         <v>7306</v>
@@ -60954,6 +60954,32 @@
         <v>1117</v>
       </c>
       <c r="H2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>45531.6494675926</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>10777</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>35.4000015258789</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>35.8499984741211</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H2203" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21414518356323</t>
+    <t xml:space="preserve">7.21414422988892</t>
   </si>
   <si>
     <t xml:space="preserve">SOL.MI</t>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">7.25373363494873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22734069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220659255981</t>
+    <t xml:space="preserve">7.2273416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220754623413</t>
   </si>
   <si>
     <t xml:space="preserve">6.96780824661255</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01179647445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77865648269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68628072738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77425718307495</t>
+    <t xml:space="preserve">7.01179599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77865695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77425765991211</t>
   </si>
   <si>
     <t xml:space="preserve">6.35636520385742</t>
@@ -83,40 +83,40 @@
     <t xml:space="preserve">6.48833084106445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47073602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592660903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398897171021</t>
+    <t xml:space="preserve">6.47073650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398944854736</t>
   </si>
   <si>
     <t xml:space="preserve">6.22879791259766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51912260055542</t>
+    <t xml:space="preserve">6.51912307739258</t>
   </si>
   <si>
     <t xml:space="preserve">6.60710096359253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71267318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86223459243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78305578231812</t>
+    <t xml:space="preserve">6.43994331359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311178207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305530548096</t>
   </si>
   <si>
     <t xml:space="preserve">6.8534369468689</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9062237739563</t>
+    <t xml:space="preserve">6.90622329711914</t>
   </si>
   <si>
     <t xml:space="preserve">7.14376306533813</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">6.94581365585327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02939176559448</t>
+    <t xml:space="preserve">7.02939224243164</t>
   </si>
   <si>
     <t xml:space="preserve">7.15256023406982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79625177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89302682876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73906707763672</t>
+    <t xml:space="preserve">6.79625129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89302730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73906660079956</t>
   </si>
   <si>
     <t xml:space="preserve">6.63349342346191</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">6.69067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74786424636841</t>
+    <t xml:space="preserve">6.74786472320557</t>
   </si>
   <si>
     <t xml:space="preserve">6.84463930130005</t>
@@ -170,31 +170,31 @@
     <t xml:space="preserve">6.87103223800659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75666236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8798303604126</t>
+    <t xml:space="preserve">6.85783720016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75666189193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87983131408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.93701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9766058921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61149883270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49712944030762</t>
+    <t xml:space="preserve">6.97660493850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49712896347046</t>
   </si>
   <si>
     <t xml:space="preserve">6.7918529510498</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">6.94141435623169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9150218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91941976547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944776535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57630920410156</t>
+    <t xml:space="preserve">6.91502141952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91942024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8094482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
     <t xml:space="preserve">6.43114614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62469673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144330978394</t>
+    <t xml:space="preserve">6.62469577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144283294678</t>
   </si>
   <si>
     <t xml:space="preserve">6.92381906509399</t>
@@ -236,37 +236,37 @@
     <t xml:space="preserve">7.03818988800049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00450134277344</t>
+    <t xml:space="preserve">7.0045018196106</t>
   </si>
   <si>
     <t xml:space="preserve">7.01343488693237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9464282989502</t>
+    <t xml:space="preserve">6.94642877578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.9642972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40654563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2903995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695421218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334817886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609371185303</t>
+    <t xml:space="preserve">7.40654516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29039907455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48695373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334770202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609323501587</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
@@ -278,61 +278,61 @@
     <t xml:space="preserve">7.45121669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10724639892578</t>
+    <t xml:space="preserve">7.10724496841431</t>
   </si>
   <si>
     <t xml:space="preserve">7.03577136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17425346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93302726745605</t>
+    <t xml:space="preserve">7.17425298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93302631378174</t>
   </si>
   <si>
     <t xml:space="preserve">7.2725305557251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43781518936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7281813621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682224273682</t>
+    <t xml:space="preserve">7.43781423568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391649246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178644180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682319641113</t>
   </si>
   <si>
     <t xml:space="preserve">7.683509349823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36187410354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16531896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629680633545</t>
+    <t xml:space="preserve">7.36187362670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05810785293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16531944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096834182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974262237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629585266113</t>
   </si>
   <si>
     <t xml:space="preserve">7.49142122268677</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248624801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146457672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05364036560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86155223846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81688070297241</t>
+    <t xml:space="preserve">7.59416723251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61203527450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8615517616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81688117980957</t>
   </si>
   <si>
     <t xml:space="preserve">7.07150840759277</t>
@@ -368,49 +368,49 @@
     <t xml:space="preserve">7.33507108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41101169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53162574768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5852313041687</t>
+    <t xml:space="preserve">7.41101217269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53162527084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58523082733154</t>
   </si>
   <si>
     <t xml:space="preserve">7.46015119552612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52269077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23679399490356</t>
+    <t xml:space="preserve">7.52269220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23679304122925</t>
   </si>
   <si>
     <t xml:space="preserve">7.40207815170288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39761066436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34400510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31720161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22785997390747</t>
+    <t xml:space="preserve">7.39761114120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31720209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22785949707031</t>
   </si>
   <si>
     <t xml:space="preserve">7.09384441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94196081161499</t>
+    <t xml:space="preserve">6.94196128845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.97323083877563</t>
@@ -419,46 +419,46 @@
     <t xml:space="preserve">7.01790285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02237033843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91962432861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.807945728302</t>
+    <t xml:space="preserve">6.9508957862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02236938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91962575912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474969863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80794620513916</t>
   </si>
   <si>
     <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540567398071</t>
+    <t xml:space="preserve">6.74540615081787</t>
   </si>
   <si>
     <t xml:space="preserve">6.8794207572937</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96876382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044290542603</t>
+    <t xml:space="preserve">6.96876335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728927612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9240927696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98663234710693</t>
+    <t xml:space="preserve">6.89728879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98663282394409</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023838043213</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97769784927368</t>
+    <t xml:space="preserve">6.97769832611084</t>
   </si>
   <si>
     <t xml:space="preserve">6.98216581344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003433227539</t>
+    <t xml:space="preserve">7.00003385543823</t>
   </si>
   <si>
     <t xml:space="preserve">7.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04917240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241369247437</t>
+    <t xml:space="preserve">7.04917192459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241416931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.83921670913696</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">6.70966911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44163942337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823839187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41930341720581</t>
+    <t xml:space="preserve">6.4416389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4282374382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41930437088013</t>
   </si>
   <si>
     <t xml:space="preserve">6.43717241287231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46397590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5399169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53544950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60245656967163</t>
+    <t xml:space="preserve">6.46397542953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53991603851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53544998168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60245752334595</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
@@ -521,46 +521,46 @@
     <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31655931472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28082275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70520162582397</t>
+    <t xml:space="preserve">6.31655883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28082227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70520210266113</t>
   </si>
   <si>
     <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8526177406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76327514648438</t>
+    <t xml:space="preserve">7.10277891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85261821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76327419281006</t>
   </si>
   <si>
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12064647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17871952056885</t>
+    <t xml:space="preserve">6.71860313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17871999740601</t>
   </si>
   <si>
     <t xml:space="preserve">7.41547870635986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25019407272339</t>
+    <t xml:space="preserve">7.25019502639771</t>
   </si>
   <si>
     <t xml:space="preserve">7.1921215057373</t>
@@ -569,19 +569,19 @@
     <t xml:space="preserve">7.2591290473938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30826807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47802019119263</t>
+    <t xml:space="preserve">7.30826759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47801923751831</t>
   </si>
   <si>
     <t xml:space="preserve">7.54949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20999002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953714370728</t>
+    <t xml:space="preserve">7.20999050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.24126052856445</t>
@@ -590,55 +590,55 @@
     <t xml:space="preserve">7.11171293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2993335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740613937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588775634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793300628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358333587646</t>
+    <t xml:space="preserve">7.29933214187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588871002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358238220215</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11299896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57693958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578498840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628456115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.844970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95218086242676</t>
+    <t xml:space="preserve">9.11299991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60821056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57694149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33571338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628360748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84496784210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95218181610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.64905738830566</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">9.33635711669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93431186676025</t>
+    <t xml:space="preserve">9.10406398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.90751075744629</t>
@@ -659,43 +659,43 @@
     <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832790374756</t>
+    <t xml:space="preserve">9.06832695007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.97898387908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88964176177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80029773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83603572845459</t>
+    <t xml:space="preserve">8.88964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8002986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8628396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75562763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83603668212891</t>
   </si>
   <si>
     <t xml:space="preserve">9.18447303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29168510437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51831245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550647735596</t>
+    <t xml:space="preserve">8.90304183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365779876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2916841506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550743103027</t>
   </si>
   <si>
     <t xml:space="preserve">9.608962059021</t>
@@ -707,112 +707,112 @@
     <t xml:space="preserve">9.47298717498779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43672657012939</t>
+    <t xml:space="preserve">9.43672561645508</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3823356628418</t>
+    <t xml:space="preserve">9.38233661651611</t>
   </si>
   <si>
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76307010650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95343494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9715633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65428829193115</t>
+    <t xml:space="preserve">9.76306915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9534330368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65428733825684</t>
   </si>
   <si>
     <t xml:space="preserve">9.52737617492676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62709331512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42766094207764</t>
+    <t xml:space="preserve">9.6270923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.44579124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270336151123</t>
+    <t xml:space="preserve">9.59083271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615798950195</t>
+    <t xml:space="preserve">9.86278343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615608215332</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363677978516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39140033721924</t>
+    <t xml:space="preserve">9.79026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140129089355</t>
   </si>
   <si>
     <t xml:space="preserve">9.3642053604126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30075073242188</t>
+    <t xml:space="preserve">9.30074977874756</t>
   </si>
   <si>
     <t xml:space="preserve">9.24635982513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33701038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644275665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67241668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41859722137451</t>
+    <t xml:space="preserve">9.33701133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53644180297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67241764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4185962677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.68148231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75400257110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79932975769043</t>
+    <t xml:space="preserve">9.75400352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
     <t xml:space="preserve">9.49111652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34607696533203</t>
+    <t xml:space="preserve">9.34607601165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.35513973236084</t>
@@ -821,31 +821,31 @@
     <t xml:space="preserve">9.37327098846436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45485782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74493885040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091373443604</t>
+    <t xml:space="preserve">9.45485591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7449369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091278076172</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371875762939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80839347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46392059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99875831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90810871124268</t>
+    <t xml:space="preserve">9.80839443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4639196395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99876022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
     <t xml:space="preserve">9.82652378082275</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">9.87185001373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78119850158691</t>
+    <t xml:space="preserve">9.7811975479126</t>
   </si>
   <si>
     <t xml:space="preserve">9.20103454589844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16477394104004</t>
+    <t xml:space="preserve">9.16477489471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.400465965271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2735538482666</t>
+    <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.18290424346924</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">9.30981636047363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5001802444458</t>
+    <t xml:space="preserve">9.50018119812012</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205184936523</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335201263428</t>
+    <t xml:space="preserve">9.66335296630859</t>
   </si>
   <si>
     <t xml:space="preserve">9.77213287353516</t>
@@ -893,34 +893,34 @@
     <t xml:space="preserve">9.1738395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13757801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97440910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.191969871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8418111801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6423778533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7874202728271</t>
+    <t xml:space="preserve">9.13757991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97440814971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19197082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6423788070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7874193191528</t>
   </si>
   <si>
     <t xml:space="preserve">11.0049819946289</t>
@@ -932,79 +932,79 @@
     <t xml:space="preserve">10.805549621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7511587142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.624249458313</t>
+    <t xml:space="preserve">10.7511577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242485046387</t>
   </si>
   <si>
     <t xml:space="preserve">10.533597946167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2616472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797775268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253866195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774291992188</t>
+    <t xml:space="preserve">10.4248180389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797765731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253847122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774387359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.0984754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93530368804932</t>
+    <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
     <t xml:space="preserve">10.1891260147095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.297905921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160371780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3341674804688</t>
+    <t xml:space="preserve">10.2979049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3341665267944</t>
   </si>
   <si>
     <t xml:space="preserve">10.8599395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3522958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0078248977661</t>
+    <t xml:space="preserve">10.3522977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0078239440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76142406463623</t>
+    <t xml:space="preserve">9.76142311096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96363735198975</t>
+    <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.2577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9452543258667</t>
+    <t xml:space="preserve">9.94525527954102</t>
   </si>
   <si>
     <t xml:space="preserve">9.72465801239014</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333919525146</t>
+    <t xml:space="preserve">9.85334014892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.0555534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3313007354736</t>
+    <t xml:space="preserve">10.1658535003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3312997817993</t>
   </si>
   <si>
     <t xml:space="preserve">10.478364944458</t>
@@ -1031,25 +1031,25 @@
     <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9011754989624</t>
+    <t xml:space="preserve">10.9011745452881</t>
   </si>
   <si>
     <t xml:space="preserve">10.7908773422241</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7173452377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
+    <t xml:space="preserve">10.7173442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438121795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4967470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3129177093506</t>
+    <t xml:space="preserve">10.4967479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3129167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.2393846511841</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4415979385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406074523926</t>
+    <t xml:space="preserve">10.6805772781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415969848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81657218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112495422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50405979156494</t>
   </si>
   <si>
     <t xml:space="preserve">9.48567676544189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63274097442627</t>
+    <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
     <t xml:space="preserve">10.2026176452637</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">10.3496828079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187873840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1107015609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842336654663</t>
+    <t xml:space="preserve">10.0187864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1107034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945327758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842355728149</t>
   </si>
   <si>
     <t xml:space="preserve">9.89010524749756</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92687129974365</t>
+    <t xml:space="preserve">9.92687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.0371694564819</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">9.87172222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0004043579102</t>
+    <t xml:space="preserve">10.0004034042358</t>
   </si>
   <si>
     <t xml:space="preserve">9.54082679748535</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">9.59597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52244281768799</t>
+    <t xml:space="preserve">9.5224437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.90848827362061</t>
@@ -1139,49 +1139,49 @@
     <t xml:space="preserve">9.57759284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70627498626709</t>
+    <t xml:space="preserve">9.70627403259277</t>
   </si>
   <si>
     <t xml:space="preserve">10.0739364624023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68789196014404</t>
+    <t xml:space="preserve">9.68789005279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18235683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4489107131958</t>
+    <t xml:space="preserve">9.1823558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44890975952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.35699653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79818916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66950798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37537860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.459981918335</t>
+    <t xml:space="preserve">9.79819011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.669508934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599809646606</t>
   </si>
   <si>
     <t xml:space="preserve">9.41214561462402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0923194885254</t>
+    <t xml:space="preserve">10.0923185348511</t>
   </si>
   <si>
     <t xml:space="preserve">10.5702800750732</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048328399658</t>
+    <t xml:space="preserve">10.4048318862915</t>
   </si>
   <si>
     <t xml:space="preserve">10.3864498138428</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">10.1290855407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1474685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3680658340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2761507034302</t>
+    <t xml:space="preserve">10.1474676132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221001625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3680639266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2761516571045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724943161011</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">11.029857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1217727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9747076034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.993091583252</t>
+    <t xml:space="preserve">11.1217737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9747085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9930906295776</t>
   </si>
   <si>
     <t xml:space="preserve">10.8276424407959</t>
@@ -1238,55 +1238,55 @@
     <t xml:space="preserve">10.7541103363037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664865493774</t>
+    <t xml:space="preserve">11.3664884567261</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1985101699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3478231430054</t>
+    <t xml:space="preserve">11.1985111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3478240966797</t>
   </si>
   <si>
     <t xml:space="preserve">11.4224805831909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238527297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9372110366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8252267837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558753967285</t>
+    <t xml:space="preserve">11.1238536834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185476303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9372119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8252258300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558744430542</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065614700317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7692337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7505702972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.899884223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.657247543335</t>
+    <t xml:space="preserve">10.7692346572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7505693435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.881217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998832702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6572484970093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7132406234741</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2093076705933</t>
+    <t xml:space="preserve">10.2093067169189</t>
   </si>
   <si>
     <t xml:space="preserve">10.3772850036621</t>
@@ -1304,28 +1304,28 @@
     <t xml:space="preserve">10.35862159729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3959493637085</t>
+    <t xml:space="preserve">10.3959503173828</t>
   </si>
   <si>
     <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279720306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1719799041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0786581039429</t>
+    <t xml:space="preserve">10.433277130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279710769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1719789505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0786590576172</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906433105469</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0226669311523</t>
+    <t xml:space="preserve">10.0226650238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533725738525</t>
@@ -1346,19 +1346,19 @@
     <t xml:space="preserve">9.79869651794434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0040016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8546895980835</t>
+    <t xml:space="preserve">10.1159868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0040006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85468864440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.81736087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74270248413086</t>
+    <t xml:space="preserve">9.74270343780518</t>
   </si>
   <si>
     <t xml:space="preserve">9.76136779785156</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64938259124756</t>
+    <t xml:space="preserve">9.63071823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64938354492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44407558441162</t>
+    <t xml:space="preserve">9.44407653808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.61205387115479</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">9.78003120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89201641082764</t>
+    <t xml:space="preserve">9.89201831817627</t>
   </si>
   <si>
     <t xml:space="preserve">10.3212938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87335205078125</t>
+    <t xml:space="preserve">9.87335395812988</t>
   </si>
   <si>
     <t xml:space="preserve">9.9480094909668</t>
@@ -1406,40 +1406,40 @@
     <t xml:space="preserve">10.0973224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96667289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804599761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146127700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4706077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3399562835693</t>
+    <t xml:space="preserve">9.96667385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804695129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.470606803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3399572372437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3026285171509</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92934608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72403907775879</t>
+    <t xml:space="preserve">9.92934417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72404003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50007057189941</t>
+    <t xml:space="preserve">9.5000696182251</t>
   </si>
   <si>
     <t xml:space="preserve">9.48140525817871</t>
@@ -1454,19 +1454,19 @@
     <t xml:space="preserve">9.19210910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40674781799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36941909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35075569152832</t>
+    <t xml:space="preserve">9.40674686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36942005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35075664520264</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609920501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31342697143555</t>
+    <t xml:space="preserve">9.31342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.57472610473633</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">9.10812091827393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05212879180908</t>
+    <t xml:space="preserve">9.0521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">9.22010707855225</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43621158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4082145690918</t>
+    <t xml:space="preserve">8.63218593597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43621063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40821552276611</t>
   </si>
   <si>
     <t xml:space="preserve">8.09092330932617</t>
@@ -1505,73 +1505,73 @@
     <t xml:space="preserve">7.88561725616455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02559852600098</t>
+    <t xml:space="preserve">8.02559947967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.55899477005005</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227815628052</t>
+    <t xml:space="preserve">7.93227863311768</t>
   </si>
   <si>
     <t xml:space="preserve">7.57765817642212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60565376281738</t>
+    <t xml:space="preserve">7.60565423965454</t>
   </si>
   <si>
     <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84682178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07079410552979</t>
+    <t xml:space="preserve">8.84682273864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07079315185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1734447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16411399841309</t>
+    <t xml:space="preserve">9.21077251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17344570159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16411304473877</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12678527832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29476261138916</t>
+    <t xml:space="preserve">9.12678623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
     <t xml:space="preserve">9.47207260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25743389129639</t>
+    <t xml:space="preserve">9.2574348449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144271850586</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82815742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88415241241455</t>
+    <t xml:space="preserve">8.97747135162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82815933227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88415050506592</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">8.66018009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">9.73681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83180999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692939758301</t>
+    <t xml:space="preserve">9.78431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83181095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692930221558</t>
   </si>
   <si>
     <t xml:space="preserve">10.0217962265015</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">9.87930679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642866134644</t>
+    <t xml:space="preserve">10.1642875671387</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5442600250244</t>
+    <t xml:space="preserve">10.5442609786987</t>
   </si>
   <si>
     <t xml:space="preserve">10.2592802047729</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">10.2117834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1167907714844</t>
+    <t xml:space="preserve">10.1167898178101</t>
   </si>
   <si>
     <t xml:space="preserve">10.3067770004272</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2567110061646</t>
+    <t xml:space="preserve">11.2567100524902</t>
   </si>
   <si>
     <t xml:space="preserve">11.0667238235474</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">11.1617164611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8767375946045</t>
+    <t xml:space="preserve">10.8767366409302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9242334365845</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717292785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8292398452759</t>
+    <t xml:space="preserve">10.9717302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.7342472076416</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">11.6366834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7316770553589</t>
+    <t xml:space="preserve">11.7316780090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.8741664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9216642379761</t>
+    <t xml:space="preserve">11.9216632843018</t>
   </si>
   <si>
     <t xml:space="preserve">11.6841802597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7791728973389</t>
+    <t xml:space="preserve">11.7791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.8266706466675</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">12.1116504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3966302871704</t>
+    <t xml:space="preserve">12.3966293334961</t>
   </si>
   <si>
     <t xml:space="preserve">12.6816101074219</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">12.6341142654419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.014087677002</t>
+    <t xml:space="preserve">13.0140867233276</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715972900391</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">12.919093132019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9665899276733</t>
+    <t xml:space="preserve">12.9665908813477</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090793609619</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6315431594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9165239334106</t>
+    <t xml:space="preserve">13.6315441131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9165229797363</t>
   </si>
   <si>
     <t xml:space="preserve">14.0115165710449</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">14.1540069580078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2015037536621</t>
+    <t xml:space="preserve">14.2015027999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2964963912964</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">14.391489982605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.343994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5814781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8189601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4389867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5339794158936</t>
+    <t xml:space="preserve">14.3439931869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5814771652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8189611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4389877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5339803695679</t>
   </si>
   <si>
     <t xml:space="preserve">14.4864835739136</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">14.9614505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0089473724365</t>
+    <t xml:space="preserve">15.0089464187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664569854736</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">15.4839115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9113836288452</t>
+    <t xml:space="preserve">15.9113826751709</t>
   </si>
   <si>
     <t xml:space="preserve">16.1488666534424</t>
@@ -1835,118 +1835,118 @@
     <t xml:space="preserve">16.1868667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2248630523682</t>
+    <t xml:space="preserve">16.2248611450195</t>
   </si>
   <si>
     <t xml:space="preserve">16.3388538360596</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2628612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5288410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5478382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5668392181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6808280944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.034875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1108684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.673900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6549024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8448877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4079179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5599069595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.293927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1281356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277408599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9356746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9549226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.743218421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3967895507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8394460678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9741678237915</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.2628593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5288391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5478382110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5668392181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6808280944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1108703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.673900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6549034118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8448886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4079189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616904258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8258895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.293927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9208831787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1281356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277418136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9549236297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.743218421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8394451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9741697311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3975830078125</t>
+    <t xml:space="preserve">16.3975811004639</t>
   </si>
   <si>
     <t xml:space="preserve">16.3783340454102</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">16.1473827362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4168243408203</t>
+    <t xml:space="preserve">16.4168262481689</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590888977051</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">17.3213882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1096820831299</t>
+    <t xml:space="preserve">17.1096839904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.3791255950928</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">17.4753570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24440574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9942054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8979759216309</t>
+    <t xml:space="preserve">17.2444038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9942073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8979740142822</t>
   </si>
   <si>
     <t xml:space="preserve">17.128927230835</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">17.2828941345215</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6678161621094</t>
+    <t xml:space="preserve">17.667818069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.7063083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9180145263672</t>
+    <t xml:space="preserve">17.9180164337158</t>
   </si>
   <si>
     <t xml:space="preserve">17.8025379180908</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">17.8987674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6485710144043</t>
+    <t xml:space="preserve">17.6485691070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6293239593506</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">17.3021430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1674194335938</t>
+    <t xml:space="preserve">17.1674213409424</t>
   </si>
   <si>
     <t xml:space="preserve">17.6100769042969</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">17.9949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8602733612061</t>
+    <t xml:space="preserve">17.8602752685547</t>
   </si>
   <si>
     <t xml:space="preserve">18.0334892272949</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">18.668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8225727081299</t>
+    <t xml:space="preserve">18.8225746154785</t>
   </si>
   <si>
     <t xml:space="preserve">18.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263450622559</t>
+    <t xml:space="preserve">18.7263431549072</t>
   </si>
   <si>
     <t xml:space="preserve">18.880313873291</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">19.3903312683105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2940998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9380493164062</t>
+    <t xml:space="preserve">19.2941017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9380512237549</t>
   </si>
   <si>
     <t xml:space="preserve">18.0719833374023</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">18.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7832927703857</t>
+    <t xml:space="preserve">17.7832908630371</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.264440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4184074401855</t>
+    <t xml:space="preserve">18.2644424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4184093475342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1297187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3414249420166</t>
+    <t xml:space="preserve">18.341423034668</t>
   </si>
   <si>
     <t xml:space="preserve">19.169002532959</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">19.0535259246826</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1112651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.072774887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2082843780518</t>
+    <t xml:space="preserve">19.1112670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0727729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2082862854004</t>
   </si>
   <si>
     <t xml:space="preserve">20.4007472991943</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">20.5932064056396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.304515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4865627288818</t>
+    <t xml:space="preserve">20.3045139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4865608215332</t>
   </si>
   <si>
     <t xml:space="preserve">19.4384479522705</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">20.1120567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9195957183838</t>
+    <t xml:space="preserve">19.9195976257324</t>
   </si>
   <si>
     <t xml:space="preserve">19.0150356292725</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">18.3029327392578</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2259521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2451934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.764045715332</t>
+    <t xml:space="preserve">18.2259502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2451953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7640438079834</t>
   </si>
   <si>
     <t xml:space="preserve">17.4176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2059116363525</t>
+    <t xml:space="preserve">17.2059097290039</t>
   </si>
   <si>
     <t xml:space="preserve">16.4360733032227</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.6285343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9749584197998</t>
+    <t xml:space="preserve">16.9749603271484</t>
   </si>
   <si>
     <t xml:space="preserve">17.2251586914062</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">16.7825031280518</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4160356521606</t>
+    <t xml:space="preserve">15.416036605835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0118703842163</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">15.8202028274536</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2813138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0896434783936</t>
+    <t xml:space="preserve">15.2813129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0896453857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.2243690490723</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">16.7247619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.840238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6670265197754</t>
+    <t xml:space="preserve">16.8402366638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6670246124268</t>
   </si>
   <si>
     <t xml:space="preserve">16.647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8779382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0319061279297</t>
+    <t xml:space="preserve">15.8779392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0319080352783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6469869613647</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">15.108099937439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4737730026245</t>
+    <t xml:space="preserve">15.4737739562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3582973480225</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">16.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3775434494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2428207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1513595581055</t>
+    <t xml:space="preserve">15.3775424957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1513614654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466606140137</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">16.5029010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1904182434082</t>
+    <t xml:space="preserve">16.1904201507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880706787109</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">16.4247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6200828552246</t>
+    <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
     <t xml:space="preserve">16.9325618743896</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">16.0927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5068683624268</t>
+    <t xml:space="preserve">15.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">15.5849876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3115673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725067138672</t>
+    <t xml:space="preserve">15.3115682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725076675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4678077697754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7607574462891</t>
+    <t xml:space="preserve">15.7607583999634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0341796875</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">15.7998189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0146484375</t>
+    <t xml:space="preserve">16.0146503448486</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614910125732</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">16.5810203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8584079742432</t>
+    <t xml:space="preserve">15.8584089279175</t>
   </si>
   <si>
     <t xml:space="preserve">16.2099494934082</t>
@@ -2492,22 +2492,22 @@
     <t xml:space="preserve">16.8349113464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6591415405273</t>
+    <t xml:space="preserve">16.6591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">17.0692710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6942367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4989356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3622226715088</t>
+    <t xml:space="preserve">17.6942348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4989337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3622245788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4794044494629</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">17.2059841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9911518096924</t>
+    <t xml:space="preserve">16.991153717041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4012832641602</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">17.2645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2841033935547</t>
+    <t xml:space="preserve">16.8739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2841053009033</t>
   </si>
   <si>
     <t xml:space="preserve">17.0302124023438</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">16.639612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2685413360596</t>
+    <t xml:space="preserve">16.2685394287109</t>
   </si>
   <si>
     <t xml:space="preserve">16.1708889007568</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">15.6435785293579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3506278991699</t>
+    <t xml:space="preserve">15.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">15.4482774734497</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">15.7216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2920360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310976028442</t>
+    <t xml:space="preserve">15.2920370101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.2294807434082</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">15.9169979095459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8193492889404</t>
+    <t xml:space="preserve">15.8193483352661</t>
   </si>
   <si>
     <t xml:space="preserve">15.7021684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3271312713623</t>
+    <t xml:space="preserve">16.3271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.0106830596924</t>
@@ -2600,13 +2600,13 @@
     <t xml:space="preserve">17.9676551818848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3231620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6747055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5184650421143</t>
+    <t xml:space="preserve">17.3231639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6747035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5184631347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9050998687744</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">18.8269786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3387260437012</t>
+    <t xml:space="preserve">18.6512069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3387279510498</t>
   </si>
   <si>
     <t xml:space="preserve">17.9481239318848</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">18.3777866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4559059143066</t>
+    <t xml:space="preserve">18.4559078216553</t>
   </si>
   <si>
     <t xml:space="preserve">18.3191967010498</t>
@@ -2648,58 +2648,58 @@
     <t xml:space="preserve">18.182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238956451416</t>
+    <t xml:space="preserve">18.1434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0067157745361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7918853759766</t>
+    <t xml:space="preserve">17.8504772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7918834686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.8114147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.596586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.557523727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4208126068115</t>
+    <t xml:space="preserve">17.5965843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5575218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4208145141602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8700046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9871864318848</t>
+    <t xml:space="preserve">17.6356430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9871845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.7488594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9832191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9694862365723</t>
+    <t xml:space="preserve">19.1003971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9832172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694881439209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2136135101318</t>
@@ -2711,19 +2711,19 @@
     <t xml:space="preserve">19.7741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647853851318</t>
+    <t xml:space="preserve">20.1647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">20.0183124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2624359130859</t>
+    <t xml:space="preserve">20.2624378204346</t>
   </si>
   <si>
     <t xml:space="preserve">20.5553874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0671348571777</t>
+    <t xml:space="preserve">20.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.8230094909668</t>
@@ -2732,34 +2732,34 @@
     <t xml:space="preserve">20.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.36008644104</t>
+    <t xml:space="preserve">20.3600883483887</t>
   </si>
   <si>
     <t xml:space="preserve">20.6042137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6530380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4342403411865</t>
+    <t xml:space="preserve">20.653039932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4342422485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.3854160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6295394897461</t>
+    <t xml:space="preserve">21.6295413970947</t>
   </si>
   <si>
     <t xml:space="preserve">21.7760162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8736667633057</t>
+    <t xml:space="preserve">21.8736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.8248424530029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2642688751221</t>
+    <t xml:space="preserve">22.2642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4595699310303</t>
@@ -2771,10 +2771,10 @@
     <t xml:space="preserve">23.2407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">23.680196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5337238311768</t>
+    <t xml:space="preserve">23.6801986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5337219238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.9966449737549</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">22.9478206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.166618347168</t>
+    <t xml:space="preserve">22.1666202545166</t>
   </si>
   <si>
     <t xml:space="preserve">22.8989963531494</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">22.3619194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5083923339844</t>
+    <t xml:space="preserve">22.508394241333</t>
   </si>
   <si>
     <t xml:space="preserve">22.0201416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5572204589844</t>
+    <t xml:space="preserve">22.5572185516357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3130931854248</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">24.4125747680664</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3149242401123</t>
+    <t xml:space="preserve">24.3149261474609</t>
   </si>
   <si>
     <t xml:space="preserve">25.242603302002</t>
@@ -2852,13 +2852,13 @@
     <t xml:space="preserve">25.4379024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7796783447266</t>
+    <t xml:space="preserve">25.7796802520752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8773307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4144039154053</t>
+    <t xml:space="preserve">26.4144058227539</t>
   </si>
   <si>
     <t xml:space="preserve">26.7561817169189</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">25.9261531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8285045623779</t>
+    <t xml:space="preserve">25.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">25.5355529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1214542388916</t>
+    <t xml:space="preserve">26.1214561462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.6097068786621</t>
@@ -60959,7 +60959,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n">
-        <v>45531.6494675926</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B2203" t="n">
         <v>10777</v>
@@ -60980,6 +60980,32 @@
         <v>1098</v>
       </c>
       <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45532.6496412037</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>9448</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>36.0499992370605</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H2204" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SOL.MI.xlsx
+++ b/data/SOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1119">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,121 +44,121 @@
     <t xml:space="preserve">SOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20534658432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25373458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22734117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12616777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97220659255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96780824661255</t>
+    <t xml:space="preserve">7.20534706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25373363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2273416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12616729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97220706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96780776977539</t>
   </si>
   <si>
     <t xml:space="preserve">7.01179599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77865648269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.686279296875</t>
+    <t xml:space="preserve">6.77865695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68628025054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.77425765991211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35636520385742</t>
+    <t xml:space="preserve">6.35636472702026</t>
   </si>
   <si>
     <t xml:space="preserve">6.4223484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48833131790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47073602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50592660903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26398992538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22879791259766</t>
+    <t xml:space="preserve">6.48833179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47073554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50592756271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26398897171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22879886627197</t>
   </si>
   <si>
     <t xml:space="preserve">6.51912355422974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57190990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56311225891113</t>
+    <t xml:space="preserve">6.60710048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43994331359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57190942764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56311178207397</t>
   </si>
   <si>
     <t xml:space="preserve">6.71267414093018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8622350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7830548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85343742370605</t>
+    <t xml:space="preserve">6.86223459243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78305578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8534369468689</t>
   </si>
   <si>
     <t xml:space="preserve">7.07338047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9062237739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14376211166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94581317901611</t>
+    <t xml:space="preserve">6.90622329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14376306533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94581365585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15256071090698</t>
+    <t xml:space="preserve">7.15255975723267</t>
   </si>
   <si>
     <t xml:space="preserve">6.79625177383423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89302730560303</t>
+    <t xml:space="preserve">6.89302778244019</t>
   </si>
   <si>
     <t xml:space="preserve">6.73906660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63349294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69067859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74786472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84463977813721</t>
+    <t xml:space="preserve">6.63349390029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69067907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74786424636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84463930130005</t>
   </si>
   <si>
     <t xml:space="preserve">6.84024047851562</t>
@@ -167,37 +167,37 @@
     <t xml:space="preserve">6.87543153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87103271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783624649048</t>
+    <t xml:space="preserve">6.87103223800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783576965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.75666189193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8798303604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93701648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9766058921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73466825485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61150026321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52352237701416</t>
+    <t xml:space="preserve">6.87983083724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93701601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97660541534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73466777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61149930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52352285385132</t>
   </si>
   <si>
     <t xml:space="preserve">6.49712944030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79185247421265</t>
+    <t xml:space="preserve">6.79185342788696</t>
   </si>
   <si>
     <t xml:space="preserve">6.94141483306885</t>
@@ -209,70 +209,70 @@
     <t xml:space="preserve">6.91062259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91941928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80944871902466</t>
+    <t xml:space="preserve">6.91942071914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8094482421875</t>
   </si>
   <si>
     <t xml:space="preserve">6.5763087272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62469625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83144283294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92381858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03818941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00450134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01343536376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94642782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96429634094238</t>
+    <t xml:space="preserve">6.4311466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62469673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83144330978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92381954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03818988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0045018196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01343584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94642877578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96429681777954</t>
   </si>
   <si>
     <t xml:space="preserve">7.40654516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29039907455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48695421218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50482273101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43334770202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53609323501587</t>
+    <t xml:space="preserve">7.2903995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4869532585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43334865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53609371185303</t>
   </si>
   <si>
     <t xml:space="preserve">7.46908521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51375675201416</t>
+    <t xml:space="preserve">7.51375770568848</t>
   </si>
   <si>
     <t xml:space="preserve">7.45121669769287</t>
@@ -284,76 +284,76 @@
     <t xml:space="preserve">7.03577136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17425298690796</t>
+    <t xml:space="preserve">7.17425394058228</t>
   </si>
   <si>
     <t xml:space="preserve">6.93302631378174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27253150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43781518936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63883781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76391696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77285099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78178644180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72818040847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11682415008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68350791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36187267303467</t>
+    <t xml:space="preserve">7.27253103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43781471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63883686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76391649246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77285146713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78178691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72817945480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68350887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36187314987183</t>
   </si>
   <si>
     <t xml:space="preserve">7.05810689926147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62096834182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37974262237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57629680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49142169952393</t>
+    <t xml:space="preserve">7.16531896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62096881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57629585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49142074584961</t>
   </si>
   <si>
     <t xml:space="preserve">7.44228219985962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61203479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48248672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28146505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05363941192627</t>
+    <t xml:space="preserve">7.59416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48248624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28146457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05363988876343</t>
   </si>
   <si>
     <t xml:space="preserve">6.8615517616272</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">6.81688117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07150840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33507061004639</t>
+    <t xml:space="preserve">7.07150888442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33507108688354</t>
   </si>
   <si>
     <t xml:space="preserve">7.41101217269897</t>
@@ -374,136 +374,136 @@
     <t xml:space="preserve">7.53162574768066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58523082733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46015214920044</t>
+    <t xml:space="preserve">7.5852313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46015119552612</t>
   </si>
   <si>
     <t xml:space="preserve">7.52269124984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23679399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40207862854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39761066436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46461725234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37080812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3440055847168</t>
+    <t xml:space="preserve">7.23679351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40207767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39761018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46461820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37080860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34400510787964</t>
   </si>
   <si>
     <t xml:space="preserve">7.31720161437988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22785902023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94196176528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97323083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01790237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95089530944824</t>
+    <t xml:space="preserve">7.22785949707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09384489059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94196128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97323131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01790285110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9508957862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.02236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91962432861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83474922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80794668197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88835477828979</t>
+    <t xml:space="preserve">6.9196252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83474969863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80794620513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88835525512695</t>
   </si>
   <si>
     <t xml:space="preserve">6.74540662765503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8794207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96876335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08044290542603</t>
+    <t xml:space="preserve">6.87942028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96876382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08044338226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.95982933044434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89728879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92409181594849</t>
+    <t xml:space="preserve">6.89728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92409229278564</t>
   </si>
   <si>
     <t xml:space="preserve">6.98663282394409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06704044342041</t>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06704092025757</t>
   </si>
   <si>
     <t xml:space="preserve">6.97769832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98216581344604</t>
+    <t xml:space="preserve">6.98216533660889</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003433227539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13404846191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81241416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83921670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70966958999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44163990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42823791503906</t>
+    <t xml:space="preserve">7.13404941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83921718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70966863632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4416389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4282374382019</t>
   </si>
   <si>
     <t xml:space="preserve">6.41930389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43717193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46397495269775</t>
+    <t xml:space="preserve">6.43717241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46397542953491</t>
   </si>
   <si>
     <t xml:space="preserve">6.5399169921875</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">6.53544950485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60245609283447</t>
+    <t xml:space="preserve">6.60245704650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.52204847335815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2986912727356</t>
+    <t xml:space="preserve">6.29869079589844</t>
   </si>
   <si>
     <t xml:space="preserve">6.31655931472778</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">6.28082180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70520210266113</t>
+    <t xml:space="preserve">6.70520162582397</t>
   </si>
   <si>
     <t xml:space="preserve">6.70073461532593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85261821746826</t>
+    <t xml:space="preserve">7.10277795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8526177406311</t>
   </si>
   <si>
     <t xml:space="preserve">6.76327466964722</t>
@@ -545,43 +545,43 @@
     <t xml:space="preserve">6.76774168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71860313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64266157150269</t>
+    <t xml:space="preserve">6.71860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64266204833984</t>
   </si>
   <si>
     <t xml:space="preserve">7.12064647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17872047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4154806137085</t>
+    <t xml:space="preserve">7.17871999740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41547918319702</t>
   </si>
   <si>
     <t xml:space="preserve">7.25019454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1921215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2591290473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30826807022095</t>
+    <t xml:space="preserve">7.19212245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25912952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826759338379</t>
   </si>
   <si>
     <t xml:space="preserve">7.47801923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54949426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20999002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33953809738159</t>
+    <t xml:space="preserve">7.54949474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20999050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33953857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.24125957489014</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">7.11171340942383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2993335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35740613937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49588871002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89793157577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21063423156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35358333587646</t>
+    <t xml:space="preserve">7.29933309555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35740566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49588823318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90686702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89793252944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21063327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35358428955078</t>
   </si>
   <si>
     <t xml:space="preserve">8.39825439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11299991607666</t>
+    <t xml:space="preserve">9.11299800872803</t>
   </si>
   <si>
     <t xml:space="preserve">8.60821056365967</t>
@@ -623,19 +623,19 @@
     <t xml:space="preserve">8.57694149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00578689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66628360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05939292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84496974945068</t>
+    <t xml:space="preserve">8.33571243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00578594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66628170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84496784210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.95218181610107</t>
@@ -647,31 +647,31 @@
     <t xml:space="preserve">9.3363561630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10406494140625</t>
+    <t xml:space="preserve">9.10406589508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.93431282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90750980377197</t>
+    <t xml:space="preserve">8.90751171112061</t>
   </si>
   <si>
     <t xml:space="preserve">8.79136371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06832599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97898387908936</t>
+    <t xml:space="preserve">9.06832885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97898578643799</t>
   </si>
   <si>
     <t xml:space="preserve">8.88964080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80029773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86283779144287</t>
+    <t xml:space="preserve">8.8002986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.7556266784668</t>
@@ -683,31 +683,31 @@
     <t xml:space="preserve">9.18447303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90304279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02365589141846</t>
+    <t xml:space="preserve">8.90304374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02365684509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.29168510437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51831150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54550743103027</t>
+    <t xml:space="preserve">9.51831245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54550838470459</t>
   </si>
   <si>
     <t xml:space="preserve">9.60896301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40953159332275</t>
+    <t xml:space="preserve">9.40953063964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.47298622131348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43672561645508</t>
+    <t xml:space="preserve">9.43672657012939</t>
   </si>
   <si>
     <t xml:space="preserve">9.50924587249756</t>
@@ -719,145 +719,145 @@
     <t xml:space="preserve">9.64522266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76306915283203</t>
+    <t xml:space="preserve">9.76306819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.95343399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1528654098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9715633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8355884552002</t>
+    <t xml:space="preserve">10.6151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1528663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83558940887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.65428638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52737522125244</t>
+    <t xml:space="preserve">9.52737712860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.62709331512451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42766094207764</t>
+    <t xml:space="preserve">9.42765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.44579029083252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5908317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57270240783691</t>
+    <t xml:space="preserve">9.59083080291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5727014541626</t>
   </si>
   <si>
     <t xml:space="preserve">9.69961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86278438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55457210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63615798950195</t>
+    <t xml:space="preserve">9.86278343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63615703582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.56363773345947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79026317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39139842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3642053604126</t>
+    <t xml:space="preserve">9.79026508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39140129089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36420440673828</t>
   </si>
   <si>
     <t xml:space="preserve">9.30075073242188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24635887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33701133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53644275665283</t>
+    <t xml:space="preserve">9.24635982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33701229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5364408493042</t>
   </si>
   <si>
     <t xml:space="preserve">9.67241764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41859722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68148231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75400447845459</t>
+    <t xml:space="preserve">9.4185962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68148136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75400352478027</t>
   </si>
   <si>
     <t xml:space="preserve">9.79932880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49111843109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34607601165771</t>
+    <t xml:space="preserve">9.49111652374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">9.35514068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37327098846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45485591888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74493885040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88091373443604</t>
+    <t xml:space="preserve">9.37327194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45485782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7449369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88091468811035</t>
   </si>
   <si>
     <t xml:space="preserve">9.85371875762939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80839252471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904403686523</t>
+    <t xml:space="preserve">9.80839347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904499053955</t>
   </si>
   <si>
     <t xml:space="preserve">9.46392059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99875926971436</t>
+    <t xml:space="preserve">9.99876022338867</t>
   </si>
   <si>
     <t xml:space="preserve">9.90810966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82652473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87184810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78119945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20103549957275</t>
+    <t xml:space="preserve">9.82652187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87185096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7811975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20103359222412</t>
   </si>
   <si>
     <t xml:space="preserve">9.16477489471436</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">9.27355480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30981540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50018119812012</t>
+    <t xml:space="preserve">9.18290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5001802444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.48205184936523</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">9.1557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66335201263428</t>
+    <t xml:space="preserve">9.66335296630859</t>
   </si>
   <si>
     <t xml:space="preserve">9.77213287353516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17383861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1375789642334</t>
+    <t xml:space="preserve">9.1738395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13757801055908</t>
   </si>
   <si>
     <t xml:space="preserve">9.22823047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97440719604492</t>
+    <t xml:space="preserve">8.97440910339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.191969871521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0440855026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6061182022095</t>
+    <t xml:space="preserve">9.31888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0440864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6061191558838</t>
   </si>
   <si>
     <t xml:space="preserve">10.8418102264404</t>
@@ -923,58 +923,58 @@
     <t xml:space="preserve">10.7874202728271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0049819946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8780708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8055505752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7511596679688</t>
+    <t xml:space="preserve">11.0049829483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8780717849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.805549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7511606216431</t>
   </si>
   <si>
     <t xml:space="preserve">10.624249458313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.533597946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4248161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.261646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2253847122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71774196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0984764099121</t>
+    <t xml:space="preserve">10.5335969924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4248170852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2253856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84465217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71774291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0984745025635</t>
   </si>
   <si>
     <t xml:space="preserve">9.93530464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1891260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2979049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3160362243652</t>
+    <t xml:space="preserve">10.1891269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.297905921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3160371780396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3341674804688</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">10.0078239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76142597198486</t>
+    <t xml:space="preserve">9.98969459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76142311096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.83495616912842</t>
@@ -1001,49 +1001,49 @@
     <t xml:space="preserve">9.96363830566406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2577676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94525337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72465705871582</t>
+    <t xml:space="preserve">10.2577667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72465801239014</t>
   </si>
   <si>
     <t xml:space="preserve">9.5592098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85333824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0555534362793</t>
+    <t xml:space="preserve">9.85334014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0555543899536</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3313007354736</t>
+    <t xml:space="preserve">10.331298828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.4783639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5151290893555</t>
+    <t xml:space="preserve">10.5151300430298</t>
   </si>
   <si>
     <t xml:space="preserve">10.9011754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7908754348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7173433303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438121795654</t>
+    <t xml:space="preserve">10.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7173442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8827924728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
   </si>
   <si>
     <t xml:space="preserve">10.4967479705811</t>
@@ -1052,34 +1052,34 @@
     <t xml:space="preserve">10.3129177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393846511841</t>
+    <t xml:space="preserve">10.2393856048584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4232158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6805782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.441596031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81657314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65112495422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50406169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48567867279053</t>
+    <t xml:space="preserve">10.6805772781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4415969848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81657218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65112686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50406074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48567676544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.63274192810059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2026176452637</t>
+    <t xml:space="preserve">10.2026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496837615967</t>
@@ -1088,55 +1088,55 @@
     <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1107015609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2945337295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1842346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89010620117188</t>
+    <t xml:space="preserve">10.1107025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2945346832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1842355728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89010524749756</t>
   </si>
   <si>
     <t xml:space="preserve">9.77980709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0371704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98202037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7430419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8717212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0004043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54082679748535</t>
+    <t xml:space="preserve">9.92687129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0371694564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74304103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87172222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0004034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54082775115967</t>
   </si>
   <si>
     <t xml:space="preserve">9.28346347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52244186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90848827362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57759284973145</t>
+    <t xml:space="preserve">9.59597587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5224437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90848731994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57759189605713</t>
   </si>
   <si>
     <t xml:space="preserve">9.70627403259277</t>
@@ -1151,46 +1151,46 @@
     <t xml:space="preserve">9.19154739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1823558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46729469299316</t>
+    <t xml:space="preserve">9.18235683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.44890975952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35699558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79819011688232</t>
+    <t xml:space="preserve">9.35699653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818916320801</t>
   </si>
   <si>
     <t xml:space="preserve">9.669508934021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3753776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22831439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41214561462402</t>
+    <t xml:space="preserve">9.37537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22831344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5702800750732</t>
+    <t xml:space="preserve">10.5702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9379415512085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6621971130371</t>
+    <t xml:space="preserve">10.6621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048318862915</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">10.3680648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2761507034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724933624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8092613220215</t>
+    <t xml:space="preserve">10.2761516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724943161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8092594146729</t>
   </si>
   <si>
     <t xml:space="preserve">11.029857635498</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">11.1217727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9930906295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8276443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664875030518</t>
+    <t xml:space="preserve">10.9747085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8276433944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664884567261</t>
   </si>
   <si>
     <t xml:space="preserve">11.2358379364014</t>
@@ -1250,22 +1250,22 @@
     <t xml:space="preserve">11.3478231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4224796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238527297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9185466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9372119903564</t>
+    <t xml:space="preserve">11.4224805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238536834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9185476303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9372129440308</t>
   </si>
   <si>
     <t xml:space="preserve">10.8252267837524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558744430542</t>
+    <t xml:space="preserve">10.9558753967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065614700317</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">10.7505702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8625535964966</t>
+    <t xml:space="preserve">10.881217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8625545501709</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7132396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4892702102661</t>
+    <t xml:space="preserve">10.657247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7132406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4892711639404</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093076705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3772859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.35862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959503173828</t>
+    <t xml:space="preserve">10.3772850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3586225509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959493637085</t>
   </si>
   <si>
     <t xml:space="preserve">10.6012554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4332790374756</t>
+    <t xml:space="preserve">10.4332780838013</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279720306396</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">10.1906442642212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0226669311523</t>
+    <t xml:space="preserve">10.0226650238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.98533821105957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0599946975708</t>
+    <t xml:space="preserve">10.0599937438965</t>
   </si>
   <si>
     <t xml:space="preserve">10.2652997970581</t>
@@ -1352,37 +1352,37 @@
     <t xml:space="preserve">10.0040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85468864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81736183166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74270248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136589050293</t>
+    <t xml:space="preserve">9.85468769073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81735897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136779785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.55606174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63071918487549</t>
+    <t xml:space="preserve">9.63071727752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.64938259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53739738464355</t>
+    <t xml:space="preserve">9.53739833831787</t>
   </si>
   <si>
     <t xml:space="preserve">9.44407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61205387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68671035766602</t>
+    <t xml:space="preserve">9.6120548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68671226501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.7053747177124</t>
@@ -1406,31 +1406,31 @@
     <t xml:space="preserve">10.0973234176636</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9666748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83602333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66804599761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5265989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4706077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.339958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026285171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92934513092041</t>
+    <t xml:space="preserve">9.96667289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83602428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66804695129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146127700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5265998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.470606803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3399572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92934608459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.72404003143311</t>
@@ -1439,28 +1439,28 @@
     <t xml:space="preserve">9.51873302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50006866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48140525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33209133148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1454496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19211101531982</t>
+    <t xml:space="preserve">9.50007057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48140430450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33209037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14545059204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19211006164551</t>
   </si>
   <si>
     <t xml:space="preserve">9.40674781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36942005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.350754737854</t>
+    <t xml:space="preserve">9.36941909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35075664520264</t>
   </si>
   <si>
     <t xml:space="preserve">9.27609825134277</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">9.31342697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57472515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10812091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05212879180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22010803222656</t>
+    <t xml:space="preserve">9.57472610473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10812187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0521297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22010517120361</t>
   </si>
   <si>
     <t xml:space="preserve">9.04279613494873</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">8.69750881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63218402862549</t>
+    <t xml:space="preserve">8.6321849822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.43621158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40821552276611</t>
+    <t xml:space="preserve">8.40821361541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.09092330932617</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">7.55899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93227815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57765769958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60565423965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65231466293335</t>
+    <t xml:space="preserve">7.93227767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57765865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60565376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65231513977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.84682273864746</t>
@@ -1532,46 +1532,46 @@
     <t xml:space="preserve">9.24810314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21077442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17344665527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16411304473877</t>
+    <t xml:space="preserve">9.21077346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17344570159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16411399841309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42541217803955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12678527832031</t>
+    <t xml:space="preserve">9.12678623199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.29476356506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47207260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25743389129639</t>
+    <t xml:space="preserve">9.47207355499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2574348449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37875175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20144081115723</t>
+    <t xml:space="preserve">9.20144176483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.86548709869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97747135162354</t>
+    <t xml:space="preserve">8.97747230529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.82815837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88415050506592</t>
+    <t xml:space="preserve">8.88415145874023</t>
   </si>
   <si>
     <t xml:space="preserve">8.95880794525146</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">8.71617317199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7908296585083</t>
+    <t xml:space="preserve">8.79082870483398</t>
   </si>
   <si>
     <t xml:space="preserve">8.66018104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77216625213623</t>
+    <t xml:space="preserve">8.77216529846191</t>
   </si>
   <si>
     <t xml:space="preserve">9.54683017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73681640625</t>
+    <t xml:space="preserve">9.73681735992432</t>
   </si>
   <si>
     <t xml:space="preserve">9.78431415557861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83181095123291</t>
+    <t xml:space="preserve">9.83181190490723</t>
   </si>
   <si>
     <t xml:space="preserve">10.0692939758301</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">10.0217962265015</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87930679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1642866134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017705917358</t>
+    <t xml:space="preserve">9.87930583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1642875671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017696380615</t>
   </si>
   <si>
     <t xml:space="preserve">10.5442609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2592811584473</t>
+    <t xml:space="preserve">10.2592802047729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2117834091187</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">10.4492664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3542737960815</t>
+    <t xml:space="preserve">10.3542728424072</t>
   </si>
   <si>
     <t xml:space="preserve">9.97430038452148</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">10.6867504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5917558670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6392526626587</t>
+    <t xml:space="preserve">10.5917568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.639253616333</t>
   </si>
   <si>
     <t xml:space="preserve">11.3042058944702</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">10.9242334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1142206192017</t>
+    <t xml:space="preserve">11.1142196655273</t>
   </si>
   <si>
     <t xml:space="preserve">11.2092132568359</t>
@@ -1679,19 +1679,19 @@
     <t xml:space="preserve">11.0192270278931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9717311859131</t>
+    <t xml:space="preserve">10.9717302322388</t>
   </si>
   <si>
     <t xml:space="preserve">10.8292407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7342462539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6366834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7316770553589</t>
+    <t xml:space="preserve">10.7342472076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6366844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7316780090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.8741664886475</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">12.3966302871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816110610962</t>
+    <t xml:space="preserve">12.6816101074219</t>
   </si>
   <si>
     <t xml:space="preserve">12.6341142654419</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">13.0140857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8715963363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7766036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7291059494019</t>
+    <t xml:space="preserve">12.8715972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7766027450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7291069030762</t>
   </si>
   <si>
     <t xml:space="preserve">12.9190940856934</t>
@@ -1739,25 +1739,25 @@
     <t xml:space="preserve">12.9665899276733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1090803146362</t>
+    <t xml:space="preserve">13.1090793609619</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5840463638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9640207290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8690271377563</t>
+    <t xml:space="preserve">13.5840473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9640197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8690280914307</t>
   </si>
   <si>
     <t xml:space="preserve">13.7740335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6